--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Question1" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 1" sheetId="4" r:id="rId2"/>
     <sheet name="Question 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Question 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Question 3" sheetId="2" r:id="rId4"/>
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Student</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Iteration (I)</t>
   </si>
   <si>
-    <t>Max Error</t>
-  </si>
-  <si>
     <t>Question 1</t>
   </si>
   <si>
@@ -225,13 +222,88 @@
   </si>
   <si>
     <t>∫(2e^x + x^3)∙dx</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>[2e^x + (x^4)/4]</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Simpsons Rule Multiplier</t>
+  </si>
+  <si>
+    <t>Simpson Rule Value</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>[2e^1.6 + (1.6^4)/4]</t>
+  </si>
+  <si>
+    <t>∫f(x)∙dx</t>
+  </si>
+  <si>
+    <t>[2e^0 + (0^4)/4]</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Multiplied by h/3</t>
+  </si>
+  <si>
+    <t>From a</t>
+  </si>
+  <si>
+    <t>From b</t>
+  </si>
+  <si>
+    <t>From c</t>
+  </si>
+  <si>
+    <t>Delta a</t>
+  </si>
+  <si>
+    <t>Delta b</t>
+  </si>
+  <si>
+    <t>Delta h</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Trapezium 1</t>
+  </si>
+  <si>
+    <t>Trapezium 2</t>
+  </si>
+  <si>
+    <t>[Additional]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +336,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,14 +387,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="56">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1074,21 +1147,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1098,18 +1253,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1221,15 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1245,9 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1276,33 +1410,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,9 +1463,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1387,30 +1491,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1422,6 +1502,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,20 +1697,1067 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Triangle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 3'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 3'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3AB-406C-96B7-D615DFCD1EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trapezium 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 3'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 3'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3AB-406C-96B7-D615DFCD1EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trapezium 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Question 3'!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 3'!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3AB-406C-96B7-D615DFCD1EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599472840"/>
+        <c:axId val="599474808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599472840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599474808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599474808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599472840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>59121</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6570</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12737</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>604345</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>622851</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1467,8 +2772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9222828" y="1964122"/>
-          <a:ext cx="2988879" cy="1957550"/>
+          <a:off x="6241259" y="2683509"/>
+          <a:ext cx="6215783" cy="1900086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,7 +2812,123 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>e) Explain!</a:t>
+            <a:t>e) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53009</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13252</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8103704" y="735496"/>
+          <a:ext cx="3743739" cy="3796747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>e) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1782,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1830,100 +3251,100 @@
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="C13" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1933,12 +3354,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:R1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1950,918 +3369,918 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9.109375" style="18"/>
-    <col min="8" max="8" width="9.109375" style="18" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="7" width="9.109375" style="13"/>
+    <col min="8" max="8" width="9.109375" style="13" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O1" s="114" t="s">
+      <c r="O1" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="87"/>
+      <c r="R1" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="87"/>
+    </row>
+    <row r="2" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="114"/>
-      <c r="R1" s="114" t="s">
+      <c r="T2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="114"/>
-    </row>
-    <row r="2" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="70" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="25">
+      <c r="B3" s="20">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>1.75</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="22">
         <v>2.25</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="22">
         <f>SUM(D3,C3)/2</f>
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <f>SIN(E3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <f>((E3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="23">
         <f>G3-F3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="24">
         <v>0</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="25">
         <f>ABS(H3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="102">
         <v>0</v>
       </c>
-      <c r="O3" s="71">
+      <c r="O3" s="103">
         <v>2</v>
       </c>
-      <c r="P3" s="109">
+      <c r="P3" s="104">
         <f>POWER((4*SIN(O3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
       <c r="Q3" s="105">
         <v>0</v>
       </c>
-      <c r="R3" s="72">
+      <c r="R3" s="106">
         <v>2</v>
       </c>
-      <c r="S3" s="72">
+      <c r="S3" s="106">
         <f>SIN(R3)-((R3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="T3" s="73">
+      <c r="T3" s="107">
         <f>COS(R3)-(3*(R3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
+      <c r="B4" s="20">
         <f>B3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="26">
         <f>IF(H3&gt;0,C3,E3)</f>
         <v>1.75</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <f>IF(H3&gt;0,E3,D3)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="27">
         <f>SUM(D4,C4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="27">
         <f>SIN(E4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="27">
         <f t="shared" ref="G4:G6" si="0">((E4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="28">
         <f>G4-F4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="24">
         <v>1</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="29">
         <f t="shared" ref="L4:L8" si="1">ABS(H4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="102">
         <f>N3+1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="74">
+      <c r="O4" s="108">
         <f>P3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P4" s="110">
+      <c r="P4" s="109">
         <f t="shared" ref="P4:P8" si="2">POWER((4*SIN(O4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q4" s="106">
+      <c r="Q4" s="110">
         <f>Q3+1</f>
         <v>1</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="111">
         <f>R3-(S3/T3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="111">
         <f>SIN(R4)-((R4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="112">
         <f>COS(R4)-(3*(R4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="3">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <f t="shared" ref="C5:C6" si="4">IF(H4&gt;0,C4,E4)</f>
         <v>1.875</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <f t="shared" ref="D5:D6" si="5">IF(H4&gt;0,E4,D4)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <f t="shared" ref="E5:E6" si="6">SUM(D5,C5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <f t="shared" ref="F5:F17" si="7">SIN(E5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="28">
         <f t="shared" ref="H5:H6" si="8">G5-F5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="29">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="102">
         <f t="shared" ref="N5:N8" si="9">N4+1</f>
         <v>2</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="108">
         <f t="shared" ref="O5:O8" si="10">P4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="P5" s="110">
+      <c r="P5" s="109">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q5" s="106">
+      <c r="Q5" s="110">
         <f t="shared" ref="Q5:Q8" si="11">Q4+1</f>
         <v>2</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="111">
         <f>R4-(S4/T4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="111">
         <f t="shared" ref="S5:S8" si="12">SIN(R5)-((R5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="112">
         <f t="shared" ref="T5:T8" si="13">COS(R5)-(3*(R5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="26">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="27">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="27">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="27">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="28">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="29">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="102">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="108">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="P6" s="110">
+      <c r="P6" s="109">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q6" s="106">
+      <c r="Q6" s="110">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="111">
         <f>R5-(S5/T5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="111">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="112">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76">
+      <c r="B7" s="58">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="59">
         <f t="shared" ref="C7" si="14">IF(H6&gt;0,C6,E6)</f>
         <v>1.96875</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="60">
         <f t="shared" ref="D7" si="15">IF(H6&gt;0,E6,D6)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="60">
         <f t="shared" ref="E7" si="16">SUM(D7,C7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="60">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="60">
         <f t="shared" ref="G7" si="17">((E7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="61">
         <f t="shared" ref="H7" si="18">G7-F7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="K7" s="60">
+      <c r="I7" s="48"/>
+      <c r="K7" s="51">
         <v>4</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="52">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="102">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="O7" s="74">
+      <c r="O7" s="108">
         <f t="shared" si="10"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="P7" s="110">
+      <c r="P7" s="109">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q7" s="106">
+      <c r="Q7" s="110">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="R7" s="63">
+      <c r="R7" s="111">
         <f>R6-(S6/T6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S7" s="63">
+      <c r="S7" s="111">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="112">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="35">
+      <c r="B8" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <f t="shared" ref="C8:C16" si="19">IF(H7&gt;0,C7,E7)</f>
         <v>1.96875</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="32">
         <f t="shared" ref="D8:D16" si="20">IF(H7&gt;0,E7,D7)</f>
         <v>1.984375</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="32">
         <f t="shared" ref="E8:E16" si="21">SUM(D8,C8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="32">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="32">
         <f t="shared" ref="G8:G16" si="22">((E8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="33">
         <f t="shared" ref="H8:H15" si="23">G8-F8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="I8" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="39">
+      <c r="I8" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="34">
         <v>5</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="35">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="N8" s="68">
+      <c r="N8" s="113">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="114">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="P8" s="111">
+      <c r="P8" s="115">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="Q8" s="107">
+      <c r="Q8" s="116">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="117">
         <f>R7-(S7/T7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S8" s="65">
+      <c r="S8" s="117">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T8" s="66">
+      <c r="T8" s="118">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="80">
+      <c r="B9" s="62">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="63">
         <f t="shared" si="19"/>
         <v>1.96875</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="63">
         <f t="shared" si="20"/>
         <v>1.9765625</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="63">
         <f t="shared" si="21"/>
         <v>1.97265625</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="63">
         <f t="shared" si="7"/>
         <v>0.9203351130898344</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="63">
         <f t="shared" si="22"/>
         <v>0.91908515989780426</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="64">
         <f t="shared" si="23"/>
         <v>-1.2499531920301399E-3</v>
       </c>
-      <c r="I9" s="58" t="str">
+      <c r="I9" s="49" t="str">
         <f t="shared" ref="I9:I18" si="24">IF(ABS(H9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="K9" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="42">
+      <c r="K9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="37">
         <f>MAX(L3:L7)</f>
         <v>0.30613656285969382</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="39">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="39">
         <f t="shared" si="20"/>
         <v>1.9765625</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="39">
         <f t="shared" si="21"/>
         <v>1.974609375</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="39">
         <f t="shared" si="7"/>
         <v>0.9195694308900767</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="39">
         <f t="shared" si="22"/>
         <v>0.92479105852544308</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="40">
         <f t="shared" si="23"/>
         <v>5.2216276353663771E-3</v>
       </c>
-      <c r="I10" s="58" t="str">
+      <c r="I10" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="43">
+      <c r="B11" s="38">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="39">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="39">
         <f t="shared" si="20"/>
         <v>1.974609375</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="39">
         <f t="shared" si="21"/>
         <v>1.9736328125</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="39">
         <f t="shared" si="7"/>
         <v>0.9199527106575569</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="39">
         <f t="shared" si="22"/>
         <v>0.9219366975594312</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="40">
         <f t="shared" si="23"/>
         <v>1.9839869018742906E-3</v>
       </c>
-      <c r="I11" s="58" t="str">
+      <c r="I11" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="M11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="103" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="43">
+      <c r="B12" s="38">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="39">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="39">
         <f t="shared" si="20"/>
         <v>1.9736328125</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="39">
         <f t="shared" si="21"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="39">
         <f t="shared" si="7"/>
         <v>0.92014402156340858</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="39">
         <f t="shared" si="22"/>
         <v>0.9205105759028811</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="40">
         <f t="shared" si="23"/>
         <v>3.6655433947252458E-4</v>
       </c>
-      <c r="I12" s="58" t="str">
+      <c r="I12" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K12" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="86">
+      <c r="K12" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="68">
         <f>E8</f>
         <v>1.9765625</v>
       </c>
-      <c r="M12" s="95">
+      <c r="M12" s="76">
         <f>1.97303383-L12</f>
         <v>-3.5286699999999005E-3</v>
       </c>
-      <c r="N12" s="100">
+      <c r="N12" s="81">
         <v>1.75</v>
       </c>
-      <c r="O12" s="101">
+      <c r="O12" s="82">
         <f t="shared" ref="O12" si="25">1.97303383-N12</f>
         <v>0.2230338300000001</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="43">
+      <c r="B13" s="38">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="39">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="39">
         <f t="shared" si="20"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="39">
         <f t="shared" si="21"/>
         <v>1.972900390625</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="39">
         <f t="shared" si="7"/>
         <v>0.92023959475189843</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="39">
         <f t="shared" si="22"/>
         <v>0.91979777970482246</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="40">
         <f t="shared" si="23"/>
         <v>-4.4181504707596631E-4</v>
       </c>
-      <c r="I13" s="58" t="str">
+      <c r="I13" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K13" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="87">
+      <c r="K13" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="69">
         <f>O8</f>
         <v>1.9730326316310438</v>
       </c>
-      <c r="M13" s="96">
+      <c r="M13" s="77">
         <f t="shared" ref="M13:M14" si="26">1.97303383-L13</f>
         <v>1.1983689562899968E-6</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="79">
         <f>O4</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="O13" s="88">
+      <c r="O13" s="70">
         <f t="shared" ref="O13" si="27">1.97303383-N13</f>
         <v>3.736949905287501E-3</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43">
+      <c r="B14" s="38">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="39">
         <f t="shared" si="19"/>
         <v>1.972900390625</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="39">
         <f t="shared" si="20"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="39">
         <f t="shared" si="21"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="39">
         <f t="shared" si="7"/>
         <v>0.9201918150136168</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="39">
         <f t="shared" si="22"/>
         <v>0.92015415575360748</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="40">
         <f t="shared" si="23"/>
         <v>-3.7659260009315076E-5</v>
       </c>
-      <c r="I14" s="58" t="str">
+      <c r="I14" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K14" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="90">
+      <c r="K14" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="72">
         <f>R8</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="M14" s="97">
+      <c r="M14" s="78">
         <f t="shared" si="26"/>
         <v>-4.5671446624595546E-9</v>
       </c>
-      <c r="N14" s="99">
+      <c r="N14" s="80">
         <f>R4</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="O14" s="91">
+      <c r="O14" s="73">
         <f t="shared" ref="O14" si="28">1.97303383-N14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43">
+      <c r="B15" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="39">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="39">
         <f t="shared" si="20"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="39">
         <f t="shared" si="21"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="39">
         <f t="shared" si="7"/>
         <v>0.92016792000245906</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="39">
         <f t="shared" si="22"/>
         <v>0.92033236031551269</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="40">
         <f t="shared" si="23"/>
         <v>1.644403130536265E-4</v>
       </c>
-      <c r="I15" s="58" t="str">
+      <c r="I15" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="51">
+      <c r="B16" s="43">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="44">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="44">
         <f t="shared" si="20"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="44">
         <f t="shared" si="21"/>
         <v>1.973052978515625</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="44">
         <f t="shared" si="7"/>
         <v>0.92017986793653006</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="44">
         <f t="shared" si="22"/>
         <v>0.9202432566563985</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="45">
         <f>G16-F16</f>
         <v>6.3388719868440191E-5</v>
       </c>
-      <c r="I16" s="58" t="str">
+      <c r="I16" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="54">
+      <c r="B17" s="46">
         <f t="shared" ref="B17:B19" si="29">B16+1</f>
         <v>14</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="39">
         <f t="shared" ref="C17" si="30">IF(H16&gt;0,C16,E16)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="39">
         <f t="shared" ref="D17" si="31">IF(H16&gt;0,E16,D16)</f>
         <v>1.973052978515625</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="39">
         <f t="shared" ref="E17" si="32">SUM(D17,C17)/2</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="39">
         <f t="shared" si="7"/>
         <v>0.92018584158219718</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="39">
         <f t="shared" ref="G17" si="33">((E17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="40">
         <f t="shared" ref="H17" si="34">G17-F17</f>
         <v>1.2864278268076568E-5</v>
       </c>
-      <c r="I17" s="58" t="str">
+      <c r="I17" s="49" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55">
+      <c r="B18" s="47">
         <f t="shared" si="29"/>
         <v>15</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <f t="shared" ref="C18" si="35">IF(H17&gt;0,C17,E17)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <f t="shared" ref="D18" si="36">IF(H17&gt;0,E17,D17)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <f t="shared" ref="E18" si="37">SUM(D18,C18)/2</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <f t="shared" ref="F18" si="38">SIN(E18)</f>
         <v>0.92018882832468807</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="41">
         <f t="shared" ref="G18" si="39">((E18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="42">
         <f t="shared" ref="H18" si="40">G18-F18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
-      <c r="I18" s="59" t="str">
+      <c r="I18" s="50" t="str">
         <f t="shared" si="24"/>
         <v>More</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48">
+      <c r="B19" s="92">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="93">
         <f t="shared" ref="C19" si="41">IF(H18&gt;0,C18,E18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="93">
         <f t="shared" ref="D19" si="42">IF(H18&gt;0,E18,D18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="93">
         <f t="shared" ref="E19" si="43">SUM(D19,C19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="93">
         <f t="shared" ref="F19" si="44">SIN(E19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="93">
         <f t="shared" ref="G19" si="45">((E19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="94">
         <f t="shared" ref="H19" si="46">G19-F19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="I19" s="56" t="str">
+      <c r="I19" s="95" t="str">
         <f>IF(ABS(H19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
@@ -2902,48 +4321,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="147">
+        <v>2</v>
+      </c>
+      <c r="C5" s="147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="147">
+        <v>5</v>
+      </c>
+      <c r="C10" s="147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="147">
+        <v>5</v>
+      </c>
+      <c r="C15" s="147">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:S27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="113">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="86">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="112" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="113">
+      <c r="D1" s="86">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="86">
         <v>0</v>
       </c>
-    </row>
+      <c r="D3" s="86">
+        <v>0</v>
+      </c>
+      <c r="N3" s="124">
+        <f>F16</f>
+        <v>9.5445347916737688</v>
+      </c>
+      <c r="O3" s="124">
+        <f>L24</f>
+        <v>9.5444692358250851</v>
+      </c>
+      <c r="P3" s="124">
+        <f>F26</f>
+        <v>9.5444648487902306</v>
+      </c>
+      <c r="Q3" s="124">
+        <f>P3-N3</f>
+        <v>-6.9942883538232081E-5</v>
+      </c>
+      <c r="R3" s="124">
+        <f>P3-O3</f>
+        <v>-4.3870348545027582E-6</v>
+      </c>
+      <c r="S3" s="124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="127">
+        <v>0</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54">
+        <f>2*EXP(C6)+POWER(C6,3)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1</v>
+      </c>
+      <c r="F6" s="55">
+        <f>D6*E6</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="131">
+        <v>0</v>
+      </c>
+      <c r="I6" s="111">
+        <v>0</v>
+      </c>
+      <c r="J6" s="111">
+        <f>2*EXP(I6)+POWER(I6,3)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="111">
+        <v>1</v>
+      </c>
+      <c r="L6" s="112">
+        <f>J6*K6</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="127">
+        <f>B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="54">
+        <f>C6+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="54">
+        <f t="shared" ref="D7:D14" si="0">2*EXP(C7)+POWER(C7,3)</f>
+        <v>2.4508055163203397</v>
+      </c>
+      <c r="E7" s="54">
+        <v>4</v>
+      </c>
+      <c r="F7" s="55">
+        <f t="shared" ref="F7:F14" si="1">D7*E7</f>
+        <v>9.8032220652813589</v>
+      </c>
+      <c r="H7" s="131">
+        <f>H6+1</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="111">
+        <f>I6+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="111">
+        <f t="shared" ref="J7:J22" si="2">2*EXP(I7)+POWER(I7,3)</f>
+        <v>2.2113418361512953</v>
+      </c>
+      <c r="K7" s="111">
+        <v>4</v>
+      </c>
+      <c r="L7" s="112">
+        <f t="shared" ref="L7:L22" si="3">J7*K7</f>
+        <v>8.8453673446051813</v>
+      </c>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="127">
+        <f t="shared" ref="B8:B14" si="4">B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="54">
+        <f t="shared" ref="C8:C14" si="5">C7+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="54">
+        <f t="shared" si="0"/>
+        <v>3.0476493952825408</v>
+      </c>
+      <c r="E8" s="54">
+        <v>2</v>
+      </c>
+      <c r="F8" s="55">
+        <f t="shared" si="1"/>
+        <v>6.0952987905650815</v>
+      </c>
+      <c r="H8" s="131">
+        <f t="shared" ref="H8:H22" si="6">H7+1</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="111">
+        <f t="shared" ref="I8:I22" si="7">I7+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="111">
+        <f t="shared" si="2"/>
+        <v>2.4508055163203397</v>
+      </c>
+      <c r="K8" s="111">
+        <v>2</v>
+      </c>
+      <c r="L8" s="112">
+        <f t="shared" si="3"/>
+        <v>4.9016110326406794</v>
+      </c>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="127">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="54">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" si="0"/>
+        <v>3.8602376007810184</v>
+      </c>
+      <c r="E9" s="54">
+        <v>4</v>
+      </c>
+      <c r="F9" s="55">
+        <f t="shared" si="1"/>
+        <v>15.440950403124074</v>
+      </c>
+      <c r="H9" s="131">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="111">
+        <f t="shared" si="7"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J9" s="111">
+        <f t="shared" si="2"/>
+        <v>2.7267176151520065</v>
+      </c>
+      <c r="K9" s="111">
+        <v>4</v>
+      </c>
+      <c r="L9" s="112">
+        <f t="shared" si="3"/>
+        <v>10.906870460608026</v>
+      </c>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="127">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="54">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="54">
+        <f>2*EXP(C10)+POWER(C10,3)</f>
+        <v>4.9630818569849362</v>
+      </c>
+      <c r="E10" s="54">
+        <v>2</v>
+      </c>
+      <c r="F10" s="55">
+        <f t="shared" si="1"/>
+        <v>9.9261637139698724</v>
+      </c>
+      <c r="H10" s="131">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="111">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="111">
+        <f t="shared" si="2"/>
+        <v>3.0476493952825408</v>
+      </c>
+      <c r="K10" s="111">
+        <v>2</v>
+      </c>
+      <c r="L10" s="112">
+        <f t="shared" si="3"/>
+        <v>6.0952987905650815</v>
+      </c>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="127">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="54">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="0"/>
+        <v>6.4365636569180902</v>
+      </c>
+      <c r="E11" s="54">
+        <v>4</v>
+      </c>
+      <c r="F11" s="55">
+        <f t="shared" si="1"/>
+        <v>25.746254627672361</v>
+      </c>
+      <c r="H11" s="131">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="111">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="111">
+        <f t="shared" si="2"/>
+        <v>3.4224425414002564</v>
+      </c>
+      <c r="K11" s="111">
+        <v>4</v>
+      </c>
+      <c r="L11" s="112">
+        <f t="shared" si="3"/>
+        <v>13.689770165601026</v>
+      </c>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="127">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="54">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="0"/>
+        <v>8.3682338454730942</v>
+      </c>
+      <c r="E12" s="54">
+        <v>2</v>
+      </c>
+      <c r="F12" s="55">
+        <f t="shared" si="1"/>
+        <v>16.736467690946188</v>
+      </c>
+      <c r="H12" s="131">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="111">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="111">
+        <f t="shared" si="2"/>
+        <v>3.860237600781018</v>
+      </c>
+      <c r="K12" s="111">
+        <v>2</v>
+      </c>
+      <c r="L12" s="112">
+        <f t="shared" si="3"/>
+        <v>7.7204752015620359</v>
+      </c>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="127">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="54">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="0"/>
+        <v>10.854399933689349</v>
+      </c>
+      <c r="E13" s="54">
+        <v>4</v>
+      </c>
+      <c r="F13" s="55">
+        <f t="shared" si="1"/>
+        <v>43.417599734757395</v>
+      </c>
+      <c r="H13" s="131">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="111">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="111">
+        <f t="shared" si="2"/>
+        <v>4.3705054149409532</v>
+      </c>
+      <c r="K13" s="111">
+        <v>4</v>
+      </c>
+      <c r="L13" s="112">
+        <f t="shared" si="3"/>
+        <v>17.482021659763813</v>
+      </c>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+    </row>
+    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="128">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="56">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="D14" s="56">
+        <f t="shared" si="0"/>
+        <v>14.002064848790226</v>
+      </c>
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="57">
+        <f t="shared" si="1"/>
+        <v>14.002064848790226</v>
+      </c>
+      <c r="H14" s="131">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="111">
+        <f t="shared" si="7"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="J14" s="111">
+        <f t="shared" si="2"/>
+        <v>4.9630818569849344</v>
+      </c>
+      <c r="K14" s="111">
+        <v>2</v>
+      </c>
+      <c r="L14" s="112">
+        <f t="shared" si="3"/>
+        <v>9.9261637139698689</v>
+      </c>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="126">
+        <f>SUM(F6:F14)</f>
+        <v>143.16802187510655</v>
+      </c>
+      <c r="H15" s="131">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="111">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="J15" s="111">
+        <f t="shared" si="2"/>
+        <v>5.6482062223138989</v>
+      </c>
+      <c r="K15" s="111">
+        <v>4</v>
+      </c>
+      <c r="L15" s="112">
+        <f t="shared" si="3"/>
+        <v>22.592824889255596</v>
+      </c>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+    </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="57">
+        <f>F15*(0.2/3)</f>
+        <v>9.5445347916737688</v>
+      </c>
+      <c r="H16" s="131">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="111">
+        <f t="shared" si="7"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J16" s="111">
+        <f t="shared" si="2"/>
+        <v>6.4365636569180902</v>
+      </c>
+      <c r="K16" s="111">
+        <v>2</v>
+      </c>
+      <c r="L16" s="112">
+        <f t="shared" si="3"/>
+        <v>12.87312731383618</v>
+      </c>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="131">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="111">
+        <f t="shared" si="7"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="J17" s="111">
+        <f t="shared" si="2"/>
+        <v>7.3393320478928645</v>
+      </c>
+      <c r="K17" s="111">
+        <v>4</v>
+      </c>
+      <c r="L17" s="112">
+        <f t="shared" si="3"/>
+        <v>29.357328191571458</v>
+      </c>
+      <c r="N17" s="124"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+    </row>
+    <row r="18" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="133">
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135">
+        <v>1.6</v>
+      </c>
+      <c r="H18" s="131">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I18" s="111">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="111">
+        <f t="shared" si="2"/>
+        <v>8.3682338454730942</v>
+      </c>
+      <c r="K18" s="111">
+        <v>2</v>
+      </c>
+      <c r="L18" s="112">
+        <f t="shared" si="3"/>
+        <v>16.736467690946188</v>
+      </c>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="131">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="111">
+        <f>I18+0.1</f>
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="111">
+        <f t="shared" si="2"/>
+        <v>9.5355933352384898</v>
+      </c>
+      <c r="K19" s="111">
+        <v>4</v>
+      </c>
+      <c r="L19" s="112">
+        <f t="shared" si="3"/>
+        <v>38.142373340953959</v>
+      </c>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="139">
+        <v>0</v>
+      </c>
+      <c r="C20" s="137"/>
+      <c r="D20" s="140">
+        <v>0</v>
+      </c>
+      <c r="H20" s="131">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="111">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J20" s="111">
+        <f t="shared" si="2"/>
+        <v>10.854399933689351</v>
+      </c>
+      <c r="K20" s="111">
+        <v>2</v>
+      </c>
+      <c r="L20" s="112">
+        <f t="shared" si="3"/>
+        <v>21.708799867378701</v>
+      </c>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="141"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
+      <c r="H21" s="131">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I21" s="111">
+        <f t="shared" si="7"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="J21" s="111">
+        <f t="shared" si="2"/>
+        <v>12.338378140676133</v>
+      </c>
+      <c r="K21" s="111">
+        <v>4</v>
+      </c>
+      <c r="L21" s="112">
+        <f t="shared" si="3"/>
+        <v>49.35351256270453</v>
+      </c>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="132">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="117">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="J22" s="117">
+        <f t="shared" si="2"/>
+        <v>14.002064848790235</v>
+      </c>
+      <c r="K22" s="117">
+        <v>1</v>
+      </c>
+      <c r="L22" s="118">
+        <f t="shared" si="3"/>
+        <v>14.002064848790235</v>
+      </c>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+    </row>
+    <row r="23" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="141">
+        <v>1.6</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="138">
+        <f>2*EXP(B23)+POWER(B23,4)/4</f>
+        <v>11.544464848790231</v>
+      </c>
+      <c r="K23" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="130">
+        <f>SUM(L6:L22)</f>
+        <v>286.33407707475254</v>
+      </c>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+    </row>
+    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="141">
+        <v>0</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="138">
+        <f>2*EXP(B24)+POWER(B24,4)/4</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="118">
+        <f>L23*(0.1/3)</f>
+        <v>9.5444692358250851</v>
+      </c>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="141"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="143">
+        <f>D23</f>
+        <v>11.544464848790231</v>
+      </c>
+      <c r="C26" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="144">
+        <f>D24</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="146">
+        <f>B26-D26</f>
+        <v>9.5444648487902306</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Student</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>[Additional]</t>
+  </si>
+  <si>
+    <t>= -0.457083x^2 + 1.93825x - 1.48117</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1239,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1499,9 +1502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1679,7 +1679,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3203,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3268,16 +3273,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="119" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -3285,24 +3290,24 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="95" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="120" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="74" t="s">
@@ -3311,7 +3316,7 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="95" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3319,7 +3324,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3337,10 +3342,10 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="121" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="12"/>
@@ -3370,7 +3375,7 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,14 +3388,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="R1" s="87" t="s">
+      <c r="P1" s="146"/>
+      <c r="R1" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="87"/>
+      <c r="S1" s="146"/>
     </row>
     <row r="2" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
@@ -3420,25 +3425,25 @@
       <c r="L2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="99" t="s">
+      <c r="P2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="S2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="100" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3475,27 +3480,27 @@
         <f>ABS(H3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="N3" s="102">
+      <c r="N3" s="101">
         <v>0</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="102">
         <v>2</v>
       </c>
-      <c r="P3" s="104">
+      <c r="P3" s="103">
         <f>POWER((4*SIN(O3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q3" s="105">
+      <c r="Q3" s="104">
         <v>0</v>
       </c>
-      <c r="R3" s="106">
+      <c r="R3" s="105">
         <v>2</v>
       </c>
-      <c r="S3" s="106">
+      <c r="S3" s="105">
         <f>SIN(R3)-((R3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="T3" s="107">
+      <c r="T3" s="106">
         <f>COS(R3)-(3*(R3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
@@ -3536,31 +3541,31 @@
         <f t="shared" ref="L4:L8" si="1">ABS(H4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="N4" s="102">
+      <c r="N4" s="101">
         <f>N3+1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="108">
+      <c r="O4" s="107">
         <f>P3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P4" s="109">
+      <c r="P4" s="108">
         <f t="shared" ref="P4:P8" si="2">POWER((4*SIN(O4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q4" s="110">
+      <c r="Q4" s="109">
         <f>Q3+1</f>
         <v>1</v>
       </c>
-      <c r="R4" s="111">
+      <c r="R4" s="110">
         <f>R3-(S3/T3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="S4" s="111">
+      <c r="S4" s="110">
         <f>SIN(R4)-((R4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="T4" s="112">
+      <c r="T4" s="111">
         <f>COS(R4)-(3*(R4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
@@ -3601,31 +3606,31 @@
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="N5" s="102">
+      <c r="N5" s="101">
         <f t="shared" ref="N5:N8" si="9">N4+1</f>
         <v>2</v>
       </c>
-      <c r="O5" s="108">
+      <c r="O5" s="107">
         <f t="shared" ref="O5:O8" si="10">P4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="P5" s="109">
+      <c r="P5" s="108">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q5" s="110">
+      <c r="Q5" s="109">
         <f t="shared" ref="Q5:Q8" si="11">Q4+1</f>
         <v>2</v>
       </c>
-      <c r="R5" s="111">
+      <c r="R5" s="110">
         <f>R4-(S4/T4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="S5" s="111">
+      <c r="S5" s="110">
         <f t="shared" ref="S5:S8" si="12">SIN(R5)-((R5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="T5" s="112">
+      <c r="T5" s="111">
         <f t="shared" ref="T5:T8" si="13">COS(R5)-(3*(R5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
@@ -3666,31 +3671,31 @@
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="N6" s="102">
+      <c r="N6" s="101">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="O6" s="108">
+      <c r="O6" s="107">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="P6" s="109">
+      <c r="P6" s="108">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="109">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="R6" s="111">
+      <c r="R6" s="110">
         <f>R5-(S5/T5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="S6" s="111">
+      <c r="S6" s="110">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="T6" s="112">
+      <c r="T6" s="111">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
@@ -3732,31 +3737,31 @@
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="101">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="O7" s="108">
+      <c r="O7" s="107">
         <f t="shared" si="10"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="P7" s="109">
+      <c r="P7" s="108">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q7" s="110">
+      <c r="Q7" s="109">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="R7" s="111">
+      <c r="R7" s="110">
         <f>R6-(S6/T6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S7" s="111">
+      <c r="S7" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T7" s="112">
+      <c r="T7" s="111">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
@@ -3800,31 +3805,31 @@
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="N8" s="113">
+      <c r="N8" s="112">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="O8" s="114">
+      <c r="O8" s="113">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="P8" s="115">
+      <c r="P8" s="114">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="Q8" s="116">
+      <c r="Q8" s="115">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="R8" s="117">
+      <c r="R8" s="116">
         <f>R7-(S7/T7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S8" s="117">
+      <c r="S8" s="116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T8" s="118">
+      <c r="T8" s="117">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
@@ -4252,35 +4257,35 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="92">
+      <c r="B19" s="91">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="92">
         <f t="shared" ref="C19" si="41">IF(H18&gt;0,C18,E18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="92">
         <f t="shared" ref="D19" si="42">IF(H18&gt;0,E18,D18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="92">
         <f t="shared" ref="E19" si="43">SUM(D19,C19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="F19" s="93">
+      <c r="F19" s="92">
         <f t="shared" ref="F19" si="44">SIN(E19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="92">
         <f t="shared" ref="G19" si="45">((E19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="93">
         <f t="shared" ref="H19" si="46">G19-F19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="I19" s="95" t="str">
+      <c r="I19" s="94" t="str">
         <f>IF(ABS(H19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
@@ -4322,151 +4327,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="147"/>
+      <c r="B1" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="147" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="147">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="147">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147">
+        <v>2</v>
+      </c>
+      <c r="C3" s="147">
+        <v>8</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="147"/>
+      <c r="B4" s="147">
+        <v>5</v>
+      </c>
+      <c r="C4" s="147">
+        <v>6</v>
+      </c>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="147">
+      <c r="B5" s="148">
         <v>2</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="148">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="147">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="147">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="147"/>
+      <c r="B7" s="147">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="147">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
+      <c r="B8" s="147">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="147">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
+      <c r="B9" s="147">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="147">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="147">
+      <c r="B10" s="148">
         <v>5</v>
       </c>
-      <c r="C10" s="147">
+      <c r="C10" s="148">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="147">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="147">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="147">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="147">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="147"/>
+      <c r="B13" s="147">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="147">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="147"/>
+      <c r="B14" s="147">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="147">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="147" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="147">
+      <c r="B15" s="148">
         <v>5</v>
       </c>
-      <c r="C15" s="147">
+      <c r="C15" s="148">
         <v>6</v>
       </c>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="147"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4479,7 +4749,7 @@
   <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F24" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4505,22 +4775,22 @@
       <c r="D2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="O2" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="124" t="s">
+      <c r="P2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="124" t="s">
+      <c r="Q2" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="124" t="s">
+      <c r="R2" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="124" t="s">
+      <c r="S2" s="123" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4531,78 +4801,78 @@
       <c r="D3" s="86">
         <v>0</v>
       </c>
-      <c r="N3" s="124">
+      <c r="N3" s="123">
         <f>F16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="O3" s="124">
+      <c r="O3" s="123">
         <f>L24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="P3" s="124">
+      <c r="P3" s="123">
         <f>F26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="Q3" s="124">
+      <c r="Q3" s="123">
         <f>P3-N3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="123">
         <f>P3-O3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="S3" s="124">
+      <c r="S3" s="123">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="130" t="s">
+      <c r="L5" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="127">
+      <c r="B6" s="126">
         <v>0</v>
       </c>
       <c r="C6" s="54">
@@ -4619,32 +4889,32 @@
         <f>D6*E6</f>
         <v>2</v>
       </c>
-      <c r="H6" s="131">
+      <c r="H6" s="130">
         <v>0</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="110">
         <v>0</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="110">
         <f>2*EXP(I6)+POWER(I6,3)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="110">
         <v>1</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="111">
         <f>J6*K6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="127">
+      <c r="B7" s="126">
         <f>B6+1</f>
         <v>1</v>
       </c>
@@ -4663,34 +4933,34 @@
         <f t="shared" ref="F7:F14" si="1">D7*E7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="130">
         <f>H6+1</f>
         <v>1</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="110">
         <f>I6+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="110">
         <f t="shared" ref="J7:J22" si="2">2*EXP(I7)+POWER(I7,3)</f>
         <v>2.2113418361512953</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="110">
         <v>4</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="111">
         <f t="shared" ref="L7:L22" si="3">J7*K7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="127">
+      <c r="B8" s="126">
         <f t="shared" ref="B8:B14" si="4">B7+1</f>
         <v>2</v>
       </c>
@@ -4709,34 +4979,34 @@
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="130">
         <f t="shared" ref="H8:H22" si="6">H7+1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="110">
         <f t="shared" ref="I8:I22" si="7">I7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="110">
         <f t="shared" si="2"/>
         <v>2.4508055163203397</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="110">
         <v>2</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="111">
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="127">
+      <c r="B9" s="126">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -4755,34 +5025,34 @@
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="130">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="110">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="110">
         <f t="shared" si="2"/>
         <v>2.7267176151520065</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="110">
         <v>4</v>
       </c>
-      <c r="L9" s="112">
+      <c r="L9" s="111">
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="127">
+      <c r="B10" s="126">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4801,34 +5071,34 @@
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="130">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="110">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="110">
         <f t="shared" si="2"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="110">
         <v>2</v>
       </c>
-      <c r="L10" s="112">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="127">
+      <c r="B11" s="126">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -4847,34 +5117,34 @@
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="130">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="110">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="110">
         <f t="shared" si="2"/>
         <v>3.4224425414002564</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="110">
         <v>4</v>
       </c>
-      <c r="L11" s="112">
+      <c r="L11" s="111">
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="127">
+      <c r="B12" s="126">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -4893,34 +5163,34 @@
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="130">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="110">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="110">
         <f t="shared" si="2"/>
         <v>3.860237600781018</v>
       </c>
-      <c r="K12" s="111">
+      <c r="K12" s="110">
         <v>2</v>
       </c>
-      <c r="L12" s="112">
+      <c r="L12" s="111">
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="127">
+      <c r="B13" s="126">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -4939,34 +5209,34 @@
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="130">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="110">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="110">
         <f t="shared" si="2"/>
         <v>4.3705054149409532</v>
       </c>
-      <c r="K13" s="111">
+      <c r="K13" s="110">
         <v>4</v>
       </c>
-      <c r="L13" s="112">
+      <c r="L13" s="111">
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
     </row>
     <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="128">
+      <c r="B14" s="127">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -4985,368 +5255,368 @@
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="130">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="110">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="110">
         <f t="shared" si="2"/>
         <v>4.9630818569849344</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="110">
         <v>2</v>
       </c>
-      <c r="L14" s="112">
+      <c r="L14" s="111">
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
     </row>
     <row r="15" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="126">
+      <c r="F15" s="125">
         <f>SUM(F6:F14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="130">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="110">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="110">
         <f t="shared" si="2"/>
         <v>5.6482062223138989</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="110">
         <v>4</v>
       </c>
-      <c r="L15" s="112">
+      <c r="L15" s="111">
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="127" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="57">
         <f>F15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="130">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="110">
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="110">
         <f t="shared" si="2"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="K16" s="111">
+      <c r="K16" s="110">
         <v>2</v>
       </c>
-      <c r="L16" s="112">
+      <c r="L16" s="111">
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
     </row>
     <row r="17" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="131">
+      <c r="H17" s="130">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="110">
         <f t="shared" si="7"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="110">
         <f t="shared" si="2"/>
         <v>7.3393320478928645</v>
       </c>
-      <c r="K17" s="111">
+      <c r="K17" s="110">
         <v>4</v>
       </c>
-      <c r="L17" s="112">
+      <c r="L17" s="111">
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
     </row>
     <row r="18" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="133">
+      <c r="B18" s="132">
         <v>1.6</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135">
+      <c r="C18" s="133"/>
+      <c r="D18" s="134">
         <v>1.6</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="130">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="110">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="J18" s="111">
+      <c r="J18" s="110">
         <f t="shared" si="2"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="K18" s="111">
+      <c r="K18" s="110">
         <v>2</v>
       </c>
-      <c r="L18" s="112">
+      <c r="L18" s="111">
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="131">
+      <c r="H19" s="130">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="110">
         <f>I18+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="J19" s="111">
+      <c r="J19" s="110">
         <f t="shared" si="2"/>
         <v>9.5355933352384898</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="110">
         <v>4</v>
       </c>
-      <c r="L19" s="112">
+      <c r="L19" s="111">
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="139">
+      <c r="B20" s="138">
         <v>0</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="140">
+      <c r="C20" s="136"/>
+      <c r="D20" s="139">
         <v>0</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="130">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="I20" s="111">
+      <c r="I20" s="110">
         <f t="shared" si="7"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="J20" s="111">
+      <c r="J20" s="110">
         <f t="shared" si="2"/>
         <v>10.854399933689351</v>
       </c>
-      <c r="K20" s="111">
+      <c r="K20" s="110">
         <v>2</v>
       </c>
-      <c r="L20" s="112">
+      <c r="L20" s="111">
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="124"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="141"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="138"/>
-      <c r="H21" s="131">
+      <c r="B21" s="140"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="H21" s="130">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="I21" s="111">
+      <c r="I21" s="110">
         <f t="shared" si="7"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="J21" s="111">
+      <c r="J21" s="110">
         <f t="shared" si="2"/>
         <v>12.338378140676133</v>
       </c>
-      <c r="K21" s="111">
+      <c r="K21" s="110">
         <v>4</v>
       </c>
-      <c r="L21" s="112">
+      <c r="L21" s="111">
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
     </row>
     <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="132">
+      <c r="H22" s="131">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I22" s="117">
+      <c r="I22" s="116">
         <f t="shared" si="7"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="J22" s="117">
+      <c r="J22" s="116">
         <f t="shared" si="2"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="K22" s="117">
+      <c r="K22" s="116">
         <v>1</v>
       </c>
-      <c r="L22" s="118">
+      <c r="L22" s="117">
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
     </row>
     <row r="23" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="141">
+      <c r="B23" s="140">
         <v>1.6</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="137">
         <f>2*EXP(B23)+POWER(B23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="K23" s="97" t="s">
+      <c r="K23" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="130">
+      <c r="L23" s="129">
         <f>SUM(L6:L22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
     </row>
     <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="141">
+      <c r="B24" s="140">
         <v>0</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="138">
+      <c r="D24" s="137">
         <f>2*EXP(B24)+POWER(B24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="K24" s="132" t="s">
+      <c r="K24" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="118">
+      <c r="L24" s="117">
         <f>L23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
     </row>
     <row r="25" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="141"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
     </row>
     <row r="26" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="143">
+      <c r="B26" s="142">
         <f>D23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="143">
         <f>D24</f>
         <v>2</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="146">
+      <c r="F26" s="145">
         <f>B26-D26</f>
         <v>9.5444648487902306</v>
       </c>
@@ -5361,14 +5631,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-0.22309999999999999</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.33650000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="149" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oliver\Documents\GitHub\MathsCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHere\MathsCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1679,12 +1679,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,6 +2120,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2151,6 +2152,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2158,7 +2160,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3205,19 +3206,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3249,13 +3250,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>9</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
         <v>10</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="89" t="s">
         <v>11</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>24</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="122" t="s">
         <v>25</v>
@@ -3351,7 +3352,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3359,45 +3360,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.109375" style="13"/>
-    <col min="8" max="8" width="9.109375" style="13" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="9.140625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O1" s="146" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="R1" s="146" t="s">
+      <c r="P1" s="149"/>
+      <c r="R1" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="146"/>
-    </row>
-    <row r="2" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="149"/>
+    </row>
+    <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="20">
         <v>0</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="20">
         <f>B3+1</f>
         <v>1</v>
@@ -3570,7 +3571,7 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <f t="shared" ref="B5:B16" si="3">B4+1</f>
         <v>2</v>
@@ -3635,7 +3636,7 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3700,21 +3701,21 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="58">
-        <f t="shared" si="3"/>
+        <f>B6+1</f>
         <v>4</v>
       </c>
       <c r="C7" s="59">
-        <f t="shared" ref="C7" si="14">IF(H6&gt;0,C6,E6)</f>
+        <f>IF(H6&gt;0,C6,E6)</f>
         <v>1.96875</v>
       </c>
       <c r="D7" s="60">
-        <f t="shared" ref="D7" si="15">IF(H6&gt;0,E6,D6)</f>
+        <f>IF(H6&gt;0,E6,D6)</f>
         <v>2</v>
       </c>
       <c r="E7" s="60">
-        <f t="shared" ref="E7" si="16">SUM(D7,C7)/2</f>
+        <f t="shared" ref="E7" si="14">SUM(D7,C7)/2</f>
         <v>1.984375</v>
       </c>
       <c r="F7" s="60">
@@ -3722,11 +3723,11 @@
         <v>0.91568846060812537</v>
       </c>
       <c r="G7" s="60">
-        <f t="shared" ref="G7" si="17">((E7^3)/4)-1</f>
+        <f t="shared" ref="G7" si="15">((E7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
       <c r="H7" s="61">
-        <f t="shared" ref="H7" si="18">G7-F7</f>
+        <f t="shared" ref="H7" si="16">G7-F7</f>
         <v>3.7801796655058229E-2</v>
       </c>
       <c r="I7" s="48"/>
@@ -3738,11 +3739,11 @@
         <v>3.7801796655058229E-2</v>
       </c>
       <c r="N7" s="101">
-        <f t="shared" si="9"/>
+        <f>N6+1</f>
         <v>4</v>
       </c>
       <c r="O7" s="107">
-        <f t="shared" si="10"/>
+        <f>P6</f>
         <v>1.9730428059710325</v>
       </c>
       <c r="P7" s="108">
@@ -3750,7 +3751,7 @@
         <v>1.9730326316310438</v>
       </c>
       <c r="Q7" s="109">
-        <f t="shared" si="11"/>
+        <f>Q6+1</f>
         <v>4</v>
       </c>
       <c r="R7" s="110">
@@ -3766,21 +3767,21 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C8" s="31">
-        <f t="shared" ref="C8:C16" si="19">IF(H7&gt;0,C7,E7)</f>
+        <f t="shared" ref="C8:C16" si="17">IF(H7&gt;0,C7,E7)</f>
         <v>1.96875</v>
       </c>
       <c r="D8" s="32">
-        <f t="shared" ref="D8:D16" si="20">IF(H7&gt;0,E7,D7)</f>
+        <f t="shared" ref="D8:D16" si="18">IF(H7&gt;0,E7,D7)</f>
         <v>1.984375</v>
       </c>
       <c r="E8" s="32">
-        <f t="shared" ref="E8:E16" si="21">SUM(D8,C8)/2</f>
+        <f t="shared" ref="E8:E16" si="19">SUM(D8,C8)/2</f>
         <v>1.9765625</v>
       </c>
       <c r="F8" s="32">
@@ -3788,11 +3789,11 @@
         <v>0.91880024081244061</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" ref="G8:G16" si="22">((E8^3)/4)-1</f>
+        <f t="shared" ref="G8:G16" si="20">((E8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
       <c r="H8" s="33">
-        <f t="shared" ref="H8:H15" si="23">G8-F8</f>
+        <f t="shared" ref="H8:H15" si="21">G8-F8</f>
         <v>1.1708015146116524E-2</v>
       </c>
       <c r="I8" s="49" t="s">
@@ -3834,21 +3835,21 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C9" s="63">
+        <f t="shared" si="17"/>
+        <v>1.96875</v>
+      </c>
+      <c r="D9" s="63">
+        <f t="shared" si="18"/>
+        <v>1.9765625</v>
+      </c>
+      <c r="E9" s="63">
         <f t="shared" si="19"/>
-        <v>1.96875</v>
-      </c>
-      <c r="D9" s="63">
-        <f t="shared" si="20"/>
-        <v>1.9765625</v>
-      </c>
-      <c r="E9" s="63">
-        <f t="shared" si="21"/>
         <v>1.97265625</v>
       </c>
       <c r="F9" s="63">
@@ -3856,15 +3857,15 @@
         <v>0.9203351130898344</v>
       </c>
       <c r="G9" s="63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.91908515989780426</v>
       </c>
       <c r="H9" s="64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-1.2499531920301399E-3</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f t="shared" ref="I9:I18" si="24">IF(ABS(H9)&lt;0.000001,"Less","More")</f>
+        <f t="shared" ref="I9:I18" si="22">IF(ABS(H9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
       <c r="K9" s="36" t="s">
@@ -3875,21 +3876,21 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C10" s="39">
+        <f t="shared" si="17"/>
+        <v>1.97265625</v>
+      </c>
+      <c r="D10" s="39">
+        <f t="shared" si="18"/>
+        <v>1.9765625</v>
+      </c>
+      <c r="E10" s="39">
         <f t="shared" si="19"/>
-        <v>1.97265625</v>
-      </c>
-      <c r="D10" s="39">
-        <f t="shared" si="20"/>
-        <v>1.9765625</v>
-      </c>
-      <c r="E10" s="39">
-        <f t="shared" si="21"/>
         <v>1.974609375</v>
       </c>
       <c r="F10" s="39">
@@ -3897,34 +3898,34 @@
         <v>0.9195694308900767</v>
       </c>
       <c r="G10" s="39">
+        <f t="shared" si="20"/>
+        <v>0.92479105852544308</v>
+      </c>
+      <c r="H10" s="40">
+        <f t="shared" si="21"/>
+        <v>5.2216276353663771E-3</v>
+      </c>
+      <c r="I10" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.92479105852544308</v>
-      </c>
-      <c r="H10" s="40">
-        <f t="shared" si="23"/>
-        <v>5.2216276353663771E-3</v>
-      </c>
-      <c r="I10" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="2:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C11" s="39">
+        <f t="shared" si="17"/>
+        <v>1.97265625</v>
+      </c>
+      <c r="D11" s="39">
+        <f t="shared" si="18"/>
+        <v>1.974609375</v>
+      </c>
+      <c r="E11" s="39">
         <f t="shared" si="19"/>
-        <v>1.97265625</v>
-      </c>
-      <c r="D11" s="39">
-        <f t="shared" si="20"/>
-        <v>1.974609375</v>
-      </c>
-      <c r="E11" s="39">
-        <f t="shared" si="21"/>
         <v>1.9736328125</v>
       </c>
       <c r="F11" s="39">
@@ -3932,15 +3933,15 @@
         <v>0.9199527106575569</v>
       </c>
       <c r="G11" s="39">
+        <f t="shared" si="20"/>
+        <v>0.9219366975594312</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="21"/>
+        <v>1.9839869018742906E-3</v>
+      </c>
+      <c r="I11" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.9219366975594312</v>
-      </c>
-      <c r="H11" s="40">
-        <f t="shared" si="23"/>
-        <v>1.9839869018742906E-3</v>
-      </c>
-      <c r="I11" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K11" s="65" t="s">
@@ -3959,21 +3960,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="38">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C12" s="39">
+        <f t="shared" si="17"/>
+        <v>1.97265625</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" si="18"/>
+        <v>1.9736328125</v>
+      </c>
+      <c r="E12" s="39">
         <f t="shared" si="19"/>
-        <v>1.97265625</v>
-      </c>
-      <c r="D12" s="39">
-        <f t="shared" si="20"/>
-        <v>1.9736328125</v>
-      </c>
-      <c r="E12" s="39">
-        <f t="shared" si="21"/>
         <v>1.97314453125</v>
       </c>
       <c r="F12" s="39">
@@ -3981,15 +3982,15 @@
         <v>0.92014402156340858</v>
       </c>
       <c r="G12" s="39">
+        <f t="shared" si="20"/>
+        <v>0.9205105759028811</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" si="21"/>
+        <v>3.6655433947252458E-4</v>
+      </c>
+      <c r="I12" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.9205105759028811</v>
-      </c>
-      <c r="H12" s="40">
-        <f t="shared" si="23"/>
-        <v>3.6655433947252458E-4</v>
-      </c>
-      <c r="I12" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K12" s="67" t="s">
@@ -4007,25 +4008,25 @@
         <v>1.75</v>
       </c>
       <c r="O12" s="82">
-        <f t="shared" ref="O12" si="25">1.97303383-N12</f>
+        <f t="shared" ref="O12" si="23">1.97303383-N12</f>
         <v>0.2230338300000001</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="38">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C13" s="39">
+        <f t="shared" si="17"/>
+        <v>1.97265625</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" si="18"/>
+        <v>1.97314453125</v>
+      </c>
+      <c r="E13" s="39">
         <f t="shared" si="19"/>
-        <v>1.97265625</v>
-      </c>
-      <c r="D13" s="39">
-        <f t="shared" si="20"/>
-        <v>1.97314453125</v>
-      </c>
-      <c r="E13" s="39">
-        <f t="shared" si="21"/>
         <v>1.972900390625</v>
       </c>
       <c r="F13" s="39">
@@ -4033,15 +4034,15 @@
         <v>0.92023959475189843</v>
       </c>
       <c r="G13" s="39">
+        <f t="shared" si="20"/>
+        <v>0.91979777970482246</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="21"/>
+        <v>-4.4181504707596631E-4</v>
+      </c>
+      <c r="I13" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.91979777970482246</v>
-      </c>
-      <c r="H13" s="40">
-        <f t="shared" si="23"/>
-        <v>-4.4181504707596631E-4</v>
-      </c>
-      <c r="I13" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K13" s="67" t="s">
@@ -4052,7 +4053,7 @@
         <v>1.9730326316310438</v>
       </c>
       <c r="M13" s="77">
-        <f t="shared" ref="M13:M14" si="26">1.97303383-L13</f>
+        <f t="shared" ref="M13:M14" si="24">1.97303383-L13</f>
         <v>1.1983689562899968E-6</v>
       </c>
       <c r="N13" s="79">
@@ -4060,25 +4061,25 @@
         <v>1.9692968800947126</v>
       </c>
       <c r="O13" s="70">
-        <f t="shared" ref="O13" si="27">1.97303383-N13</f>
+        <f t="shared" ref="O13" si="25">1.97303383-N13</f>
         <v>3.736949905287501E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C14" s="39">
+        <f t="shared" si="17"/>
+        <v>1.972900390625</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="18"/>
+        <v>1.97314453125</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="19"/>
-        <v>1.972900390625</v>
-      </c>
-      <c r="D14" s="39">
-        <f t="shared" si="20"/>
-        <v>1.97314453125</v>
-      </c>
-      <c r="E14" s="39">
-        <f t="shared" si="21"/>
         <v>1.9730224609375</v>
       </c>
       <c r="F14" s="39">
@@ -4086,15 +4087,15 @@
         <v>0.9201918150136168</v>
       </c>
       <c r="G14" s="39">
+        <f t="shared" si="20"/>
+        <v>0.92015415575360748</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="21"/>
+        <v>-3.7659260009315076E-5</v>
+      </c>
+      <c r="I14" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.92015415575360748</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="23"/>
-        <v>-3.7659260009315076E-5</v>
-      </c>
-      <c r="I14" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K14" s="71" t="s">
@@ -4105,7 +4106,7 @@
         <v>1.9730338345671448</v>
       </c>
       <c r="M14" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-4.5671446624595546E-9</v>
       </c>
       <c r="N14" s="80">
@@ -4113,25 +4114,25 @@
         <v>1.973448865779436</v>
       </c>
       <c r="O14" s="73">
-        <f t="shared" ref="O14" si="28">1.97303383-N14</f>
+        <f t="shared" ref="O14" si="26">1.97303383-N14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C15" s="39">
+        <f t="shared" si="17"/>
+        <v>1.9730224609375</v>
+      </c>
+      <c r="D15" s="39">
+        <f t="shared" si="18"/>
+        <v>1.97314453125</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="19"/>
-        <v>1.9730224609375</v>
-      </c>
-      <c r="D15" s="39">
-        <f t="shared" si="20"/>
-        <v>1.97314453125</v>
-      </c>
-      <c r="E15" s="39">
-        <f t="shared" si="21"/>
         <v>1.97308349609375</v>
       </c>
       <c r="F15" s="39">
@@ -4139,34 +4140,34 @@
         <v>0.92016792000245906</v>
       </c>
       <c r="G15" s="39">
+        <f t="shared" si="20"/>
+        <v>0.92033236031551269</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" si="21"/>
+        <v>1.644403130536265E-4</v>
+      </c>
+      <c r="I15" s="49" t="str">
         <f t="shared" si="22"/>
-        <v>0.92033236031551269</v>
-      </c>
-      <c r="H15" s="40">
-        <f t="shared" si="23"/>
-        <v>1.644403130536265E-4</v>
-      </c>
-      <c r="I15" s="49" t="str">
-        <f t="shared" si="24"/>
         <v>More</v>
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="43">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C16" s="44">
+        <f t="shared" si="17"/>
+        <v>1.9730224609375</v>
+      </c>
+      <c r="D16" s="44">
+        <f t="shared" si="18"/>
+        <v>1.97308349609375</v>
+      </c>
+      <c r="E16" s="44">
         <f t="shared" si="19"/>
-        <v>1.9730224609375</v>
-      </c>
-      <c r="D16" s="44">
-        <f t="shared" si="20"/>
-        <v>1.97308349609375</v>
-      </c>
-      <c r="E16" s="44">
-        <f t="shared" si="21"/>
         <v>1.973052978515625</v>
       </c>
       <c r="F16" s="44">
@@ -4174,7 +4175,7 @@
         <v>0.92017986793653006</v>
       </c>
       <c r="G16" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.9202432566563985</v>
       </c>
       <c r="H16" s="45">
@@ -4182,26 +4183,26 @@
         <v>6.3388719868440191E-5</v>
       </c>
       <c r="I16" s="49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>More</v>
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
-        <f t="shared" ref="B17:B19" si="29">B16+1</f>
+        <f t="shared" ref="B17:B19" si="27">B16+1</f>
         <v>14</v>
       </c>
       <c r="C17" s="39">
-        <f t="shared" ref="C17" si="30">IF(H16&gt;0,C16,E16)</f>
+        <f t="shared" ref="C17" si="28">IF(H16&gt;0,C16,E16)</f>
         <v>1.9730224609375</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" ref="D17" si="31">IF(H16&gt;0,E16,D16)</f>
+        <f t="shared" ref="D17" si="29">IF(H16&gt;0,E16,D16)</f>
         <v>1.973052978515625</v>
       </c>
       <c r="E17" s="39">
-        <f t="shared" ref="E17" si="32">SUM(D17,C17)/2</f>
+        <f t="shared" ref="E17" si="30">SUM(D17,C17)/2</f>
         <v>1.9730377197265625</v>
       </c>
       <c r="F17" s="39">
@@ -4209,80 +4210,80 @@
         <v>0.92018584158219718</v>
       </c>
       <c r="G17" s="39">
-        <f t="shared" ref="G17" si="33">((E17^3)/4)-1</f>
+        <f t="shared" ref="G17" si="31">((E17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
       <c r="H17" s="40">
-        <f t="shared" ref="H17" si="34">G17-F17</f>
+        <f t="shared" ref="H17" si="32">G17-F17</f>
         <v>1.2864278268076568E-5</v>
       </c>
       <c r="I17" s="49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>More</v>
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="C18" s="41">
-        <f t="shared" ref="C18" si="35">IF(H17&gt;0,C17,E17)</f>
+        <f t="shared" ref="C18" si="33">IF(H17&gt;0,C17,E17)</f>
         <v>1.9730224609375</v>
       </c>
       <c r="D18" s="41">
-        <f t="shared" ref="D18" si="36">IF(H17&gt;0,E17,D17)</f>
+        <f t="shared" ref="D18" si="34">IF(H17&gt;0,E17,D17)</f>
         <v>1.9730377197265625</v>
       </c>
       <c r="E18" s="41">
-        <f t="shared" ref="E18" si="37">SUM(D18,C18)/2</f>
+        <f t="shared" ref="E18" si="35">SUM(D18,C18)/2</f>
         <v>1.9730300903320313</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" ref="F18" si="38">SIN(E18)</f>
+        <f t="shared" ref="F18" si="36">SIN(E18)</f>
         <v>0.92018882832468807</v>
       </c>
       <c r="G18" s="41">
-        <f t="shared" ref="G18" si="39">((E18^3)/4)-1</f>
+        <f t="shared" ref="G18" si="37">((E18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" ref="H18" si="40">G18-F18</f>
+        <f t="shared" ref="H18" si="38">G18-F18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
       <c r="I18" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>More</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="C19" s="92">
-        <f t="shared" ref="C19" si="41">IF(H18&gt;0,C18,E18)</f>
+        <f t="shared" ref="C19" si="39">IF(H18&gt;0,C18,E18)</f>
         <v>1.9730300903320313</v>
       </c>
       <c r="D19" s="92">
-        <f t="shared" ref="D19" si="42">IF(H18&gt;0,E18,D18)</f>
+        <f t="shared" ref="D19" si="40">IF(H18&gt;0,E18,D18)</f>
         <v>1.9730377197265625</v>
       </c>
       <c r="E19" s="92">
-        <f t="shared" ref="E19" si="43">SUM(D19,C19)/2</f>
+        <f t="shared" ref="E19" si="41">SUM(D19,C19)/2</f>
         <v>1.9730339050292969</v>
       </c>
       <c r="F19" s="92">
-        <f t="shared" ref="F19" si="44">SIN(E19)</f>
+        <f t="shared" ref="F19" si="42">SIN(E19)</f>
         <v>0.92018733496013783</v>
       </c>
       <c r="G19" s="92">
-        <f t="shared" ref="G19" si="45">((E19^3)/4)-1</f>
+        <f t="shared" ref="G19" si="43">((E19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
       <c r="H19" s="93">
-        <f t="shared" ref="H19" si="46">G19-F19</f>
+        <f t="shared" ref="H19" si="44">G19-F19</f>
         <v>2.3330901244289493E-7</v>
       </c>
       <c r="I19" s="94" t="str">
@@ -4290,7 +4291,7 @@
         <v>Less</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
@@ -4326,48 +4327,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="146"/>
+      <c r="B1" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="147">
+      <c r="B2" s="146">
         <v>2</v>
       </c>
-      <c r="C2" s="147">
+      <c r="C2" s="146">
         <v>4</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
       <c r="M2">
         <v>2</v>
       </c>
@@ -4402,22 +4405,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="146"/>
+      <c r="B3" s="146">
         <v>2</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="146">
         <v>8</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
       <c r="M3">
         <v>4</v>
       </c>
@@ -4452,291 +4455,291 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="146"/>
+      <c r="B4" s="146">
         <v>5</v>
       </c>
-      <c r="C4" s="147">
+      <c r="C4" s="146">
         <v>6</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="147">
         <v>2</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="147">
         <v>4</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="147" t="s">
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="147">
+      <c r="B6" s="146">
         <v>5</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="146">
         <v>6</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="147">
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="146"/>
+      <c r="B7" s="146">
         <v>8</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="146">
         <v>6</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="147">
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="146"/>
+      <c r="B8" s="146">
         <v>8</v>
       </c>
-      <c r="C8" s="147">
+      <c r="C8" s="146">
         <v>8</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="147">
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="146"/>
+      <c r="B9" s="146">
         <v>2</v>
       </c>
-      <c r="C9" s="147">
+      <c r="C9" s="146">
         <v>8</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="147">
         <v>5</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="147">
         <v>6</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="147">
+      <c r="B11" s="146">
         <v>5</v>
       </c>
-      <c r="C11" s="147">
+      <c r="C11" s="146">
         <v>6</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="147">
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="146"/>
+      <c r="B12" s="146">
         <v>8</v>
       </c>
-      <c r="C12" s="147">
+      <c r="C12" s="146">
         <v>6</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147">
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="146"/>
+      <c r="B13" s="146">
         <v>8</v>
       </c>
-      <c r="C13" s="147">
+      <c r="C13" s="146">
         <v>4</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
-      <c r="B14" s="147">
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="146"/>
+      <c r="B14" s="146">
         <v>2</v>
       </c>
-      <c r="C14" s="147">
+      <c r="C14" s="146">
         <v>4</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="147">
         <v>5</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="147">
         <v>6</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="146"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4745,19 +4748,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F24" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" s="86">
         <v>1.6</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
         <v>44</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="86">
         <v>0</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N4" s="123"/>
       <c r="O4" s="123"/>
       <c r="P4" s="123"/>
@@ -4833,7 +4836,7 @@
       <c r="R4" s="123"/>
       <c r="S4" s="123"/>
     </row>
-    <row r="5" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>48</v>
       </c>
@@ -4871,7 +4874,7 @@
       <c r="R5" s="123"/>
       <c r="S5" s="123"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="126">
         <v>0</v>
       </c>
@@ -4913,7 +4916,7 @@
       <c r="R6" s="123"/>
       <c r="S6" s="123"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="126">
         <f>B6+1</f>
         <v>1</v>
@@ -4959,7 +4962,7 @@
       <c r="R7" s="123"/>
       <c r="S7" s="123"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="126">
         <f t="shared" ref="B8:B14" si="4">B7+1</f>
         <v>2</v>
@@ -5005,7 +5008,7 @@
       <c r="R8" s="123"/>
       <c r="S8" s="123"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="126">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -5051,7 +5054,7 @@
       <c r="R9" s="123"/>
       <c r="S9" s="123"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="126">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5097,7 +5100,7 @@
       <c r="R10" s="123"/>
       <c r="S10" s="123"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="126">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5143,7 +5146,7 @@
       <c r="R11" s="123"/>
       <c r="S11" s="123"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="126">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5189,7 +5192,7 @@
       <c r="R12" s="123"/>
       <c r="S12" s="123"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="126">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5235,7 +5238,7 @@
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
     </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="127">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5281,7 +5284,7 @@
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
     </row>
-    <row r="15" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E15" s="53" t="s">
         <v>51</v>
       </c>
@@ -5315,7 +5318,7 @@
       <c r="R15" s="123"/>
       <c r="S15" s="123"/>
     </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="127" t="s">
         <v>57</v>
       </c>
@@ -5349,7 +5352,7 @@
       <c r="R16" s="123"/>
       <c r="S16" s="123"/>
     </row>
-    <row r="17" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="130">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -5376,7 +5379,7 @@
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
     </row>
-    <row r="18" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132">
         <v>1.6</v>
       </c>
@@ -5410,7 +5413,7 @@
       <c r="R18" s="123"/>
       <c r="S18" s="123"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="135" t="s">
         <v>44</v>
       </c>
@@ -5446,7 +5449,7 @@
       <c r="R19" s="123"/>
       <c r="S19" s="123"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="138">
         <v>0</v>
       </c>
@@ -5480,7 +5483,7 @@
       <c r="R20" s="123"/>
       <c r="S20" s="123"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="140"/>
       <c r="C21" s="136"/>
       <c r="D21" s="137"/>
@@ -5510,7 +5513,7 @@
       <c r="R21" s="123"/>
       <c r="S21" s="123"/>
     </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="140" t="s">
         <v>27</v>
       </c>
@@ -5546,7 +5549,7 @@
       <c r="R22" s="123"/>
       <c r="S22" s="123"/>
     </row>
-    <row r="23" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="140">
         <v>1.6</v>
       </c>
@@ -5571,7 +5574,7 @@
       <c r="R23" s="123"/>
       <c r="S23" s="123"/>
     </row>
-    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="140">
         <v>0</v>
       </c>
@@ -5596,12 +5599,12 @@
       <c r="R24" s="123"/>
       <c r="S24" s="123"/>
     </row>
-    <row r="25" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="140"/>
       <c r="C25" s="136"/>
       <c r="D25" s="137"/>
     </row>
-    <row r="26" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="142">
         <f>D23</f>
         <v>11.544464848790231</v>
@@ -5621,7 +5624,7 @@
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5630,16 +5633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.22309999999999999</v>
       </c>
@@ -5661,11 +5664,11 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="148" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>Student</t>
   </si>
@@ -391,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1238,11 +1238,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1684,6 +1695,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,7 +1777,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$B$2:$B$5</c:f>
+              <c:f>'Question 3'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1775,7 +1798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$C$2:$C$5</c:f>
+              <c:f>'Question 3'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1837,7 +1860,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$B$6:$B$10</c:f>
+              <c:f>'Question 3'!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1861,7 +1884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$C$6:$C$10</c:f>
+              <c:f>'Question 3'!$E$6:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1922,7 +1945,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$B$11:$B$15</c:f>
+              <c:f>'Question 3'!$D$11:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1946,7 +1969,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$C$11:$C$15</c:f>
+              <c:f>'Question 3'!$E$11:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2754,13 +2777,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>12737</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>26448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>622851</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -2832,13 +2855,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>53009</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>26503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>357809</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>172277</xdr:rowOff>
@@ -2873,13 +2896,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>13252</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
@@ -3210,7 +3233,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,931 +3396,957 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="13"/>
-    <col min="8" max="8" width="9.140625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="9.140625" style="149"/>
+    <col min="3" max="8" width="9.140625" style="13"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O1" s="149" t="s">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="P1" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="R1" s="149" t="s">
+      <c r="Q1" s="150"/>
+      <c r="S1" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="149"/>
-    </row>
-    <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="T1" s="150"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="152"/>
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="O2" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="P2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="Q2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="99" t="s">
+      <c r="R2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="S2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="97" t="s">
+      <c r="T2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="100" t="s">
+      <c r="U2" s="100" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="D3" s="21">
         <v>1.75</v>
       </c>
-      <c r="D3" s="22">
+      <c r="E3" s="22">
         <v>2.25</v>
       </c>
-      <c r="E3" s="22">
-        <f>SUM(D3,C3)/2</f>
+      <c r="F3" s="22">
+        <f>SUM(E3,D3)/2</f>
         <v>2</v>
       </c>
-      <c r="F3" s="22">
-        <f>SIN(E3)</f>
+      <c r="G3" s="22">
+        <f>SIN(F3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="G3" s="22">
-        <f>((E3^3)/4)-1</f>
+      <c r="H3" s="22">
+        <f>((F3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="H3" s="23">
-        <f>G3-F3</f>
+      <c r="I3" s="23">
+        <f>H3-G3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="K3" s="24">
+      <c r="L3" s="24">
         <v>0</v>
       </c>
-      <c r="L3" s="25">
-        <f>ABS(H3)</f>
+      <c r="M3" s="25">
+        <f>ABS(I3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="N3" s="101">
+      <c r="O3" s="101">
         <v>0</v>
       </c>
-      <c r="O3" s="102">
+      <c r="P3" s="102">
         <v>2</v>
       </c>
-      <c r="P3" s="103">
-        <f>POWER((4*SIN(O3))+4,1/3)</f>
+      <c r="Q3" s="103">
+        <f>POWER((4*SIN(P3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q3" s="104">
+      <c r="R3" s="104">
         <v>0</v>
       </c>
-      <c r="R3" s="105">
+      <c r="S3" s="105">
         <v>2</v>
       </c>
-      <c r="S3" s="105">
-        <f>SIN(R3)-((R3^3)/4)+1</f>
+      <c r="T3" s="105">
+        <f>SIN(S3)-((S3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="T3" s="106">
-        <f>COS(R3)-(3*(R3^2))/4</f>
+      <c r="U3" s="106">
+        <f>COS(S3)-(3*(S3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <f>B3+1</f>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="152"/>
+      <c r="C4" s="20">
+        <f>C3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="26">
-        <f>IF(H3&gt;0,C3,E3)</f>
+      <c r="D4" s="26">
+        <f>IF(I3&gt;0,D3,F3)</f>
         <v>1.75</v>
       </c>
-      <c r="D4" s="27">
-        <f>IF(H3&gt;0,E3,D3)</f>
+      <c r="E4" s="27">
+        <f>IF(I3&gt;0,F3,E3)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="27">
-        <f>SUM(D4,C4)/2</f>
+      <c r="F4" s="27">
+        <f>SUM(E4,D4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="F4" s="27">
-        <f>SIN(E4)</f>
+      <c r="G4" s="27">
+        <f>SIN(F4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="G4" s="27">
-        <f t="shared" ref="G4:G6" si="0">((E4^3)/4)-1</f>
+      <c r="H4" s="27">
+        <f t="shared" ref="H4:H6" si="0">((F4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="H4" s="28">
-        <f>G4-F4</f>
+      <c r="I4" s="28">
+        <f>H4-G4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="K4" s="24">
+      <c r="L4" s="24">
         <v>1</v>
       </c>
-      <c r="L4" s="29">
-        <f t="shared" ref="L4:L8" si="1">ABS(H4)</f>
+      <c r="M4" s="29">
+        <f t="shared" ref="M4:M8" si="1">ABS(I4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="N4" s="101">
-        <f>N3+1</f>
+      <c r="O4" s="101">
+        <f>O3+1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="107">
-        <f>P3</f>
+      <c r="P4" s="107">
+        <f>Q3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P4" s="108">
-        <f t="shared" ref="P4:P8" si="2">POWER((4*SIN(O4))+4,1/3)</f>
+      <c r="Q4" s="108">
+        <f t="shared" ref="Q4:Q8" si="2">POWER((4*SIN(P4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q4" s="109">
-        <f>Q3+1</f>
+      <c r="R4" s="109">
+        <f>R3+1</f>
         <v>1</v>
       </c>
-      <c r="R4" s="110">
-        <f>R3-(S3/T3)</f>
+      <c r="S4" s="110">
+        <f>S3-(T3/U3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="S4" s="110">
-        <f>SIN(R4)-((R4^3)/4)+1</f>
+      <c r="T4" s="110">
+        <f>SIN(S4)-((S4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="T4" s="111">
-        <f>COS(R4)-(3*(R4^2))/4</f>
+      <c r="U4" s="111">
+        <f>COS(S4)-(3*(S4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
-        <f t="shared" ref="B5:B16" si="3">B4+1</f>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="152"/>
+      <c r="C5" s="20">
+        <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="26">
-        <f t="shared" ref="C5:C6" si="4">IF(H4&gt;0,C4,E4)</f>
+      <c r="D5" s="26">
+        <f t="shared" ref="D5:D6" si="4">IF(I4&gt;0,D4,F4)</f>
         <v>1.875</v>
       </c>
-      <c r="D5" s="27">
-        <f t="shared" ref="D5:D6" si="5">IF(H4&gt;0,E4,D4)</f>
+      <c r="E5" s="27">
+        <f t="shared" ref="E5:E6" si="5">IF(I4&gt;0,F4,E4)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="27">
-        <f t="shared" ref="E5:E6" si="6">SUM(D5,C5)/2</f>
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F6" si="6">SUM(E5,D5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="F5" s="27">
-        <f t="shared" ref="F5:F17" si="7">SIN(E5)</f>
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G17" si="7">SIN(F5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="G5" s="27">
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="H5" s="28">
-        <f t="shared" ref="H5:H6" si="8">G5-F5</f>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="8">H5-G5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="K5" s="24">
+      <c r="L5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="29">
+      <c r="M5" s="29">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="N5" s="101">
-        <f t="shared" ref="N5:N8" si="9">N4+1</f>
+      <c r="O5" s="101">
+        <f t="shared" ref="O5:O8" si="9">O4+1</f>
         <v>2</v>
       </c>
-      <c r="O5" s="107">
-        <f t="shared" ref="O5:O8" si="10">P4</f>
+      <c r="P5" s="107">
+        <f t="shared" ref="P5:P8" si="10">Q4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="P5" s="108">
+      <c r="Q5" s="108">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q5" s="109">
-        <f t="shared" ref="Q5:Q8" si="11">Q4+1</f>
+      <c r="R5" s="109">
+        <f t="shared" ref="R5:R8" si="11">R4+1</f>
         <v>2</v>
       </c>
-      <c r="R5" s="110">
-        <f>R4-(S4/T4)</f>
+      <c r="S5" s="110">
+        <f>S4-(T4/U4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="S5" s="110">
-        <f t="shared" ref="S5:S8" si="12">SIN(R5)-((R5^3)/4)+1</f>
+      <c r="T5" s="110">
+        <f t="shared" ref="T5:T8" si="12">SIN(S5)-((S5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="T5" s="111">
-        <f t="shared" ref="T5:T8" si="13">COS(R5)-(3*(R5^2))/4</f>
+      <c r="U5" s="111">
+        <f t="shared" ref="U5:U8" si="13">COS(S5)-(3*(S5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="D6" s="26">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="D6" s="27">
+      <c r="E6" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E6" s="27">
+      <c r="F6" s="27">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="F6" s="27">
+      <c r="G6" s="27">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="G6" s="27">
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="H6" s="28">
+      <c r="I6" s="28">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="K6" s="24">
+      <c r="L6" s="24">
         <v>3</v>
       </c>
-      <c r="L6" s="29">
+      <c r="M6" s="29">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="N6" s="101">
+      <c r="O6" s="101">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="O6" s="107">
+      <c r="P6" s="107">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="P6" s="108">
+      <c r="Q6" s="108">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q6" s="109">
+      <c r="R6" s="109">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="R6" s="110">
-        <f>R5-(S5/T5)</f>
+      <c r="S6" s="110">
+        <f>S5-(T5/U5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="S6" s="110">
+      <c r="T6" s="110">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="T6" s="111">
+      <c r="U6" s="111">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58">
-        <f>B6+1</f>
+    <row r="7" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="58">
+        <f>C6+1</f>
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <f>IF(H6&gt;0,C6,E6)</f>
+      <c r="D7" s="59">
+        <f>IF(I6&gt;0,D6,F6)</f>
         <v>1.96875</v>
       </c>
-      <c r="D7" s="60">
-        <f>IF(H6&gt;0,E6,D6)</f>
+      <c r="E7" s="60">
+        <f>IF(I6&gt;0,F6,E6)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="60">
-        <f t="shared" ref="E7" si="14">SUM(D7,C7)/2</f>
+      <c r="F7" s="60">
+        <f t="shared" ref="F7" si="14">SUM(E7,D7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="F7" s="60">
+      <c r="G7" s="60">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="G7" s="60">
-        <f t="shared" ref="G7" si="15">((E7^3)/4)-1</f>
+      <c r="H7" s="60">
+        <f t="shared" ref="H7" si="15">((F7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="H7" s="61">
-        <f t="shared" ref="H7" si="16">G7-F7</f>
+      <c r="I7" s="61">
+        <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="K7" s="51">
+      <c r="J7" s="48"/>
+      <c r="L7" s="51">
         <v>4</v>
       </c>
-      <c r="L7" s="52">
+      <c r="M7" s="52">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="N7" s="101">
-        <f>N6+1</f>
+      <c r="O7" s="101">
+        <f>O6+1</f>
         <v>4</v>
       </c>
-      <c r="O7" s="107">
-        <f>P6</f>
+      <c r="P7" s="107">
+        <f>Q6</f>
         <v>1.9730428059710325</v>
       </c>
-      <c r="P7" s="108">
+      <c r="Q7" s="108">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q7" s="109">
-        <f>Q6+1</f>
+      <c r="R7" s="109">
+        <f>R6+1</f>
         <v>4</v>
       </c>
-      <c r="R7" s="110">
-        <f>R6-(S6/T6)</f>
+      <c r="S7" s="110">
+        <f>S6-(T6/U6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S7" s="110">
+      <c r="T7" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T7" s="111">
+      <c r="U7" s="111">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C8" s="31">
-        <f t="shared" ref="C8:C16" si="17">IF(H7&gt;0,C7,E7)</f>
+      <c r="D8" s="31">
+        <f t="shared" ref="D8:D16" si="17">IF(I7&gt;0,D7,F7)</f>
         <v>1.96875</v>
       </c>
-      <c r="D8" s="32">
-        <f t="shared" ref="D8:D16" si="18">IF(H7&gt;0,E7,D7)</f>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8:E16" si="18">IF(I7&gt;0,F7,E7)</f>
         <v>1.984375</v>
       </c>
-      <c r="E8" s="32">
-        <f t="shared" ref="E8:E16" si="19">SUM(D8,C8)/2</f>
+      <c r="F8" s="32">
+        <f t="shared" ref="F8:F16" si="19">SUM(E8,D8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="F8" s="32">
+      <c r="G8" s="32">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="G8" s="32">
-        <f t="shared" ref="G8:G16" si="20">((E8^3)/4)-1</f>
+      <c r="H8" s="32">
+        <f t="shared" ref="H8:H16" si="20">((F8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="H8" s="33">
-        <f t="shared" ref="H8:H15" si="21">G8-F8</f>
+      <c r="I8" s="33">
+        <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="J8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="34">
+      <c r="L8" s="34">
         <v>5</v>
       </c>
-      <c r="L8" s="35">
+      <c r="M8" s="35">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="N8" s="112">
+      <c r="O8" s="112">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="O8" s="113">
+      <c r="P8" s="113">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="P8" s="114">
+      <c r="Q8" s="114">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="Q8" s="115">
+      <c r="R8" s="115">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="R8" s="116">
-        <f>R7-(S7/T7)</f>
+      <c r="S8" s="116">
+        <f>S7-(T7/U7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="S8" s="116">
+      <c r="T8" s="116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T8" s="117">
+      <c r="U8" s="117">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="62">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C9" s="63">
+      <c r="D9" s="63">
         <f t="shared" si="17"/>
         <v>1.96875</v>
       </c>
-      <c r="D9" s="63">
+      <c r="E9" s="63">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="E9" s="63">
+      <c r="F9" s="63">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="F9" s="63">
+      <c r="G9" s="63">
         <f t="shared" si="7"/>
         <v>0.9203351130898344</v>
       </c>
-      <c r="G9" s="63">
+      <c r="H9" s="63">
         <f t="shared" si="20"/>
         <v>0.91908515989780426</v>
       </c>
-      <c r="H9" s="64">
+      <c r="I9" s="64">
         <f t="shared" si="21"/>
         <v>-1.2499531920301399E-3</v>
       </c>
-      <c r="I9" s="49" t="str">
-        <f t="shared" ref="I9:I18" si="22">IF(ABS(H9)&lt;0.000001,"Less","More")</f>
+      <c r="J9" s="49" t="str">
+        <f t="shared" ref="J9:J18" si="22">IF(ABS(I9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="L9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="37">
-        <f>MAX(L3:L7)</f>
+      <c r="M9" s="37">
+        <f>MAX(M3:M7)</f>
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="38">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C10" s="39">
+      <c r="D10" s="39">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="D10" s="39">
+      <c r="E10" s="39">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="E10" s="39">
+      <c r="F10" s="39">
         <f t="shared" si="19"/>
         <v>1.974609375</v>
       </c>
-      <c r="F10" s="39">
+      <c r="G10" s="39">
         <f t="shared" si="7"/>
         <v>0.9195694308900767</v>
       </c>
-      <c r="G10" s="39">
+      <c r="H10" s="39">
         <f t="shared" si="20"/>
         <v>0.92479105852544308</v>
       </c>
-      <c r="H10" s="40">
+      <c r="I10" s="40">
         <f t="shared" si="21"/>
         <v>5.2216276353663771E-3</v>
       </c>
-      <c r="I10" s="49" t="str">
+      <c r="J10" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="38">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C11" s="39">
+      <c r="D11" s="39">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="D11" s="39">
+      <c r="E11" s="39">
         <f t="shared" si="18"/>
         <v>1.974609375</v>
       </c>
-      <c r="E11" s="39">
+      <c r="F11" s="39">
         <f t="shared" si="19"/>
         <v>1.9736328125</v>
       </c>
-      <c r="F11" s="39">
+      <c r="G11" s="39">
         <f t="shared" si="7"/>
         <v>0.9199527106575569</v>
       </c>
-      <c r="G11" s="39">
+      <c r="H11" s="39">
         <f t="shared" si="20"/>
         <v>0.9219366975594312</v>
       </c>
-      <c r="H11" s="40">
+      <c r="I11" s="40">
         <f t="shared" si="21"/>
         <v>1.9839869018742906E-3</v>
       </c>
-      <c r="I11" s="49" t="str">
+      <c r="J11" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="L11" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="M11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="N11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="O11" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="84" t="s">
+      <c r="P11" s="84" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="38">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="38">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C12" s="39">
+      <c r="D12" s="39">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="D12" s="39">
+      <c r="E12" s="39">
         <f t="shared" si="18"/>
         <v>1.9736328125</v>
       </c>
-      <c r="E12" s="39">
+      <c r="F12" s="39">
         <f t="shared" si="19"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F12" s="39">
+      <c r="G12" s="39">
         <f t="shared" si="7"/>
         <v>0.92014402156340858</v>
       </c>
-      <c r="G12" s="39">
+      <c r="H12" s="39">
         <f t="shared" si="20"/>
         <v>0.9205105759028811</v>
       </c>
-      <c r="H12" s="40">
+      <c r="I12" s="40">
         <f t="shared" si="21"/>
         <v>3.6655433947252458E-4</v>
       </c>
-      <c r="I12" s="49" t="str">
+      <c r="J12" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="L12" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="68">
-        <f>E8</f>
+      <c r="M12" s="68">
+        <f>F8</f>
         <v>1.9765625</v>
       </c>
-      <c r="M12" s="76">
-        <f>1.97303383-L12</f>
+      <c r="N12" s="76">
+        <f>1.97303383-M12</f>
         <v>-3.5286699999999005E-3</v>
       </c>
-      <c r="N12" s="81">
+      <c r="O12" s="81">
         <v>1.75</v>
       </c>
-      <c r="O12" s="82">
-        <f t="shared" ref="O12" si="23">1.97303383-N12</f>
+      <c r="P12" s="82">
+        <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="38">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C13" s="39">
+      <c r="D13" s="39">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="D13" s="39">
+      <c r="E13" s="39">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E13" s="39">
+      <c r="F13" s="39">
         <f t="shared" si="19"/>
         <v>1.972900390625</v>
       </c>
-      <c r="F13" s="39">
+      <c r="G13" s="39">
         <f t="shared" si="7"/>
         <v>0.92023959475189843</v>
       </c>
-      <c r="G13" s="39">
+      <c r="H13" s="39">
         <f t="shared" si="20"/>
         <v>0.91979777970482246</v>
       </c>
-      <c r="H13" s="40">
+      <c r="I13" s="40">
         <f t="shared" si="21"/>
         <v>-4.4181504707596631E-4</v>
       </c>
-      <c r="I13" s="49" t="str">
+      <c r="J13" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="L13" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="69">
-        <f>O8</f>
+      <c r="M13" s="69">
+        <f>P8</f>
         <v>1.9730326316310438</v>
       </c>
-      <c r="M13" s="77">
-        <f t="shared" ref="M13:M14" si="24">1.97303383-L13</f>
+      <c r="N13" s="77">
+        <f t="shared" ref="N13:N14" si="24">1.97303383-M13</f>
         <v>1.1983689562899968E-6</v>
       </c>
-      <c r="N13" s="79">
-        <f>O4</f>
+      <c r="O13" s="79">
+        <f>P4</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="O13" s="70">
-        <f t="shared" ref="O13" si="25">1.97303383-N13</f>
+      <c r="P13" s="70">
+        <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="38">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C14" s="39">
+      <c r="D14" s="39">
         <f t="shared" si="17"/>
         <v>1.972900390625</v>
       </c>
-      <c r="D14" s="39">
+      <c r="E14" s="39">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E14" s="39">
+      <c r="F14" s="39">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="F14" s="39">
+      <c r="G14" s="39">
         <f t="shared" si="7"/>
         <v>0.9201918150136168</v>
       </c>
-      <c r="G14" s="39">
+      <c r="H14" s="39">
         <f t="shared" si="20"/>
         <v>0.92015415575360748</v>
       </c>
-      <c r="H14" s="40">
+      <c r="I14" s="40">
         <f t="shared" si="21"/>
         <v>-3.7659260009315076E-5</v>
       </c>
-      <c r="I14" s="49" t="str">
+      <c r="J14" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="L14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="72">
-        <f>R8</f>
+      <c r="M14" s="72">
+        <f>S8</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="M14" s="78">
+      <c r="N14" s="78">
         <f t="shared" si="24"/>
         <v>-4.5671446624595546E-9</v>
       </c>
-      <c r="N14" s="80">
-        <f>R4</f>
+      <c r="O14" s="80">
+        <f>S4</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="O14" s="73">
-        <f t="shared" ref="O14" si="26">1.97303383-N14</f>
+      <c r="P14" s="73">
+        <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38">
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C15" s="39">
+      <c r="D15" s="39">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="D15" s="39">
+      <c r="E15" s="39">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="E15" s="39">
+      <c r="F15" s="39">
         <f t="shared" si="19"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="F15" s="39">
+      <c r="G15" s="39">
         <f t="shared" si="7"/>
         <v>0.92016792000245906</v>
       </c>
-      <c r="G15" s="39">
+      <c r="H15" s="39">
         <f t="shared" si="20"/>
         <v>0.92033236031551269</v>
       </c>
-      <c r="H15" s="40">
+      <c r="I15" s="40">
         <f t="shared" si="21"/>
         <v>1.644403130536265E-4</v>
       </c>
-      <c r="I15" s="49" t="str">
+      <c r="J15" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="43">
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="43">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C16" s="44">
+      <c r="D16" s="44">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="D16" s="44">
+      <c r="E16" s="44">
         <f t="shared" si="18"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="E16" s="44">
+      <c r="F16" s="44">
         <f t="shared" si="19"/>
         <v>1.973052978515625</v>
       </c>
-      <c r="F16" s="44">
+      <c r="G16" s="44">
         <f t="shared" si="7"/>
         <v>0.92017986793653006</v>
       </c>
-      <c r="G16" s="44">
+      <c r="H16" s="44">
         <f t="shared" si="20"/>
         <v>0.9202432566563985</v>
       </c>
-      <c r="H16" s="45">
-        <f>G16-F16</f>
+      <c r="I16" s="45">
+        <f>H16-G16</f>
         <v>6.3388719868440191E-5</v>
       </c>
-      <c r="I16" s="49" t="str">
+      <c r="J16" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="46">
-        <f t="shared" ref="B17:B19" si="27">B16+1</f>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
       </c>
-      <c r="C17" s="39">
-        <f t="shared" ref="C17" si="28">IF(H16&gt;0,C16,E16)</f>
+      <c r="D17" s="39">
+        <f t="shared" ref="D17" si="28">IF(I16&gt;0,D16,F16)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="D17" s="39">
-        <f t="shared" ref="D17" si="29">IF(H16&gt;0,E16,D16)</f>
+      <c r="E17" s="39">
+        <f t="shared" ref="E17" si="29">IF(I16&gt;0,F16,E16)</f>
         <v>1.973052978515625</v>
       </c>
-      <c r="E17" s="39">
-        <f t="shared" ref="E17" si="30">SUM(D17,C17)/2</f>
+      <c r="F17" s="39">
+        <f t="shared" ref="F17" si="30">SUM(E17,D17)/2</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F17" s="39">
+      <c r="G17" s="39">
         <f t="shared" si="7"/>
         <v>0.92018584158219718</v>
       </c>
-      <c r="G17" s="39">
-        <f t="shared" ref="G17" si="31">((E17^3)/4)-1</f>
+      <c r="H17" s="39">
+        <f t="shared" ref="H17" si="31">((F17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
-      <c r="H17" s="40">
-        <f t="shared" ref="H17" si="32">G17-F17</f>
+      <c r="I17" s="40">
+        <f t="shared" ref="I17" si="32">H17-G17</f>
         <v>1.2864278268076568E-5</v>
       </c>
-      <c r="I17" s="49" t="str">
+      <c r="J17" s="49" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47">
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="47">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="C18" s="41">
-        <f t="shared" ref="C18" si="33">IF(H17&gt;0,C17,E17)</f>
+      <c r="D18" s="41">
+        <f t="shared" ref="D18" si="33">IF(I17&gt;0,D17,F17)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="D18" s="41">
-        <f t="shared" ref="D18" si="34">IF(H17&gt;0,E17,D17)</f>
+      <c r="E18" s="41">
+        <f t="shared" ref="E18" si="34">IF(I17&gt;0,F17,E17)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="E18" s="41">
-        <f t="shared" ref="E18" si="35">SUM(D18,C18)/2</f>
+      <c r="F18" s="41">
+        <f t="shared" ref="F18" si="35">SUM(E18,D18)/2</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="F18" s="41">
-        <f t="shared" ref="F18" si="36">SIN(E18)</f>
+      <c r="G18" s="41">
+        <f t="shared" ref="G18" si="36">SIN(F18)</f>
         <v>0.92018882832468807</v>
       </c>
-      <c r="G18" s="41">
-        <f t="shared" ref="G18" si="37">((E18^3)/4)-1</f>
+      <c r="H18" s="41">
+        <f t="shared" ref="H18" si="37">((F18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
-      <c r="H18" s="42">
-        <f t="shared" ref="H18" si="38">G18-F18</f>
+      <c r="I18" s="42">
+        <f t="shared" ref="I18" si="38">H18-G18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
-      <c r="I18" s="50" t="str">
+      <c r="J18" s="50" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="91">
+    <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="91">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="C19" s="92">
-        <f t="shared" ref="C19" si="39">IF(H18&gt;0,C18,E18)</f>
+      <c r="D19" s="92">
+        <f t="shared" ref="D19" si="39">IF(I18&gt;0,D18,F18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="D19" s="92">
-        <f t="shared" ref="D19" si="40">IF(H18&gt;0,E18,D18)</f>
+      <c r="E19" s="92">
+        <f t="shared" ref="E19" si="40">IF(I18&gt;0,F18,E18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="E19" s="92">
-        <f t="shared" ref="E19" si="41">SUM(D19,C19)/2</f>
+      <c r="F19" s="92">
+        <f t="shared" ref="F19" si="41">SUM(E19,D19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="F19" s="92">
-        <f t="shared" ref="F19" si="42">SIN(E19)</f>
+      <c r="G19" s="92">
+        <f t="shared" ref="G19" si="42">SIN(F19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="G19" s="92">
-        <f t="shared" ref="G19" si="43">((E19^3)/4)-1</f>
+      <c r="H19" s="92">
+        <f t="shared" ref="H19" si="43">((F19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="H19" s="93">
-        <f t="shared" ref="H19" si="44">G19-F19</f>
+      <c r="I19" s="93">
+        <f t="shared" ref="I19" si="44">H19-G19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="I19" s="94" t="str">
-        <f>IF(ABS(H19)&lt;0.000001,"Less","More")</f>
+      <c r="J19" s="94" t="str">
+        <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L8">
+  <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4309,7 +4358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L8">
+  <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4328,155 +4377,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="146"/>
-      <c r="B1" s="146" t="s">
+    <row r="1" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="E1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
       <c r="F1" s="146"/>
       <c r="G1" s="146"/>
       <c r="H1" s="146"/>
       <c r="I1" s="146"/>
       <c r="J1" s="146"/>
       <c r="K1" s="146"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="146">
+      <c r="D2" s="146">
         <v>2</v>
       </c>
-      <c r="C2" s="146">
+      <c r="E2" s="146">
         <v>4</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
       <c r="F2" s="146"/>
       <c r="G2" s="146"/>
       <c r="H2" s="146"/>
       <c r="I2" s="146"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
-      <c r="M2">
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>5</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>8</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>8</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>8</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>8</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146">
         <v>2</v>
       </c>
-      <c r="C3" s="146">
+      <c r="E3" s="146">
         <v>8</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
       <c r="F3" s="146"/>
       <c r="G3" s="146"/>
       <c r="H3" s="146"/>
       <c r="I3" s="146"/>
       <c r="J3" s="146"/>
       <c r="K3" s="146"/>
-      <c r="M3">
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>8</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
       </c>
       <c r="Q3">
         <v>6</v>
       </c>
       <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
         <v>8</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>8</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>6</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146">
         <v>5</v>
       </c>
-      <c r="C4" s="146">
+      <c r="E4" s="146">
         <v>6</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
       <c r="F4" s="146"/>
       <c r="G4" s="146"/>
       <c r="H4" s="146"/>
       <c r="I4" s="146"/>
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
       <c r="O4">
         <v>1</v>
       </c>
@@ -4504,207 +4559,217 @@
       <c r="W4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="147" t="s">
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="147">
+      <c r="D5" s="147">
         <v>2</v>
       </c>
-      <c r="C5" s="147">
+      <c r="E5" s="147">
         <v>4</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
       <c r="H5" s="146"/>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
       <c r="K5" s="146"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="146">
+      <c r="D6" s="146">
         <v>5</v>
       </c>
-      <c r="C6" s="146">
+      <c r="E6" s="146">
         <v>6</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
       <c r="H6" s="146"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146">
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="146"/>
+      <c r="D7" s="146">
         <v>8</v>
       </c>
-      <c r="C7" s="146">
+      <c r="E7" s="146">
         <v>6</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
       <c r="F7" s="146"/>
       <c r="G7" s="146"/>
       <c r="H7" s="146"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146">
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C8" s="146"/>
+      <c r="D8" s="146">
         <v>8</v>
       </c>
-      <c r="C8" s="146">
+      <c r="E8" s="146">
         <v>8</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
       <c r="F8" s="146"/>
       <c r="G8" s="146"/>
       <c r="H8" s="146"/>
       <c r="I8" s="146"/>
       <c r="J8" s="146"/>
       <c r="K8" s="146"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146">
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C9" s="146"/>
+      <c r="D9" s="146">
         <v>2</v>
       </c>
-      <c r="C9" s="146">
+      <c r="E9" s="146">
         <v>8</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
       <c r="F9" s="146"/>
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
       <c r="I9" s="146"/>
       <c r="J9" s="146"/>
       <c r="K9" s="146"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="147">
+      <c r="D10" s="147">
         <v>5</v>
       </c>
-      <c r="C10" s="147">
+      <c r="E10" s="147">
         <v>6</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
       <c r="F10" s="146"/>
       <c r="G10" s="146"/>
       <c r="H10" s="146"/>
       <c r="I10" s="146"/>
       <c r="J10" s="146"/>
       <c r="K10" s="146"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C11" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="146">
+      <c r="D11" s="146">
         <v>5</v>
       </c>
-      <c r="C11" s="146">
+      <c r="E11" s="146">
         <v>6</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
       <c r="F11" s="146"/>
       <c r="G11" s="146"/>
       <c r="H11" s="146"/>
       <c r="I11" s="146"/>
       <c r="J11" s="146"/>
       <c r="K11" s="146"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146">
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="146"/>
+      <c r="D12" s="146">
         <v>8</v>
       </c>
-      <c r="C12" s="146">
+      <c r="E12" s="146">
         <v>6</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
       <c r="F12" s="146"/>
       <c r="G12" s="146"/>
       <c r="H12" s="146"/>
       <c r="I12" s="146"/>
       <c r="J12" s="146"/>
       <c r="K12" s="146"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146">
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="146"/>
+      <c r="D13" s="146">
         <v>8</v>
       </c>
-      <c r="C13" s="146">
+      <c r="E13" s="146">
         <v>4</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
       <c r="F13" s="146"/>
       <c r="G13" s="146"/>
       <c r="H13" s="146"/>
       <c r="I13" s="146"/>
       <c r="J13" s="146"/>
       <c r="K13" s="146"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146">
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="146"/>
+      <c r="D14" s="146">
         <v>2</v>
       </c>
-      <c r="C14" s="146">
+      <c r="E14" s="146">
         <v>4</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
       <c r="F14" s="146"/>
       <c r="G14" s="146"/>
       <c r="H14" s="146"/>
       <c r="I14" s="146"/>
       <c r="J14" s="146"/>
       <c r="K14" s="146"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C15" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="147">
+      <c r="D15" s="147">
         <v>5</v>
       </c>
-      <c r="C15" s="147">
+      <c r="E15" s="147">
         <v>6</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
       <c r="F15" s="146"/>
       <c r="G15" s="146"/>
       <c r="H15" s="146"/>
       <c r="I15" s="146"/>
       <c r="J15" s="146"/>
       <c r="K15" s="146"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="146"/>
       <c r="D16" s="146"/>
       <c r="E16" s="146"/>
@@ -4714,10 +4779,10 @@
       <c r="I16" s="146"/>
       <c r="J16" s="146"/>
       <c r="K16" s="146"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="146"/>
       <c r="D17" s="146"/>
       <c r="E17" s="146"/>
@@ -4727,10 +4792,10 @@
       <c r="I17" s="146"/>
       <c r="J17" s="146"/>
       <c r="K17" s="146"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="146"/>
       <c r="D18" s="146"/>
       <c r="E18" s="146"/>
@@ -4740,6 +4805,8 @@
       <c r="I18" s="146"/>
       <c r="J18" s="146"/>
       <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4749,882 +4816,898 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F18:F24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="149"/>
+    <col min="2" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="86">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="86">
         <v>1.6</v>
       </c>
-      <c r="D1" s="86">
+      <c r="E1" s="86">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="123" t="s">
+      <c r="O2" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="P2" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="Q2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="123" t="s">
+      <c r="R2" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="123" t="s">
+      <c r="S2" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="123" t="s">
+      <c r="T2" s="123" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="86">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="86">
         <v>0</v>
       </c>
-      <c r="D3" s="86">
+      <c r="E3" s="86">
         <v>0</v>
       </c>
-      <c r="N3" s="123">
-        <f>F16</f>
+      <c r="O3" s="123">
+        <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="O3" s="123">
-        <f>L24</f>
+      <c r="P3" s="123">
+        <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="P3" s="123">
-        <f>F26</f>
+      <c r="Q3" s="123">
+        <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="Q3" s="123">
-        <f>P3-N3</f>
+      <c r="R3" s="123">
+        <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="R3" s="123">
-        <f>P3-O3</f>
+      <c r="S3" s="123">
+        <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="S3" s="123">
+      <c r="T3" s="123">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N4" s="123"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
+        <v>11</v>
+      </c>
       <c r="O4" s="123"/>
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
       <c r="R4" s="123"/>
       <c r="S4" s="123"/>
-    </row>
-    <row r="5" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="T4" s="123"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="D5" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="E5" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="F5" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="G5" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="I5" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="128" t="s">
+      <c r="J5" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="K5" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="L5" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="129" t="s">
+      <c r="M5" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="123"/>
       <c r="O5" s="123"/>
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
       <c r="R5" s="123"/>
       <c r="S5" s="123"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="126">
+      <c r="T5" s="123"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="126">
         <v>0</v>
       </c>
-      <c r="C6" s="54">
+      <c r="D6" s="54">
         <v>0</v>
       </c>
-      <c r="D6" s="54">
-        <f>2*EXP(C6)+POWER(C6,3)</f>
+      <c r="E6" s="54">
+        <f>2*EXP(D6)+POWER(D6,3)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="54">
+      <c r="F6" s="54">
         <v>1</v>
       </c>
-      <c r="F6" s="55">
-        <f>D6*E6</f>
+      <c r="G6" s="55">
+        <f>E6*F6</f>
         <v>2</v>
       </c>
-      <c r="H6" s="130">
+      <c r="I6" s="130">
         <v>0</v>
       </c>
-      <c r="I6" s="110">
+      <c r="J6" s="110">
         <v>0</v>
       </c>
-      <c r="J6" s="110">
-        <f>2*EXP(I6)+POWER(I6,3)</f>
+      <c r="K6" s="110">
+        <f>2*EXP(J6)+POWER(J6,3)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="110">
+      <c r="L6" s="110">
         <v>1</v>
       </c>
-      <c r="L6" s="111">
-        <f>J6*K6</f>
+      <c r="M6" s="111">
+        <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="123"/>
       <c r="O6" s="123"/>
       <c r="P6" s="123"/>
       <c r="Q6" s="123"/>
       <c r="R6" s="123"/>
       <c r="S6" s="123"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="126">
-        <f>B6+1</f>
+      <c r="T6" s="123"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="126">
+        <f>C6+1</f>
         <v>1</v>
       </c>
-      <c r="C7" s="54">
-        <f>C6+0.2</f>
+      <c r="D7" s="54">
+        <f>D6+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="D7" s="54">
-        <f t="shared" ref="D7:D14" si="0">2*EXP(C7)+POWER(C7,3)</f>
+      <c r="E7" s="54">
+        <f t="shared" ref="E7:E14" si="0">2*EXP(D7)+POWER(D7,3)</f>
         <v>2.4508055163203397</v>
       </c>
-      <c r="E7" s="54">
+      <c r="F7" s="54">
         <v>4</v>
       </c>
-      <c r="F7" s="55">
-        <f t="shared" ref="F7:F14" si="1">D7*E7</f>
+      <c r="G7" s="55">
+        <f t="shared" ref="G7:G14" si="1">E7*F7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="H7" s="130">
-        <f>H6+1</f>
+      <c r="I7" s="130">
+        <f>I6+1</f>
         <v>1</v>
       </c>
-      <c r="I7" s="110">
-        <f>I6+0.1</f>
+      <c r="J7" s="110">
+        <f>J6+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J7" s="110">
-        <f t="shared" ref="J7:J22" si="2">2*EXP(I7)+POWER(I7,3)</f>
+      <c r="K7" s="110">
+        <f t="shared" ref="K7:K22" si="2">2*EXP(J7)+POWER(J7,3)</f>
         <v>2.2113418361512953</v>
       </c>
-      <c r="K7" s="110">
+      <c r="L7" s="110">
         <v>4</v>
       </c>
-      <c r="L7" s="111">
-        <f t="shared" ref="L7:L22" si="3">J7*K7</f>
+      <c r="M7" s="111">
+        <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="N7" s="123"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
       <c r="Q7" s="123"/>
       <c r="R7" s="123"/>
       <c r="S7" s="123"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="126">
-        <f t="shared" ref="B8:B14" si="4">B7+1</f>
+      <c r="T7" s="123"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="126">
+        <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="54">
-        <f t="shared" ref="C8:C14" si="5">C7+0.2</f>
+      <c r="D8" s="54">
+        <f t="shared" ref="D8:D14" si="5">D7+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="D8" s="54">
+      <c r="E8" s="54">
         <f t="shared" si="0"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="E8" s="54">
+      <c r="F8" s="54">
         <v>2</v>
       </c>
-      <c r="F8" s="55">
+      <c r="G8" s="55">
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="H8" s="130">
-        <f t="shared" ref="H8:H22" si="6">H7+1</f>
+      <c r="I8" s="130">
+        <f t="shared" ref="I8:I22" si="6">I7+1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="110">
-        <f t="shared" ref="I8:I22" si="7">I7+0.1</f>
+      <c r="J8" s="110">
+        <f t="shared" ref="J8:J22" si="7">J7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="110">
+      <c r="K8" s="110">
         <f t="shared" si="2"/>
         <v>2.4508055163203397</v>
       </c>
-      <c r="K8" s="110">
+      <c r="L8" s="110">
         <v>2</v>
       </c>
-      <c r="L8" s="111">
+      <c r="M8" s="111">
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="N8" s="123"/>
       <c r="O8" s="123"/>
       <c r="P8" s="123"/>
       <c r="Q8" s="123"/>
       <c r="R8" s="123"/>
       <c r="S8" s="123"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="126">
+      <c r="T8" s="123"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="126">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C9" s="54">
+      <c r="D9" s="54">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D9" s="54">
+      <c r="E9" s="54">
         <f t="shared" si="0"/>
         <v>3.8602376007810184</v>
       </c>
-      <c r="E9" s="54">
+      <c r="F9" s="54">
         <v>4</v>
       </c>
-      <c r="F9" s="55">
+      <c r="G9" s="55">
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="H9" s="130">
+      <c r="I9" s="130">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I9" s="110">
+      <c r="J9" s="110">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J9" s="110">
+      <c r="K9" s="110">
         <f t="shared" si="2"/>
         <v>2.7267176151520065</v>
       </c>
-      <c r="K9" s="110">
+      <c r="L9" s="110">
         <v>4</v>
       </c>
-      <c r="L9" s="111">
+      <c r="M9" s="111">
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="N9" s="123"/>
       <c r="O9" s="123"/>
       <c r="P9" s="123"/>
       <c r="Q9" s="123"/>
       <c r="R9" s="123"/>
       <c r="S9" s="123"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="126">
+      <c r="T9" s="123"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="126">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C10" s="54">
+      <c r="D10" s="54">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="D10" s="54">
-        <f>2*EXP(C10)+POWER(C10,3)</f>
+      <c r="E10" s="54">
+        <f>2*EXP(D10)+POWER(D10,3)</f>
         <v>4.9630818569849362</v>
       </c>
-      <c r="E10" s="54">
+      <c r="F10" s="54">
         <v>2</v>
       </c>
-      <c r="F10" s="55">
+      <c r="G10" s="55">
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="H10" s="130">
+      <c r="I10" s="130">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I10" s="110">
+      <c r="J10" s="110">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="J10" s="110">
+      <c r="K10" s="110">
         <f t="shared" si="2"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="K10" s="110">
+      <c r="L10" s="110">
         <v>2</v>
       </c>
-      <c r="L10" s="111">
+      <c r="M10" s="111">
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="N10" s="123"/>
       <c r="O10" s="123"/>
       <c r="P10" s="123"/>
       <c r="Q10" s="123"/>
       <c r="R10" s="123"/>
       <c r="S10" s="123"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="126">
+      <c r="T10" s="123"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="126">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C11" s="54">
+      <c r="D11" s="54">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D11" s="54">
+      <c r="E11" s="54">
         <f t="shared" si="0"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="E11" s="54">
+      <c r="F11" s="54">
         <v>4</v>
       </c>
-      <c r="F11" s="55">
+      <c r="G11" s="55">
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="H11" s="130">
+      <c r="I11" s="130">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I11" s="110">
+      <c r="J11" s="110">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="J11" s="110">
+      <c r="K11" s="110">
         <f t="shared" si="2"/>
         <v>3.4224425414002564</v>
       </c>
-      <c r="K11" s="110">
+      <c r="L11" s="110">
         <v>4</v>
       </c>
-      <c r="L11" s="111">
+      <c r="M11" s="111">
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="N11" s="123"/>
       <c r="O11" s="123"/>
       <c r="P11" s="123"/>
       <c r="Q11" s="123"/>
       <c r="R11" s="123"/>
       <c r="S11" s="123"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="126">
+      <c r="T11" s="123"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="126">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C12" s="54">
+      <c r="D12" s="54">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="D12" s="54">
+      <c r="E12" s="54">
         <f t="shared" si="0"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="E12" s="54">
+      <c r="F12" s="54">
         <v>2</v>
       </c>
-      <c r="F12" s="55">
+      <c r="G12" s="55">
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="H12" s="130">
+      <c r="I12" s="130">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="I12" s="110">
+      <c r="J12" s="110">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="J12" s="110">
+      <c r="K12" s="110">
         <f t="shared" si="2"/>
         <v>3.860237600781018</v>
       </c>
-      <c r="K12" s="110">
+      <c r="L12" s="110">
         <v>2</v>
       </c>
-      <c r="L12" s="111">
+      <c r="M12" s="111">
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="N12" s="123"/>
       <c r="O12" s="123"/>
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
       <c r="R12" s="123"/>
       <c r="S12" s="123"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="126">
+      <c r="T12" s="123"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="126">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C13" s="54">
+      <c r="D13" s="54">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="D13" s="54">
+      <c r="E13" s="54">
         <f t="shared" si="0"/>
         <v>10.854399933689349</v>
       </c>
-      <c r="E13" s="54">
+      <c r="F13" s="54">
         <v>4</v>
       </c>
-      <c r="F13" s="55">
+      <c r="G13" s="55">
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="H13" s="130">
+      <c r="I13" s="130">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I13" s="110">
+      <c r="J13" s="110">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="J13" s="110">
+      <c r="K13" s="110">
         <f t="shared" si="2"/>
         <v>4.3705054149409532</v>
       </c>
-      <c r="K13" s="110">
+      <c r="L13" s="110">
         <v>4</v>
       </c>
-      <c r="L13" s="111">
+      <c r="M13" s="111">
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="N13" s="123"/>
       <c r="O13" s="123"/>
       <c r="P13" s="123"/>
       <c r="Q13" s="123"/>
       <c r="R13" s="123"/>
       <c r="S13" s="123"/>
-    </row>
-    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127">
+      <c r="T13" s="123"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="127">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C14" s="56">
+      <c r="D14" s="56">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="D14" s="56">
+      <c r="E14" s="56">
         <f t="shared" si="0"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="E14" s="56">
+      <c r="F14" s="56">
         <v>1</v>
       </c>
-      <c r="F14" s="57">
+      <c r="G14" s="57">
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="H14" s="130">
+      <c r="I14" s="130">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I14" s="110">
+      <c r="J14" s="110">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J14" s="110">
+      <c r="K14" s="110">
         <f t="shared" si="2"/>
         <v>4.9630818569849344</v>
       </c>
-      <c r="K14" s="110">
+      <c r="L14" s="110">
         <v>2</v>
       </c>
-      <c r="L14" s="111">
+      <c r="M14" s="111">
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="N14" s="123"/>
       <c r="O14" s="123"/>
       <c r="P14" s="123"/>
       <c r="Q14" s="123"/>
       <c r="R14" s="123"/>
       <c r="S14" s="123"/>
-    </row>
-    <row r="15" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="53" t="s">
+      <c r="T14" s="123"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="125">
-        <f>SUM(F6:F14)</f>
+      <c r="G15" s="125">
+        <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="H15" s="130">
+      <c r="I15" s="130">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I15" s="110">
+      <c r="J15" s="110">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="J15" s="110">
+      <c r="K15" s="110">
         <f t="shared" si="2"/>
         <v>5.6482062223138989</v>
       </c>
-      <c r="K15" s="110">
+      <c r="L15" s="110">
         <v>4</v>
       </c>
-      <c r="L15" s="111">
+      <c r="M15" s="111">
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="N15" s="123"/>
       <c r="O15" s="123"/>
       <c r="P15" s="123"/>
       <c r="Q15" s="123"/>
       <c r="R15" s="123"/>
       <c r="S15" s="123"/>
-    </row>
-    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="127" t="s">
+      <c r="T15" s="123"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="57">
-        <f>F15*(0.2/3)</f>
+      <c r="G16" s="57">
+        <f>G15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="H16" s="130">
+      <c r="I16" s="130">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="I16" s="110">
+      <c r="J16" s="110">
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J16" s="110">
+      <c r="K16" s="110">
         <f t="shared" si="2"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="K16" s="110">
+      <c r="L16" s="110">
         <v>2</v>
       </c>
-      <c r="L16" s="111">
+      <c r="M16" s="111">
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="N16" s="123"/>
       <c r="O16" s="123"/>
       <c r="P16" s="123"/>
       <c r="Q16" s="123"/>
       <c r="R16" s="123"/>
       <c r="S16" s="123"/>
-    </row>
-    <row r="17" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="130">
+      <c r="T16" s="123"/>
+    </row>
+    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="130">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="I17" s="110">
+      <c r="J17" s="110">
         <f t="shared" si="7"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="J17" s="110">
+      <c r="K17" s="110">
         <f t="shared" si="2"/>
         <v>7.3393320478928645</v>
       </c>
-      <c r="K17" s="110">
+      <c r="L17" s="110">
         <v>4</v>
       </c>
-      <c r="L17" s="111">
+      <c r="M17" s="111">
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="N17" s="123"/>
       <c r="O17" s="123"/>
       <c r="P17" s="123"/>
       <c r="Q17" s="123"/>
       <c r="R17" s="123"/>
       <c r="S17" s="123"/>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="132">
+      <c r="T17" s="123"/>
+    </row>
+    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="132">
         <v>1.6</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134">
+      <c r="D18" s="133"/>
+      <c r="E18" s="134">
         <v>1.6</v>
       </c>
-      <c r="H18" s="130">
+      <c r="I18" s="130">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="I18" s="110">
+      <c r="J18" s="110">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="J18" s="110">
+      <c r="K18" s="110">
         <f t="shared" si="2"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="K18" s="110">
+      <c r="L18" s="110">
         <v>2</v>
       </c>
-      <c r="L18" s="111">
+      <c r="M18" s="111">
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="N18" s="123"/>
       <c r="O18" s="123"/>
       <c r="P18" s="123"/>
       <c r="Q18" s="123"/>
       <c r="R18" s="123"/>
       <c r="S18" s="123"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="135" t="s">
+      <c r="T18" s="123"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="D19" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="E19" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="130">
+      <c r="I19" s="130">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="I19" s="110">
-        <f>I18+0.1</f>
+      <c r="J19" s="110">
+        <f>J18+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="J19" s="110">
+      <c r="K19" s="110">
         <f t="shared" si="2"/>
         <v>9.5355933352384898</v>
       </c>
-      <c r="K19" s="110">
+      <c r="L19" s="110">
         <v>4</v>
       </c>
-      <c r="L19" s="111">
+      <c r="M19" s="111">
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="N19" s="123"/>
       <c r="O19" s="123"/>
       <c r="P19" s="123"/>
       <c r="Q19" s="123"/>
       <c r="R19" s="123"/>
       <c r="S19" s="123"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="138">
+      <c r="T19" s="123"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="138">
         <v>0</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="139">
+      <c r="D20" s="136"/>
+      <c r="E20" s="139">
         <v>0</v>
       </c>
-      <c r="H20" s="130">
+      <c r="I20" s="130">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="I20" s="110">
+      <c r="J20" s="110">
         <f t="shared" si="7"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="J20" s="110">
+      <c r="K20" s="110">
         <f t="shared" si="2"/>
         <v>10.854399933689351</v>
       </c>
-      <c r="K20" s="110">
+      <c r="L20" s="110">
         <v>2</v>
       </c>
-      <c r="L20" s="111">
+      <c r="M20" s="111">
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="N20" s="123"/>
       <c r="O20" s="123"/>
       <c r="P20" s="123"/>
       <c r="Q20" s="123"/>
       <c r="R20" s="123"/>
       <c r="S20" s="123"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="140"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="H21" s="130">
+      <c r="T20" s="123"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="140"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="I21" s="130">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="I21" s="110">
+      <c r="J21" s="110">
         <f t="shared" si="7"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="J21" s="110">
+      <c r="K21" s="110">
         <f t="shared" si="2"/>
         <v>12.338378140676133</v>
       </c>
-      <c r="K21" s="110">
+      <c r="L21" s="110">
         <v>4</v>
       </c>
-      <c r="L21" s="111">
+      <c r="M21" s="111">
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="N21" s="123"/>
       <c r="O21" s="123"/>
       <c r="P21" s="123"/>
       <c r="Q21" s="123"/>
       <c r="R21" s="123"/>
       <c r="S21" s="123"/>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="140" t="s">
+      <c r="T21" s="123"/>
+    </row>
+    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="D22" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="E22" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="131">
+      <c r="I22" s="131">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="I22" s="116">
+      <c r="J22" s="116">
         <f t="shared" si="7"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="J22" s="116">
+      <c r="K22" s="116">
         <f t="shared" si="2"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="K22" s="116">
+      <c r="L22" s="116">
         <v>1</v>
       </c>
-      <c r="L22" s="117">
+      <c r="M22" s="117">
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="N22" s="123"/>
       <c r="O22" s="123"/>
       <c r="P22" s="123"/>
       <c r="Q22" s="123"/>
       <c r="R22" s="123"/>
       <c r="S22" s="123"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="140">
+      <c r="T22" s="123"/>
+    </row>
+    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="140">
         <v>1.6</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="D23" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="137">
-        <f>2*EXP(B23)+POWER(B23,4)/4</f>
+      <c r="E23" s="137">
+        <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="K23" s="96" t="s">
+      <c r="L23" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="129">
-        <f>SUM(L6:L22)</f>
+      <c r="M23" s="129">
+        <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="N23" s="123"/>
       <c r="O23" s="123"/>
       <c r="P23" s="123"/>
       <c r="Q23" s="123"/>
       <c r="R23" s="123"/>
       <c r="S23" s="123"/>
-    </row>
-    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="140">
+      <c r="T23" s="123"/>
+    </row>
+    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="140">
         <v>0</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="D24" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="137">
-        <f>2*EXP(B24)+POWER(B24,4)/4</f>
+      <c r="E24" s="137">
+        <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="K24" s="131" t="s">
+      <c r="L24" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="117">
-        <f>L23*(0.1/3)</f>
+      <c r="M24" s="117">
+        <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="N24" s="123"/>
       <c r="O24" s="123"/>
       <c r="P24" s="123"/>
       <c r="Q24" s="123"/>
       <c r="R24" s="123"/>
       <c r="S24" s="123"/>
-    </row>
-    <row r="25" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="140"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-    </row>
-    <row r="26" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="142">
-        <f>D23</f>
+      <c r="T24" s="123"/>
+    </row>
+    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="140"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+    </row>
+    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="142">
+        <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="D26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="143">
-        <f>D24</f>
+      <c r="E26" s="143">
+        <f>E24</f>
         <v>2</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="F26" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="145">
-        <f>B26-D26</f>
+      <c r="G26" s="145">
+        <f>C26-E26</f>
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHere\MathsCoursework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,9 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +29,7 @@
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Student</t>
   </si>
@@ -296,17 +291,62 @@
     <t>Trapezium 2</t>
   </si>
   <si>
-    <t>[Additional]</t>
-  </si>
-  <si>
     <t>= -0.457083x^2 + 1.93825x - 1.48117</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Trappezium 1</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>x - 12</t>
+  </si>
+  <si>
+    <t>Translation 1</t>
+  </si>
+  <si>
+    <t>Translation 2</t>
+  </si>
+  <si>
+    <t>y - 3</t>
+  </si>
+  <si>
+    <t>Rotation (180)</t>
+  </si>
+  <si>
+    <t>cos(180)</t>
+  </si>
+  <si>
+    <t>-sin(180)</t>
+  </si>
+  <si>
+    <t>sin(180)</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>●</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,7 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -970,19 +1010,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1239,40 +1266,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1327,9 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1339,9 +1424,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1354,18 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1402,13 +1472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,25 +1490,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,10 +1529,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,96 +1577,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -1624,75 +1589,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1702,11 +1628,326 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,25 +1967,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1777,7 +2006,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$D$2:$D$5</c:f>
+              <c:f>('Question 3'!$P$2:$P$4,'Question 3'!$P$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1798,7 +2027,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$E$2:$E$5</c:f>
+              <c:f>('Question 3'!$Q$2:$Q$4,'Question 3'!$Q$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1817,8 +2046,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -1860,7 +2088,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$D$6:$D$10</c:f>
+              <c:f>('Question 3'!$P$6:$P$9,'Question 3'!$P$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1884,7 +2112,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$E$6:$E$10</c:f>
+              <c:f>('Question 3'!$Q$6:$Q$9,'Question 3'!$Q$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1906,8 +2134,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -1945,7 +2172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Question 3'!$D$11:$D$15</c:f>
+              <c:f>('Question 3'!$P$11:$P$14,'Question 3'!$P$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1969,7 +2196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Question 3'!$E$11:$E$15</c:f>
+              <c:f>('Question 3'!$Q$11:$Q$14,'Question 3'!$Q$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1991,30 +2218,333 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="599472840"/>
-        <c:axId val="599474808"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Translated Triangle</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$P$26:$R$26,'Question 3'!$P$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Question 3'!$P$27:$R$27,'Question 3'!$P$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Translated Trapezium 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$S$26:$V$26,'Question 3'!$S$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Question 3'!$S$27:$V$27,'Question 3'!$S$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Translated Trapezium 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$W$26:$Z$26,'Question 3'!$W$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Question 3'!$W$27:$Z$27,'Question 3'!$W$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Rotated Triangle</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$P$34:$R$34,'Question 3'!$P$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Question 3'!$P$35:$R$35,'Question 3'!$P$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Rotated Trapezium 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$S$34:$V$34,'Question 3'!$S$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 3'!$S$35:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Rotated Trapezium 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Question 3'!$W$34:$Z$34,'Question 3'!$W$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Question 3'!$W$35:$Z$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="70705152"/>
+        <c:axId val="70706688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="599472840"/>
+        <c:axId val="70705152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2032,7 +2562,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2067,16 +2596,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599474808"/>
+        <c:crossAx val="70706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="599474808"/>
+        <c:axId val="70706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2094,7 +2622,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2129,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599472840"/>
+        <c:crossAx val="70705152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2144,7 +2671,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2175,8 +2701,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2211,7 +2736,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2793,7 +3318,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,23 +3380,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53009</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>77857</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26503</xdr:rowOff>
+      <xdr:rowOff>18220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357809</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>172277</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,6 +3414,555 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456838</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149085</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7054240" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037621" y="3039715"/>
+          <a:ext cx="7054240" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[                                         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522073</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>193813</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2043636" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10328682" y="3863009"/>
+          <a:ext cx="2043636" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>364264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2200219" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10170873" y="5416826"/>
+          <a:ext cx="2200219" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[          ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2043636" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12778786" y="5416826"/>
+          <a:ext cx="2043636" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541940</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>197147</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2043636" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9122723" y="6980604"/>
+          <a:ext cx="2043636" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>540424</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>193837</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2043636" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12798685" y="6977294"/>
+          <a:ext cx="2043636" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>512122</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>150764</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2043636" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931644" y="4755894"/>
+          <a:ext cx="2043636" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460144</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7054240" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9040927" y="4608508"/>
+          <a:ext cx="7054240" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[                                         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147561</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7054240" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044233" y="6152452"/>
+          <a:ext cx="7054240" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>[                                         ]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2912,7 +3986,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +4001,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2957,7 +4031,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>e) </a:t>
+            <a:t>d) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3010,7 +4084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3045,7 +4119,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3222,26 +4296,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3265,7 +4339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3273,109 +4347,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="132" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="133" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="134" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="122" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3383,964 +4457,969 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="9.140625" style="149"/>
-    <col min="3" max="8" width="9.140625" style="13"/>
-    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="9.140625" style="89"/>
+    <col min="3" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="9.140625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="P1" s="150" t="s">
+      <c r="B1" s="91"/>
+      <c r="P1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="150"/>
-      <c r="S1" s="150" t="s">
+      <c r="Q1" s="92"/>
+      <c r="S1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="150"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="T1" s="92"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="99" t="s">
+      <c r="R2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="97" t="s">
+      <c r="T2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="100" t="s">
+      <c r="U2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="191"/>
       <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="94">
         <v>1.75</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="95">
         <v>2.25</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="95">
         <f>SUM(E3,D3)/2</f>
         <v>2</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="95">
         <f>SIN(F3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="95">
         <f>((F3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="96">
         <f>H3-G3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="108">
         <v>0</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="109">
         <f>ABS(I3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="O3" s="101">
+      <c r="O3" s="16">
         <v>0</v>
       </c>
-      <c r="P3" s="102">
+      <c r="P3" s="17">
         <v>2</v>
       </c>
-      <c r="Q3" s="103">
+      <c r="Q3" s="123">
         <f>POWER((4*SIN(P3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="R3" s="104">
+      <c r="R3" s="124">
         <v>0</v>
       </c>
-      <c r="S3" s="105">
+      <c r="S3" s="18">
         <v>2</v>
       </c>
-      <c r="T3" s="105">
+      <c r="T3" s="18">
         <f>SIN(S3)-((S3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="U3" s="106">
+      <c r="U3" s="19">
         <f>COS(S3)-(3*(S3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="152"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="20">
         <f>C3+1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="97">
         <f>IF(I3&gt;0,D3,F3)</f>
         <v>1.75</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="98">
         <f>IF(I3&gt;0,F3,E3)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="98">
         <f>SUM(E4,D4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="98">
         <f>SIN(F4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="98">
         <f t="shared" ref="H4:H6" si="0">((F4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="99">
         <f>H4-G4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="108">
         <v>1</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="110">
         <f t="shared" ref="M4:M8" si="1">ABS(I4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="O4" s="101">
+      <c r="O4" s="16">
         <f>O3+1</f>
         <v>1</v>
       </c>
-      <c r="P4" s="107">
+      <c r="P4" s="21">
         <f>Q3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q4" s="108">
+      <c r="Q4" s="125">
         <f t="shared" ref="Q4:Q8" si="2">POWER((4*SIN(P4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="R4" s="109">
+      <c r="R4" s="126">
         <f>R3+1</f>
         <v>1</v>
       </c>
-      <c r="S4" s="110">
+      <c r="S4" s="22">
         <f>S3-(T3/U3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="T4" s="110">
+      <c r="T4" s="22">
         <f>SIN(S4)-((S4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="U4" s="111">
+      <c r="U4" s="23">
         <f>COS(S4)-(3*(S4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="152"/>
+      <c r="B5" s="191"/>
       <c r="C5" s="20">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="97">
         <f t="shared" ref="D5:D6" si="4">IF(I4&gt;0,D4,F4)</f>
         <v>1.875</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="98">
         <f t="shared" ref="E5:E6" si="5">IF(I4&gt;0,F4,E4)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="98">
         <f t="shared" ref="F5:F6" si="6">SUM(E5,D5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="98">
         <f t="shared" ref="G5:G17" si="7">SIN(F5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="98">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="99">
         <f t="shared" ref="I5:I6" si="8">H5-G5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="108">
         <v>2</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="110">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="O5" s="101">
+      <c r="O5" s="16">
         <f t="shared" ref="O5:O8" si="9">O4+1</f>
         <v>2</v>
       </c>
-      <c r="P5" s="107">
+      <c r="P5" s="21">
         <f t="shared" ref="P5:P8" si="10">Q4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="125">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="R5" s="109">
+      <c r="R5" s="126">
         <f t="shared" ref="R5:R8" si="11">R4+1</f>
         <v>2</v>
       </c>
-      <c r="S5" s="110">
+      <c r="S5" s="22">
         <f>S4-(T4/U4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="T5" s="110">
+      <c r="T5" s="22">
         <f t="shared" ref="T5:T8" si="12">SIN(S5)-((S5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="U5" s="111">
+      <c r="U5" s="23">
         <f t="shared" ref="U5:U8" si="13">COS(S5)-(3*(S5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A6" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="153"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="97">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="98">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="98">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="98">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="98">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="99">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="108">
         <v>3</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="110">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="O6" s="101">
+      <c r="O6" s="16">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="P6" s="107">
+      <c r="P6" s="21">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q6" s="108">
+      <c r="Q6" s="125">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="R6" s="109">
+      <c r="R6" s="126">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="S6" s="110">
+      <c r="S6" s="22">
         <f>S5-(T5/U5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="22">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="U6" s="111">
+      <c r="U6" s="23">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="58">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C7" s="40">
         <f>C6+1</f>
         <v>4</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="100">
         <f>IF(I6&gt;0,D6,F6)</f>
         <v>1.96875</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="101">
         <f>IF(I6&gt;0,F6,E6)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="101">
         <f t="shared" ref="F7" si="14">SUM(E7,D7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="101">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="101">
         <f t="shared" ref="H7" si="15">((F7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="102">
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="L7" s="51">
+      <c r="J7" s="198"/>
+      <c r="L7" s="111">
         <v>4</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="112">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="O7" s="101">
+      <c r="O7" s="16">
         <f>O6+1</f>
         <v>4</v>
       </c>
-      <c r="P7" s="107">
+      <c r="P7" s="21">
         <f>Q6</f>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q7" s="108">
+      <c r="Q7" s="125">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="R7" s="109">
+      <c r="R7" s="126">
         <f>R6+1</f>
         <v>4</v>
       </c>
-      <c r="S7" s="110">
+      <c r="S7" s="22">
         <f>S6-(T6/U6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T7" s="110">
+      <c r="T7" s="22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U7" s="111">
+      <c r="U7" s="23">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="30">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C8" s="103">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="104">
         <f t="shared" ref="D8:D16" si="17">IF(I7&gt;0,D7,F7)</f>
         <v>1.96875</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="105">
         <f t="shared" ref="E8:E16" si="18">IF(I7&gt;0,F7,E7)</f>
         <v>1.984375</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="105">
         <f t="shared" ref="F8:F16" si="19">SUM(E8,D8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="105">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="105">
         <f t="shared" ref="H8:H16" si="20">((F8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="106">
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="113">
         <v>5</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="114">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="O8" s="112">
+      <c r="O8" s="24">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P8" s="113">
+      <c r="P8" s="25">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q8" s="114">
+      <c r="Q8" s="127">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="R8" s="115">
+      <c r="R8" s="128">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="S8" s="116">
+      <c r="S8" s="26">
         <f>S7-(T7/U7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T8" s="116">
+      <c r="T8" s="26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="117">
+      <c r="U8" s="27">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="62">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C9" s="46">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="47">
         <f t="shared" si="17"/>
         <v>1.96875</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="47">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="47">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="47">
         <f t="shared" si="7"/>
         <v>0.9203351130898344</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="47">
         <f t="shared" si="20"/>
         <v>0.91908515989780426</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="48">
         <f t="shared" si="21"/>
         <v>-1.2499531920301399E-3</v>
       </c>
-      <c r="J9" s="49" t="str">
+      <c r="J9" s="38" t="str">
         <f t="shared" ref="J9:J18" si="22">IF(ABS(I9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="116">
         <f>MAX(M3:M7)</f>
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="38">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="28">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="29">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="29">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="29">
         <f t="shared" si="19"/>
         <v>1.974609375</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="29">
         <f t="shared" si="7"/>
         <v>0.9195694308900767</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="29">
         <f t="shared" si="20"/>
         <v>0.92479105852544308</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="30">
         <f t="shared" si="21"/>
         <v>5.2216276353663771E-3</v>
       </c>
-      <c r="J10" s="49" t="str">
+      <c r="J10" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="38">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C11" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="29">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="29">
         <f t="shared" si="18"/>
         <v>1.974609375</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="29">
         <f t="shared" si="19"/>
         <v>1.9736328125</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="29">
         <f t="shared" si="7"/>
         <v>0.9199527106575569</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="29">
         <f t="shared" si="20"/>
         <v>0.9219366975594312</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="30">
         <f t="shared" si="21"/>
         <v>1.9839869018742906E-3</v>
       </c>
-      <c r="J11" s="49" t="str">
+      <c r="J11" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="75" t="s">
+      <c r="N11" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="84" t="s">
+      <c r="P11" s="68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="38">
+    <row r="12" spans="1:21">
+      <c r="C12" s="28">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="29">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="29">
         <f t="shared" si="18"/>
         <v>1.9736328125</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="29">
         <f t="shared" si="19"/>
         <v>1.97314453125</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="29">
         <f t="shared" si="7"/>
         <v>0.92014402156340858</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="29">
         <f t="shared" si="20"/>
         <v>0.9205105759028811</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="30">
         <f t="shared" si="21"/>
         <v>3.6655433947252458E-4</v>
       </c>
-      <c r="J12" s="49" t="str">
+      <c r="J12" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="52">
         <f>F8</f>
         <v>1.9765625</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="60">
         <f>1.97303383-M12</f>
         <v>-3.5286699999999005E-3</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="65">
         <v>1.75</v>
       </c>
-      <c r="P12" s="82">
+      <c r="P12" s="66">
         <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="38">
+    <row r="13" spans="1:21">
+      <c r="C13" s="28">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="29">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="29">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="29">
         <f t="shared" si="19"/>
         <v>1.972900390625</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="29">
         <f t="shared" si="7"/>
         <v>0.92023959475189843</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="29">
         <f t="shared" si="20"/>
         <v>0.91979777970482246</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="30">
         <f t="shared" si="21"/>
         <v>-4.4181504707596631E-4</v>
       </c>
-      <c r="J13" s="49" t="str">
+      <c r="J13" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="L13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="53">
         <f>P8</f>
         <v>1.9730326316310438</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="61">
         <f t="shared" ref="N13:N14" si="24">1.97303383-M13</f>
         <v>1.1983689562899968E-6</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="63">
         <f>P4</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P13" s="70">
+      <c r="P13" s="54">
         <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="38">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="C14" s="28">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="29">
         <f t="shared" si="17"/>
         <v>1.972900390625</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="29">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="29">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="29">
         <f t="shared" si="7"/>
         <v>0.9201918150136168</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="29">
         <f t="shared" si="20"/>
         <v>0.92015415575360748</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="30">
         <f t="shared" si="21"/>
         <v>-3.7659260009315076E-5</v>
       </c>
-      <c r="J14" s="49" t="str">
+      <c r="J14" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M14" s="56">
         <f>S8</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="62">
         <f t="shared" si="24"/>
         <v>-4.5671446624595546E-9</v>
       </c>
-      <c r="O14" s="80">
+      <c r="O14" s="64">
         <f>S4</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="P14" s="73">
+      <c r="P14" s="57">
         <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="38">
+    <row r="15" spans="1:21" ht="15.75" thickTop="1">
+      <c r="C15" s="28">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="29">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="29">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="29">
         <f t="shared" si="19"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="29">
         <f t="shared" si="7"/>
         <v>0.92016792000245906</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="29">
         <f t="shared" si="20"/>
         <v>0.92033236031551269</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="30">
         <f t="shared" si="21"/>
         <v>1.644403130536265E-4</v>
       </c>
-      <c r="J15" s="49" t="str">
+      <c r="J15" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="43">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="C16" s="33">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="34">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="34">
         <f t="shared" si="18"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="34">
         <f t="shared" si="19"/>
         <v>1.973052978515625</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="34">
         <f t="shared" si="7"/>
         <v>0.92017986793653006</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="34">
         <f t="shared" si="20"/>
         <v>0.9202432566563985</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="35">
         <f>H16-G16</f>
         <v>6.3388719868440191E-5</v>
       </c>
-      <c r="J16" s="49" t="str">
+      <c r="J16" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="46">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="36">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="29">
         <f t="shared" ref="D17" si="28">IF(I16&gt;0,D16,F16)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="29">
         <f t="shared" ref="E17" si="29">IF(I16&gt;0,F16,E16)</f>
         <v>1.973052978515625</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="29">
         <f t="shared" ref="F17" si="30">SUM(E17,D17)/2</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="29">
         <f t="shared" si="7"/>
         <v>0.92018584158219718</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="29">
         <f t="shared" ref="H17" si="31">((F17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="30">
         <f t="shared" ref="I17" si="32">H17-G17</f>
         <v>1.2864278268076568E-5</v>
       </c>
-      <c r="J17" s="49" t="str">
+      <c r="J17" s="38" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="47">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C18" s="37">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="31">
         <f t="shared" ref="D18" si="33">IF(I17&gt;0,D17,F17)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="31">
         <f t="shared" ref="E18" si="34">IF(I17&gt;0,F17,E17)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="31">
         <f t="shared" ref="F18" si="35">SUM(E18,D18)/2</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="31">
         <f t="shared" ref="G18" si="36">SIN(F18)</f>
         <v>0.92018882832468807</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="31">
         <f t="shared" ref="H18" si="37">((F18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="32">
         <f t="shared" ref="I18" si="38">H18-G18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
-      <c r="J18" s="50" t="str">
+      <c r="J18" s="39" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="91">
+    <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C19" s="117">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="118">
         <f t="shared" ref="D19" si="39">IF(I18&gt;0,D18,F18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="118">
         <f t="shared" ref="E19" si="40">IF(I18&gt;0,F18,E18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="118">
         <f t="shared" ref="F19" si="41">SUM(E19,D19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="118">
         <f t="shared" ref="G19" si="42">SIN(F19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="118">
         <f t="shared" ref="H19" si="43">((F19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="119">
         <f t="shared" ref="I19" si="44">H19-G19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="J19" s="94" t="str">
+      <c r="J19" s="120" t="str">
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:12" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="P1:Q1"/>
@@ -4349,9 +5428,9 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4361,8 +5440,8 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -4376,1338 +5455,2114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="13" width="9.140625" style="90"/>
+    <col min="14" max="14" width="9.140625" style="10"/>
+    <col min="15" max="16384" width="9.140625" style="90"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="Q1" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="146">
+      <c r="P2" s="78">
         <v>2</v>
       </c>
-      <c r="E2" s="146">
+      <c r="Q2" s="78">
         <v>4</v>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="O2">
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="Q3" s="78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A6" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="78">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickTop="1">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="Q9" s="78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="O11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="78">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="Q11" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="3:26" ht="15.75" thickTop="1">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="165" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="167"/>
+    </row>
+    <row r="18" spans="3:26">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="O18" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="169">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="169">
+        <v>2</v>
+      </c>
+      <c r="R18" s="169">
         <v>5</v>
       </c>
-      <c r="S2">
+      <c r="S18" s="169">
+        <v>5</v>
+      </c>
+      <c r="T18" s="169">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="U18" s="169">
         <v>8</v>
       </c>
-      <c r="U2">
+      <c r="V18" s="169">
         <v>2</v>
       </c>
-      <c r="V2">
+      <c r="W18" s="169">
         <v>5</v>
       </c>
-      <c r="W2">
+      <c r="X18" s="169">
         <v>8</v>
       </c>
-      <c r="X2">
+      <c r="Y18" s="169">
         <v>8</v>
       </c>
-      <c r="Y2">
+      <c r="Z18" s="170">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+    <row r="19" spans="3:26">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="O19" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="169">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="169">
+        <v>8</v>
+      </c>
+      <c r="R19" s="169">
+        <v>6</v>
+      </c>
+      <c r="S19" s="169">
+        <v>6</v>
+      </c>
+      <c r="T19" s="169">
+        <v>6</v>
+      </c>
+      <c r="U19" s="169">
+        <v>8</v>
+      </c>
+      <c r="V19" s="169">
+        <v>8</v>
+      </c>
+      <c r="W19" s="169">
+        <v>6</v>
+      </c>
+      <c r="X19" s="169">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="169">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" ht="15.75" thickBot="1">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="O20" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="171">
+        <v>1</v>
+      </c>
+      <c r="R20" s="171">
+        <v>1</v>
+      </c>
+      <c r="S20" s="171">
+        <v>1</v>
+      </c>
+      <c r="T20" s="171">
+        <v>1</v>
+      </c>
+      <c r="U20" s="171">
+        <v>1</v>
+      </c>
+      <c r="V20" s="171">
+        <v>1</v>
+      </c>
+      <c r="W20" s="171">
+        <v>1</v>
+      </c>
+      <c r="X20" s="171">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="171">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+    </row>
+    <row r="22" spans="3:26" ht="15.75" thickTop="1">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="O22" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141">
+        <v>1</v>
+      </c>
+      <c r="S22" s="141">
+        <v>0</v>
+      </c>
+      <c r="T22" s="141">
+        <v>-12</v>
+      </c>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="141"/>
+      <c r="Y22" s="141"/>
+      <c r="Z22" s="174"/>
+    </row>
+    <row r="23" spans="3:26">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="O23" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="144" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144">
+        <v>0</v>
+      </c>
+      <c r="S23" s="144">
+        <v>1</v>
+      </c>
+      <c r="T23" s="144">
+        <v>-3</v>
+      </c>
+      <c r="U23" s="144"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="144"/>
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="145"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144">
+        <v>0</v>
+      </c>
+      <c r="S24" s="144">
+        <v>0</v>
+      </c>
+      <c r="T24" s="144">
+        <v>1</v>
+      </c>
+      <c r="U24" s="144"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="144"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="145"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="145"/>
+    </row>
+    <row r="26" spans="3:26">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="144">
+        <f>SUM($R22*P$18,$S22*P$19,$T22*P$20)</f>
+        <v>-10</v>
+      </c>
+      <c r="Q26" s="144">
+        <f t="shared" ref="Q26:Z26" si="0">SUM($R22*Q$18,$S22*Q$19,$T22*Q$20)</f>
+        <v>-10</v>
+      </c>
+      <c r="R26" s="144">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="S26" s="144">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="T26" s="144">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="U26" s="144">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="V26" s="144">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="W26" s="144">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="X26" s="144">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Y26" s="144">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Z26" s="145">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="144">
+        <f t="shared" ref="P27:Z27" si="1">SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="144">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R27" s="144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S27" s="144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T27" s="144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U27" s="144">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V27" s="144">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W27" s="144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="X27" s="144">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y27" s="144">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="145">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" ht="15.75" thickBot="1">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151">
+        <f>SUM($R24*P$18,$S24*P$19,$T24*P$20)</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="151">
+        <f t="shared" ref="Q28:Z28" si="2">SUM($R24*Q$18,$S24*Q$19,$T24*Q$20)</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="3:26" ht="15.75" thickTop="1">
+      <c r="O30" s="176" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="83">
+        <v>0</v>
+      </c>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="83">
+        <v>0</v>
+      </c>
+      <c r="X30" s="83">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="178"/>
+    </row>
+    <row r="31" spans="3:26">
+      <c r="O31" s="86"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="179" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" s="84">
+        <v>0</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84">
+        <v>0</v>
+      </c>
+      <c r="W31" s="84">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="85"/>
+    </row>
+    <row r="32" spans="3:26">
+      <c r="O32" s="86"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84">
+        <v>0</v>
+      </c>
+      <c r="S32" s="84">
+        <v>0</v>
+      </c>
+      <c r="T32" s="84">
+        <v>1</v>
+      </c>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84">
+        <v>0</v>
+      </c>
+      <c r="W32" s="84">
+        <v>0</v>
+      </c>
+      <c r="X32" s="84">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="85"/>
+    </row>
+    <row r="33" spans="15:26">
+      <c r="O33" s="86"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="85"/>
+    </row>
+    <row r="34" spans="15:26">
+      <c r="O34" s="86"/>
+      <c r="P34" s="84">
+        <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
         <v>10</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146">
-        <v>2</v>
-      </c>
-      <c r="E3" s="146">
-        <v>8</v>
-      </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="O3">
+      <c r="Q34" s="84">
+        <f>SUM($V30*Q$26,$W30*Q$27,$X30*Q$28)</f>
+        <v>10</v>
+      </c>
+      <c r="R34" s="84">
+        <f>SUM($V30*R$26,$W30*R$27,$X30*R$28)</f>
+        <v>7</v>
+      </c>
+      <c r="S34" s="84">
+        <f>SUM($V30*S$26,$W30*S$27,$X30*S$28)</f>
+        <v>7</v>
+      </c>
+      <c r="T34" s="84">
+        <f>SUM($V30*T$26,$W30*T$27,$X30*T$28)</f>
         <v>4</v>
       </c>
-      <c r="P3">
-        <v>8</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
-      </c>
-      <c r="U3">
-        <v>8</v>
-      </c>
-      <c r="V3">
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <v>6</v>
-      </c>
-      <c r="X3">
+      <c r="U34" s="84">
+        <f>SUM($V30*U$26,$W30*U$27,$X30*U$28)</f>
         <v>4</v>
       </c>
-      <c r="Y3">
+      <c r="V34" s="84">
+        <f>SUM($V30*V$26,$W30*V$27,$X30*V$28)</f>
+        <v>10</v>
+      </c>
+      <c r="W34" s="84">
+        <f>SUM($V30*W$26,$W30*W$27,$X30*W$28)</f>
+        <v>7</v>
+      </c>
+      <c r="X34" s="84">
+        <f>SUM($V30*X$26,$W30*X$27,$X30*X$28)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146">
-        <v>5</v>
-      </c>
-      <c r="E4" s="146">
-        <v>6</v>
-      </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="O4">
+      <c r="Y34" s="84">
+        <f>SUM($V30*Y$26,$W30*Y$27,$X30*Y$28)</f>
+        <v>4</v>
+      </c>
+      <c r="Z34" s="85">
+        <f>SUM($V30*Z$26,$W30*Z$27,$X30*Z$28)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="15:26">
+      <c r="O35" s="86"/>
+      <c r="P35" s="84">
+        <f>SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="84">
+        <f>SUM($V31*Q$26,$W31*Q$27,$X31*Q$28)</f>
+        <v>-5</v>
+      </c>
+      <c r="R35" s="84">
+        <f>SUM($V31*R$26,$W31*R$27,$X31*R$28)</f>
+        <v>-3</v>
+      </c>
+      <c r="S35" s="84">
+        <f>SUM($V31*S$26,$W31*S$27,$X31*S$28)</f>
+        <v>-3</v>
+      </c>
+      <c r="T35" s="84">
+        <f>SUM($V31*T$26,$W31*T$27,$X31*T$28)</f>
+        <v>-3</v>
+      </c>
+      <c r="U35" s="84">
+        <f>SUM($V31*U$26,$W31*U$27,$X31*U$28)</f>
+        <v>-5</v>
+      </c>
+      <c r="V35" s="84">
+        <f>SUM($V31*V$26,$W31*V$27,$X31*V$28)</f>
+        <v>-5</v>
+      </c>
+      <c r="W35" s="84">
+        <f>SUM($V31*W$26,$W31*W$27,$X31*W$28)</f>
+        <v>-3</v>
+      </c>
+      <c r="X35" s="84">
+        <f>SUM($V31*X$26,$W31*X$27,$X31*X$28)</f>
+        <v>-3</v>
+      </c>
+      <c r="Y35" s="84">
+        <f>SUM($V31*Y$26,$W31*Y$27,$X31*Y$28)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z35" s="85">
+        <f>SUM($V31*Z$26,$W31*Z$27,$X31*Z$28)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="15:26" ht="15.75" thickBot="1">
+      <c r="O36" s="87"/>
+      <c r="P36" s="88">
+        <f>SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="Q36" s="88">
+        <f>SUM($V32*Q$26,$W32*Q$27,$X32*Q$28)</f>
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R36" s="88">
+        <f>SUM($V32*R$26,$W32*R$27,$X32*R$28)</f>
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="S36" s="88">
+        <f>SUM($V32*S$26,$W32*S$27,$X32*S$28)</f>
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="T36" s="88">
+        <f>SUM($V32*T$26,$W32*T$27,$X32*T$28)</f>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U36" s="88">
+        <f>SUM($V32*U$26,$W32*U$27,$X32*U$28)</f>
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V36" s="88">
+        <f>SUM($V32*V$26,$W32*V$27,$X32*V$28)</f>
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="W36" s="88">
+        <f>SUM($V32*W$26,$W32*W$27,$X32*W$28)</f>
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="X36" s="88">
+        <f>SUM($V32*X$26,$W32*X$27,$X32*X$28)</f>
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="Y36" s="88">
+        <f>SUM($V32*Y$26,$W32*Y$27,$X32*Y$28)</f>
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="Z36" s="180">
+        <f>SUM($V32*Z$26,$W32*Z$27,$X32*Z$28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="147">
-        <v>2</v>
-      </c>
-      <c r="E5" s="147">
-        <v>4</v>
-      </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="146">
-        <v>5</v>
-      </c>
-      <c r="E6" s="146">
-        <v>6</v>
-      </c>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="146"/>
-      <c r="D7" s="146">
-        <v>8</v>
-      </c>
-      <c r="E7" s="146">
-        <v>6</v>
-      </c>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="146"/>
-      <c r="D8" s="146">
-        <v>8</v>
-      </c>
-      <c r="E8" s="146">
-        <v>8</v>
-      </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="146"/>
-      <c r="D9" s="146">
-        <v>2</v>
-      </c>
-      <c r="E9" s="146">
-        <v>8</v>
-      </c>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="147">
-        <v>5</v>
-      </c>
-      <c r="E10" s="147">
-        <v>6</v>
-      </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="146">
-        <v>5</v>
-      </c>
-      <c r="E11" s="146">
-        <v>6</v>
-      </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="146"/>
-      <c r="D12" s="146">
-        <v>8</v>
-      </c>
-      <c r="E12" s="146">
-        <v>6</v>
-      </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="146"/>
-      <c r="D13" s="146">
-        <v>8</v>
-      </c>
-      <c r="E13" s="146">
-        <v>4</v>
-      </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="146"/>
-      <c r="D14" s="146">
-        <v>2</v>
-      </c>
-      <c r="E14" s="146">
-        <v>4</v>
-      </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="147">
-        <v>5</v>
-      </c>
-      <c r="E15" s="147">
-        <v>6</v>
-      </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
+    <row r="37" spans="15:26" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="38" spans="15:26" ht="15.75" thickTop="1">
+      <c r="O38" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="182">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="182">
+        <v>0</v>
+      </c>
+      <c r="R38" s="182">
+        <v>-12</v>
+      </c>
+      <c r="S38" s="182"/>
+      <c r="T38" s="182"/>
+      <c r="U38" s="182" t="s">
+        <v>82</v>
+      </c>
+      <c r="V38" s="182">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="182">
+        <v>0</v>
+      </c>
+      <c r="X38" s="182">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="183"/>
+    </row>
+    <row r="39" spans="15:26">
+      <c r="O39" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" s="185">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="185">
+        <v>1</v>
+      </c>
+      <c r="R39" s="185">
+        <v>-3</v>
+      </c>
+      <c r="S39" s="185"/>
+      <c r="T39" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="U39" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="V39" s="185">
+        <v>0</v>
+      </c>
+      <c r="W39" s="185">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="185">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="187"/>
+    </row>
+    <row r="40" spans="15:26">
+      <c r="O40" s="184"/>
+      <c r="P40" s="185">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="185">
+        <v>0</v>
+      </c>
+      <c r="R40" s="185">
+        <v>1</v>
+      </c>
+      <c r="S40" s="185"/>
+      <c r="T40" s="185"/>
+      <c r="U40" s="185"/>
+      <c r="V40" s="185">
+        <v>0</v>
+      </c>
+      <c r="W40" s="185">
+        <v>0</v>
+      </c>
+      <c r="X40" s="185">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="187"/>
+    </row>
+    <row r="41" spans="15:26">
+      <c r="O41" s="184"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="185"/>
+      <c r="U41" s="185"/>
+      <c r="V41" s="185"/>
+      <c r="W41" s="185"/>
+      <c r="X41" s="185"/>
+      <c r="Y41" s="187"/>
+    </row>
+    <row r="42" spans="15:26">
+      <c r="O42" s="184"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="185"/>
+      <c r="R42" s="185"/>
+      <c r="S42" s="185"/>
+      <c r="T42" s="185"/>
+      <c r="U42" s="185"/>
+      <c r="V42" s="185"/>
+      <c r="W42" s="185"/>
+      <c r="X42" s="185"/>
+      <c r="Y42" s="187"/>
+    </row>
+    <row r="43" spans="15:26">
+      <c r="O43" s="184"/>
+      <c r="P43" s="185"/>
+      <c r="Q43" s="185"/>
+      <c r="R43" s="185" t="s">
+        <v>84</v>
+      </c>
+      <c r="S43" s="185">
+        <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
+        <v>-1</v>
+      </c>
+      <c r="T43" s="185">
+        <f t="shared" ref="T43:U43" si="3">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="185">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="V43" s="185"/>
+      <c r="W43" s="185"/>
+      <c r="X43" s="185"/>
+      <c r="Y43" s="187"/>
+    </row>
+    <row r="44" spans="15:26">
+      <c r="O44" s="184"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="185"/>
+      <c r="R44" s="185" t="s">
+        <v>83</v>
+      </c>
+      <c r="S44" s="185">
+        <f t="shared" ref="S44:S45" si="4">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="185">
+        <f t="shared" ref="T44:T45" si="5">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
+        <v>-1</v>
+      </c>
+      <c r="U44" s="185">
+        <f t="shared" ref="U44:U45" si="6">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
+        <v>3</v>
+      </c>
+      <c r="V44" s="185"/>
+      <c r="W44" s="185"/>
+      <c r="X44" s="185"/>
+      <c r="Y44" s="187"/>
+    </row>
+    <row r="45" spans="15:26">
+      <c r="O45" s="184"/>
+      <c r="P45" s="185"/>
+      <c r="Q45" s="185"/>
+      <c r="R45" s="185"/>
+      <c r="S45" s="185">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="185">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="185">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V45" s="185"/>
+      <c r="W45" s="185"/>
+      <c r="X45" s="185"/>
+      <c r="Y45" s="187"/>
+    </row>
+    <row r="46" spans="15:26" ht="15.75" thickBot="1">
+      <c r="O46" s="188"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="189"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="189"/>
+      <c r="T46" s="189"/>
+      <c r="U46" s="189"/>
+      <c r="V46" s="189"/>
+      <c r="W46" s="189"/>
+      <c r="X46" s="189"/>
+      <c r="Y46" s="190"/>
+    </row>
+    <row r="47" spans="15:26" ht="15.75" thickTop="1">
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" spans="15:26">
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="P17:R17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="149"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="89"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="86">
+      <c r="C1" s="70">
         <v>1.6</v>
       </c>
-      <c r="E1" s="86">
+      <c r="E1" s="70">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="123" t="s">
+      <c r="Q2" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="123" t="s">
+      <c r="R2" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="123" t="s">
+      <c r="S2" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="123" t="s">
+      <c r="T2" s="152" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="70">
         <v>0</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="70">
         <v>0</v>
       </c>
-      <c r="O3" s="123">
+      <c r="O3" s="152">
         <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="P3" s="123">
+      <c r="P3" s="152">
         <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="Q3" s="123">
+      <c r="Q3" s="152">
         <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="R3" s="123">
+      <c r="R3" s="152">
         <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="S3" s="123">
+      <c r="S3" s="152">
         <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="T3" s="123">
+      <c r="T3" s="152">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="128" t="s">
+      <c r="K5" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="128" t="s">
+      <c r="L5" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="126">
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickTop="1">
+      <c r="C6" s="138">
         <v>0</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="98">
         <v>0</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="98">
         <f>2*EXP(D6)+POWER(D6,3)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="98">
         <v>1</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="99">
         <f>E6*F6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="81">
         <v>0</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="42">
         <v>0</v>
       </c>
-      <c r="K6" s="110">
+      <c r="K6" s="42">
         <f>2*EXP(J6)+POWER(J6,3)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="42">
         <v>1</v>
       </c>
-      <c r="M6" s="111">
+      <c r="M6" s="43">
         <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="126">
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="C7" s="138">
         <f>C6+1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="98">
         <f>D6+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="98">
         <f t="shared" ref="E7:E14" si="0">2*EXP(D7)+POWER(D7,3)</f>
         <v>2.4508055163203397</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="98">
         <v>4</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="99">
         <f t="shared" ref="G7:G14" si="1">E7*F7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I7" s="81">
         <f>I6+1</f>
         <v>1</v>
       </c>
-      <c r="J7" s="110">
+      <c r="J7" s="42">
         <f>J6+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="110">
+      <c r="K7" s="42">
         <f t="shared" ref="K7:K22" si="2">2*EXP(J7)+POWER(J7,3)</f>
         <v>2.2113418361512953</v>
       </c>
-      <c r="L7" s="110">
+      <c r="L7" s="42">
         <v>4</v>
       </c>
-      <c r="M7" s="111">
+      <c r="M7" s="43">
         <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="126">
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" s="138">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="98">
         <f t="shared" ref="D8:D14" si="5">D7+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="98">
         <f t="shared" si="0"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="98">
         <v>2</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="99">
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="I8" s="130">
+      <c r="I8" s="81">
         <f t="shared" ref="I8:I22" si="6">I7+1</f>
         <v>2</v>
       </c>
-      <c r="J8" s="110">
+      <c r="J8" s="42">
         <f t="shared" ref="J8:J22" si="7">J7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="110">
+      <c r="K8" s="42">
         <f t="shared" si="2"/>
         <v>2.4508055163203397</v>
       </c>
-      <c r="L8" s="110">
+      <c r="L8" s="42">
         <v>2</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="43">
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="126">
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" s="138">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="98">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="98">
         <f t="shared" si="0"/>
         <v>3.8602376007810184</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="98">
         <v>4</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="99">
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I9" s="81">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="42">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K9" s="110">
+      <c r="K9" s="42">
         <f t="shared" si="2"/>
         <v>2.7267176151520065</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="42">
         <v>4</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="43">
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="126">
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" s="138">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="98">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="98">
         <f>2*EXP(D10)+POWER(D10,3)</f>
         <v>4.9630818569849362</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="98">
         <v>2</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="99">
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I10" s="81">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="42">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="L10" s="110">
+      <c r="L10" s="42">
         <v>2</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="43">
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="126">
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="138">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="98">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="98">
         <f t="shared" si="0"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="98">
         <v>4</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="99">
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="81">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="42">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="K11" s="110">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
         <v>3.4224425414002564</v>
       </c>
-      <c r="L11" s="110">
+      <c r="L11" s="42">
         <v>4</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="43">
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="126">
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="138">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="98">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="98">
         <f t="shared" si="0"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="98">
         <v>2</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="99">
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="I12" s="130">
+      <c r="I12" s="81">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="42">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>3.860237600781018</v>
       </c>
-      <c r="L12" s="110">
+      <c r="L12" s="42">
         <v>2</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="43">
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="126">
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="138">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="98">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="98">
         <f t="shared" si="0"/>
         <v>10.854399933689349</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="98">
         <v>4</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="99">
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="I13" s="130">
+      <c r="I13" s="81">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J13" s="110">
+      <c r="J13" s="42">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="K13" s="110">
+      <c r="K13" s="42">
         <f t="shared" si="2"/>
         <v>4.3705054149409532</v>
       </c>
-      <c r="L13" s="110">
+      <c r="L13" s="42">
         <v>4</v>
       </c>
-      <c r="M13" s="111">
+      <c r="M13" s="43">
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="127">
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+      <c r="C14" s="139">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="105">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="105">
         <f t="shared" si="0"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="105">
         <v>1</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="106">
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="81">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="42">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K14" s="110">
+      <c r="K14" s="42">
         <f t="shared" si="2"/>
         <v>4.9630818569849344</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="42">
         <v>2</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="43">
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="53" t="s">
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickTop="1">
+      <c r="F15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="137">
         <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="I15" s="130">
+      <c r="I15" s="81">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="42">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="42">
         <f t="shared" si="2"/>
         <v>5.6482062223138989</v>
       </c>
-      <c r="L15" s="110">
+      <c r="L15" s="42">
         <v>4</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="43">
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="127" t="s">
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+      <c r="F16" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="106">
         <f>G15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="I16" s="130">
+      <c r="I16" s="81">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="42">
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K16" s="110">
+      <c r="K16" s="42">
         <f t="shared" si="2"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="L16" s="110">
+      <c r="L16" s="42">
         <v>2</v>
       </c>
-      <c r="M16" s="111">
+      <c r="M16" s="43">
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-    </row>
-    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="130">
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+    </row>
+    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I17" s="81">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J17" s="110">
+      <c r="J17" s="42">
         <f t="shared" si="7"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="42">
         <f t="shared" si="2"/>
         <v>7.3393320478928645</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="42">
         <v>4</v>
       </c>
-      <c r="M17" s="111">
+      <c r="M17" s="43">
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-    </row>
-    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="132">
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+    </row>
+    <row r="18" spans="3:20" ht="15.75" thickTop="1">
+      <c r="C18" s="140">
         <v>1.6</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134">
+      <c r="D18" s="141"/>
+      <c r="E18" s="142">
         <v>1.6</v>
       </c>
-      <c r="I18" s="130">
+      <c r="I18" s="81">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="42">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="42">
         <f t="shared" si="2"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="42">
         <v>2</v>
       </c>
-      <c r="M18" s="111">
+      <c r="M18" s="43">
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="135" t="s">
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+    </row>
+    <row r="19" spans="3:20">
+      <c r="C19" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="137" t="s">
+      <c r="E19" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I19" s="81">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="42">
         <f>J18+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="42">
         <f t="shared" si="2"/>
         <v>9.5355933352384898</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="42">
         <v>4</v>
       </c>
-      <c r="M19" s="111">
+      <c r="M19" s="43">
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="138">
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+    </row>
+    <row r="20" spans="3:20">
+      <c r="C20" s="146">
         <v>0</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="139">
+      <c r="D20" s="144"/>
+      <c r="E20" s="147">
         <v>0</v>
       </c>
-      <c r="I20" s="130">
+      <c r="I20" s="81">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="J20" s="110">
+      <c r="J20" s="42">
         <f t="shared" si="7"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="42">
         <f t="shared" si="2"/>
         <v>10.854399933689351</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="42">
         <v>2</v>
       </c>
-      <c r="M20" s="111">
+      <c r="M20" s="43">
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="140"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137"/>
-      <c r="I21" s="130">
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+    </row>
+    <row r="21" spans="3:20">
+      <c r="C21" s="148"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="I21" s="81">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J21" s="110">
+      <c r="J21" s="42">
         <f t="shared" si="7"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="K21" s="110">
+      <c r="K21" s="42">
         <f t="shared" si="2"/>
         <v>12.338378140676133</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="42">
         <v>4</v>
       </c>
-      <c r="M21" s="111">
+      <c r="M21" s="43">
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-    </row>
-    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="140" t="s">
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+    </row>
+    <row r="22" spans="3:20" ht="15.75" thickBot="1">
+      <c r="C22" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="82">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="J22" s="116">
+      <c r="J22" s="44">
         <f t="shared" si="7"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="44">
         <f t="shared" si="2"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="L22" s="116">
+      <c r="L22" s="44">
         <v>1</v>
       </c>
-      <c r="M22" s="117">
+      <c r="M22" s="45">
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-    </row>
-    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="140">
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+    </row>
+    <row r="23" spans="3:20" ht="15.75" thickTop="1">
+      <c r="C23" s="148">
         <v>1.6</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="137">
+      <c r="E23" s="145">
         <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="L23" s="96" t="s">
+      <c r="L23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="129">
+      <c r="M23" s="80">
         <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-    </row>
-    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="140">
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+    </row>
+    <row r="24" spans="3:20" ht="15.75" thickBot="1">
+      <c r="C24" s="148">
         <v>0</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="137">
+      <c r="E24" s="145">
         <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="L24" s="131" t="s">
+      <c r="L24" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="117">
+      <c r="M24" s="45">
         <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-    </row>
-    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="140"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-    </row>
-    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="142">
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+    </row>
+    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C25" s="148"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+    </row>
+    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C26" s="150">
         <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="143">
+      <c r="E26" s="151">
         <f>E24</f>
         <v>2</v>
       </c>
-      <c r="F26" s="144" t="s">
+      <c r="F26" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="145">
+      <c r="G26" s="119">
         <f>C26-E26</f>
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:20" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5716,43 +7571,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>0.8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="148" t="s">
-        <v>70</v>
+      <c r="B5" s="129" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>Student</t>
   </si>
@@ -180,15 +180,9 @@
     <t>Iteration(I)</t>
   </si>
   <si>
-    <t>x=(4*sin(x)+4)^1/3</t>
-  </si>
-  <si>
     <t>f(x)</t>
   </si>
   <si>
-    <t>x=sin(x)-((x^3)/4)+1</t>
-  </si>
-  <si>
     <t>f'(x)</t>
   </si>
   <si>
@@ -340,6 +334,15 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>Semester 2 Logbook</t>
+  </si>
+  <si>
+    <t>g(x)=(4*sin(x)+4)^1/3</t>
+  </si>
+  <si>
+    <t>f(x)=sin(x)-((x^3)/4)+1</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="69">
     <border>
@@ -1353,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1586,9 +1595,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1628,9 +1634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1757,9 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1847,15 +1847,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1947,6 +1938,60 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2536,12 +2581,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="70705152"/>
-        <c:axId val="70706688"/>
+        <c:axId val="88710528"/>
+        <c:axId val="88732800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70705152"/>
+        <c:axId val="88710528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,12 +2640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70706688"/>
+        <c:crossAx val="88732800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70706688"/>
+        <c:axId val="88732800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70705152"/>
+        <c:crossAx val="88710528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2736,7 +2780,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3318,7 +3362,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3440,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +4030,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,7 +4340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4304,153 +4348,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="197" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="197"/>
+      <c r="F2" s="197" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="197"/>
+      <c r="F3" s="197" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="197"/>
+      <c r="F4" s="197" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="198"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="197" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="E5" s="197"/>
+      <c r="F5" s="197" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="198"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="71" t="s">
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="E9" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="F9" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="G9" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="H9" s="129" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="72" t="s">
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="E10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="G10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="H10" s="130" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="73" t="s">
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="198"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="H11" s="131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="E12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="F12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="G12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="H12" s="132" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="77" t="s">
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="F13" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1">
+      <c r="A14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="198"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="198"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="198"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -4477,14 +4760,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="9.140625" style="89"/>
+    <col min="2" max="2" width="9.140625" style="88"/>
     <col min="3" max="8" width="9.140625" style="9"/>
     <col min="9" max="9" width="9.140625" style="9" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="10" customWidth="1"/>
@@ -4493,40 +4774,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="P1" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="92"/>
-      <c r="S1" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="P1" s="193" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="193"/>
+      <c r="S1" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="193"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="191"/>
+      <c r="B2" s="185"/>
       <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="91" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -4535,8 +4816,8 @@
       <c r="L2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="107" t="s">
-        <v>45</v>
+      <c r="M2" s="105" t="s">
+        <v>43</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>31</v>
@@ -4544,56 +4825,56 @@
       <c r="P2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="121" t="s">
+      <c r="Q2" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="122" t="s">
+      <c r="R2" s="120" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="T2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="191"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="92">
         <v>1.75</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="93">
         <v>2.25</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="93">
         <f>SUM(E3,D3)/2</f>
         <v>2</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="93">
         <f>SIN(F3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="H3" s="95">
+      <c r="H3" s="93">
         <f>((F3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="94">
         <f>H3-G3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="106">
         <v>0</v>
       </c>
-      <c r="M3" s="109">
+      <c r="M3" s="107">
         <f>ABS(I3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
@@ -4603,11 +4884,11 @@
       <c r="P3" s="17">
         <v>2</v>
       </c>
-      <c r="Q3" s="123">
+      <c r="Q3" s="121">
         <f>POWER((4*SIN(P3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="R3" s="124">
+      <c r="R3" s="122">
         <v>0</v>
       </c>
       <c r="S3" s="18">
@@ -4623,42 +4904,42 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="191"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="20">
         <f>C3+1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="95">
         <f>IF(I3&gt;0,D3,F3)</f>
         <v>1.75</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="96">
         <f>IF(I3&gt;0,F3,E3)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="96">
         <f>SUM(E4,D4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="96">
         <f>SIN(F4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="96">
         <f t="shared" ref="H4:H6" si="0">((F4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="97">
         <f>H4-G4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="L4" s="108">
+      <c r="L4" s="106">
         <v>1</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M8" si="1">ABS(I4)</f>
         <v>0.30613656285969382</v>
       </c>
@@ -4670,11 +4951,11 @@
         <f>Q3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q4" s="125">
+      <c r="Q4" s="123">
         <f t="shared" ref="Q4:Q8" si="2">POWER((4*SIN(P4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="R4" s="126">
+      <c r="R4" s="124">
         <f>R3+1</f>
         <v>1</v>
       </c>
@@ -4692,42 +4973,42 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="191"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="20">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="95">
         <f t="shared" ref="D5:D6" si="4">IF(I4&gt;0,D4,F4)</f>
         <v>1.875</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="96">
         <f t="shared" ref="E5:E6" si="5">IF(I4&gt;0,F4,E4)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="96">
         <f t="shared" ref="F5:F6" si="6">SUM(E5,D5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="96">
         <f t="shared" ref="G5:G17" si="7">SIN(F5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="96">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="97">
         <f t="shared" ref="I5:I6" si="8">H5-G5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="L5" s="108">
+      <c r="L5" s="106">
         <v>2</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="108">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
@@ -4739,11 +5020,11 @@
         <f t="shared" ref="P5:P8" si="10">Q4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q5" s="125">
+      <c r="Q5" s="123">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="R5" s="126">
+      <c r="R5" s="124">
         <f t="shared" ref="R5:R8" si="11">R4+1</f>
         <v>2</v>
       </c>
@@ -4761,42 +5042,42 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="192"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="95">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="96">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="96">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="96">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="96">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="97">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="L6" s="108">
+      <c r="L6" s="106">
         <v>3</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="108">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
@@ -4808,11 +5089,11 @@
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q6" s="125">
+      <c r="Q6" s="123">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="R6" s="126">
+      <c r="R6" s="124">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -4834,35 +5115,35 @@
         <f>C6+1</f>
         <v>4</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="98">
         <f>IF(I6&gt;0,D6,F6)</f>
         <v>1.96875</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="99">
         <f>IF(I6&gt;0,F6,E6)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="99">
         <f t="shared" ref="F7" si="14">SUM(E7,D7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="99">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="99">
         <f t="shared" ref="H7" si="15">((F7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="100">
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="L7" s="111">
+      <c r="J7" s="192"/>
+      <c r="L7" s="109">
         <v>4</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="110">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
@@ -4874,11 +5155,11 @@
         <f>Q6</f>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q7" s="125">
+      <c r="Q7" s="123">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="R7" s="126">
+      <c r="R7" s="124">
         <f>R6+1</f>
         <v>4</v>
       </c>
@@ -4896,41 +5177,41 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C8" s="103">
+      <c r="C8" s="101">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="102">
         <f t="shared" ref="D8:D16" si="17">IF(I7&gt;0,D7,F7)</f>
         <v>1.96875</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="103">
         <f t="shared" ref="E8:E16" si="18">IF(I7&gt;0,F7,E7)</f>
         <v>1.984375</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="103">
         <f t="shared" ref="F8:F16" si="19">SUM(E8,D8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="103">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="103">
         <f t="shared" ref="H8:H16" si="20">((F8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="104">
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="197" t="s">
+      <c r="J8" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="111">
         <v>5</v>
       </c>
-      <c r="M8" s="114">
+      <c r="M8" s="112">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
@@ -4942,11 +5223,11 @@
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q8" s="127">
+      <c r="Q8" s="125">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="R8" s="128">
+      <c r="R8" s="126">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
@@ -4996,10 +5277,10 @@
         <f t="shared" ref="J9:J18" si="22">IF(ABS(I9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="116">
+      <c r="M9" s="114">
         <f>MAX(M3:M7)</f>
         <v>0.30613656285969382</v>
       </c>
@@ -5073,19 +5354,19 @@
         <v>More</v>
       </c>
       <c r="L11" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="59" t="s">
-        <v>38</v>
-      </c>
       <c r="O11" s="67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P11" s="68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -5122,7 +5403,7 @@
         <v>More</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="52">
         <f>F8</f>
@@ -5174,7 +5455,7 @@
         <v>More</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M13" s="53">
         <f>P8</f>
@@ -5227,7 +5508,7 @@
         <v>More</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M14" s="56">
         <f>S8</f>
@@ -5386,35 +5667,35 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C19" s="117">
+      <c r="C19" s="115">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19" s="116">
         <f t="shared" ref="D19" si="39">IF(I18&gt;0,D18,F18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="116">
         <f t="shared" ref="E19" si="40">IF(I18&gt;0,F18,E18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="116">
         <f t="shared" ref="F19" si="41">SUM(E19,D19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="116">
         <f t="shared" ref="G19" si="42">SIN(F19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="H19" s="118">
+      <c r="H19" s="116">
         <f t="shared" ref="H19" si="43">((F19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="117">
         <f t="shared" ref="I19" si="44">H19-G19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="J19" s="120" t="str">
+      <c r="J19" s="118" t="str">
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
@@ -5462,13 +5743,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="90"/>
+    <col min="1" max="13" width="9.140625" style="89"/>
     <col min="14" max="14" width="9.140625" style="10"/>
-    <col min="15" max="16384" width="9.140625" style="90"/>
+    <col min="15" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="155" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="10"/>
@@ -5479,16 +5760,16 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="78" t="s">
-        <v>66</v>
+      <c r="O1" s="199"/>
+      <c r="P1" s="200" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="201" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="156" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10"/>
@@ -5499,18 +5780,18 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="O2" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="78">
+      <c r="O2" s="202" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="203">
         <v>2</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="Q2" s="204">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="157" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10"/>
@@ -5521,16 +5802,16 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78">
+      <c r="O3" s="202"/>
+      <c r="P3" s="203">
         <v>2</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="204">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="158" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="10"/>
@@ -5541,16 +5822,16 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78">
+      <c r="O4" s="202"/>
+      <c r="P4" s="203">
         <v>5</v>
       </c>
-      <c r="Q4" s="78">
+      <c r="Q4" s="204">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="159" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="10"/>
@@ -5561,14 +5842,14 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="207"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="160" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="10"/>
@@ -5579,13 +5860,13 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="O6" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="78">
+      <c r="O6" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="203">
         <v>5</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="204">
         <v>6</v>
       </c>
     </row>
@@ -5598,11 +5879,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78">
+      <c r="O7" s="202"/>
+      <c r="P7" s="203">
         <v>8</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="204">
         <v>6</v>
       </c>
     </row>
@@ -5615,11 +5896,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78">
+      <c r="O8" s="202"/>
+      <c r="P8" s="203">
         <v>8</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="204">
         <v>8</v>
       </c>
     </row>
@@ -5632,11 +5913,11 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78">
+      <c r="O9" s="202"/>
+      <c r="P9" s="203">
         <v>2</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="204">
         <v>8</v>
       </c>
     </row>
@@ -5649,9 +5930,9 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="207"/>
     </row>
     <row r="11" spans="1:28">
       <c r="F11" s="10"/>
@@ -5662,13 +5943,13 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="O11" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="78">
+      <c r="O11" s="202" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="203">
         <v>5</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="204">
         <v>6</v>
       </c>
     </row>
@@ -5681,11 +5962,11 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78">
+      <c r="O12" s="202"/>
+      <c r="P12" s="203">
         <v>8</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="204">
         <v>6</v>
       </c>
     </row>
@@ -5698,11 +5979,11 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78">
+      <c r="O13" s="202"/>
+      <c r="P13" s="203">
         <v>8</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="204">
         <v>4</v>
       </c>
     </row>
@@ -5715,15 +5996,15 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78">
+      <c r="O14" s="202"/>
+      <c r="P14" s="203">
         <v>2</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="204">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1">
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -5732,11 +6013,11 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" thickBot="1">
+      <c r="O15" s="208"/>
+      <c r="P15" s="209"/>
+      <c r="Q15" s="210"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -5761,24 +6042,24 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="165" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="167"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="196" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="195"/>
     </row>
     <row r="18" spans="3:26">
       <c r="C18" s="10"/>
@@ -5792,40 +6073,40 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="O18" s="168" t="s">
+      <c r="O18" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="169">
+      <c r="P18" s="163">
         <v>2</v>
       </c>
-      <c r="Q18" s="169">
+      <c r="Q18" s="163">
         <v>2</v>
       </c>
-      <c r="R18" s="169">
+      <c r="R18" s="163">
         <v>5</v>
       </c>
-      <c r="S18" s="169">
+      <c r="S18" s="163">
         <v>5</v>
       </c>
-      <c r="T18" s="169">
+      <c r="T18" s="163">
         <v>8</v>
       </c>
-      <c r="U18" s="169">
+      <c r="U18" s="163">
         <v>8</v>
       </c>
-      <c r="V18" s="169">
+      <c r="V18" s="163">
         <v>2</v>
       </c>
-      <c r="W18" s="169">
+      <c r="W18" s="163">
         <v>5</v>
       </c>
-      <c r="X18" s="169">
+      <c r="X18" s="163">
         <v>8</v>
       </c>
-      <c r="Y18" s="169">
+      <c r="Y18" s="163">
         <v>8</v>
       </c>
-      <c r="Z18" s="170">
+      <c r="Z18" s="164">
         <v>2</v>
       </c>
     </row>
@@ -5841,40 +6122,40 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="O19" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="169">
+      <c r="O19" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="163">
         <v>4</v>
       </c>
-      <c r="Q19" s="169">
+      <c r="Q19" s="163">
         <v>8</v>
       </c>
-      <c r="R19" s="169">
+      <c r="R19" s="163">
         <v>6</v>
       </c>
-      <c r="S19" s="169">
+      <c r="S19" s="163">
         <v>6</v>
       </c>
-      <c r="T19" s="169">
+      <c r="T19" s="163">
         <v>6</v>
       </c>
-      <c r="U19" s="169">
+      <c r="U19" s="163">
         <v>8</v>
       </c>
-      <c r="V19" s="169">
+      <c r="V19" s="163">
         <v>8</v>
       </c>
-      <c r="W19" s="169">
+      <c r="W19" s="163">
         <v>6</v>
       </c>
-      <c r="X19" s="169">
+      <c r="X19" s="163">
         <v>6</v>
       </c>
-      <c r="Y19" s="169">
+      <c r="Y19" s="163">
         <v>4</v>
       </c>
-      <c r="Z19" s="170">
+      <c r="Z19" s="164">
         <v>4</v>
       </c>
     </row>
@@ -5890,40 +6171,40 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="O20" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="171">
+      <c r="O20" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="165">
         <v>1</v>
       </c>
-      <c r="Q20" s="171">
+      <c r="Q20" s="165">
         <v>1</v>
       </c>
-      <c r="R20" s="171">
+      <c r="R20" s="165">
         <v>1</v>
       </c>
-      <c r="S20" s="171">
+      <c r="S20" s="165">
         <v>1</v>
       </c>
-      <c r="T20" s="171">
+      <c r="T20" s="165">
         <v>1</v>
       </c>
-      <c r="U20" s="171">
+      <c r="U20" s="165">
         <v>1</v>
       </c>
-      <c r="V20" s="171">
+      <c r="V20" s="165">
         <v>1</v>
       </c>
-      <c r="W20" s="171">
+      <c r="W20" s="165">
         <v>1</v>
       </c>
-      <c r="X20" s="171">
+      <c r="X20" s="165">
         <v>1</v>
       </c>
-      <c r="Y20" s="171">
+      <c r="Y20" s="165">
         <v>1</v>
       </c>
-      <c r="Z20" s="172">
+      <c r="Z20" s="166">
         <v>1</v>
       </c>
     </row>
@@ -5956,142 +6237,142 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="O22" s="173" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141">
+      <c r="O22" s="167" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138">
         <v>1</v>
       </c>
-      <c r="S22" s="141">
+      <c r="S22" s="138">
         <v>0</v>
       </c>
-      <c r="T22" s="141">
+      <c r="T22" s="138">
         <v>-12</v>
       </c>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="174"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="168"/>
     </row>
     <row r="23" spans="3:26">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="O23" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="144" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144">
+      <c r="O23" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141">
         <v>0</v>
       </c>
-      <c r="S23" s="144">
+      <c r="S23" s="141">
         <v>1</v>
       </c>
-      <c r="T23" s="144">
+      <c r="T23" s="141">
         <v>-3</v>
       </c>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="145"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="142"/>
     </row>
     <row r="24" spans="3:26">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144">
+      <c r="O24" s="145"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141">
         <v>0</v>
       </c>
-      <c r="S24" s="144">
+      <c r="S24" s="141">
         <v>0</v>
       </c>
-      <c r="T24" s="144">
+      <c r="T24" s="141">
         <v>1</v>
       </c>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="145"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="142"/>
     </row>
     <row r="25" spans="3:26">
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="142"/>
     </row>
     <row r="26" spans="3:26">
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="144">
+      <c r="O26" s="145"/>
+      <c r="P26" s="141">
         <f>SUM($R22*P$18,$S22*P$19,$T22*P$20)</f>
         <v>-10</v>
       </c>
-      <c r="Q26" s="144">
+      <c r="Q26" s="141">
         <f t="shared" ref="Q26:Z26" si="0">SUM($R22*Q$18,$S22*Q$19,$T22*Q$20)</f>
         <v>-10</v>
       </c>
-      <c r="R26" s="144">
+      <c r="R26" s="141">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="S26" s="144">
+      <c r="S26" s="141">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="T26" s="144">
+      <c r="T26" s="141">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="U26" s="144">
+      <c r="U26" s="141">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="V26" s="144">
+      <c r="V26" s="141">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="W26" s="144">
+      <c r="W26" s="141">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="X26" s="144">
+      <c r="X26" s="141">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Y26" s="144">
+      <c r="Y26" s="141">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Z26" s="145">
+      <c r="Z26" s="142">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
@@ -6100,48 +6381,48 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="144">
+      <c r="O27" s="145"/>
+      <c r="P27" s="141">
         <f t="shared" ref="P27:Z27" si="1">SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="144">
+      <c r="Q27" s="141">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R27" s="144">
+      <c r="R27" s="141">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S27" s="144">
+      <c r="S27" s="141">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T27" s="144">
+      <c r="T27" s="141">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U27" s="144">
+      <c r="U27" s="141">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V27" s="144">
+      <c r="V27" s="141">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="W27" s="144">
+      <c r="W27" s="141">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X27" s="144">
+      <c r="X27" s="141">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y27" s="144">
+      <c r="Y27" s="141">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="145">
+      <c r="Z27" s="142">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6150,48 +6431,48 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151">
+      <c r="O28" s="147"/>
+      <c r="P28" s="148">
         <f>SUM($R24*P$18,$S24*P$19,$T24*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="151">
+      <c r="Q28" s="148">
         <f t="shared" ref="Q28:Z28" si="2">SUM($R24*Q$18,$S24*Q$19,$T24*Q$20)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="151">
+      <c r="R28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S28" s="151">
+      <c r="S28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28" s="151">
+      <c r="T28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U28" s="151">
+      <c r="U28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V28" s="151">
+      <c r="V28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W28" s="151">
+      <c r="W28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X28" s="151">
+      <c r="X28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="151">
+      <c r="Y28" s="148">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="175">
+      <c r="Z28" s="169">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6202,434 +6483,434 @@
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="3:26" ht="15.75" thickTop="1">
-      <c r="O30" s="176" t="s">
+      <c r="O30" s="170" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83" t="s">
+      <c r="T30" s="82">
+        <v>0</v>
+      </c>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="82">
+        <v>0</v>
+      </c>
+      <c r="X30" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="172"/>
+    </row>
+    <row r="31" spans="3:26">
+      <c r="O31" s="85"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="S30" s="177" t="s">
-        <v>80</v>
-      </c>
-      <c r="T30" s="83">
+      <c r="S31" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="T31" s="83">
         <v>0</v>
       </c>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83">
+      <c r="U31" s="83"/>
+      <c r="V31" s="83">
+        <v>0</v>
+      </c>
+      <c r="W31" s="83">
         <v>-1</v>
       </c>
-      <c r="W30" s="83">
+      <c r="X31" s="83">
         <v>0</v>
       </c>
-      <c r="X30" s="83">
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="84"/>
+    </row>
+    <row r="32" spans="3:26">
+      <c r="O32" s="85"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83">
         <v>0</v>
       </c>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="178"/>
-    </row>
-    <row r="31" spans="3:26">
-      <c r="O31" s="86"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="T31" s="84">
+      <c r="S32" s="83">
         <v>0</v>
       </c>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84">
+      <c r="T32" s="83">
+        <v>1</v>
+      </c>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83">
         <v>0</v>
       </c>
-      <c r="W31" s="84">
+      <c r="W32" s="83">
+        <v>0</v>
+      </c>
+      <c r="X32" s="83">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="84"/>
+    </row>
+    <row r="33" spans="15:26">
+      <c r="O33" s="85"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="84"/>
+    </row>
+    <row r="34" spans="15:26">
+      <c r="O34" s="85"/>
+      <c r="P34" s="83">
+        <f t="shared" ref="P34:Z34" si="3">SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="83">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R34" s="83">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S34" s="83">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T34" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U34" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V34" s="83">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W34" s="83">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="X34" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y34" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Z34" s="84">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="15:26">
+      <c r="O35" s="85"/>
+      <c r="P35" s="83">
+        <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
         <v>-1</v>
       </c>
-      <c r="X31" s="84">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="85"/>
-    </row>
-    <row r="32" spans="3:26">
-      <c r="O32" s="86"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84">
-        <v>0</v>
-      </c>
-      <c r="S32" s="84">
-        <v>0</v>
-      </c>
-      <c r="T32" s="84">
+      <c r="Q35" s="83">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="R35" s="83">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="S35" s="83">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="T35" s="83">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="U35" s="83">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="V35" s="83">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="W35" s="83">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="X35" s="83">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="Y35" s="83">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="Z35" s="84">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="15:26" ht="15.75" thickBot="1">
+      <c r="O36" s="86"/>
+      <c r="P36" s="87">
+        <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
         <v>1</v>
       </c>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84">
-        <v>0</v>
-      </c>
-      <c r="W32" s="84">
-        <v>0</v>
-      </c>
-      <c r="X32" s="84">
+      <c r="Q36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="85"/>
-    </row>
-    <row r="33" spans="15:26">
-      <c r="O33" s="86"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="85"/>
-    </row>
-    <row r="34" spans="15:26">
-      <c r="O34" s="86"/>
-      <c r="P34" s="84">
-        <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
-        <v>10</v>
-      </c>
-      <c r="Q34" s="84">
-        <f>SUM($V30*Q$26,$W30*Q$27,$X30*Q$28)</f>
-        <v>10</v>
-      </c>
-      <c r="R34" s="84">
-        <f>SUM($V30*R$26,$W30*R$27,$X30*R$28)</f>
-        <v>7</v>
-      </c>
-      <c r="S34" s="84">
-        <f>SUM($V30*S$26,$W30*S$27,$X30*S$28)</f>
-        <v>7</v>
-      </c>
-      <c r="T34" s="84">
-        <f>SUM($V30*T$26,$W30*T$27,$X30*T$28)</f>
-        <v>4</v>
-      </c>
-      <c r="U34" s="84">
-        <f>SUM($V30*U$26,$W30*U$27,$X30*U$28)</f>
-        <v>4</v>
-      </c>
-      <c r="V34" s="84">
-        <f>SUM($V30*V$26,$W30*V$27,$X30*V$28)</f>
-        <v>10</v>
-      </c>
-      <c r="W34" s="84">
-        <f>SUM($V30*W$26,$W30*W$27,$X30*W$28)</f>
-        <v>7</v>
-      </c>
-      <c r="X34" s="84">
-        <f>SUM($V30*X$26,$W30*X$27,$X30*X$28)</f>
-        <v>4</v>
-      </c>
-      <c r="Y34" s="84">
-        <f>SUM($V30*Y$26,$W30*Y$27,$X30*Y$28)</f>
-        <v>4</v>
-      </c>
-      <c r="Z34" s="85">
-        <f>SUM($V30*Z$26,$W30*Z$27,$X30*Z$28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="15:26">
-      <c r="O35" s="86"/>
-      <c r="P35" s="84">
-        <f>SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q35" s="84">
-        <f>SUM($V31*Q$26,$W31*Q$27,$X31*Q$28)</f>
-        <v>-5</v>
-      </c>
-      <c r="R35" s="84">
-        <f>SUM($V31*R$26,$W31*R$27,$X31*R$28)</f>
-        <v>-3</v>
-      </c>
-      <c r="S35" s="84">
-        <f>SUM($V31*S$26,$W31*S$27,$X31*S$28)</f>
-        <v>-3</v>
-      </c>
-      <c r="T35" s="84">
-        <f>SUM($V31*T$26,$W31*T$27,$X31*T$28)</f>
-        <v>-3</v>
-      </c>
-      <c r="U35" s="84">
-        <f>SUM($V31*U$26,$W31*U$27,$X31*U$28)</f>
-        <v>-5</v>
-      </c>
-      <c r="V35" s="84">
-        <f>SUM($V31*V$26,$W31*V$27,$X31*V$28)</f>
-        <v>-5</v>
-      </c>
-      <c r="W35" s="84">
-        <f>SUM($V31*W$26,$W31*W$27,$X31*W$28)</f>
-        <v>-3</v>
-      </c>
-      <c r="X35" s="84">
-        <f>SUM($V31*X$26,$W31*X$27,$X31*X$28)</f>
-        <v>-3</v>
-      </c>
-      <c r="Y35" s="84">
-        <f>SUM($V31*Y$26,$W31*Y$27,$X31*Y$28)</f>
-        <v>-1</v>
-      </c>
-      <c r="Z35" s="85">
-        <f>SUM($V31*Z$26,$W31*Z$27,$X31*Z$28)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O36" s="87"/>
-      <c r="P36" s="88">
-        <f>SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
+      <c r="R36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="88">
-        <f>SUM($V32*Q$26,$W32*Q$27,$X32*Q$28)</f>
+      <c r="S36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R36" s="88">
-        <f>SUM($V32*R$26,$W32*R$27,$X32*R$28)</f>
+      <c r="T36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S36" s="88">
-        <f>SUM($V32*S$26,$W32*S$27,$X32*S$28)</f>
+      <c r="U36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T36" s="88">
-        <f>SUM($V32*T$26,$W32*T$27,$X32*T$28)</f>
+      <c r="V36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U36" s="88">
-        <f>SUM($V32*U$26,$W32*U$27,$X32*U$28)</f>
+      <c r="W36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V36" s="88">
-        <f>SUM($V32*V$26,$W32*V$27,$X32*V$28)</f>
+      <c r="X36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W36" s="88">
-        <f>SUM($V32*W$26,$W32*W$27,$X32*W$28)</f>
+      <c r="Y36" s="87">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X36" s="88">
-        <f>SUM($V32*X$26,$W32*X$27,$X32*X$28)</f>
-        <v>1</v>
-      </c>
-      <c r="Y36" s="88">
-        <f>SUM($V32*Y$26,$W32*Y$27,$X32*Y$28)</f>
-        <v>1</v>
-      </c>
-      <c r="Z36" s="180">
-        <f>SUM($V32*Z$26,$W32*Z$27,$X32*Z$28)</f>
+      <c r="Z36" s="174">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="15:26" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="38" spans="15:26" ht="15.75" thickTop="1">
-      <c r="O38" s="181" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" s="182">
+      <c r="O38" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" s="176">
         <v>1</v>
       </c>
-      <c r="Q38" s="182">
+      <c r="Q38" s="176">
         <v>0</v>
       </c>
-      <c r="R38" s="182">
+      <c r="R38" s="176">
         <v>-12</v>
       </c>
-      <c r="S38" s="182"/>
-      <c r="T38" s="182"/>
-      <c r="U38" s="182" t="s">
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38" s="176">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="176">
+        <v>0</v>
+      </c>
+      <c r="X38" s="176">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="177"/>
+    </row>
+    <row r="39" spans="15:26">
+      <c r="O39" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="179">
+        <v>1</v>
+      </c>
+      <c r="R39" s="179">
+        <v>-3</v>
+      </c>
+      <c r="S39" s="179"/>
+      <c r="T39" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" s="179" t="s">
+        <v>81</v>
+      </c>
+      <c r="V39" s="179">
+        <v>0</v>
+      </c>
+      <c r="W39" s="179">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="179">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="181"/>
+    </row>
+    <row r="40" spans="15:26">
+      <c r="O40" s="178"/>
+      <c r="P40" s="179">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="179">
+        <v>0</v>
+      </c>
+      <c r="R40" s="179">
+        <v>1</v>
+      </c>
+      <c r="S40" s="179"/>
+      <c r="T40" s="179"/>
+      <c r="U40" s="179"/>
+      <c r="V40" s="179">
+        <v>0</v>
+      </c>
+      <c r="W40" s="179">
+        <v>0</v>
+      </c>
+      <c r="X40" s="179">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="181"/>
+    </row>
+    <row r="41" spans="15:26">
+      <c r="O41" s="178"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="179"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="179"/>
+      <c r="Y41" s="181"/>
+    </row>
+    <row r="42" spans="15:26">
+      <c r="O42" s="178"/>
+      <c r="P42" s="179"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="179"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="179"/>
+      <c r="U42" s="179"/>
+      <c r="V42" s="179"/>
+      <c r="W42" s="179"/>
+      <c r="X42" s="179"/>
+      <c r="Y42" s="181"/>
+    </row>
+    <row r="43" spans="15:26">
+      <c r="O43" s="178"/>
+      <c r="P43" s="179"/>
+      <c r="Q43" s="179"/>
+      <c r="R43" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="V38" s="182">
-        <v>-1</v>
-      </c>
-      <c r="W38" s="182">
-        <v>0</v>
-      </c>
-      <c r="X38" s="182">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="183"/>
-    </row>
-    <row r="39" spans="15:26">
-      <c r="O39" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" s="185">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="185">
-        <v>1</v>
-      </c>
-      <c r="R39" s="185">
-        <v>-3</v>
-      </c>
-      <c r="S39" s="185"/>
-      <c r="T39" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="U39" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="V39" s="185">
-        <v>0</v>
-      </c>
-      <c r="W39" s="185">
-        <v>-1</v>
-      </c>
-      <c r="X39" s="185">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="187"/>
-    </row>
-    <row r="40" spans="15:26">
-      <c r="O40" s="184"/>
-      <c r="P40" s="185">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="185">
-        <v>0</v>
-      </c>
-      <c r="R40" s="185">
-        <v>1</v>
-      </c>
-      <c r="S40" s="185"/>
-      <c r="T40" s="185"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="185">
-        <v>0</v>
-      </c>
-      <c r="W40" s="185">
-        <v>0</v>
-      </c>
-      <c r="X40" s="185">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="187"/>
-    </row>
-    <row r="41" spans="15:26">
-      <c r="O41" s="184"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
-      <c r="S41" s="185"/>
-      <c r="T41" s="185"/>
-      <c r="U41" s="185"/>
-      <c r="V41" s="185"/>
-      <c r="W41" s="185"/>
-      <c r="X41" s="185"/>
-      <c r="Y41" s="187"/>
-    </row>
-    <row r="42" spans="15:26">
-      <c r="O42" s="184"/>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="185"/>
-      <c r="S42" s="185"/>
-      <c r="T42" s="185"/>
-      <c r="U42" s="185"/>
-      <c r="V42" s="185"/>
-      <c r="W42" s="185"/>
-      <c r="X42" s="185"/>
-      <c r="Y42" s="187"/>
-    </row>
-    <row r="43" spans="15:26">
-      <c r="O43" s="184"/>
-      <c r="P43" s="185"/>
-      <c r="Q43" s="185"/>
-      <c r="R43" s="185" t="s">
-        <v>84</v>
-      </c>
-      <c r="S43" s="185">
+      <c r="S43" s="179">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="185">
-        <f t="shared" ref="T43:U43" si="3">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
+      <c r="T43" s="179">
+        <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="185">
-        <f t="shared" si="3"/>
+      <c r="U43" s="179">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="185"/>
-      <c r="W43" s="185"/>
-      <c r="X43" s="185"/>
-      <c r="Y43" s="187"/>
+      <c r="V43" s="179"/>
+      <c r="W43" s="179"/>
+      <c r="X43" s="179"/>
+      <c r="Y43" s="181"/>
     </row>
     <row r="44" spans="15:26">
-      <c r="O44" s="184"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185" t="s">
-        <v>83</v>
-      </c>
-      <c r="S44" s="185">
-        <f t="shared" ref="S44:S45" si="4">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
+      <c r="O44" s="178"/>
+      <c r="P44" s="179"/>
+      <c r="Q44" s="179"/>
+      <c r="R44" s="179" t="s">
+        <v>81</v>
+      </c>
+      <c r="S44" s="179">
+        <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="185">
-        <f t="shared" ref="T44:T45" si="5">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
+      <c r="T44" s="179">
+        <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="185">
-        <f t="shared" ref="U44:U45" si="6">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
+      <c r="U44" s="179">
+        <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="185"/>
-      <c r="W44" s="185"/>
-      <c r="X44" s="185"/>
-      <c r="Y44" s="187"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="181"/>
     </row>
     <row r="45" spans="15:26">
-      <c r="O45" s="184"/>
-      <c r="P45" s="185"/>
-      <c r="Q45" s="185"/>
-      <c r="R45" s="185"/>
-      <c r="S45" s="185">
-        <f t="shared" si="4"/>
+      <c r="O45" s="178"/>
+      <c r="P45" s="179"/>
+      <c r="Q45" s="179"/>
+      <c r="R45" s="179"/>
+      <c r="S45" s="179">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="185">
-        <f t="shared" si="5"/>
+      <c r="T45" s="179">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="185">
-        <f t="shared" si="6"/>
+      <c r="U45" s="179">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="185"/>
-      <c r="W45" s="185"/>
-      <c r="X45" s="185"/>
-      <c r="Y45" s="187"/>
+      <c r="V45" s="179"/>
+      <c r="W45" s="179"/>
+      <c r="X45" s="179"/>
+      <c r="Y45" s="181"/>
     </row>
     <row r="46" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O46" s="188"/>
-      <c r="P46" s="189"/>
-      <c r="Q46" s="189"/>
-      <c r="R46" s="189"/>
-      <c r="S46" s="189"/>
-      <c r="T46" s="189"/>
-      <c r="U46" s="189"/>
-      <c r="V46" s="189"/>
-      <c r="W46" s="189"/>
-      <c r="X46" s="189"/>
-      <c r="Y46" s="190"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="183"/>
+      <c r="Q46" s="183"/>
+      <c r="R46" s="183"/>
+      <c r="S46" s="183"/>
+      <c r="T46" s="183"/>
+      <c r="U46" s="183"/>
+      <c r="V46" s="183"/>
+      <c r="W46" s="183"/>
+      <c r="X46" s="183"/>
+      <c r="Y46" s="184"/>
     </row>
     <row r="47" spans="15:26" ht="15.75" thickTop="1">
       <c r="O47" s="10"/>
@@ -6673,18 +6954,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="89"/>
+    <col min="1" max="1" width="9.140625" style="88"/>
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="150" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="70">
@@ -6695,39 +6974,39 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="151" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="152" t="s">
+      <c r="E2" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="152" t="s">
+      <c r="R2" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="152" t="s">
+      <c r="S2" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="152" t="s">
+      <c r="T2" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="152" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="152" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="70">
@@ -6736,101 +7015,101 @@
       <c r="E3" s="70">
         <v>0</v>
       </c>
-      <c r="O3" s="152">
+      <c r="O3" s="149">
         <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="P3" s="152">
+      <c r="P3" s="149">
         <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="Q3" s="152">
+      <c r="Q3" s="149">
         <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="R3" s="152">
+      <c r="R3" s="149">
         <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="S3" s="152">
+      <c r="S3" s="149">
         <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="T3" s="152">
+      <c r="T3" s="149">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="154" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="I5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="136" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="137" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="41" t="s">
+      <c r="K5" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="C6" s="138">
+      <c r="C6" s="135">
         <v>0</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="96">
         <v>0</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="96">
         <f>2*EXP(D6)+POWER(D6,3)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="97">
         <f>E6*F6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="80">
         <v>0</v>
       </c>
       <c r="J6" s="42">
@@ -6847,34 +7126,34 @@
         <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="C7" s="138">
+      <c r="C7" s="135">
         <f>C6+1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="96">
         <f>D6+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="96">
         <f t="shared" ref="E7:E14" si="0">2*EXP(D7)+POWER(D7,3)</f>
         <v>2.4508055163203397</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="96">
         <v>4</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="97">
         <f t="shared" ref="G7:G14" si="1">E7*F7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="80">
         <f>I6+1</f>
         <v>1</v>
       </c>
@@ -6893,34 +7172,34 @@
         <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="C8" s="138">
+      <c r="C8" s="135">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="96">
         <f t="shared" ref="D8:D14" si="5">D7+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="96">
         <f t="shared" si="0"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="96">
         <v>2</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="97">
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="80">
         <f t="shared" ref="I8:I22" si="6">I7+1</f>
         <v>2</v>
       </c>
@@ -6939,34 +7218,34 @@
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="C9" s="138">
+      <c r="C9" s="135">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="96">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="96">
         <f t="shared" si="0"/>
         <v>3.8602376007810184</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="96">
         <v>4</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="97">
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="80">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -6985,34 +7264,34 @@
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="C10" s="138">
+      <c r="C10" s="135">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="96">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="96">
         <f>2*EXP(D10)+POWER(D10,3)</f>
         <v>4.9630818569849362</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="96">
         <v>2</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="97">
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="80">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -7031,34 +7310,34 @@
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="C11" s="138">
+      <c r="C11" s="135">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="96">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="96">
         <f t="shared" si="0"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="96">
         <v>4</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="97">
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="80">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -7077,34 +7356,34 @@
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="C12" s="138">
+      <c r="C12" s="135">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="96">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="96">
         <f t="shared" si="0"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="96">
         <v>2</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="97">
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="80">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -7123,34 +7402,34 @@
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="C13" s="138">
+      <c r="C13" s="135">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="96">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="96">
         <f t="shared" si="0"/>
         <v>10.854399933689349</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="96">
         <v>4</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="97">
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="80">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -7169,34 +7448,34 @@
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="C14" s="139">
+      <c r="C14" s="136">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="103">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="103">
         <f t="shared" si="0"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="103">
         <v>1</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="104">
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="80">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -7215,22 +7494,22 @@
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickTop="1">
       <c r="F15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="137">
+        <v>49</v>
+      </c>
+      <c r="G15" s="134">
         <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="80">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -7249,22 +7528,22 @@
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1">
-      <c r="F16" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="106">
+      <c r="F16" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="104">
         <f>G15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="80">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -7283,15 +7562,15 @@
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
     </row>
     <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="I17" s="81">
+      <c r="I17" s="80">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -7310,22 +7589,22 @@
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="152"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
     </row>
     <row r="18" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C18" s="140">
+      <c r="C18" s="137">
         <v>1.6</v>
       </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142">
+      <c r="D18" s="138"/>
+      <c r="E18" s="139">
         <v>1.6</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="80">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -7344,24 +7623,24 @@
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="152"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="81">
+      <c r="E19" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="80">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -7380,22 +7659,22 @@
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="146">
+      <c r="C20" s="143">
         <v>0</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="147">
+      <c r="D20" s="141"/>
+      <c r="E20" s="144">
         <v>0</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="80">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
@@ -7414,18 +7693,18 @@
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="152"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="148"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="I21" s="81">
+      <c r="C21" s="145"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="I21" s="80">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
@@ -7444,24 +7723,24 @@
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
     </row>
     <row r="22" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="82">
+      <c r="I22" s="81">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -7480,84 +7759,84 @@
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
     </row>
     <row r="23" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C23" s="148">
+      <c r="C23" s="145">
         <v>1.6</v>
       </c>
-      <c r="D23" s="144" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="145">
+      <c r="D23" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="142">
         <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="80">
+        <v>49</v>
+      </c>
+      <c r="M23" s="79">
         <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
     </row>
     <row r="24" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C24" s="148">
+      <c r="C24" s="145">
         <v>0</v>
       </c>
-      <c r="D24" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="145">
+      <c r="D24" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="142">
         <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="L24" s="82" t="s">
-        <v>57</v>
+      <c r="L24" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="M24" s="45">
         <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
     </row>
     <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C25" s="148"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
     </row>
     <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C26" s="150">
+      <c r="C26" s="147">
         <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="D26" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="151">
+      <c r="D26" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="148">
         <f>E24</f>
         <v>2</v>
       </c>
-      <c r="F26" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="119">
+      <c r="F26" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="117">
         <f>C26-E26</f>
         <v>9.5444648487902306</v>
       </c>
@@ -7607,10 +7886,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="129" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -82,35 +82,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
-  <si>
-    <t>Student</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>Oliver Sheard</t>
   </si>
   <si>
-    <t>University ID</t>
-  </si>
-  <si>
     <t>U1664298</t>
   </si>
   <si>
-    <t>Course Code</t>
-  </si>
-  <si>
     <t>CIM2130</t>
   </si>
   <si>
-    <t>Course Title</t>
-  </si>
-  <si>
     <t>Computational Mathematics</t>
   </si>
   <si>
-    <t>Assignment</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>MAX(Iteration 1-5)</t>
   </si>
   <si>
-    <t>Greater than 0.000001?</t>
-  </si>
-  <si>
     <t>Iteration(I)</t>
   </si>
   <si>
@@ -343,6 +325,57 @@
   </si>
   <si>
     <t>f(x)=sin(x)-((x^3)/4)+1</t>
+  </si>
+  <si>
+    <t>Student:</t>
+  </si>
+  <si>
+    <t>University ID:</t>
+  </si>
+  <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>Course Title:</t>
+  </si>
+  <si>
+    <t>Assignment:</t>
+  </si>
+  <si>
+    <t>&lt;0.000001?</t>
+  </si>
+  <si>
+    <t>f(x) =</t>
+  </si>
+  <si>
+    <t>0.5cos(2x)</t>
+  </si>
+  <si>
+    <t>f'(x) =</t>
+  </si>
+  <si>
+    <t>-sin(2x)</t>
+  </si>
+  <si>
+    <t>f''(x) =</t>
+  </si>
+  <si>
+    <t>2cos(2x)</t>
+  </si>
+  <si>
+    <t>f'''(x) =</t>
+  </si>
+  <si>
+    <t>-4sin(2x)</t>
+  </si>
+  <si>
+    <t>f''''(x) =</t>
+  </si>
+  <si>
+    <t>8cos(2x)</t>
+  </si>
+  <si>
+    <t>Max error for part a)</t>
   </si>
 </sst>
 </file>
@@ -1362,32 +1395,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1534,9 +1546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1574,27 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1745,21 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1814,18 +1787,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1940,58 +1904,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2581,11 +2623,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88710528"/>
-        <c:axId val="88732800"/>
+        <c:axId val="92426240"/>
+        <c:axId val="92427776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88710528"/>
+        <c:axId val="92426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,12 +2682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88732800"/>
+        <c:crossAx val="92427776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88732800"/>
+        <c:axId val="92427776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88710528"/>
+        <c:crossAx val="92426240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2713,7 +2755,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="l"/>
       <c:layout/>
       <c:spPr>
         <a:noFill/>
@@ -2780,7 +2822,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3362,7 +3404,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3410,8 +3452,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>e) </a:t>
+            <a:t>e)  Comment on the rate of congragation between the three</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> methods</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3440,7 +3487,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,18 +3538,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3523,8 +3563,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>522073</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>193813</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3314</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2043636" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3534,7 +3574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10328682" y="3863009"/>
+          <a:off x="10328682" y="3887857"/>
           <a:ext cx="2043636" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3552,18 +3592,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3584,8 +3617,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>364264</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2200219" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3595,7 +3628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10170873" y="5416826"/>
+          <a:off x="10170873" y="5441674"/>
           <a:ext cx="2200219" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3613,18 +3646,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3645,8 +3671,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>520525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2043636" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3656,7 +3682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12778786" y="5416826"/>
+          <a:off x="12778786" y="5441674"/>
           <a:ext cx="2043636" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3674,18 +3700,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3706,8 +3725,8 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541940</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>197147</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2043636" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3717,7 +3736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9122723" y="6980604"/>
+          <a:off x="9122723" y="7005452"/>
           <a:ext cx="2043636" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3735,18 +3754,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3767,8 +3779,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>540424</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>193837</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2043636" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3778,7 +3790,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12798685" y="6977294"/>
+          <a:off x="12798685" y="7002142"/>
           <a:ext cx="2043636" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3796,18 +3808,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3857,18 +3862,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3890,7 +3888,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>460144</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>144182</xdr:rowOff>
+      <xdr:rowOff>135899</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7054240" cy="937629"/>
     <xdr:sp macro="" textlink="">
@@ -3900,7 +3898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9040927" y="4608508"/>
+          <a:off x="9040927" y="4616790"/>
           <a:ext cx="7054240" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3918,18 +3916,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -3979,18 +3970,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
               <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:satMod val="155000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:tint val="85000"/>
-                  <a:satMod val="155000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
@@ -4030,7 +4014,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4075,7 +4059,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>d) </a:t>
+            <a:t>d)  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4340,7 +4324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4348,391 +4332,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="198"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="197" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="188" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="188"/>
+      <c r="F1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197" t="s">
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="188" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="188"/>
+      <c r="F2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="197" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="188" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="188"/>
+      <c r="F3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197" t="s">
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="188"/>
+      <c r="F4" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="197" t="s">
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="188" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="188"/>
+      <c r="F5" s="183" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="190" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="170"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197" t="s">
+      <c r="E9" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="194" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="170"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="198"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="197" t="s">
+      <c r="E10" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="197" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="198"/>
-      <c r="B5" s="198"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="197" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="198"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="198"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="198"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="3" t="s">
+      <c r="E11" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="200" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E12" s="202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="202" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="202" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="203" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="198"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="130" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="198"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="131" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="198"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A13" s="198"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="198"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="198"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="198"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
+      <c r="F13" s="206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="207"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickTop="1">
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="170"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="170"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="170"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="170"/>
+      <c r="S22" s="170"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4741,17 +4962,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4760,951 +5022,958 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="9.140625" style="88"/>
-    <col min="3" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="9.140625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="73"/>
+    <col min="3" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="150" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="P1" s="193" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="193"/>
-      <c r="S1" s="193" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="193"/>
+      <c r="A1" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="L1" s="213" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="213"/>
+      <c r="P1" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="184"/>
+      <c r="S1" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="184"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="91" t="s">
+      <c r="G2" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="U2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="188" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="20">
+      <c r="A3" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="162"/>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="77">
         <v>1.75</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="78">
         <v>2.25</v>
       </c>
-      <c r="F3" s="93">
+      <c r="F3" s="78">
         <f>SUM(E3,D3)/2</f>
         <v>2</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="78">
         <f>SIN(F3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="78">
         <f>((F3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3" s="79">
         <f>H3-G3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="L3" s="106">
+      <c r="L3" s="91">
         <v>0</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="92">
         <f>ABS(I3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="10">
         <v>2</v>
       </c>
-      <c r="Q3" s="121">
+      <c r="Q3" s="106">
         <f>POWER((4*SIN(P3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="R3" s="122">
+      <c r="R3" s="107">
         <v>0</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="11">
         <v>2</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="11">
         <f>SIN(S3)-((S3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="12">
         <f>COS(S3)-(3*(S3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="189" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="20">
+      <c r="A4" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="162"/>
+      <c r="C4" s="13">
         <f>C3+1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="80">
         <f>IF(I3&gt;0,D3,F3)</f>
         <v>1.75</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="81">
         <f>IF(I3&gt;0,F3,E3)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="81">
         <f>SUM(E4,D4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="81">
         <f>SIN(F4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="81">
         <f t="shared" ref="H4:H6" si="0">((F4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="82">
         <f>H4-G4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="L4" s="106">
+      <c r="L4" s="91">
         <v>1</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="93">
         <f t="shared" ref="M4:M8" si="1">ABS(I4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="9">
         <f>O3+1</f>
         <v>1</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="14">
         <f>Q3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="Q4" s="108">
         <f t="shared" ref="Q4:Q8" si="2">POWER((4*SIN(P4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="R4" s="124">
+      <c r="R4" s="109">
         <f>R3+1</f>
         <v>1</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="15">
         <f>S3-(T3/U3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="15">
         <f>SIN(S4)-((S4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="16">
         <f>COS(S4)-(3*(S4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="20">
+      <c r="A5" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="13">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="80">
         <f t="shared" ref="D5:D6" si="4">IF(I4&gt;0,D4,F4)</f>
         <v>1.875</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="81">
         <f t="shared" ref="E5:E6" si="5">IF(I4&gt;0,F4,E4)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="81">
         <f t="shared" ref="F5:F6" si="6">SUM(E5,D5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="81">
         <f t="shared" ref="G5:G17" si="7">SIN(F5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="81">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="I5" s="97">
+      <c r="I5" s="82">
         <f t="shared" ref="I5:I6" si="8">H5-G5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="L5" s="106">
+      <c r="L5" s="91">
         <v>2</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="93">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="9">
         <f t="shared" ref="O5:O8" si="9">O4+1</f>
         <v>2</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="14">
         <f t="shared" ref="P5:P8" si="10">Q4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="Q5" s="108">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="R5" s="124">
+      <c r="R5" s="109">
         <f t="shared" ref="R5:R8" si="11">R4+1</f>
         <v>2</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="15">
         <f>S4-(T4/U4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="15">
         <f t="shared" ref="T5:T8" si="12">SIN(S5)-((S5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="16">
         <f t="shared" ref="U5:U8" si="13">COS(S5)-(3*(S5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A6" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="20">
+      <c r="A6" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D6" s="95">
+      <c r="D6" s="80">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="81">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="81">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="81">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="81">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="I6" s="97">
+      <c r="I6" s="82">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="L6" s="106">
+      <c r="L6" s="91">
         <v>3</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="93">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="9">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="14">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q6" s="123">
+      <c r="Q6" s="108">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="R6" s="124">
+      <c r="R6" s="109">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="15">
         <f>S5-(T5/U5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="15">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="16">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C7" s="40">
+      <c r="C7" s="33">
         <f>C6+1</f>
         <v>4</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="83">
         <f>IF(I6&gt;0,D6,F6)</f>
         <v>1.96875</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="84">
         <f>IF(I6&gt;0,F6,E6)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="84">
         <f t="shared" ref="F7" si="14">SUM(E7,D7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="84">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="84">
         <f t="shared" ref="H7" si="15">((F7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="85">
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="192"/>
-      <c r="L7" s="109">
+      <c r="J7" s="169"/>
+      <c r="L7" s="94">
         <v>4</v>
       </c>
-      <c r="M7" s="110">
+      <c r="M7" s="95">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="9">
         <f>O6+1</f>
         <v>4</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="14">
         <f>Q6</f>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q7" s="123">
+      <c r="Q7" s="108">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="R7" s="124">
+      <c r="R7" s="109">
         <f>R6+1</f>
         <v>4</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="15">
         <f>S6-(T6/U6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="16">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C8" s="101">
+      <c r="C8" s="86">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="87">
         <f t="shared" ref="D8:D16" si="17">IF(I7&gt;0,D7,F7)</f>
         <v>1.96875</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="88">
         <f t="shared" ref="E8:E16" si="18">IF(I7&gt;0,F7,E7)</f>
         <v>1.984375</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="88">
         <f t="shared" ref="F8:F16" si="19">SUM(E8,D8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="88">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="88">
         <f t="shared" ref="H8:H16" si="20">((F8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="89">
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="191" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="111">
+      <c r="J8" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="96">
         <v>5</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="97">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="17">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="18">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q8" s="125">
+      <c r="Q8" s="110">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="R8" s="126">
+      <c r="R8" s="111">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="19">
         <f>S7-(T7/U7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="20">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C9" s="46">
+      <c r="C9" s="39">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="40">
         <f t="shared" si="17"/>
         <v>1.96875</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="40">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="40">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="40">
         <f t="shared" si="7"/>
         <v>0.9203351130898344</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="40">
         <f t="shared" si="20"/>
         <v>0.91908515989780426</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="41">
         <f t="shared" si="21"/>
         <v>-1.2499531920301399E-3</v>
       </c>
-      <c r="J9" s="38" t="str">
+      <c r="J9" s="31" t="str">
         <f t="shared" ref="J9:J18" si="22">IF(ABS(I9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="L9" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="114">
+      <c r="L9" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="99">
         <f>MAX(M3:M7)</f>
         <v>0.30613656285969382</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="28">
+      <c r="C10" s="21">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="22">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="22">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="22">
         <f t="shared" si="19"/>
         <v>1.974609375</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="22">
         <f t="shared" si="7"/>
         <v>0.9195694308900767</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="22">
         <f t="shared" si="20"/>
         <v>0.92479105852544308</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="23">
         <f t="shared" si="21"/>
         <v>5.2216276353663771E-3</v>
       </c>
-      <c r="J10" s="38" t="str">
+      <c r="J10" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C11" s="28">
+      <c r="C11" s="21">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="22">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="22">
         <f t="shared" si="18"/>
         <v>1.974609375</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="22">
         <f t="shared" si="19"/>
         <v>1.9736328125</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <f t="shared" si="7"/>
         <v>0.9199527106575569</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="22">
         <f t="shared" si="20"/>
         <v>0.9219366975594312</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="23">
         <f t="shared" si="21"/>
         <v>1.9839869018742906E-3</v>
       </c>
-      <c r="J11" s="38" t="str">
+      <c r="J11" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="P11" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="68" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="C12" s="28">
+      <c r="C12" s="21">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="22">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="22">
         <f t="shared" si="18"/>
         <v>1.9736328125</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="22">
         <f t="shared" si="19"/>
         <v>1.97314453125</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="22">
         <f t="shared" si="7"/>
         <v>0.92014402156340858</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="22">
         <f t="shared" si="20"/>
         <v>0.9205105759028811</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="23">
         <f t="shared" si="21"/>
         <v>3.6655433947252458E-4</v>
       </c>
-      <c r="J12" s="38" t="str">
+      <c r="J12" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L12" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="52">
+      <c r="L12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="45">
         <f>F8</f>
         <v>1.9765625</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="52">
         <f>1.97303383-M12</f>
         <v>-3.5286699999999005E-3</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="57">
         <v>1.75</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="58">
         <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="C13" s="28">
+      <c r="C13" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="22">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="22">
         <f t="shared" si="19"/>
         <v>1.972900390625</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <f t="shared" si="7"/>
         <v>0.92023959475189843</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="22">
         <f t="shared" si="20"/>
         <v>0.91979777970482246</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="23">
         <f t="shared" si="21"/>
         <v>-4.4181504707596631E-4</v>
       </c>
-      <c r="J13" s="38" t="str">
+      <c r="J13" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="53">
+      <c r="L13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="46">
         <f>P8</f>
         <v>1.9730326316310438</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="53">
         <f t="shared" ref="N13:N14" si="24">1.97303383-M13</f>
         <v>1.1983689562899968E-6</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="55">
         <f>P4</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="47">
         <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="C14" s="28">
+      <c r="C14" s="21">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="22">
         <f t="shared" si="17"/>
         <v>1.972900390625</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="22">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="22">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="22">
         <f t="shared" si="7"/>
         <v>0.9201918150136168</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="22">
         <f t="shared" si="20"/>
         <v>0.92015415575360748</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="23">
         <f t="shared" si="21"/>
         <v>-3.7659260009315076E-5</v>
       </c>
-      <c r="J14" s="38" t="str">
+      <c r="J14" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L14" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="56">
+      <c r="L14" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="49">
         <f>S8</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="54">
         <f t="shared" si="24"/>
         <v>-4.5671446624595546E-9</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="56">
         <f>S4</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="50">
         <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickTop="1">
-      <c r="C15" s="28">
+      <c r="C15" s="21">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="22">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="22">
         <f t="shared" si="19"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <f t="shared" si="7"/>
         <v>0.92016792000245906</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="22">
         <f t="shared" si="20"/>
         <v>0.92033236031551269</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="23">
         <f t="shared" si="21"/>
         <v>1.644403130536265E-4</v>
       </c>
-      <c r="J15" s="38" t="str">
+      <c r="J15" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="C16" s="33">
+      <c r="C16" s="26">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="27">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="27">
         <f t="shared" si="18"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="27">
         <f t="shared" si="19"/>
         <v>1.973052978515625</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="27">
         <f t="shared" si="7"/>
         <v>0.92017986793653006</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="27">
         <f t="shared" si="20"/>
         <v>0.9202432566563985</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="28">
         <f>H16-G16</f>
         <v>6.3388719868440191E-5</v>
       </c>
-      <c r="J16" s="38" t="str">
+      <c r="J16" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="36">
+      <c r="C17" s="29">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="22">
         <f t="shared" ref="D17" si="28">IF(I16&gt;0,D16,F16)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="22">
         <f t="shared" ref="E17" si="29">IF(I16&gt;0,F16,E16)</f>
         <v>1.973052978515625</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="22">
         <f t="shared" ref="F17" si="30">SUM(E17,D17)/2</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="22">
         <f t="shared" si="7"/>
         <v>0.92018584158219718</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="22">
         <f t="shared" ref="H17" si="31">((F17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="23">
         <f t="shared" ref="I17" si="32">H17-G17</f>
         <v>1.2864278268076568E-5</v>
       </c>
-      <c r="J17" s="38" t="str">
+      <c r="J17" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C18" s="37">
+      <c r="C18" s="30">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="24">
         <f t="shared" ref="D18" si="33">IF(I17&gt;0,D17,F17)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="24">
         <f t="shared" ref="E18" si="34">IF(I17&gt;0,F17,E17)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="24">
         <f t="shared" ref="F18" si="35">SUM(E18,D18)/2</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="24">
         <f t="shared" ref="G18" si="36">SIN(F18)</f>
         <v>0.92018882832468807</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="24">
         <f t="shared" ref="H18" si="37">((F18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="25">
         <f t="shared" ref="I18" si="38">H18-G18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
-      <c r="J18" s="39" t="str">
+      <c r="J18" s="32" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C19" s="115">
+      <c r="C19" s="100">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="101">
         <f t="shared" ref="D19" si="39">IF(I18&gt;0,D18,F18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="101">
         <f t="shared" ref="E19" si="40">IF(I18&gt;0,F18,E18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="101">
         <f t="shared" ref="F19" si="41">SUM(E19,D19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="101">
         <f t="shared" ref="G19" si="42">SIN(F19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="101">
         <f t="shared" ref="H19" si="43">((F19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="102">
         <f t="shared" ref="I19" si="44">H19-G19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="J19" s="118" t="str">
+      <c r="J19" s="103" t="str">
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
@@ -5739,1204 +6008,1206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="89"/>
-    <col min="14" max="14" width="9.140625" style="10"/>
-    <col min="15" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="13" width="9.140625" style="74"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="155" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="200" t="s">
+      <c r="A1" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="O2" s="174" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="175">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="175">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="179"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A6" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="175">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickTop="1">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="175">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="179"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="174" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="175">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="182"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" ht="15.75" thickTop="1">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="186"/>
+    </row>
+    <row r="18" spans="3:26">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="O18" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="140">
+        <v>2</v>
+      </c>
+      <c r="R18" s="140">
+        <v>5</v>
+      </c>
+      <c r="S18" s="140">
+        <v>5</v>
+      </c>
+      <c r="T18" s="140">
+        <v>8</v>
+      </c>
+      <c r="U18" s="140">
+        <v>8</v>
+      </c>
+      <c r="V18" s="140">
+        <v>2</v>
+      </c>
+      <c r="W18" s="140">
+        <v>5</v>
+      </c>
+      <c r="X18" s="140">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="140">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="O19" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="140">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="140">
+        <v>8</v>
+      </c>
+      <c r="R19" s="140">
+        <v>6</v>
+      </c>
+      <c r="S19" s="140">
+        <v>6</v>
+      </c>
+      <c r="T19" s="140">
+        <v>6</v>
+      </c>
+      <c r="U19" s="140">
+        <v>8</v>
+      </c>
+      <c r="V19" s="140">
+        <v>8</v>
+      </c>
+      <c r="W19" s="140">
+        <v>6</v>
+      </c>
+      <c r="X19" s="140">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="140">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" ht="15.75" thickBot="1">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="O20" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="201" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="202" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="204">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="158" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="203">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="207"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A6" s="160" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="O6" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="203">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1">
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="203">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="202" t="s">
+      <c r="P20" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="142">
+        <v>1</v>
+      </c>
+      <c r="R20" s="142">
+        <v>1</v>
+      </c>
+      <c r="S20" s="142">
+        <v>1</v>
+      </c>
+      <c r="T20" s="142">
+        <v>1</v>
+      </c>
+      <c r="U20" s="142">
+        <v>1</v>
+      </c>
+      <c r="V20" s="142">
+        <v>1</v>
+      </c>
+      <c r="W20" s="142">
+        <v>1</v>
+      </c>
+      <c r="X20" s="142">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="142">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="3:26" ht="15.75" thickTop="1">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="O22" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="203">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="203">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="204">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="203">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="204">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="203">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="204">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1">
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="210"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="3:26" ht="15.75" thickTop="1">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="196" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="194" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="194"/>
-      <c r="W17" s="194" t="s">
-        <v>66</v>
-      </c>
-      <c r="X17" s="194"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="195"/>
-    </row>
-    <row r="18" spans="3:26">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="O18" s="162" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="163">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="163">
-        <v>2</v>
-      </c>
-      <c r="R18" s="163">
-        <v>5</v>
-      </c>
-      <c r="S18" s="163">
-        <v>5</v>
-      </c>
-      <c r="T18" s="163">
-        <v>8</v>
-      </c>
-      <c r="U18" s="163">
-        <v>8</v>
-      </c>
-      <c r="V18" s="163">
-        <v>2</v>
-      </c>
-      <c r="W18" s="163">
-        <v>5</v>
-      </c>
-      <c r="X18" s="163">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="163">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="O19" s="162" t="s">
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118">
+        <v>1</v>
+      </c>
+      <c r="S22" s="118">
+        <v>0</v>
+      </c>
+      <c r="T22" s="118">
+        <v>-12</v>
+      </c>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="145"/>
+    </row>
+    <row r="23" spans="3:26">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="O23" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="163">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="163">
-        <v>8</v>
-      </c>
-      <c r="R19" s="163">
-        <v>6</v>
-      </c>
-      <c r="S19" s="163">
-        <v>6</v>
-      </c>
-      <c r="T19" s="163">
-        <v>6</v>
-      </c>
-      <c r="U19" s="163">
-        <v>8</v>
-      </c>
-      <c r="V19" s="163">
-        <v>8</v>
-      </c>
-      <c r="W19" s="163">
-        <v>6</v>
-      </c>
-      <c r="X19" s="163">
-        <v>6</v>
-      </c>
-      <c r="Y19" s="163">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" ht="15.75" thickBot="1">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="O20" s="113" t="s">
+      <c r="P23" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="165">
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121">
+        <v>0</v>
+      </c>
+      <c r="S23" s="121">
         <v>1</v>
       </c>
-      <c r="Q20" s="165">
+      <c r="T23" s="121">
+        <v>-3</v>
+      </c>
+      <c r="U23" s="121"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="122"/>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121">
+        <v>0</v>
+      </c>
+      <c r="S24" s="121">
+        <v>0</v>
+      </c>
+      <c r="T24" s="121">
         <v>1</v>
       </c>
-      <c r="R20" s="165">
-        <v>1</v>
-      </c>
-      <c r="S20" s="165">
-        <v>1</v>
-      </c>
-      <c r="T20" s="165">
-        <v>1</v>
-      </c>
-      <c r="U20" s="165">
-        <v>1</v>
-      </c>
-      <c r="V20" s="165">
-        <v>1</v>
-      </c>
-      <c r="W20" s="165">
-        <v>1</v>
-      </c>
-      <c r="X20" s="165">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="165">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-    </row>
-    <row r="22" spans="3:26" ht="15.75" thickTop="1">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="O22" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="138" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138">
-        <v>1</v>
-      </c>
-      <c r="S22" s="138">
-        <v>0</v>
-      </c>
-      <c r="T22" s="138">
-        <v>-12</v>
-      </c>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="168"/>
-    </row>
-    <row r="23" spans="3:26">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="O23" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141">
-        <v>0</v>
-      </c>
-      <c r="S23" s="141">
-        <v>1</v>
-      </c>
-      <c r="T23" s="141">
-        <v>-3</v>
-      </c>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="142"/>
-    </row>
-    <row r="24" spans="3:26">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141">
-        <v>0</v>
-      </c>
-      <c r="S24" s="141">
-        <v>0</v>
-      </c>
-      <c r="T24" s="141">
-        <v>1</v>
-      </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="142"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="142"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="122"/>
     </row>
     <row r="26" spans="3:26">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="141">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="121">
         <f>SUM($R22*P$18,$S22*P$19,$T22*P$20)</f>
         <v>-10</v>
       </c>
-      <c r="Q26" s="141">
+      <c r="Q26" s="121">
         <f t="shared" ref="Q26:Z26" si="0">SUM($R22*Q$18,$S22*Q$19,$T22*Q$20)</f>
         <v>-10</v>
       </c>
-      <c r="R26" s="141">
+      <c r="R26" s="121">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="S26" s="141">
+      <c r="S26" s="121">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="T26" s="141">
+      <c r="T26" s="121">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="U26" s="141">
+      <c r="U26" s="121">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="V26" s="141">
+      <c r="V26" s="121">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="W26" s="141">
+      <c r="W26" s="121">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="X26" s="141">
+      <c r="X26" s="121">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Y26" s="141">
+      <c r="Y26" s="121">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Z26" s="142">
+      <c r="Z26" s="122">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="141">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="121">
         <f t="shared" ref="P27:Z27" si="1">SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="141">
+      <c r="Q27" s="121">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R27" s="141">
+      <c r="R27" s="121">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S27" s="141">
+      <c r="S27" s="121">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T27" s="141">
+      <c r="T27" s="121">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U27" s="141">
+      <c r="U27" s="121">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V27" s="141">
+      <c r="V27" s="121">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="W27" s="141">
+      <c r="W27" s="121">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X27" s="141">
+      <c r="X27" s="121">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y27" s="141">
+      <c r="Y27" s="121">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="142">
+      <c r="Z27" s="122">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="3:26" ht="15.75" thickBot="1">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="148">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="128">
         <f>SUM($R24*P$18,$S24*P$19,$T24*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="148">
+      <c r="Q28" s="128">
         <f t="shared" ref="Q28:Z28" si="2">SUM($R24*Q$18,$S24*Q$19,$T24*Q$20)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="148">
+      <c r="R28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S28" s="148">
+      <c r="S28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28" s="148">
+      <c r="T28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U28" s="148">
+      <c r="U28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V28" s="148">
+      <c r="V28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W28" s="148">
+      <c r="W28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X28" s="148">
+      <c r="X28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="148">
+      <c r="Y28" s="128">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="169">
+      <c r="Z28" s="146">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="3:26" ht="15.75" thickTop="1">
-      <c r="O30" s="170" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="T30" s="82">
+      <c r="O30" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="67">
         <v>0</v>
       </c>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82">
+      <c r="U30" s="67"/>
+      <c r="V30" s="67">
         <v>-1</v>
       </c>
-      <c r="W30" s="82">
+      <c r="W30" s="67">
         <v>0</v>
       </c>
-      <c r="X30" s="82">
+      <c r="X30" s="67">
         <v>0</v>
       </c>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="172"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="149"/>
     </row>
     <row r="31" spans="3:26">
-      <c r="O31" s="85"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="S31" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="T31" s="83">
+      <c r="O31" s="70"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="T31" s="68">
         <v>0</v>
       </c>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83">
+      <c r="U31" s="68"/>
+      <c r="V31" s="68">
         <v>0</v>
       </c>
-      <c r="W31" s="83">
+      <c r="W31" s="68">
         <v>-1</v>
       </c>
-      <c r="X31" s="83">
+      <c r="X31" s="68">
         <v>0</v>
       </c>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="84"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
     </row>
     <row r="32" spans="3:26">
-      <c r="O32" s="85"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83">
+      <c r="O32" s="70"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68">
         <v>0</v>
       </c>
-      <c r="S32" s="83">
+      <c r="S32" s="68">
         <v>0</v>
       </c>
-      <c r="T32" s="83">
+      <c r="T32" s="68">
         <v>1</v>
       </c>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83">
+      <c r="U32" s="68"/>
+      <c r="V32" s="68">
         <v>0</v>
       </c>
-      <c r="W32" s="83">
+      <c r="W32" s="68">
         <v>0</v>
       </c>
-      <c r="X32" s="83">
+      <c r="X32" s="68">
         <v>1</v>
       </c>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="84"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="69"/>
     </row>
     <row r="33" spans="15:26">
-      <c r="O33" s="85"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="84"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="69"/>
     </row>
     <row r="34" spans="15:26">
-      <c r="O34" s="85"/>
-      <c r="P34" s="83">
+      <c r="O34" s="70"/>
+      <c r="P34" s="68">
         <f t="shared" ref="P34:Z34" si="3">SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="83">
+      <c r="Q34" s="68">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="R34" s="83">
+      <c r="R34" s="68">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="S34" s="83">
+      <c r="S34" s="68">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T34" s="83">
+      <c r="T34" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U34" s="83">
+      <c r="U34" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V34" s="83">
+      <c r="V34" s="68">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="W34" s="83">
+      <c r="W34" s="68">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="X34" s="83">
+      <c r="X34" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Y34" s="83">
+      <c r="Y34" s="68">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Z34" s="84">
+      <c r="Z34" s="69">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="15:26">
-      <c r="O35" s="85"/>
-      <c r="P35" s="83">
+      <c r="O35" s="70"/>
+      <c r="P35" s="68">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
         <v>-1</v>
       </c>
-      <c r="Q35" s="83">
+      <c r="Q35" s="68">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="R35" s="83">
+      <c r="R35" s="68">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="S35" s="83">
+      <c r="S35" s="68">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="T35" s="83">
+      <c r="T35" s="68">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="U35" s="83">
+      <c r="U35" s="68">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="V35" s="83">
+      <c r="V35" s="68">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="W35" s="83">
+      <c r="W35" s="68">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="X35" s="83">
+      <c r="X35" s="68">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="Y35" s="83">
+      <c r="Y35" s="68">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="Z35" s="84">
+      <c r="Z35" s="69">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O36" s="86"/>
-      <c r="P36" s="87">
+      <c r="O36" s="71"/>
+      <c r="P36" s="72">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="87">
+      <c r="Q36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R36" s="87">
+      <c r="R36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S36" s="87">
+      <c r="S36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T36" s="87">
+      <c r="T36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U36" s="87">
+      <c r="U36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V36" s="87">
+      <c r="V36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W36" s="87">
+      <c r="W36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X36" s="87">
+      <c r="X36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="87">
+      <c r="Y36" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z36" s="174">
+      <c r="Z36" s="151">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="15:26" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="38" spans="15:26" ht="15.75" thickTop="1">
-      <c r="O38" s="175" t="s">
-        <v>71</v>
-      </c>
-      <c r="P38" s="176">
+      <c r="O38" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="153">
         <v>1</v>
       </c>
-      <c r="Q38" s="176">
+      <c r="Q38" s="153">
         <v>0</v>
       </c>
-      <c r="R38" s="176">
+      <c r="R38" s="153">
         <v>-12</v>
       </c>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
-      <c r="U38" s="176" t="s">
-        <v>80</v>
-      </c>
-      <c r="V38" s="176">
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="V38" s="153">
         <v>-1</v>
       </c>
-      <c r="W38" s="176">
+      <c r="W38" s="153">
         <v>0</v>
       </c>
-      <c r="X38" s="176">
+      <c r="X38" s="153">
         <v>0</v>
       </c>
-      <c r="Y38" s="177"/>
+      <c r="Y38" s="154"/>
     </row>
     <row r="39" spans="15:26">
-      <c r="O39" s="178" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" s="179">
+      <c r="O39" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" s="156">
         <v>0</v>
       </c>
-      <c r="Q39" s="179">
+      <c r="Q39" s="156">
         <v>1</v>
       </c>
-      <c r="R39" s="179">
+      <c r="R39" s="156">
         <v>-3</v>
       </c>
-      <c r="S39" s="179"/>
-      <c r="T39" s="180" t="s">
-        <v>83</v>
-      </c>
-      <c r="U39" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="V39" s="179">
+      <c r="S39" s="156"/>
+      <c r="T39" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="U39" s="156" t="s">
+        <v>75</v>
+      </c>
+      <c r="V39" s="156">
         <v>0</v>
       </c>
-      <c r="W39" s="179">
+      <c r="W39" s="156">
         <v>-1</v>
       </c>
-      <c r="X39" s="179">
+      <c r="X39" s="156">
         <v>0</v>
       </c>
-      <c r="Y39" s="181"/>
+      <c r="Y39" s="158"/>
     </row>
     <row r="40" spans="15:26">
-      <c r="O40" s="178"/>
-      <c r="P40" s="179">
+      <c r="O40" s="155"/>
+      <c r="P40" s="156">
         <v>0</v>
       </c>
-      <c r="Q40" s="179">
+      <c r="Q40" s="156">
         <v>0</v>
       </c>
-      <c r="R40" s="179">
+      <c r="R40" s="156">
         <v>1</v>
       </c>
-      <c r="S40" s="179"/>
-      <c r="T40" s="179"/>
-      <c r="U40" s="179"/>
-      <c r="V40" s="179">
+      <c r="S40" s="156"/>
+      <c r="T40" s="156"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="156">
         <v>0</v>
       </c>
-      <c r="W40" s="179">
+      <c r="W40" s="156">
         <v>0</v>
       </c>
-      <c r="X40" s="179">
+      <c r="X40" s="156">
         <v>1</v>
       </c>
-      <c r="Y40" s="181"/>
+      <c r="Y40" s="158"/>
     </row>
     <row r="41" spans="15:26">
-      <c r="O41" s="178"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
-      <c r="S41" s="179"/>
-      <c r="T41" s="179"/>
-      <c r="U41" s="179"/>
-      <c r="V41" s="179"/>
-      <c r="W41" s="179"/>
-      <c r="X41" s="179"/>
-      <c r="Y41" s="181"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="156"/>
+      <c r="W41" s="156"/>
+      <c r="X41" s="156"/>
+      <c r="Y41" s="158"/>
     </row>
     <row r="42" spans="15:26">
-      <c r="O42" s="178"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="179"/>
-      <c r="S42" s="179"/>
-      <c r="T42" s="179"/>
-      <c r="U42" s="179"/>
-      <c r="V42" s="179"/>
-      <c r="W42" s="179"/>
-      <c r="X42" s="179"/>
-      <c r="Y42" s="181"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="156"/>
+      <c r="U42" s="156"/>
+      <c r="V42" s="156"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="158"/>
     </row>
     <row r="43" spans="15:26">
-      <c r="O43" s="178"/>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="179"/>
-      <c r="R43" s="179" t="s">
-        <v>82</v>
-      </c>
-      <c r="S43" s="179">
+      <c r="O43" s="155"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" s="156">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="179">
+      <c r="T43" s="156">
         <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="179">
+      <c r="U43" s="156">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="179"/>
-      <c r="W43" s="179"/>
-      <c r="X43" s="179"/>
-      <c r="Y43" s="181"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
+      <c r="X43" s="156"/>
+      <c r="Y43" s="158"/>
     </row>
     <row r="44" spans="15:26">
-      <c r="O44" s="178"/>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="179"/>
-      <c r="R44" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="S44" s="179">
+      <c r="O44" s="155"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156" t="s">
+        <v>75</v>
+      </c>
+      <c r="S44" s="156">
         <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="179">
+      <c r="T44" s="156">
         <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="179">
+      <c r="U44" s="156">
         <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="179"/>
-      <c r="W44" s="179"/>
-      <c r="X44" s="179"/>
-      <c r="Y44" s="181"/>
+      <c r="V44" s="156"/>
+      <c r="W44" s="156"/>
+      <c r="X44" s="156"/>
+      <c r="Y44" s="158"/>
     </row>
     <row r="45" spans="15:26">
-      <c r="O45" s="178"/>
-      <c r="P45" s="179"/>
-      <c r="Q45" s="179"/>
-      <c r="R45" s="179"/>
-      <c r="S45" s="179">
+      <c r="O45" s="155"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="179">
+      <c r="T45" s="156">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="179">
+      <c r="U45" s="156">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="179"/>
-      <c r="W45" s="179"/>
-      <c r="X45" s="179"/>
-      <c r="Y45" s="181"/>
+      <c r="V45" s="156"/>
+      <c r="W45" s="156"/>
+      <c r="X45" s="156"/>
+      <c r="Y45" s="158"/>
     </row>
     <row r="46" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O46" s="182"/>
-      <c r="P46" s="183"/>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="183"/>
-      <c r="S46" s="183"/>
-      <c r="T46" s="183"/>
-      <c r="U46" s="183"/>
-      <c r="V46" s="183"/>
-      <c r="W46" s="183"/>
-      <c r="X46" s="183"/>
-      <c r="Y46" s="184"/>
+      <c r="O46" s="159"/>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="160"/>
+      <c r="S46" s="160"/>
+      <c r="T46" s="160"/>
+      <c r="U46" s="160"/>
+      <c r="V46" s="160"/>
+      <c r="W46" s="160"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="161"/>
     </row>
     <row r="47" spans="15:26" ht="15.75" thickTop="1">
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="15:26">
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6954,889 +7225,891 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="88"/>
-    <col min="2" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="150" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="70">
+      <c r="A1" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="62">
         <v>1.6</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="62">
         <v>1.6</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="151" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="149" t="s">
-        <v>61</v>
+      <c r="A2" s="209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="129" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="70">
+      <c r="A3" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="62">
         <v>0</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="62">
         <v>0</v>
       </c>
-      <c r="O3" s="149">
+      <c r="O3" s="129">
         <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="P3" s="149">
+      <c r="P3" s="129">
         <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="Q3" s="149">
+      <c r="Q3" s="129">
         <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="R3" s="149">
+      <c r="R3" s="129">
         <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="S3" s="149">
+      <c r="S3" s="129">
         <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="T3" s="149">
+      <c r="T3" s="129">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="153" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
+      <c r="A4" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
+      <c r="A5" s="210" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="C6" s="135">
+      <c r="C6" s="115">
         <v>0</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="81">
         <v>0</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="81">
         <f>2*EXP(D6)+POWER(D6,3)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="81">
         <v>1</v>
       </c>
-      <c r="G6" s="97">
+      <c r="G6" s="82">
         <f>E6*F6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="65">
         <v>0</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="35">
         <v>0</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="35">
         <f>2*EXP(J6)+POWER(J6,3)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="35">
         <v>1</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="36">
         <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="C7" s="135">
+      <c r="C7" s="115">
         <f>C6+1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="81">
         <f>D6+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="81">
         <f t="shared" ref="E7:E14" si="0">2*EXP(D7)+POWER(D7,3)</f>
         <v>2.4508055163203397</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="81">
         <v>4</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="82">
         <f t="shared" ref="G7:G14" si="1">E7*F7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="65">
         <f>I6+1</f>
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="35">
         <f>J6+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="35">
         <f t="shared" ref="K7:K22" si="2">2*EXP(J7)+POWER(J7,3)</f>
         <v>2.2113418361512953</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="35">
         <v>4</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="36">
         <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="C8" s="135">
+      <c r="C8" s="115">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="81">
         <f t="shared" ref="D8:D14" si="5">D7+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="81">
         <f t="shared" si="0"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="81">
         <v>2</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="82">
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="65">
         <f t="shared" ref="I8:I22" si="6">I7+1</f>
         <v>2</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="35">
         <f t="shared" ref="J8:J22" si="7">J7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="35">
         <f t="shared" si="2"/>
         <v>2.4508055163203397</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="35">
         <v>2</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="36">
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="C9" s="135">
+      <c r="C9" s="115">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="81">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="81">
         <f t="shared" si="0"/>
         <v>3.8602376007810184</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="81">
         <v>4</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="82">
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="65">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="35">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="35">
         <f t="shared" si="2"/>
         <v>2.7267176151520065</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="35">
         <v>4</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="36">
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="C10" s="135">
+      <c r="C10" s="115">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="81">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="81">
         <f>2*EXP(D10)+POWER(D10,3)</f>
         <v>4.9630818569849362</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="81">
         <v>2</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="82">
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="65">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="35">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="35">
         <f t="shared" si="2"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="35">
         <v>2</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="36">
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="C11" s="135">
+      <c r="C11" s="115">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="81">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="81">
         <f t="shared" si="0"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="81">
         <v>4</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="82">
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="65">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="35">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="35">
         <f t="shared" si="2"/>
         <v>3.4224425414002564</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="35">
         <v>4</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="36">
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="C12" s="135">
+      <c r="C12" s="115">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="81">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="81">
         <f t="shared" si="0"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="81">
         <v>2</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="82">
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="65">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="35">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="35">
         <f t="shared" si="2"/>
         <v>3.860237600781018</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="35">
         <v>2</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="36">
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="C13" s="135">
+      <c r="C13" s="115">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="81">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="81">
         <f t="shared" si="0"/>
         <v>10.854399933689349</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="81">
         <v>4</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="82">
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="65">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="35">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="35">
         <f t="shared" si="2"/>
         <v>4.3705054149409532</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="35">
         <v>4</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="36">
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="C14" s="136">
+      <c r="C14" s="116">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="88">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="88">
         <f t="shared" si="0"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="88">
         <v>1</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="89">
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="65">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="35">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="35">
         <f t="shared" si="2"/>
         <v>4.9630818569849344</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="35">
         <v>2</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="36">
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickTop="1">
-      <c r="F15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="134">
+      <c r="F15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="114">
         <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="65">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="35">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="35">
         <f t="shared" si="2"/>
         <v>5.6482062223138989</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="35">
         <v>4</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="36">
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1">
-      <c r="F16" s="136" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="104">
+      <c r="F16" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="89">
         <f>G15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="65">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="35">
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="35">
         <f t="shared" si="2"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="35">
         <v>2</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="36">
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
     </row>
     <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="I17" s="80">
+      <c r="I17" s="65">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="35">
         <f t="shared" si="7"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="35">
         <f t="shared" si="2"/>
         <v>7.3393320478928645</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="35">
         <v>4</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="36">
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="O17" s="149"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="149"/>
-      <c r="T17" s="149"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
     </row>
     <row r="18" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C18" s="137">
+      <c r="C18" s="117">
         <v>1.6</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139">
+      <c r="D18" s="118"/>
+      <c r="E18" s="119">
         <v>1.6</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="65">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="35">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="35">
         <f t="shared" si="2"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="35">
         <v>2</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="36">
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="140" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="80">
+      <c r="C19" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="65">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="35">
         <f>J18+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="35">
         <f t="shared" si="2"/>
         <v>9.5355933352384898</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="35">
         <v>4</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="36">
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="143">
+      <c r="C20" s="123">
         <v>0</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="144">
+      <c r="D20" s="121"/>
+      <c r="E20" s="124">
         <v>0</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="65">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="35">
         <f t="shared" si="7"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="35">
         <f t="shared" si="2"/>
         <v>10.854399933689351</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="35">
         <v>2</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="36">
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="O20" s="149"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="149"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="145"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="I21" s="80">
+      <c r="C21" s="125"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="I21" s="65">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="35">
         <f t="shared" si="7"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="35">
         <f t="shared" si="2"/>
         <v>12.338378140676133</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="35">
         <v>4</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="36">
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="149"/>
-      <c r="T21" s="149"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
     </row>
     <row r="22" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C22" s="145" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="81">
+      <c r="C22" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="66">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="37">
         <f t="shared" si="7"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="37">
         <f t="shared" si="2"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="37">
         <v>1</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="38">
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
     </row>
     <row r="23" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C23" s="145">
+      <c r="C23" s="125">
         <v>1.6</v>
       </c>
-      <c r="D23" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="142">
+      <c r="D23" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="122">
         <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="L23" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="79">
+      <c r="L23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="64">
         <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
     </row>
     <row r="24" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C24" s="145">
+      <c r="C24" s="125">
         <v>0</v>
       </c>
-      <c r="D24" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="142">
+      <c r="D24" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="122">
         <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="L24" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="45">
+      <c r="L24" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="38">
         <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
     </row>
     <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C25" s="145"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C26" s="147">
+      <c r="C26" s="127">
         <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="D26" s="148" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="148">
+      <c r="D26" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="128">
         <f>E24</f>
         <v>2</v>
       </c>
-      <c r="F26" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="117">
+      <c r="F26" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="102">
         <f>C26-E26</f>
         <v>9.5444648487902306</v>
       </c>
@@ -7851,10 +8124,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7862,7 +8135,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -7873,7 +8146,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -7884,15 +8157,21 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>67</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B5" s="211" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHere\MathsCoursework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -14,9 +19,9 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,8 +86,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>O.L.Sheard U1664298</author>
+  </authors>
+  <commentList>
+    <comment ref="V22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>O.L.Sheard U1664298:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each value in the matrix below contains the formula to calculate the correct value, change the translation matrix as proof</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -309,9 +348,6 @@
     <t>Rotation</t>
   </si>
   <si>
-    <t>Matrix</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
@@ -376,13 +412,16 @@
   </si>
   <si>
     <t>Max error for part a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +457,14 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1189,19 +1236,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1391,11 +1425,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1409,9 +1487,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1583,34 +1658,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1709,12 +1784,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1733,172 +1802,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,6 +1967,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1916,116 +1979,110 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2033,7 +2090,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2054,13 +2138,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2068,25 +2164,28 @@
             <c:v>Triangle</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
-              <a:round/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2133,7 +2232,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2146,31 +2246,32 @@
             <c:v>Trapezium 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
-              <a:round/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:effectLst>
-              <a:softEdge rad="0"/>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="bg2"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:effectLst>
-                <a:softEdge rad="0"/>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2221,7 +2322,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2236,23 +2338,23 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
+              <a:tailEnd w="lg" len="lg"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="plus"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="9525" cap="flat">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2305,7 +2407,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2317,6 +2420,29 @@
           <c:tx>
             <c:v>Translated Triangle</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$P$26:$R$26,'Question 3'!$P$26)</c:f>
@@ -2359,6 +2485,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2366,6 +2498,26 @@
           <c:tx>
             <c:v>Translated Trapezium 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$S$26:$V$26,'Question 3'!$S$26)</c:f>
@@ -2414,6 +2566,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2421,6 +2579,26 @@
           <c:tx>
             <c:v>Translated Trapezium 2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$W$26:$Z$26,'Question 3'!$W$26)</c:f>
@@ -2469,6 +2647,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2476,6 +2660,26 @@
           <c:tx>
             <c:v>Rotated Triangle</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$P$34:$R$34,'Question 3'!$P$34)</c:f>
@@ -2518,6 +2722,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2525,6 +2735,26 @@
           <c:tx>
             <c:v>Rotated Trapezium 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$S$34:$V$34,'Question 3'!$S$34)</c:f>
@@ -2570,6 +2800,12 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2577,6 +2813,26 @@
           <c:tx>
             <c:v>Rotated Trapezium 2</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>('Question 3'!$W$34:$Z$34,'Question 3'!$W$34)</c:f>
@@ -2622,7 +2878,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3AB1-481F-B58D-9C6C7387A54E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="92426240"/>
         <c:axId val="92427776"/>
       </c:scatterChart>
@@ -2631,14 +2901,14 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2648,6 +2918,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2691,14 +2962,14 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2708,6 +2979,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2749,7 +3021,11 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2757,6 +3033,7 @@
     <c:legend>
       <c:legendPos val="l"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2771,10 +3048,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2787,7 +3061,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2797,7 +3072,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="95000"/>
+        <a:lumOff val="5000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2828,583 +3106,27 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>12737</xdr:colOff>
+      <xdr:colOff>29303</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>26448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>622851</xdr:colOff>
+      <xdr:colOff>588064</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,8 +3134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6241259" y="2683509"/>
-          <a:ext cx="6215783" cy="1900086"/>
+          <a:off x="6771346" y="2784557"/>
+          <a:ext cx="6074979" cy="2102182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3487,7 +3209,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,492 +3227,1059 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188845</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>135836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>411199</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>124277</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10608367" y="7921488"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Rectangle 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>456838</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149085</xdr:rowOff>
+      <xdr:colOff>233571</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7054240" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>455925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160719</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9037621" y="3039715"/>
-          <a:ext cx="7054240" cy="937629"/>
+          <a:off x="8814354" y="7005430"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[                                         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rectangle 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212036</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>434390</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>155748</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12470297" y="7000459"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rectangle 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>522073</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3314</xdr:rowOff>
+      <xdr:colOff>182222</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4966</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2043636" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>404576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>159059</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10328682" y="3887857"/>
-          <a:ext cx="2043636" cy="937629"/>
+          <a:off x="9988831" y="5446640"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rectangle 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangle 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>210383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>432737</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162371</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12468644" y="5449952"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Rectangle 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>364264</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>221976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3309</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2200219" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444330</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157402</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10170873" y="5441674"/>
-          <a:ext cx="2200219" cy="937629"/>
+          <a:off x="10028585" y="3887852"/>
+          <a:ext cx="2674006" cy="940941"/>
+          <a:chOff x="10583518" y="7921488"/>
+          <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[          ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10583518" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12847988" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>520525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2043636" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12778786" y="5441674"/>
-          <a:ext cx="2043636" cy="937629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>541940</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>6648</xdr:rowOff>
+      <xdr:colOff>357806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155708</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2043636" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>306831</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111019</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="Group 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9122723" y="7005452"/>
-          <a:ext cx="2043636" cy="937629"/>
+          <a:off x="8938589" y="3054621"/>
+          <a:ext cx="7303981" cy="940941"/>
+          <a:chOff x="10376448" y="7921488"/>
+          <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Rectangle 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10376448" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rectangle 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17270893" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>540424</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2043636" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12798685" y="7002142"/>
-          <a:ext cx="2043636" cy="937629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>512122</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>150764</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2043636" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10931644" y="4755894"/>
-          <a:ext cx="2043636" cy="937629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>460144</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>135899</xdr:rowOff>
+      <xdr:colOff>361119</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125890</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7054240" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>310144</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9040927" y="4616790"/>
-          <a:ext cx="7054240" cy="937629"/>
+          <a:off x="8941902" y="6163912"/>
+          <a:ext cx="7303981" cy="940941"/>
+          <a:chOff x="10376448" y="7921488"/>
+          <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[                                         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10376448" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Rectangle 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17270893" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>463450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>147561</xdr:rowOff>
+      <xdr:colOff>356148</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120930</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7054240" cy="937629"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>305173</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101088</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="Group 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9044233" y="6152452"/>
-          <a:ext cx="7054240" cy="937629"/>
+          <a:off x="8936931" y="4601821"/>
+          <a:ext cx="7303981" cy="940941"/>
+          <a:chOff x="10376448" y="7921488"/>
+          <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="12700">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="40000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>[                                         ]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Rectangle 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10376448" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Rectangle 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17270893" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4014,7 +4303,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,636 +4613,636 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="188" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="200"/>
+      <c r="F1" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="188"/>
-      <c r="F1" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="188" t="s">
+      <c r="E2" s="200"/>
+      <c r="F2" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="188" t="s">
+      <c r="E3" s="200"/>
+      <c r="F3" s="199" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="183" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="188" t="s">
+      <c r="E4" s="200"/>
+      <c r="F4" s="199" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="188"/>
-      <c r="F4" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="188"/>
-      <c r="F5" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="189" t="s">
+      <c r="E5" s="200"/>
+      <c r="F5" s="199" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="164"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="170"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="192" t="s">
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="164"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="193" t="s">
+      <c r="F9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="194" t="s">
+      <c r="H9" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="170"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="195" t="s">
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="164"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="196" t="s">
+      <c r="E10" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="196" t="s">
+      <c r="F10" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="196" t="s">
+      <c r="G10" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="197" t="s">
+      <c r="H10" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="198" t="s">
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="164"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="199" t="s">
+      <c r="G11" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="200" t="s">
+      <c r="H11" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="170"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="201" t="s">
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="202" t="s">
+      <c r="E12" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="202" t="s">
+      <c r="F12" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="203" t="s">
+      <c r="H12" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A13" s="170"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205" t="s">
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="206" t="s">
+      <c r="F13" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1">
-      <c r="A14" s="170"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="170"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="170"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="170"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="170"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="170"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="164"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4961,56 +5250,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="112" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="112" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5019,17 +5308,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="73"/>
+    <col min="2" max="2" width="9.140625" style="72"/>
     <col min="3" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="3" customWidth="1"/>
@@ -5037,938 +5326,1078 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="L1" s="213" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="213"/>
-      <c r="P1" s="184" t="s">
+      <c r="B1" s="74"/>
+      <c r="L1" s="201" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="201"/>
+      <c r="P1" s="211" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="184"/>
-      <c r="S1" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" s="184"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="164" t="s">
+      <c r="T1" s="214"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="89" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="104" t="s">
+      <c r="Q2" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="R2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="13">
+      <c r="B3" s="159"/>
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="76">
         <v>1.75</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="77">
         <v>2.25</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="77">
         <f>SUM(E3,D3)/2</f>
         <v>2</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="77">
         <f>SIN(F3)</f>
         <v>0.90929742682568171</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="77">
         <f>((F3^3)/4)-1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="78">
         <f>H3-G3</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="90">
         <v>0</v>
       </c>
-      <c r="M3" s="92">
+      <c r="M3" s="91">
         <f>ABS(I3)</f>
         <v>9.0702573174318291E-2</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>2</v>
       </c>
-      <c r="Q3" s="106">
+      <c r="Q3" s="103">
         <f>POWER((4*SIN(P3))+4,1/3)</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="R3" s="107">
+      <c r="R3" s="104">
         <v>0</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f>SIN(S3)-((S3^3)/4)+1</f>
         <v>-9.0702573174318291E-2</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="11">
         <f>COS(S3)-(3*(S3^2))/4</f>
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="166" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="13">
+      <c r="B4" s="159"/>
+      <c r="C4" s="12">
         <f>C3+1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="79">
         <f>IF(I3&gt;0,D3,F3)</f>
         <v>1.75</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="80">
         <f>IF(I3&gt;0,F3,E3)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="80">
         <f>SUM(E4,D4)/2</f>
         <v>1.875</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="80">
         <f>SIN(F4)</f>
         <v>0.95408578160969382</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="80">
         <f t="shared" ref="H4:H6" si="0">((F4^3)/4)-1</f>
         <v>0.64794921875</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="81">
         <f>H4-G4</f>
         <v>-0.30613656285969382</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="90">
         <v>1</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="92">
         <f t="shared" ref="M4:M8" si="1">ABS(I4)</f>
         <v>0.30613656285969382</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f>O3+1</f>
         <v>1</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <f>Q3</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="Q4" s="108">
+      <c r="Q4" s="105">
         <f t="shared" ref="Q4:Q8" si="2">POWER((4*SIN(P4))+4,1/3)</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="R4" s="109">
+      <c r="R4" s="106">
         <f>R3+1</f>
         <v>1</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <f>S3-(T3/U3)</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="14">
         <f>SIN(S4)-((S4^3)/4)+1</f>
         <v>-1.3745544346543959E-3</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f>COS(S4)-(3*(S4^2))/4</f>
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="131" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="13">
+      <c r="B5" s="159"/>
+      <c r="C5" s="12">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="79">
         <f t="shared" ref="D5:D6" si="4">IF(I4&gt;0,D4,F4)</f>
         <v>1.875</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="80">
         <f t="shared" ref="E5:E6" si="5">IF(I4&gt;0,F4,E4)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="80">
         <f t="shared" ref="F5:F6" si="6">SUM(E5,D5)/2</f>
         <v>1.9375</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="80">
         <f t="shared" ref="G5:G17" si="7">SIN(F5)</f>
         <v>0.9335142808623762</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="80">
         <f t="shared" si="0"/>
         <v>0.81829833984375</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="81">
         <f t="shared" ref="I5:I6" si="8">H5-G5</f>
         <v>-0.1152159410186262</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="90">
         <v>2</v>
       </c>
-      <c r="M5" s="93">
+      <c r="M5" s="92">
         <f t="shared" si="1"/>
         <v>0.1152159410186262</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" ref="O5:O8" si="9">O4+1</f>
         <v>2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <f t="shared" ref="P5:P8" si="10">Q4</f>
         <v>1.9735325728756814</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="105">
         <f t="shared" si="2"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="R5" s="109">
+      <c r="R5" s="106">
         <f t="shared" ref="R5:R8" si="11">R4+1</f>
         <v>2</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <f>S4-(T4/U4)</f>
         <v>1.9730339354416708</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <f t="shared" ref="T5:T8" si="12">SIN(S5)-((S5^3)/4)+1</f>
         <v>-3.3400819843265594E-7</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="15">
         <f t="shared" ref="U5:U8" si="13">COS(S5)-(3*(S5^2))/4</f>
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A6" s="167" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="13">
+      <c r="B6" s="160"/>
+      <c r="C6" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="79">
         <f t="shared" si="4"/>
         <v>1.9375</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="80">
         <f t="shared" si="6"/>
         <v>1.96875</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="80">
         <f t="shared" si="7"/>
         <v>0.92185594218572775</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="80">
         <f t="shared" si="0"/>
         <v>0.90770721435546875</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="81">
         <f t="shared" si="8"/>
         <v>-1.4148727830259E-2</v>
       </c>
-      <c r="L6" s="91">
+      <c r="L6" s="90">
         <v>3</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="92">
         <f t="shared" si="1"/>
         <v>1.4148727830259E-2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <f t="shared" si="10"/>
         <v>1.9729669202217917</v>
       </c>
-      <c r="Q6" s="108">
+      <c r="Q6" s="105">
         <f t="shared" si="2"/>
         <v>1.9730428059710325</v>
       </c>
-      <c r="R6" s="109">
+      <c r="R6" s="106">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <f>S5-(T5/U5)</f>
         <v>1.9730338345671505</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <f t="shared" si="12"/>
         <v>-1.9095836023552692E-14</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <f t="shared" si="13"/>
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C7" s="33">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="82">
         <f>IF(I6&gt;0,D6,F6)</f>
         <v>1.96875</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="83">
         <f>IF(I6&gt;0,F6,E6)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="83">
         <f t="shared" ref="F7" si="14">SUM(E7,D7)/2</f>
         <v>1.984375</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="83">
         <f t="shared" si="7"/>
         <v>0.91568846060812537</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="83">
         <f t="shared" ref="H7" si="15">((F7^3)/4)-1</f>
         <v>0.95349025726318359</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="84">
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="169"/>
-      <c r="L7" s="94">
+      <c r="J7" s="163"/>
+      <c r="L7" s="93">
         <v>4</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="94">
         <f t="shared" si="1"/>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <f>O6+1</f>
         <v>4</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <f>Q6</f>
         <v>1.9730428059710325</v>
       </c>
-      <c r="Q7" s="108">
+      <c r="Q7" s="105">
         <f t="shared" si="2"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="R7" s="109">
+      <c r="R7" s="106">
         <f>R6+1</f>
         <v>4</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <f>S6-(T6/U6)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="15">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C8" s="86">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="85">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="86">
         <f t="shared" ref="D8:D16" si="17">IF(I7&gt;0,D7,F7)</f>
         <v>1.96875</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="87">
         <f t="shared" ref="E8:E16" si="18">IF(I7&gt;0,F7,E7)</f>
         <v>1.984375</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="87">
         <f t="shared" ref="F8:F16" si="19">SUM(E8,D8)/2</f>
         <v>1.9765625</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="87">
         <f t="shared" si="7"/>
         <v>0.91880024081244061</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="87">
         <f t="shared" ref="H8:H16" si="20">((F8^3)/4)-1</f>
         <v>0.93050825595855713</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="88">
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="96">
+      <c r="J8" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="95">
         <v>5</v>
       </c>
-      <c r="M8" s="97">
+      <c r="M8" s="96">
         <f t="shared" si="1"/>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f t="shared" si="10"/>
         <v>1.9730326316310438</v>
       </c>
-      <c r="Q8" s="110">
+      <c r="Q8" s="107">
         <f t="shared" si="2"/>
         <v>1.9730339958615171</v>
       </c>
-      <c r="R8" s="111">
+      <c r="R8" s="108">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <f>S7-(T7/U7)</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="19">
         <f t="shared" si="13"/>
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C9" s="39">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <f t="shared" si="17"/>
         <v>1.96875</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <f t="shared" si="19"/>
         <v>1.97265625</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <f t="shared" si="7"/>
         <v>0.9203351130898344</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <f t="shared" si="20"/>
         <v>0.91908515989780426</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f t="shared" si="21"/>
         <v>-1.2499531920301399E-3</v>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="30" t="str">
         <f t="shared" ref="J9:J18" si="22">IF(ABS(I9)&lt;0.000001,"Less","More")</f>
         <v>More</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="98">
         <f>MAX(M3:M7)</f>
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="21">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="18"/>
         <v>1.9765625</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f t="shared" si="19"/>
         <v>1.974609375</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <f t="shared" si="7"/>
         <v>0.9195694308900767</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="20"/>
         <v>0.92479105852544308</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f t="shared" si="21"/>
         <v>5.2216276353663771E-3</v>
       </c>
-      <c r="J10" s="31" t="str">
+      <c r="J10" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C11" s="21">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="18"/>
         <v>1.974609375</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <f t="shared" si="19"/>
         <v>1.9736328125</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f t="shared" si="7"/>
         <v>0.9199527106575569</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f t="shared" si="20"/>
         <v>0.9219366975594312</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" si="21"/>
         <v>1.9839869018742906E-3</v>
       </c>
-      <c r="J11" s="31" t="str">
+      <c r="J11" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="59" t="s">
+      <c r="O11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="59" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="C12" s="21">
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="151"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f t="shared" si="18"/>
         <v>1.9736328125</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <f t="shared" si="19"/>
         <v>1.97314453125</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f t="shared" si="7"/>
         <v>0.92014402156340858</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="20"/>
         <v>0.9205105759028811</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="21"/>
         <v>3.6655433947252458E-4</v>
       </c>
-      <c r="J12" s="31" t="str">
+      <c r="J12" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="44">
         <f>F8</f>
         <v>1.9765625</v>
       </c>
-      <c r="N12" s="52">
+      <c r="N12" s="51">
         <f>1.97303383-M12</f>
         <v>-3.5286699999999005E-3</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="56">
         <v>1.75</v>
       </c>
-      <c r="P12" s="58">
+      <c r="P12" s="57">
         <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="C13" s="21">
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="155"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f t="shared" si="17"/>
         <v>1.97265625</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f t="shared" si="19"/>
         <v>1.972900390625</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="7"/>
         <v>0.92023959475189843</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="20"/>
         <v>0.91979777970482246</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f t="shared" si="21"/>
         <v>-4.4181504707596631E-4</v>
       </c>
-      <c r="J13" s="31" t="str">
+      <c r="J13" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="45">
         <f>P8</f>
         <v>1.9730326316310438</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="52">
         <f t="shared" ref="N13:N14" si="24">1.97303383-M13</f>
         <v>1.1983689562899968E-6</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <f>P4</f>
         <v>1.9692968800947126</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="46">
         <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="C14" s="21">
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="155"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f t="shared" si="17"/>
         <v>1.972900390625</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f t="shared" si="19"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <f t="shared" si="7"/>
         <v>0.9201918150136168</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="20"/>
         <v>0.92015415575360748</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f t="shared" si="21"/>
         <v>-3.7659260009315076E-5</v>
       </c>
-      <c r="J14" s="31" t="str">
+      <c r="J14" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="48">
         <f>S8</f>
         <v>1.9730338345671448</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="53">
         <f t="shared" si="24"/>
         <v>-4.5671446624595546E-9</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="55">
         <f>S4</f>
         <v>1.973448865779436</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="49">
         <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1">
-      <c r="C15" s="21">
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="155"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f t="shared" si="18"/>
         <v>1.97314453125</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <f t="shared" si="19"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <f t="shared" si="7"/>
         <v>0.92016792000245906</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" si="20"/>
         <v>0.92033236031551269</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f t="shared" si="21"/>
         <v>1.644403130536265E-4</v>
       </c>
-      <c r="J15" s="31" t="str">
+      <c r="J15" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="C16" s="26">
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="155"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <f t="shared" si="17"/>
         <v>1.9730224609375</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="18"/>
         <v>1.97308349609375</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <f t="shared" si="19"/>
         <v>1.973052978515625</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <f t="shared" si="7"/>
         <v>0.92017986793653006</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <f t="shared" si="20"/>
         <v>0.9202432566563985</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="27">
         <f>H16-G16</f>
         <v>6.3388719868440191E-5</v>
       </c>
-      <c r="J16" s="31" t="str">
+      <c r="J16" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="29">
+      <c r="L16" s="152"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="155"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="28">IF(I16&gt;0,D16,F16)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f t="shared" ref="E17" si="29">IF(I16&gt;0,F16,E16)</f>
         <v>1.973052978515625</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <f t="shared" ref="F17" si="30">SUM(E17,D17)/2</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <f t="shared" si="7"/>
         <v>0.92018584158219718</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" ref="H17" si="31">((F17^3)/4)-1</f>
         <v>0.92019870586046526</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <f t="shared" ref="I17" si="32">H17-G17</f>
         <v>1.2864278268076568E-5</v>
       </c>
-      <c r="J17" s="31" t="str">
+      <c r="J17" s="30" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C18" s="30">
+      <c r="L17" s="152"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+    </row>
+    <row r="18" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f t="shared" ref="D18" si="33">IF(I17&gt;0,D17,F17)</f>
         <v>1.9730224609375</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f t="shared" ref="E18" si="34">IF(I17&gt;0,F17,E17)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f t="shared" ref="F18" si="35">SUM(E18,D18)/2</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f t="shared" ref="G18" si="36">SIN(F18)</f>
         <v>0.92018882832468807</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f t="shared" ref="H18" si="37">((F18^3)/4)-1</f>
         <v>0.92017643072090216</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <f t="shared" ref="I18" si="38">H18-G18</f>
         <v>-1.2397603785907485E-5</v>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="31" t="str">
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C19" s="100">
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="155"/>
+    </row>
+    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="99">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="100">
         <f t="shared" ref="D19" si="39">IF(I18&gt;0,D18,F18)</f>
         <v>1.9730300903320313</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="100">
         <f t="shared" ref="E19" si="40">IF(I18&gt;0,F18,E18)</f>
         <v>1.9730377197265625</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="100">
         <f t="shared" ref="F19" si="41">SUM(E19,D19)/2</f>
         <v>1.9730339050292969</v>
       </c>
-      <c r="G19" s="101">
+      <c r="G19" s="100">
         <f t="shared" ref="G19" si="42">SIN(F19)</f>
         <v>0.92018733496013783</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="100">
         <f t="shared" ref="H19" si="43">((F19^3)/4)-1</f>
         <v>0.92018756826915027</v>
       </c>
-      <c r="I19" s="102">
+      <c r="I19" s="101">
         <f t="shared" ref="I19" si="44">H19-G19</f>
         <v>2.3330901244289493E-7</v>
       </c>
-      <c r="J19" s="103" t="str">
+      <c r="J19" s="102" t="str">
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" ht="15.75" thickTop="1"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="155"/>
+    </row>
+    <row r="20" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="152"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="155"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="152"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="155"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="152"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="155"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L23" s="152"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="155"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L24" s="152"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="155"/>
+    </row>
+    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="156"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="158"/>
+    </row>
+    <row r="26" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -5978,9 +6407,9 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -5990,8 +6419,8 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -6005,22 +6434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="74"/>
+    <col min="1" max="13" width="9.140625" style="73"/>
     <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16384" width="9.140625" style="74"/>
+    <col min="15" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="3"/>
@@ -6031,16 +6458,16 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="172" t="s">
+      <c r="O1" s="165"/>
+      <c r="P1" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="173" t="s">
+      <c r="Q1" s="167" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="130" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3"/>
@@ -6051,18 +6478,18 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="O2" s="174" t="s">
+      <c r="O2" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="175">
+      <c r="P2" s="169">
         <v>2</v>
       </c>
-      <c r="Q2" s="176">
+      <c r="Q2" s="170">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3"/>
@@ -6073,16 +6500,16 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175">
+      <c r="O3" s="168"/>
+      <c r="P3" s="169">
         <v>2</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="170">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="135" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3"/>
@@ -6093,16 +6520,16 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="175">
+      <c r="O4" s="168"/>
+      <c r="P4" s="169">
         <v>5</v>
       </c>
-      <c r="Q4" s="176">
+      <c r="Q4" s="170">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="133" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3"/>
@@ -6113,14 +6540,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="179"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="134" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3"/>
@@ -6131,17 +6558,17 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="174" t="s">
+      <c r="O6" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="175">
+      <c r="P6" s="169">
         <v>5</v>
       </c>
-      <c r="Q6" s="176">
+      <c r="Q6" s="170">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1">
+    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -6150,15 +6577,15 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175">
+      <c r="O7" s="168"/>
+      <c r="P7" s="169">
         <v>8</v>
       </c>
-      <c r="Q7" s="176">
+      <c r="Q7" s="170">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6167,15 +6594,15 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175">
+      <c r="O8" s="168"/>
+      <c r="P8" s="169">
         <v>8</v>
       </c>
-      <c r="Q8" s="176">
+      <c r="Q8" s="170">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6184,15 +6611,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="175">
+      <c r="O9" s="168"/>
+      <c r="P9" s="169">
         <v>2</v>
       </c>
-      <c r="Q9" s="176">
+      <c r="Q9" s="170">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6201,11 +6628,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="179"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -6214,17 +6641,17 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="O11" s="174" t="s">
+      <c r="O11" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="175">
+      <c r="P11" s="169">
         <v>5</v>
       </c>
-      <c r="Q11" s="176">
+      <c r="Q11" s="170">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6233,15 +6660,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="175">
+      <c r="O12" s="168"/>
+      <c r="P12" s="169">
         <v>8</v>
       </c>
-      <c r="Q12" s="176">
+      <c r="Q12" s="170">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6250,15 +6677,15 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="175">
+      <c r="O13" s="168"/>
+      <c r="P13" s="169">
         <v>8</v>
       </c>
-      <c r="Q13" s="176">
+      <c r="Q13" s="170">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6267,15 +6694,15 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="175">
+      <c r="O14" s="168"/>
+      <c r="P14" s="169">
         <v>2</v>
       </c>
-      <c r="Q14" s="176">
+      <c r="Q14" s="170">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -6284,11 +6711,11 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="176"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6301,7 +6728,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:26" ht="15.75" thickTop="1">
+    <row r="17" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6313,26 +6740,27 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="187" t="s">
+      <c r="O17" s="135"/>
+      <c r="P17" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185" t="s">
+      <c r="Q17" s="202"/>
+      <c r="R17" s="202"/>
+      <c r="S17" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185" t="s">
+      <c r="T17" s="202"/>
+      <c r="U17" s="202"/>
+      <c r="V17" s="202"/>
+      <c r="W17" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="186"/>
-    </row>
-    <row r="18" spans="3:26">
+      <c r="X17" s="202"/>
+      <c r="Y17" s="202"/>
+      <c r="Z17" s="206"/>
+      <c r="AA17" s="207"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -6344,44 +6772,45 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="O18" s="139" t="s">
+      <c r="O18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="140">
+      <c r="P18" s="137">
         <v>2</v>
       </c>
-      <c r="Q18" s="140">
+      <c r="Q18" s="137">
         <v>2</v>
       </c>
-      <c r="R18" s="140">
+      <c r="R18" s="137">
         <v>5</v>
       </c>
-      <c r="S18" s="140">
+      <c r="S18" s="137">
         <v>5</v>
       </c>
-      <c r="T18" s="140">
+      <c r="T18" s="137">
         <v>8</v>
       </c>
-      <c r="U18" s="140">
+      <c r="U18" s="137">
         <v>8</v>
       </c>
-      <c r="V18" s="140">
+      <c r="V18" s="137">
         <v>2</v>
       </c>
-      <c r="W18" s="140">
+      <c r="W18" s="137">
         <v>5</v>
       </c>
-      <c r="X18" s="140">
+      <c r="X18" s="137">
         <v>8</v>
       </c>
-      <c r="Y18" s="140">
+      <c r="Y18" s="137">
         <v>8</v>
       </c>
-      <c r="Z18" s="141">
+      <c r="Z18" s="137">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:26">
+      <c r="AA18" s="138"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -6393,44 +6822,45 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="O19" s="139" t="s">
+      <c r="O19" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="140">
+      <c r="P19" s="137">
         <v>4</v>
       </c>
-      <c r="Q19" s="140">
+      <c r="Q19" s="137">
         <v>8</v>
       </c>
-      <c r="R19" s="140">
+      <c r="R19" s="137">
         <v>6</v>
       </c>
-      <c r="S19" s="140">
+      <c r="S19" s="137">
         <v>6</v>
       </c>
-      <c r="T19" s="140">
+      <c r="T19" s="137">
         <v>6</v>
       </c>
-      <c r="U19" s="140">
+      <c r="U19" s="137">
         <v>8</v>
       </c>
-      <c r="V19" s="140">
+      <c r="V19" s="137">
         <v>8</v>
       </c>
-      <c r="W19" s="140">
+      <c r="W19" s="137">
         <v>6</v>
       </c>
-      <c r="X19" s="140">
+      <c r="X19" s="137">
         <v>6</v>
       </c>
-      <c r="Y19" s="140">
+      <c r="Y19" s="137">
         <v>4</v>
       </c>
-      <c r="Z19" s="141">
+      <c r="Z19" s="137">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="3:26" ht="15.75" thickBot="1">
+      <c r="AA19" s="138"/>
+    </row>
+    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -6442,44 +6872,45 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="142">
+      <c r="P20" s="139">
         <v>1</v>
       </c>
-      <c r="Q20" s="142">
+      <c r="Q20" s="139">
         <v>1</v>
       </c>
-      <c r="R20" s="142">
+      <c r="R20" s="139">
         <v>1</v>
       </c>
-      <c r="S20" s="142">
+      <c r="S20" s="139">
         <v>1</v>
       </c>
-      <c r="T20" s="142">
+      <c r="T20" s="139">
         <v>1</v>
       </c>
-      <c r="U20" s="142">
+      <c r="U20" s="139">
         <v>1</v>
       </c>
-      <c r="V20" s="142">
+      <c r="V20" s="139">
         <v>1</v>
       </c>
-      <c r="W20" s="142">
+      <c r="W20" s="139">
         <v>1</v>
       </c>
-      <c r="X20" s="142">
+      <c r="X20" s="139">
         <v>1</v>
       </c>
-      <c r="Y20" s="142">
+      <c r="Y20" s="139">
         <v>1</v>
       </c>
-      <c r="Z20" s="143">
+      <c r="Z20" s="139">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="AA20" s="140"/>
+    </row>
+    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6504,686 +6935,696 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:26" ht="15.75" thickTop="1">
+    <row r="22" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="O22" s="144" t="s">
+      <c r="O22" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="118" t="s">
+      <c r="P22" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118">
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115">
         <v>1</v>
       </c>
-      <c r="S22" s="118">
+      <c r="S22" s="115">
         <v>0</v>
       </c>
-      <c r="T22" s="118">
+      <c r="T22" s="115">
         <v>-12</v>
       </c>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="145"/>
-    </row>
-    <row r="23" spans="3:26">
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="115"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="142"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="O23" s="125" t="s">
+      <c r="O23" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="121" t="s">
+      <c r="P23" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121">
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118">
         <v>0</v>
       </c>
-      <c r="S23" s="121">
+      <c r="S23" s="118">
         <v>1</v>
       </c>
-      <c r="T23" s="121">
+      <c r="T23" s="118">
         <v>-3</v>
       </c>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="122"/>
-    </row>
-    <row r="24" spans="3:26">
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="119"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121">
+      <c r="O24" s="122"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118">
         <v>0</v>
       </c>
-      <c r="S24" s="121">
+      <c r="S24" s="118">
         <v>0</v>
       </c>
-      <c r="T24" s="121">
+      <c r="T24" s="118">
         <v>1</v>
       </c>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
-    </row>
-    <row r="25" spans="3:26">
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="119"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="122"/>
-    </row>
-    <row r="26" spans="3:26">
+      <c r="O25" s="122"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="119"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="121">
+      <c r="O26" s="122"/>
+      <c r="P26" s="118">
         <f>SUM($R22*P$18,$S22*P$19,$T22*P$20)</f>
         <v>-10</v>
       </c>
-      <c r="Q26" s="121">
+      <c r="Q26" s="118">
         <f t="shared" ref="Q26:Z26" si="0">SUM($R22*Q$18,$S22*Q$19,$T22*Q$20)</f>
         <v>-10</v>
       </c>
-      <c r="R26" s="121">
+      <c r="R26" s="118">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="S26" s="121">
+      <c r="S26" s="118">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="T26" s="121">
+      <c r="T26" s="118">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="U26" s="121">
+      <c r="U26" s="118">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="V26" s="121">
+      <c r="V26" s="118">
+        <f>SUM($R22*V$18,$S22*V$19,$T22*V$20)</f>
+        <v>-10</v>
+      </c>
+      <c r="W26" s="118">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="X26" s="118">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Y26" s="118">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="Z26" s="118">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="W26" s="121">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="X26" s="121">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="Y26" s="121">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="Z26" s="122">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26">
+      <c r="AA26" s="119"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="121">
-        <f t="shared" ref="P27:Z27" si="1">SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
+      <c r="O27" s="122"/>
+      <c r="P27" s="118">
+        <f>SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="121">
+      <c r="Q27" s="118">
+        <f t="shared" ref="P27:Z27" si="1">SUM($R23*Q$18,$S23*Q$19,$T23*Q$20)</f>
+        <v>5</v>
+      </c>
+      <c r="R27" s="118">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S27" s="118">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T27" s="118">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U27" s="118">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R27" s="121">
+      <c r="V27" s="118">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W27" s="118">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S27" s="121">
+      <c r="X27" s="118">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T27" s="121">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U27" s="121">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V27" s="121">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W27" s="121">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="X27" s="121">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y27" s="121">
+      <c r="Y27" s="118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="122">
+      <c r="Z27" s="118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" ht="15.75" thickBot="1">
+      <c r="AA27" s="119"/>
+    </row>
+    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="128">
+      <c r="O28" s="124"/>
+      <c r="P28" s="125">
         <f>SUM($R24*P$18,$S24*P$19,$T24*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="128">
+      <c r="Q28" s="125">
         <f t="shared" ref="Q28:Z28" si="2">SUM($R24*Q$18,$S24*Q$19,$T24*Q$20)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="128">
+      <c r="R28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S28" s="128">
+      <c r="S28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28" s="128">
+      <c r="T28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U28" s="128">
+      <c r="U28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V28" s="128">
+      <c r="V28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W28" s="128">
+      <c r="W28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X28" s="128">
+      <c r="X28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="128">
+      <c r="Y28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="146">
+      <c r="Z28" s="125">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" ht="16.5" thickTop="1" thickBot="1">
+      <c r="AA28" s="143"/>
+    </row>
+    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:26" ht="15.75" thickTop="1">
-      <c r="O30" s="147" t="s">
+    <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67" t="s">
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="S30" s="148" t="s">
+      <c r="S30" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="T30" s="67">
+      <c r="T30" s="66">
         <v>0</v>
       </c>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67">
+      <c r="U30" s="66"/>
+      <c r="V30" s="66">
         <v>-1</v>
       </c>
-      <c r="W30" s="67">
+      <c r="W30" s="66">
         <v>0</v>
       </c>
-      <c r="X30" s="67">
+      <c r="X30" s="66">
         <v>0</v>
       </c>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="149"/>
-    </row>
-    <row r="31" spans="3:26">
-      <c r="O31" s="70"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="150" t="s">
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="146"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="O31" s="69"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="S31" s="68" t="s">
+      <c r="S31" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="T31" s="68">
+      <c r="T31" s="67">
         <v>0</v>
       </c>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68">
+      <c r="U31" s="67"/>
+      <c r="V31" s="67">
         <v>0</v>
       </c>
-      <c r="W31" s="68">
+      <c r="W31" s="67">
         <v>-1</v>
       </c>
-      <c r="X31" s="68">
+      <c r="X31" s="67">
         <v>0</v>
       </c>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="69"/>
-    </row>
-    <row r="32" spans="3:26">
-      <c r="O32" s="70"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68">
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="68"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="O32" s="69"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67">
         <v>0</v>
       </c>
-      <c r="S32" s="68">
+      <c r="S32" s="67">
         <v>0</v>
       </c>
-      <c r="T32" s="68">
+      <c r="T32" s="67">
         <v>1</v>
       </c>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68">
+      <c r="U32" s="67"/>
+      <c r="V32" s="67">
         <v>0</v>
       </c>
-      <c r="W32" s="68">
+      <c r="W32" s="67">
         <v>0</v>
       </c>
-      <c r="X32" s="68">
+      <c r="X32" s="67">
         <v>1</v>
       </c>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="69"/>
-    </row>
-    <row r="33" spans="15:26">
-      <c r="O33" s="70"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="69"/>
-    </row>
-    <row r="34" spans="15:26">
-      <c r="O34" s="70"/>
-      <c r="P34" s="68">
-        <f t="shared" ref="P34:Z34" si="3">SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="68"/>
+    </row>
+    <row r="33" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O33" s="69"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="68"/>
+    </row>
+    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O34" s="69"/>
+      <c r="P34" s="67">
+        <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="68">
+      <c r="Q34" s="67">
+        <f t="shared" ref="P34:Z34" si="3">SUM($V30*Q$26,$W30*Q$27,$X30*Q$28)</f>
+        <v>10</v>
+      </c>
+      <c r="R34" s="67">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S34" s="67">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T34" s="67">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U34" s="67">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V34" s="67">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="R34" s="68">
+      <c r="W34" s="67">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="S34" s="68">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="T34" s="68">
+      <c r="X34" s="67">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U34" s="68">
+      <c r="Y34" s="67">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V34" s="68">
+      <c r="Z34" s="67">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="W34" s="68">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="X34" s="68">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y34" s="68">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Z34" s="69">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="15:26">
-      <c r="O35" s="70"/>
-      <c r="P35" s="68">
+      <c r="AA34" s="68"/>
+    </row>
+    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O35" s="69"/>
+      <c r="P35" s="67">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
         <v>-1</v>
       </c>
-      <c r="Q35" s="68">
+      <c r="Q35" s="67">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="R35" s="68">
+      <c r="R35" s="67">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="S35" s="68">
+      <c r="S35" s="67">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="T35" s="68">
+      <c r="T35" s="67">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="U35" s="68">
+      <c r="U35" s="67">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="V35" s="68">
+      <c r="V35" s="67">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
-      <c r="W35" s="68">
+      <c r="W35" s="67">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="X35" s="68">
+      <c r="X35" s="67">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-      <c r="Y35" s="68">
+      <c r="Y35" s="67">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="Z35" s="69">
+      <c r="Z35" s="67">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O36" s="71"/>
-      <c r="P36" s="72">
+      <c r="AA35" s="68"/>
+    </row>
+    <row r="36" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="70"/>
+      <c r="P36" s="71">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="72">
+      <c r="Q36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R36" s="72">
+      <c r="R36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S36" s="72">
+      <c r="S36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T36" s="72">
+      <c r="T36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U36" s="72">
+      <c r="U36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V36" s="72">
+      <c r="V36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W36" s="72">
+      <c r="W36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X36" s="72">
+      <c r="X36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="72">
+      <c r="Y36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z36" s="151">
+      <c r="Z36" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="15:26" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="38" spans="15:26" ht="15.75" thickTop="1">
-      <c r="O38" s="152" t="s">
+      <c r="AA36" s="148"/>
+    </row>
+    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="149"/>
+      <c r="P38" s="150">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="150">
+        <v>0</v>
+      </c>
+      <c r="R38" s="150">
+        <v>-12</v>
+      </c>
+      <c r="S38" s="150"/>
+      <c r="T38" s="150"/>
+      <c r="U38" s="150"/>
+      <c r="V38" s="150">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="150">
+        <v>0</v>
+      </c>
+      <c r="X38" s="150">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="151"/>
+    </row>
+    <row r="39" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O39" s="152"/>
+      <c r="P39" s="153">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="153">
+        <v>1</v>
+      </c>
+      <c r="R39" s="153">
+        <v>-3</v>
+      </c>
+      <c r="S39" s="153"/>
+      <c r="T39" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="153"/>
+      <c r="V39" s="153">
+        <v>0</v>
+      </c>
+      <c r="W39" s="153">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="153">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="155"/>
+    </row>
+    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O40" s="152"/>
+      <c r="P40" s="153">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="153">
+        <v>0</v>
+      </c>
+      <c r="R40" s="153">
+        <v>1</v>
+      </c>
+      <c r="S40" s="153"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="153"/>
+      <c r="V40" s="153">
+        <v>0</v>
+      </c>
+      <c r="W40" s="153">
+        <v>0</v>
+      </c>
+      <c r="X40" s="153">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="155"/>
+    </row>
+    <row r="41" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O41" s="152"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="P38" s="153">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="153">
-        <v>0</v>
-      </c>
-      <c r="R38" s="153">
-        <v>-12</v>
-      </c>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153" t="s">
+      <c r="R41" s="153"/>
+      <c r="S41" s="153"/>
+      <c r="T41" s="153"/>
+      <c r="U41" s="153"/>
+      <c r="V41" s="153"/>
+      <c r="W41" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="V38" s="153">
-        <v>-1</v>
-      </c>
-      <c r="W38" s="153">
-        <v>0</v>
-      </c>
-      <c r="X38" s="153">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="154"/>
-    </row>
-    <row r="39" spans="15:26">
-      <c r="O39" s="155" t="s">
-        <v>75</v>
-      </c>
-      <c r="P39" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="156">
-        <v>1</v>
-      </c>
-      <c r="R39" s="156">
-        <v>-3</v>
-      </c>
-      <c r="S39" s="156"/>
-      <c r="T39" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="U39" s="156" t="s">
-        <v>75</v>
-      </c>
-      <c r="V39" s="156">
-        <v>0</v>
-      </c>
-      <c r="W39" s="156">
-        <v>-1</v>
-      </c>
-      <c r="X39" s="156">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="158"/>
-    </row>
-    <row r="40" spans="15:26">
-      <c r="O40" s="155"/>
-      <c r="P40" s="156">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="156">
-        <v>0</v>
-      </c>
-      <c r="R40" s="156">
-        <v>1</v>
-      </c>
-      <c r="S40" s="156"/>
-      <c r="T40" s="156"/>
-      <c r="U40" s="156"/>
-      <c r="V40" s="156">
-        <v>0</v>
-      </c>
-      <c r="W40" s="156">
-        <v>0</v>
-      </c>
-      <c r="X40" s="156">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="158"/>
-    </row>
-    <row r="41" spans="15:26">
-      <c r="O41" s="155"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
-      <c r="X41" s="156"/>
-      <c r="Y41" s="158"/>
-    </row>
-    <row r="42" spans="15:26">
-      <c r="O42" s="155"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="156"/>
-      <c r="V42" s="156"/>
-      <c r="W42" s="156"/>
-      <c r="X42" s="156"/>
-      <c r="Y42" s="158"/>
-    </row>
-    <row r="43" spans="15:26">
-      <c r="O43" s="155"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" s="156">
+      <c r="X41" s="153"/>
+      <c r="Y41" s="155"/>
+    </row>
+    <row r="42" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O42" s="152"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="153"/>
+      <c r="T42" s="153"/>
+      <c r="U42" s="153"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="155"/>
+    </row>
+    <row r="43" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O43" s="152"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="153">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="156">
+      <c r="T43" s="153">
         <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="156">
+      <c r="U43" s="153">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="156"/>
-      <c r="W43" s="156"/>
-      <c r="X43" s="156"/>
-      <c r="Y43" s="158"/>
-    </row>
-    <row r="44" spans="15:26">
-      <c r="O44" s="155"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156" t="s">
-        <v>75</v>
-      </c>
-      <c r="S44" s="156">
+      <c r="V43" s="153"/>
+      <c r="W43" s="153"/>
+      <c r="X43" s="153"/>
+      <c r="Y43" s="155"/>
+    </row>
+    <row r="44" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O44" s="152"/>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="215" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="153"/>
+      <c r="S44" s="153">
         <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="156">
+      <c r="T44" s="153">
         <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="156">
+      <c r="U44" s="153">
         <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
-      <c r="X44" s="156"/>
-      <c r="Y44" s="158"/>
-    </row>
-    <row r="45" spans="15:26">
-      <c r="O45" s="155"/>
-      <c r="P45" s="156"/>
-      <c r="Q45" s="156"/>
-      <c r="R45" s="156"/>
-      <c r="S45" s="156">
+      <c r="V44" s="153"/>
+      <c r="W44" s="153"/>
+      <c r="X44" s="153"/>
+      <c r="Y44" s="155"/>
+    </row>
+    <row r="45" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O45" s="152"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="153">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="156">
+      <c r="T45" s="153">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="156">
+      <c r="U45" s="153">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="156"/>
-      <c r="W45" s="156"/>
-      <c r="X45" s="156"/>
-      <c r="Y45" s="158"/>
-    </row>
-    <row r="46" spans="15:26" ht="15.75" thickBot="1">
-      <c r="O46" s="159"/>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="160"/>
-      <c r="S46" s="160"/>
-      <c r="T46" s="160"/>
-      <c r="U46" s="160"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="161"/>
-    </row>
-    <row r="47" spans="15:26" ht="15.75" thickTop="1">
+      <c r="V45" s="153"/>
+      <c r="W45" s="153"/>
+      <c r="X45" s="153"/>
+      <c r="Y45" s="155"/>
+    </row>
+    <row r="46" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="156"/>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="U46" s="157"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="157"/>
+      <c r="X46" s="157"/>
+      <c r="Y46" s="158"/>
+    </row>
+    <row r="47" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -7196,7 +7637,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="15:26">
+    <row r="48" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -7209,6 +7650,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048576" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="W17:Z17"/>
@@ -7218,903 +7664,904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="1" max="1" width="9.140625" style="72"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="62">
+      <c r="C1" s="61">
         <v>1.6</v>
       </c>
-      <c r="E1" s="62">
+      <c r="E1" s="61">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="209" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="129" t="s">
+      <c r="Q2" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="129" t="s">
+      <c r="R2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="129" t="s">
+      <c r="S2" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="129" t="s">
+      <c r="T2" s="126" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="61">
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <v>0</v>
       </c>
-      <c r="O3" s="129">
+      <c r="O3" s="126">
         <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="P3" s="129">
+      <c r="P3" s="126">
         <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="Q3" s="129">
+      <c r="Q3" s="126">
         <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="R3" s="129">
+      <c r="R3" s="126">
         <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="S3" s="129">
+      <c r="S3" s="126">
         <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="T3" s="129">
+      <c r="T3" s="126">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="131" t="s">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="210" t="s">
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="C6" s="115">
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="112">
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="80">
         <v>0</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80">
         <f>2*EXP(D6)+POWER(D6,3)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="80">
         <v>1</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="81">
         <f>E6*F6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <v>0</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>0</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <f>2*EXP(J6)+POWER(J6,3)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>1</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="C7" s="115">
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="112">
         <f>C6+1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="80">
         <f>D6+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80">
         <f t="shared" ref="E7:E14" si="0">2*EXP(D7)+POWER(D7,3)</f>
         <v>2.4508055163203397</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="80">
         <v>4</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="81">
         <f t="shared" ref="G7:G14" si="1">E7*F7</f>
         <v>9.8032220652813589</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="64">
         <f>I6+1</f>
         <v>1</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <f>J6+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <f t="shared" ref="K7:K22" si="2">2*EXP(J7)+POWER(J7,3)</f>
         <v>2.2113418361512953</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>4</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="C8" s="115">
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="112">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="80">
         <f t="shared" ref="D8:D14" si="5">D7+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="80">
         <f t="shared" si="0"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="80">
         <v>2</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="81">
         <f t="shared" si="1"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="64">
         <f t="shared" ref="I8:I22" si="6">I7+1</f>
         <v>2</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <f t="shared" ref="J8:J22" si="7">J7+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <f t="shared" si="2"/>
         <v>2.4508055163203397</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <v>2</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="C9" s="115">
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="112">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="80">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="80">
         <f t="shared" si="0"/>
         <v>3.8602376007810184</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="80">
         <v>4</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="81">
         <f t="shared" si="1"/>
         <v>15.440950403124074</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f t="shared" si="2"/>
         <v>2.7267176151520065</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>4</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="35">
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="C10" s="115">
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="112">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="80">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <f>2*EXP(D10)+POWER(D10,3)</f>
         <v>4.9630818569849362</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="80">
         <v>2</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="81">
         <f t="shared" si="1"/>
         <v>9.9261637139698724</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="64">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <f t="shared" si="2"/>
         <v>3.0476493952825408</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="34">
         <v>2</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="C11" s="115">
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="112">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="80">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <f t="shared" si="0"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="80">
         <v>4</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="81">
         <f t="shared" si="1"/>
         <v>25.746254627672361</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <f t="shared" si="2"/>
         <v>3.4224425414002564</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="34">
         <v>4</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="C12" s="115">
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="112">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="80">
         <f t="shared" si="0"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="80">
         <v>2</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="81">
         <f t="shared" si="1"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="64">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f t="shared" si="2"/>
         <v>3.860237600781018</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="34">
         <v>2</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="C13" s="115">
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="112">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="80">
         <f t="shared" si="0"/>
         <v>10.854399933689349</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="80">
         <v>4</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="81">
         <f t="shared" si="1"/>
         <v>43.417599734757395</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="64">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <f t="shared" si="2"/>
         <v>4.3705054149409532</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="34">
         <v>4</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="C14" s="116">
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="113">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="87">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="87">
         <v>1</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="88">
         <f t="shared" si="1"/>
         <v>14.002064848790226</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <f t="shared" si="7"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <f t="shared" si="2"/>
         <v>4.9630818569849344</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="34">
         <v>2</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="35">
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickTop="1">
-      <c r="F15" s="7" t="s">
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="111">
         <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <f t="shared" si="2"/>
         <v>5.6482062223138989</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="34">
         <v>4</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
-      <c r="F16" s="116" t="s">
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="88">
         <f>G15*(0.2/3)</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <f t="shared" si="7"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <f t="shared" si="2"/>
         <v>6.4365636569180902</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="34">
         <v>2</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
-    </row>
-    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="I17" s="65">
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+    </row>
+    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="64">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <f t="shared" si="7"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <f t="shared" si="2"/>
         <v>7.3393320478928645</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="34">
         <v>4</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-    </row>
-    <row r="18" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C18" s="117">
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+    </row>
+    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="114">
         <v>1.6</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119">
+      <c r="D18" s="115"/>
+      <c r="E18" s="116">
         <v>1.6</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="64">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <f t="shared" si="2"/>
         <v>8.3682338454730942</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="34">
         <v>2</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-    </row>
-    <row r="19" spans="3:20">
-      <c r="C19" s="120" t="s">
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="64">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f>J18+0.1</f>
         <v>1.3</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <f t="shared" si="2"/>
         <v>9.5355933352384898</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <v>4</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-    </row>
-    <row r="20" spans="3:20">
-      <c r="C20" s="123">
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="120">
         <v>0</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="124">
+      <c r="D20" s="118"/>
+      <c r="E20" s="121">
         <v>0</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="64">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" si="7"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="2"/>
         <v>10.854399933689351</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <v>2</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-    </row>
-    <row r="21" spans="3:20">
-      <c r="C21" s="125"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="I21" s="65">
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="122"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="I21" s="64">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <f t="shared" si="7"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <f t="shared" si="2"/>
         <v>12.338378140676133</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <v>4</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="35">
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-    </row>
-    <row r="22" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C22" s="125" t="s">
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+    </row>
+    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="65">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <f t="shared" si="7"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <f t="shared" si="2"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>1</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-    </row>
-    <row r="23" spans="3:20" ht="15.75" thickTop="1">
-      <c r="C23" s="125">
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+    </row>
+    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="122">
         <v>1.6</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="119">
         <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="64">
+      <c r="M23" s="63">
         <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-    </row>
-    <row r="24" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C24" s="125">
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+    </row>
+    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="122">
         <v>0</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="119">
         <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="37">
         <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-    </row>
-    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C25" s="125"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-    </row>
-    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C26" s="127">
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+    </row>
+    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="122"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+    </row>
+    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="124">
         <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="125">
         <f>E24</f>
         <v>2</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="102">
+      <c r="G26" s="101">
         <f>C26-E26</f>
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="15.75" thickTop="1"/>
+    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8123,19 +8570,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -8146,7 +8593,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -8157,16 +8604,16 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -520,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1469,11 +1469,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2069,16 +2109,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,34 +2160,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2825,7 +2877,7 @@
             <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3247,8 +3299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10608367" y="7921488"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="10552045" y="7946336"/>
+          <a:ext cx="2660754" cy="940941"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3364,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8814354" y="7005430"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="8767971" y="7026551"/>
+          <a:ext cx="2660754" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3481,8 +3533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12470297" y="7000459"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="12404036" y="7021580"/>
+          <a:ext cx="2660754" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3598,8 +3650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9988831" y="5446640"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="9935822" y="5462791"/>
+          <a:ext cx="2660754" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3715,8 +3767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12468644" y="5449952"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="12402383" y="5466103"/>
+          <a:ext cx="2660754" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3832,8 +3884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10028585" y="3887852"/>
-          <a:ext cx="2674006" cy="940941"/>
+          <a:off x="9975576" y="3899034"/>
+          <a:ext cx="2660754" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -3949,8 +4001,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8938589" y="3054621"/>
-          <a:ext cx="7303981" cy="940941"/>
+          <a:off x="8892206" y="3060833"/>
+          <a:ext cx="7264225" cy="945911"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -4066,8 +4118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8941902" y="6163912"/>
-          <a:ext cx="7303981" cy="940941"/>
+          <a:off x="8895519" y="6183790"/>
+          <a:ext cx="7264225" cy="942184"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -4183,8 +4235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8936931" y="4601821"/>
-          <a:ext cx="7303981" cy="940941"/>
+          <a:off x="8890548" y="4616730"/>
+          <a:ext cx="7264225" cy="942183"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -4401,7 +4453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4436,7 +4488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4636,15 +4688,15 @@
       <c r="A1" s="164"/>
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="200"/>
-      <c r="F1" s="199" t="s">
+      <c r="E1" s="205"/>
+      <c r="F1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
       <c r="I1" s="164"/>
       <c r="J1" s="164"/>
       <c r="K1" s="164"/>
@@ -4661,15 +4713,15 @@
       <c r="A2" s="164"/>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="200"/>
-      <c r="F2" s="199" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
       <c r="I2" s="164"/>
       <c r="J2" s="164"/>
       <c r="K2" s="164"/>
@@ -4686,15 +4738,15 @@
       <c r="A3" s="164"/>
       <c r="B3" s="164"/>
       <c r="C3" s="164"/>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="205"/>
+      <c r="F3" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
@@ -4711,15 +4763,15 @@
       <c r="A4" s="164"/>
       <c r="B4" s="164"/>
       <c r="C4" s="164"/>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="200"/>
-      <c r="F4" s="199" t="s">
+      <c r="E4" s="205"/>
+      <c r="F4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="164"/>
       <c r="J4" s="164"/>
       <c r="K4" s="164"/>
@@ -4736,15 +4788,15 @@
       <c r="A5" s="164"/>
       <c r="B5" s="164"/>
       <c r="C5" s="164"/>
-      <c r="D5" s="200" t="s">
+      <c r="D5" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="200"/>
-      <c r="F5" s="199" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
       <c r="I5" s="164"/>
       <c r="J5" s="164"/>
       <c r="K5" s="164"/>
@@ -5233,16 +5285,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5331,19 +5383,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="74"/>
-      <c r="L1" s="201" t="s">
+      <c r="L1" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="201"/>
-      <c r="P1" s="211" t="s">
+      <c r="M1" s="210"/>
+      <c r="P1" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="212" t="s">
+      <c r="Q1" s="208"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="214"/>
+      <c r="T1" s="209"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="130" t="s">
@@ -5380,19 +5432,19 @@
       <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="208" t="s">
+      <c r="P2" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="209" t="s">
+      <c r="Q2" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="210" t="s">
+      <c r="R2" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="208" t="s">
+      <c r="S2" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="208" t="s">
+      <c r="T2" s="200" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="5" t="s">
@@ -6437,7 +6489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6741,24 +6795,24 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="135"/>
-      <c r="P17" s="203" t="s">
+      <c r="P17" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="202"/>
-      <c r="R17" s="202"/>
-      <c r="S17" s="202" t="s">
+      <c r="Q17" s="211"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="202"/>
-      <c r="U17" s="202"/>
-      <c r="V17" s="202"/>
-      <c r="W17" s="202" t="s">
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="X17" s="202"/>
-      <c r="Y17" s="202"/>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="207"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="212"/>
+      <c r="AA17" s="199"/>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
@@ -6784,7 +6838,7 @@
       <c r="R18" s="137">
         <v>5</v>
       </c>
-      <c r="S18" s="137">
+      <c r="S18" s="216">
         <v>5</v>
       </c>
       <c r="T18" s="137">
@@ -6793,7 +6847,7 @@
       <c r="U18" s="137">
         <v>8</v>
       </c>
-      <c r="V18" s="137">
+      <c r="V18" s="217">
         <v>2</v>
       </c>
       <c r="W18" s="137">
@@ -6834,7 +6888,7 @@
       <c r="R19" s="137">
         <v>6</v>
       </c>
-      <c r="S19" s="137">
+      <c r="S19" s="216">
         <v>6</v>
       </c>
       <c r="T19" s="137">
@@ -6843,7 +6897,7 @@
       <c r="U19" s="137">
         <v>8</v>
       </c>
-      <c r="V19" s="137">
+      <c r="V19" s="217">
         <v>8</v>
       </c>
       <c r="W19" s="137">
@@ -6884,7 +6938,7 @@
       <c r="R20" s="139">
         <v>1</v>
       </c>
-      <c r="S20" s="139">
+      <c r="S20" s="218">
         <v>1</v>
       </c>
       <c r="T20" s="139">
@@ -6893,7 +6947,7 @@
       <c r="U20" s="139">
         <v>1</v>
       </c>
-      <c r="V20" s="139">
+      <c r="V20" s="219">
         <v>1</v>
       </c>
       <c r="W20" s="139">
@@ -7094,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="118">
-        <f t="shared" ref="P27:Z27" si="1">SUM($R23*Q$18,$S23*Q$19,$T23*Q$20)</f>
+        <f t="shared" ref="Q27:Z27" si="1">SUM($R23*Q$18,$S23*Q$19,$T23*Q$20)</f>
         <v>5</v>
       </c>
       <c r="R27" s="118">
@@ -7296,7 +7350,7 @@
         <v>10</v>
       </c>
       <c r="Q34" s="67">
-        <f t="shared" ref="P34:Z34" si="3">SUM($V30*Q$26,$W30*Q$27,$X30*Q$28)</f>
+        <f t="shared" ref="Q34:Z34" si="3">SUM($V30*Q$26,$W30*Q$27,$X30*Q$28)</f>
         <v>10</v>
       </c>
       <c r="R34" s="67">
@@ -7566,7 +7620,7 @@
     <row r="44" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O44" s="152"/>
       <c r="P44" s="153"/>
-      <c r="Q44" s="215" t="s">
+      <c r="Q44" s="204" t="s">
         <v>38</v>
       </c>
       <c r="R44" s="153"/>
@@ -8608,12 +8662,12 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -273,24 +273,6 @@
     <t>Multiplied by h/3</t>
   </si>
   <si>
-    <t>From a</t>
-  </si>
-  <si>
-    <t>From b</t>
-  </si>
-  <si>
-    <t>From c</t>
-  </si>
-  <si>
-    <t>Delta a</t>
-  </si>
-  <si>
-    <t>Delta b</t>
-  </si>
-  <si>
-    <t>Delta h</t>
-  </si>
-  <si>
     <t>Triangle</t>
   </si>
   <si>
@@ -415,6 +397,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Estimate A</t>
+  </si>
+  <si>
+    <t>Estimate B</t>
+  </si>
+  <si>
+    <t>Defined Integral</t>
+  </si>
+  <si>
+    <t>Delta A</t>
+  </si>
+  <si>
+    <t>Delta B</t>
+  </si>
+  <si>
+    <t>A-B h Delta</t>
   </si>
 </sst>
 </file>
@@ -2127,12 +2127,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2159,18 +2171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4676,7 +4676,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,15 +4688,15 @@
       <c r="A1" s="164"/>
       <c r="B1" s="164"/>
       <c r="C1" s="164"/>
-      <c r="D1" s="205" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="205"/>
-      <c r="F1" s="206" t="s">
+      <c r="D1" s="210" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="210"/>
+      <c r="F1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
       <c r="I1" s="164"/>
       <c r="J1" s="164"/>
       <c r="K1" s="164"/>
@@ -4713,15 +4713,15 @@
       <c r="A2" s="164"/>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
-      <c r="D2" s="205" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206" t="s">
+      <c r="D2" s="210" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="210"/>
+      <c r="F2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
       <c r="I2" s="164"/>
       <c r="J2" s="164"/>
       <c r="K2" s="164"/>
@@ -4738,15 +4738,15 @@
       <c r="A3" s="164"/>
       <c r="B3" s="164"/>
       <c r="C3" s="164"/>
-      <c r="D3" s="205" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="206" t="s">
+      <c r="D3" s="210" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="210"/>
+      <c r="F3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
@@ -4763,15 +4763,15 @@
       <c r="A4" s="164"/>
       <c r="B4" s="164"/>
       <c r="C4" s="164"/>
-      <c r="D4" s="205" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="206" t="s">
+      <c r="D4" s="210" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="210"/>
+      <c r="F4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
       <c r="I4" s="164"/>
       <c r="J4" s="164"/>
       <c r="K4" s="164"/>
@@ -4788,15 +4788,15 @@
       <c r="A5" s="164"/>
       <c r="B5" s="164"/>
       <c r="C5" s="164"/>
-      <c r="D5" s="205" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="206" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="210" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="210"/>
+      <c r="F5" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
       <c r="I5" s="164"/>
       <c r="J5" s="164"/>
       <c r="K5" s="164"/>
@@ -5285,16 +5285,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5316,42 +5316,42 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5364,7 +5364,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,19 +5383,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="74"/>
-      <c r="L1" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="210"/>
-      <c r="P1" s="207" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="208"/>
+      <c r="L1" s="214" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="214"/>
+      <c r="P1" s="211" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="212"/>
       <c r="R1" s="203"/>
-      <c r="S1" s="208" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="209"/>
+      <c r="S1" s="212" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="213"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="130" t="s">
@@ -5816,7 +5816,7 @@
         <v>1.1708015146116524E-2</v>
       </c>
       <c r="J8" s="162" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L8" s="95">
         <v>5</v>
@@ -6489,7 +6489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -6514,10 +6514,10 @@
       <c r="M1" s="3"/>
       <c r="O1" s="165"/>
       <c r="P1" s="166" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="167" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="O2" s="168" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P2" s="169">
         <v>2</v>
@@ -6613,7 +6613,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="O6" s="168" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" s="169">
         <v>5</v>
@@ -6696,7 +6696,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="O11" s="168" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P11" s="169">
         <v>5</v>
@@ -6795,23 +6795,23 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="135"/>
-      <c r="P17" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="212"/>
+      <c r="P17" s="217" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="215"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="216"/>
       <c r="AA17" s="199"/>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
@@ -6838,7 +6838,7 @@
       <c r="R18" s="137">
         <v>5</v>
       </c>
-      <c r="S18" s="216">
+      <c r="S18" s="205">
         <v>5</v>
       </c>
       <c r="T18" s="137">
@@ -6847,7 +6847,7 @@
       <c r="U18" s="137">
         <v>8</v>
       </c>
-      <c r="V18" s="217">
+      <c r="V18" s="206">
         <v>2</v>
       </c>
       <c r="W18" s="137">
@@ -6877,7 +6877,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="O19" s="136" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P19" s="137">
         <v>4</v>
@@ -6888,7 +6888,7 @@
       <c r="R19" s="137">
         <v>6</v>
       </c>
-      <c r="S19" s="216">
+      <c r="S19" s="205">
         <v>6</v>
       </c>
       <c r="T19" s="137">
@@ -6897,7 +6897,7 @@
       <c r="U19" s="137">
         <v>8</v>
       </c>
-      <c r="V19" s="217">
+      <c r="V19" s="206">
         <v>8</v>
       </c>
       <c r="W19" s="137">
@@ -6927,7 +6927,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="O20" s="97" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P20" s="139">
         <v>1</v>
@@ -6938,7 +6938,7 @@
       <c r="R20" s="139">
         <v>1</v>
       </c>
-      <c r="S20" s="218">
+      <c r="S20" s="207">
         <v>1</v>
       </c>
       <c r="T20" s="139">
@@ -6947,7 +6947,7 @@
       <c r="U20" s="139">
         <v>1</v>
       </c>
-      <c r="V20" s="219">
+      <c r="V20" s="208">
         <v>1</v>
       </c>
       <c r="W20" s="139">
@@ -6994,10 +6994,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="O22" s="141" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P22" s="115" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="115"/>
       <c r="R22" s="115">
@@ -7022,10 +7022,10 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="O23" s="122" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P23" s="118" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="118"/>
       <c r="R23" s="118">
@@ -7247,15 +7247,15 @@
     </row>
     <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O30" s="144" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P30" s="66"/>
       <c r="Q30" s="66"/>
       <c r="R30" s="66" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S30" s="145" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T30" s="66">
         <v>0</v>
@@ -7279,10 +7279,10 @@
       <c r="P31" s="67"/>
       <c r="Q31" s="67"/>
       <c r="R31" s="147" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S31" s="67" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="T31" s="67">
         <v>0</v>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="S39" s="153"/>
       <c r="T39" s="154" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="U39" s="153"/>
       <c r="V39" s="153">
@@ -7569,7 +7569,7 @@
       <c r="O41" s="152"/>
       <c r="P41" s="153"/>
       <c r="Q41" s="153" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R41" s="153"/>
       <c r="S41" s="153"/>
@@ -7577,7 +7577,7 @@
       <c r="U41" s="153"/>
       <c r="V41" s="153"/>
       <c r="W41" s="153" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X41" s="153"/>
       <c r="Y41" s="155"/>
@@ -7670,7 +7670,7 @@
       <c r="R46" s="157"/>
       <c r="S46" s="157"/>
       <c r="T46" s="157" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U46" s="157"/>
       <c r="V46" s="157"/>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" s="73" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7726,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7761,22 +7761,22 @@
         <v>39</v>
       </c>
       <c r="O2" s="126" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="P2" s="126" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="126" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="R2" s="126" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="S2" s="126" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="T2" s="126" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -8662,12 +8662,12 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="214" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
+      <c r="B5" s="218" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHere\MathsCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oliver\Documents\GitHub\MathsCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,12 +87,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="V22" authorId="0" shapeId="0">
+    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -387,9 +387,6 @@
     <t>-4sin(2x)</t>
   </si>
   <si>
-    <t>f''''(x) =</t>
-  </si>
-  <si>
     <t>8cos(2x)</t>
   </si>
   <si>
@@ -415,12 +412,104 @@
   </si>
   <si>
     <t>A-B h Delta</t>
+  </si>
+  <si>
+    <t>f(0.2) =</t>
+  </si>
+  <si>
+    <t>to 8dp</t>
+  </si>
+  <si>
+    <t>f⁶(x) =</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x) =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>⁵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x) =</t>
+    </r>
+  </si>
+  <si>
+    <t>32cos(2x)</t>
+  </si>
+  <si>
+    <t>-16sin(2x)</t>
+  </si>
+  <si>
+    <t>f⁶(0.2) =</t>
+  </si>
+  <si>
+    <t>f⁶(0) =</t>
+  </si>
+  <si>
+    <t>M=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>₅ (0.2)=</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1513,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1839,337 +1928,406 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3084,7 +3242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3113,7 +3270,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3121,6 +3277,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3159,6 +3316,1229 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139147</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5534079" cy="328551"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0758815D-03DA-4EC4-A6C9-8EDCEFE39A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1384851" y="434009"/>
+              <a:ext cx="5534079" cy="328551"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=0.5</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>cos</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>sin</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:func>
+                              <m:funcPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:funcPr>
+                              <m:fName>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>cos</m:t>
+                                </m:r>
+                              </m:fName>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                            </m:func>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2!</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                            <m:func>
+                              <m:funcPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:funcPr>
+                              <m:fName>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑠𝑖𝑛</m:t>
+                                </m:r>
+                              </m:fName>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                            </m:func>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>!</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>cos</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⁡(2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>!</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>16</m:t>
+                            </m:r>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>sin</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>⁡(2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>!</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0758815D-03DA-4EC4-A6C9-8EDCEFE39A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1384851" y="434009"/>
+              <a:ext cx="5534079" cy="328551"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_5 (𝑥)=0.5 cos⁡〖(2𝑥)−𝑥 sin⁡(2𝑥)+𝑥^2  (2 cos⁡(2𝑥))/2!−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4 𝑠𝑖𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⁡(2𝑥))/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>!</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos⁡(2𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>!</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>16sin⁡(2𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>!</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3241,7 +4621,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3261,7 +4641,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3C8EA-7447-41BB-905F-BC1D65229A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +4674,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3307,7 +4693,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Rectangle 24"/>
+          <xdr:cNvPr id="25" name="Rectangle 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3351,7 +4743,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Rectangle 25"/>
+          <xdr:cNvPr id="26" name="Rectangle 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3411,7 +4809,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvPr id="27" name="Group 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3424,7 +4828,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Rectangle 27"/>
+          <xdr:cNvPr id="28" name="Rectangle 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3468,7 +4878,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvPr id="29" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3528,7 +4944,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3541,7 +4963,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rectangle 30"/>
+          <xdr:cNvPr id="31" name="Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3585,7 +5013,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectangle 31"/>
+          <xdr:cNvPr id="32" name="Rectangle 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3645,7 +5079,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Group 32"/>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3658,7 +5098,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Rectangle 33"/>
+          <xdr:cNvPr id="34" name="Rectangle 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3702,7 +5148,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Rectangle 34"/>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3762,7 +5214,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvPr id="36" name="Group 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3775,7 +5233,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Rectangle 36"/>
+          <xdr:cNvPr id="37" name="Rectangle 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3819,7 +5283,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Rectangle 37"/>
+          <xdr:cNvPr id="38" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3879,7 +5349,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3892,7 +5368,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Rectangle 39"/>
+          <xdr:cNvPr id="40" name="Rectangle 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3936,7 +5418,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvPr id="41" name="Rectangle 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3996,7 +5484,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="42" name="Group 41"/>
+        <xdr:cNvPr id="42" name="Group 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4009,7 +5503,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="Rectangle 42"/>
+          <xdr:cNvPr id="43" name="Rectangle 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4053,7 +5553,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="Rectangle 43"/>
+          <xdr:cNvPr id="44" name="Rectangle 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4113,7 +5619,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvPr id="45" name="Group 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4126,7 +5638,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvPr id="46" name="Rectangle 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4170,7 +5688,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Rectangle 46"/>
+          <xdr:cNvPr id="47" name="Rectangle 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4230,7 +5754,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="Group 47"/>
+        <xdr:cNvPr id="48" name="Group 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4243,7 +5773,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 48"/>
+          <xdr:cNvPr id="49" name="Rectangle 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4287,7 +5823,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rectangle 49"/>
+          <xdr:cNvPr id="50" name="Rectangle 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4335,7 +5877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4355,7 +5897,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F529E3E3-7FFF-4AC2-9D53-48E4F1FEBDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4672,629 +6214,629 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="164"/>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="210" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="209" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="210"/>
-      <c r="F1" s="209" t="s">
+      <c r="E1" s="209"/>
+      <c r="F1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="210" t="s">
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="209" t="s">
+      <c r="E2" s="209"/>
+      <c r="F2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="210" t="s">
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="210"/>
-      <c r="F3" s="209" t="s">
+      <c r="E3" s="209"/>
+      <c r="F3" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="210" t="s">
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="210"/>
-      <c r="F4" s="209" t="s">
+      <c r="E4" s="209"/>
+      <c r="F4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="210" t="s">
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="210"/>
-      <c r="F5" s="209" t="s">
+      <c r="E5" s="209"/>
+      <c r="F5" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="164"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="177" t="s">
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="178" t="s">
+      <c r="G8" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="164"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="180" t="s">
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="181" t="s">
+      <c r="G9" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="183" t="s">
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="184" t="s">
+      <c r="G10" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="164"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="186" t="s">
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="163"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="187" t="s">
+      <c r="F11" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="187" t="s">
+      <c r="G11" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="164"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="189" t="s">
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="190" t="s">
+      <c r="G12" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="193" t="s">
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="164"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="164"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="164"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="164"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="164"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="163"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="163"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="163"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="163"/>
+      <c r="S22" s="163"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="163"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="163"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="163"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="163"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5302,106 +6844,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.109375" style="208"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="220"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="221"/>
+      <c r="C2" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="229" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="F2" s="231" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="G2" s="230" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H2" s="229" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="I2" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="J2" s="231" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="K2" s="230" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>89</v>
+      <c r="M2" s="230" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="232" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="222"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="235"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="222"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="235"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="222"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="238"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="239" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="239">
+        <f>SUM(0.5*COS(0.4),-0.2*SIN(0.4),(0.2^2)*(2*COS(0.4)/2)/2,-(0.2^3)*(4*SIN(0.4)/6),(0.2^4)*(8*COS(0.4)/24),-(0.2^5)*(16*SIN(0.4)/120))</f>
+        <v>0.39946576794165373</v>
+      </c>
+      <c r="F7" s="241" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="239" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="240">
+        <f>D7</f>
+        <v>0.39946576794165373</v>
+      </c>
+      <c r="F8" s="242" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="241" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="241" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="241">
+        <f>32*COS(2*0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F10" s="241" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="241">
+        <f>32*COS(2*0.2)</f>
+        <v>29.473951808092323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="241" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="241">
+        <f>G10-G9</f>
+        <v>-2.5260481919076767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="241" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="241">
+        <f>(G11/(1*2*3*4*5*6*7))*((0.2)^7)</f>
+        <v>-6.4153604873845814E-9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="72"/>
-    <col min="3" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.109375" style="72"/>
+    <col min="3" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="126" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="74"/>
       <c r="L1" s="214" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M1" s="214"/>
       <c r="P1" s="211" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="212"/>
-      <c r="R1" s="203"/>
+      <c r="R1" s="202"/>
       <c r="S1" s="212" t="s">
         <v>73</v>
       </c>
       <c r="T1" s="213"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
@@ -5432,30 +7111,30 @@
       <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="200" t="s">
+      <c r="P2" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="202" t="s">
+      <c r="R2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="200" t="s">
+      <c r="S2" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="200" t="s">
+      <c r="T2" s="199" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="12">
         <v>0</v>
       </c>
@@ -5513,11 +7192,11 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="159"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="12">
         <f>C3+1</f>
         <v>1</v>
@@ -5582,11 +7261,11 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="159"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="12">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
@@ -5651,11 +7330,11 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="160"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -5720,7 +7399,7 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
@@ -5749,7 +7428,7 @@
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="163"/>
+      <c r="J7" s="162"/>
       <c r="L7" s="93">
         <v>4</v>
       </c>
@@ -5786,7 +7465,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="85">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5815,7 +7494,7 @@
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="162" t="s">
+      <c r="J8" s="161" t="s">
         <v>79</v>
       </c>
       <c r="L8" s="95">
@@ -5854,7 +7533,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5895,7 +7574,7 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5930,7 +7609,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5978,13 +7657,13 @@
       <c r="P11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="151"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="150"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6035,13 +7714,13 @@
         <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="155"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="154"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -6093,13 +7772,13 @@
         <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="155"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="154"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -6151,13 +7830,13 @@
         <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="155"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="154"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -6190,18 +7869,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="155"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L15" s="151"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="154"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -6234,18 +7913,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="155"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L16" s="151"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="154"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
@@ -6278,18 +7957,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L17" s="152"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-    </row>
-    <row r="18" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="151"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="154"/>
+    </row>
+    <row r="18" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
@@ -6322,18 +8001,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L18" s="152"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="155"/>
-    </row>
-    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="154"/>
+    </row>
+    <row r="19" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="99">
         <f t="shared" si="27"/>
         <v>16</v>
@@ -6366,90 +8045,90 @@
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
-      <c r="L19" s="152"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="155"/>
-    </row>
-    <row r="20" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L20" s="152"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="155"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L21" s="152"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="155"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L22" s="152"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="155"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L23" s="152"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="155"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L24" s="152"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="155"/>
-    </row>
-    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="156"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="157"/>
-      <c r="S25" s="157"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="158"/>
-    </row>
-    <row r="26" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="154"/>
+    </row>
+    <row r="20" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="151"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="154"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="L21" s="151"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="154"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="L22" s="151"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="154"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="L23" s="151"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="154"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="L24" s="151"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="154"/>
+    </row>
+    <row r="25" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="155"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="157"/>
+    </row>
+    <row r="26" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -6486,22 +8165,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="73"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="13" width="9.109375" style="73"/>
+    <col min="14" max="14" width="9.109375" style="3"/>
+    <col min="15" max="16384" width="9.109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="3"/>
@@ -6512,16 +8191,16 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="166" t="s">
+      <c r="O1" s="164"/>
+      <c r="P1" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="167" t="s">
+      <c r="Q1" s="166" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3"/>
@@ -6532,18 +8211,18 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="O2" s="168" t="s">
+      <c r="O2" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="169">
+      <c r="P2" s="168">
         <v>2</v>
       </c>
-      <c r="Q2" s="170">
+      <c r="Q2" s="169">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3"/>
@@ -6554,16 +8233,16 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169">
+      <c r="O3" s="167"/>
+      <c r="P3" s="168">
         <v>2</v>
       </c>
-      <c r="Q3" s="170">
+      <c r="Q3" s="169">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3"/>
@@ -6574,16 +8253,16 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169">
+      <c r="O4" s="167"/>
+      <c r="P4" s="168">
         <v>5</v>
       </c>
-      <c r="Q4" s="170">
+      <c r="Q4" s="169">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3"/>
@@ -6594,14 +8273,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="172"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3"/>
@@ -6612,17 +8291,17 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="168" t="s">
+      <c r="O6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="169">
+      <c r="P6" s="168">
         <v>5</v>
       </c>
-      <c r="Q6" s="170">
+      <c r="Q6" s="169">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -6631,15 +8310,15 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="169">
+      <c r="O7" s="167"/>
+      <c r="P7" s="168">
         <v>8</v>
       </c>
-      <c r="Q7" s="170">
+      <c r="Q7" s="169">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -6648,15 +8327,15 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169">
+      <c r="O8" s="167"/>
+      <c r="P8" s="168">
         <v>8</v>
       </c>
-      <c r="Q8" s="170">
+      <c r="Q8" s="169">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6665,15 +8344,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169">
+      <c r="O9" s="167"/>
+      <c r="P9" s="168">
         <v>2</v>
       </c>
-      <c r="Q9" s="170">
+      <c r="Q9" s="169">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6682,11 +8361,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="173"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="172"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -6695,17 +8374,17 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="O11" s="168" t="s">
+      <c r="O11" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="169">
+      <c r="P11" s="168">
         <v>5</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="Q11" s="169">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6714,15 +8393,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169">
+      <c r="O12" s="167"/>
+      <c r="P12" s="168">
         <v>8</v>
       </c>
-      <c r="Q12" s="170">
+      <c r="Q12" s="169">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6731,15 +8410,15 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169">
+      <c r="O13" s="167"/>
+      <c r="P13" s="168">
         <v>8</v>
       </c>
-      <c r="Q13" s="170">
+      <c r="Q13" s="169">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -6748,15 +8427,15 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169">
+      <c r="O14" s="167"/>
+      <c r="P14" s="168">
         <v>2</v>
       </c>
-      <c r="Q14" s="170">
+      <c r="Q14" s="169">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -6765,11 +8444,11 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="176"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -6782,7 +8461,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -6794,7 +8473,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="O17" s="135"/>
+      <c r="O17" s="134"/>
       <c r="P17" s="217" t="s">
         <v>50</v>
       </c>
@@ -6812,9 +8491,9 @@
       <c r="X17" s="215"/>
       <c r="Y17" s="215"/>
       <c r="Z17" s="216"/>
-      <c r="AA17" s="199"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA17" s="198"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -6826,45 +8505,45 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="O18" s="136" t="s">
+      <c r="O18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="137">
+      <c r="P18" s="136">
         <v>2</v>
       </c>
-      <c r="Q18" s="137">
+      <c r="Q18" s="136">
         <v>2</v>
       </c>
-      <c r="R18" s="137">
+      <c r="R18" s="136">
         <v>5</v>
       </c>
-      <c r="S18" s="205">
+      <c r="S18" s="204">
         <v>5</v>
       </c>
-      <c r="T18" s="137">
+      <c r="T18" s="136">
         <v>8</v>
       </c>
-      <c r="U18" s="137">
+      <c r="U18" s="136">
         <v>8</v>
       </c>
-      <c r="V18" s="206">
+      <c r="V18" s="205">
         <v>2</v>
       </c>
-      <c r="W18" s="137">
+      <c r="W18" s="136">
         <v>5</v>
       </c>
-      <c r="X18" s="137">
+      <c r="X18" s="136">
         <v>8</v>
       </c>
-      <c r="Y18" s="137">
+      <c r="Y18" s="136">
         <v>8</v>
       </c>
-      <c r="Z18" s="137">
+      <c r="Z18" s="136">
         <v>2</v>
       </c>
-      <c r="AA18" s="138"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA18" s="137"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -6876,45 +8555,45 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="O19" s="136" t="s">
+      <c r="O19" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="137">
+      <c r="P19" s="136">
         <v>4</v>
       </c>
-      <c r="Q19" s="137">
+      <c r="Q19" s="136">
         <v>8</v>
       </c>
-      <c r="R19" s="137">
+      <c r="R19" s="136">
         <v>6</v>
       </c>
-      <c r="S19" s="205">
+      <c r="S19" s="204">
         <v>6</v>
       </c>
-      <c r="T19" s="137">
+      <c r="T19" s="136">
         <v>6</v>
       </c>
-      <c r="U19" s="137">
+      <c r="U19" s="136">
         <v>8</v>
       </c>
-      <c r="V19" s="206">
+      <c r="V19" s="205">
         <v>8</v>
       </c>
-      <c r="W19" s="137">
+      <c r="W19" s="136">
         <v>6</v>
       </c>
-      <c r="X19" s="137">
+      <c r="X19" s="136">
         <v>6</v>
       </c>
-      <c r="Y19" s="137">
+      <c r="Y19" s="136">
         <v>4</v>
       </c>
-      <c r="Z19" s="137">
+      <c r="Z19" s="136">
         <v>4</v>
       </c>
-      <c r="AA19" s="138"/>
-    </row>
-    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="137"/>
+    </row>
+    <row r="20" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -6929,42 +8608,42 @@
       <c r="O20" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="139">
+      <c r="P20" s="138">
         <v>1</v>
       </c>
-      <c r="Q20" s="139">
+      <c r="Q20" s="138">
         <v>1</v>
       </c>
-      <c r="R20" s="139">
+      <c r="R20" s="138">
         <v>1</v>
       </c>
-      <c r="S20" s="207">
+      <c r="S20" s="206">
         <v>1</v>
       </c>
-      <c r="T20" s="139">
+      <c r="T20" s="138">
         <v>1</v>
       </c>
-      <c r="U20" s="139">
+      <c r="U20" s="138">
         <v>1</v>
       </c>
-      <c r="V20" s="208">
+      <c r="V20" s="207">
         <v>1</v>
       </c>
-      <c r="W20" s="139">
+      <c r="W20" s="138">
         <v>1</v>
       </c>
-      <c r="X20" s="139">
+      <c r="X20" s="138">
         <v>1</v>
       </c>
-      <c r="Y20" s="139">
+      <c r="Y20" s="138">
         <v>1</v>
       </c>
-      <c r="Z20" s="139">
+      <c r="Z20" s="138">
         <v>1</v>
       </c>
-      <c r="AA20" s="140"/>
-    </row>
-    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="139"/>
+    </row>
+    <row r="21" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6989,264 +8668,264 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="115" t="s">
+      <c r="P22" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115">
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114">
         <v>1</v>
       </c>
-      <c r="S22" s="115">
+      <c r="S22" s="114">
         <v>0</v>
       </c>
-      <c r="T22" s="115">
+      <c r="T22" s="114">
         <v>-12</v>
       </c>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="115"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="142"/>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="141"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="O23" s="122" t="s">
+      <c r="O23" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="118" t="s">
+      <c r="P23" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118">
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117">
         <v>0</v>
       </c>
-      <c r="S23" s="118">
+      <c r="S23" s="117">
         <v>1</v>
       </c>
-      <c r="T23" s="118">
+      <c r="T23" s="117">
         <v>-3</v>
       </c>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="119"/>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="118"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118">
+      <c r="O24" s="121"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117">
         <v>0</v>
       </c>
-      <c r="S24" s="118">
+      <c r="S24" s="117">
         <v>0</v>
       </c>
-      <c r="T24" s="118">
+      <c r="T24" s="117">
         <v>1</v>
       </c>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="119"/>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="118"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="119"/>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="O25" s="121"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="118"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="118">
+      <c r="O26" s="121"/>
+      <c r="P26" s="117">
         <f>SUM($R22*P$18,$S22*P$19,$T22*P$20)</f>
         <v>-10</v>
       </c>
-      <c r="Q26" s="118">
+      <c r="Q26" s="117">
         <f t="shared" ref="Q26:Z26" si="0">SUM($R22*Q$18,$S22*Q$19,$T22*Q$20)</f>
         <v>-10</v>
       </c>
-      <c r="R26" s="118">
+      <c r="R26" s="117">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="S26" s="118">
+      <c r="S26" s="117">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="T26" s="118">
+      <c r="T26" s="117">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="U26" s="118">
+      <c r="U26" s="117">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="V26" s="118">
+      <c r="V26" s="117">
         <f>SUM($R22*V$18,$S22*V$19,$T22*V$20)</f>
         <v>-10</v>
       </c>
-      <c r="W26" s="118">
+      <c r="W26" s="117">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="X26" s="118">
+      <c r="X26" s="117">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Y26" s="118">
+      <c r="Y26" s="117">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="Z26" s="118">
+      <c r="Z26" s="117">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="AA26" s="119"/>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA26" s="118"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="118">
+      <c r="O27" s="121"/>
+      <c r="P27" s="117">
         <f>SUM($R23*P$18,$S23*P$19,$T23*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="118">
+      <c r="Q27" s="117">
         <f t="shared" ref="Q27:Z27" si="1">SUM($R23*Q$18,$S23*Q$19,$T23*Q$20)</f>
         <v>5</v>
       </c>
-      <c r="R27" s="118">
+      <c r="R27" s="117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S27" s="118">
+      <c r="S27" s="117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T27" s="118">
+      <c r="T27" s="117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U27" s="118">
+      <c r="U27" s="117">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V27" s="118">
+      <c r="V27" s="117">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="W27" s="118">
+      <c r="W27" s="117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="X27" s="118">
+      <c r="X27" s="117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y27" s="118">
+      <c r="Y27" s="117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z27" s="118">
+      <c r="Z27" s="117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA27" s="119"/>
-    </row>
-    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA27" s="118"/>
+    </row>
+    <row r="28" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="125">
+      <c r="O28" s="123"/>
+      <c r="P28" s="124">
         <f>SUM($R24*P$18,$S24*P$19,$T24*P$20)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="124">
         <f t="shared" ref="Q28:Z28" si="2">SUM($R24*Q$18,$S24*Q$19,$T24*Q$20)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="125">
+      <c r="R28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S28" s="125">
+      <c r="S28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T28" s="125">
+      <c r="T28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U28" s="125">
+      <c r="U28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V28" s="125">
+      <c r="V28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W28" s="125">
+      <c r="W28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X28" s="125">
+      <c r="X28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="125">
+      <c r="Y28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z28" s="125">
+      <c r="Z28" s="124">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA28" s="143"/>
-    </row>
-    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="142"/>
+    </row>
+    <row r="29" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O30" s="144" t="s">
+    <row r="30" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="143" t="s">
         <v>64</v>
       </c>
       <c r="P30" s="66"/>
@@ -7254,7 +8933,7 @@
       <c r="R30" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="145" t="s">
+      <c r="S30" s="144" t="s">
         <v>66</v>
       </c>
       <c r="T30" s="66">
@@ -7272,13 +8951,13 @@
       </c>
       <c r="Y30" s="66"/>
       <c r="Z30" s="66"/>
-      <c r="AA30" s="146"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AA30" s="145"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
       <c r="O31" s="69"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="67"/>
-      <c r="R31" s="147" t="s">
+      <c r="R31" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S31" s="67" t="s">
@@ -7301,7 +8980,7 @@
       <c r="Z31" s="67"/>
       <c r="AA31" s="68"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="O32" s="69"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="67"/>
@@ -7328,7 +9007,7 @@
       <c r="Z32" s="67"/>
       <c r="AA32" s="68"/>
     </row>
-    <row r="33" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:27" x14ac:dyDescent="0.3">
       <c r="O33" s="69"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="67"/>
@@ -7343,7 +9022,7 @@
       <c r="Z33" s="67"/>
       <c r="AA33" s="68"/>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:27" x14ac:dyDescent="0.3">
       <c r="O34" s="69"/>
       <c r="P34" s="67">
         <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
@@ -7391,7 +9070,7 @@
       </c>
       <c r="AA34" s="68"/>
     </row>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.3">
       <c r="O35" s="69"/>
       <c r="P35" s="67">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
@@ -7439,7 +9118,7 @@
       </c>
       <c r="AA35" s="68"/>
     </row>
-    <row r="36" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O36" s="70"/>
       <c r="P36" s="71">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
@@ -7485,200 +9164,200 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AA36" s="148"/>
-    </row>
-    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="149"/>
-      <c r="P38" s="150">
+      <c r="AA36" s="147"/>
+    </row>
+    <row r="37" spans="15:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="148"/>
+      <c r="P38" s="149">
         <v>1</v>
       </c>
-      <c r="Q38" s="150">
+      <c r="Q38" s="149">
         <v>0</v>
       </c>
-      <c r="R38" s="150">
+      <c r="R38" s="149">
         <v>-12</v>
       </c>
-      <c r="S38" s="150"/>
-      <c r="T38" s="150"/>
-      <c r="U38" s="150"/>
-      <c r="V38" s="150">
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149">
         <v>-1</v>
       </c>
-      <c r="W38" s="150">
+      <c r="W38" s="149">
         <v>0</v>
       </c>
-      <c r="X38" s="150">
+      <c r="X38" s="149">
         <v>0</v>
       </c>
-      <c r="Y38" s="151"/>
-    </row>
-    <row r="39" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O39" s="152"/>
-      <c r="P39" s="153">
+      <c r="Y38" s="150"/>
+    </row>
+    <row r="39" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O39" s="151"/>
+      <c r="P39" s="152">
         <v>0</v>
       </c>
-      <c r="Q39" s="153">
+      <c r="Q39" s="152">
         <v>1</v>
       </c>
-      <c r="R39" s="153">
+      <c r="R39" s="152">
         <v>-3</v>
       </c>
-      <c r="S39" s="153"/>
-      <c r="T39" s="154" t="s">
+      <c r="S39" s="152"/>
+      <c r="T39" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="U39" s="153"/>
-      <c r="V39" s="153">
+      <c r="U39" s="152"/>
+      <c r="V39" s="152">
         <v>0</v>
       </c>
-      <c r="W39" s="153">
+      <c r="W39" s="152">
         <v>-1</v>
       </c>
-      <c r="X39" s="153">
+      <c r="X39" s="152">
         <v>0</v>
       </c>
-      <c r="Y39" s="155"/>
-    </row>
-    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O40" s="152"/>
-      <c r="P40" s="153">
+      <c r="Y39" s="154"/>
+    </row>
+    <row r="40" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O40" s="151"/>
+      <c r="P40" s="152">
         <v>0</v>
       </c>
-      <c r="Q40" s="153">
+      <c r="Q40" s="152">
         <v>0</v>
       </c>
-      <c r="R40" s="153">
+      <c r="R40" s="152">
         <v>1</v>
       </c>
-      <c r="S40" s="153"/>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153">
+      <c r="S40" s="152"/>
+      <c r="T40" s="152"/>
+      <c r="U40" s="152"/>
+      <c r="V40" s="152">
         <v>0</v>
       </c>
-      <c r="W40" s="153">
+      <c r="W40" s="152">
         <v>0</v>
       </c>
-      <c r="X40" s="153">
+      <c r="X40" s="152">
         <v>1</v>
       </c>
-      <c r="Y40" s="155"/>
-    </row>
-    <row r="41" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O41" s="152"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153" t="s">
+      <c r="Y40" s="154"/>
+    </row>
+    <row r="41" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O41" s="151"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153"/>
-      <c r="W41" s="153" t="s">
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="152"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="X41" s="153"/>
-      <c r="Y41" s="155"/>
-    </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O42" s="152"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="153"/>
-      <c r="T42" s="153"/>
-      <c r="U42" s="153"/>
-      <c r="V42" s="153"/>
-      <c r="W42" s="153"/>
-      <c r="X42" s="153"/>
-      <c r="Y42" s="155"/>
-    </row>
-    <row r="43" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O43" s="152"/>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153">
+      <c r="X41" s="152"/>
+      <c r="Y41" s="154"/>
+    </row>
+    <row r="42" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O42" s="151"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="152"/>
+      <c r="U42" s="152"/>
+      <c r="V42" s="152"/>
+      <c r="W42" s="152"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="154"/>
+    </row>
+    <row r="43" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O43" s="151"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="153">
+      <c r="T43" s="152">
         <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="153">
+      <c r="U43" s="152">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="153"/>
-      <c r="W43" s="153"/>
-      <c r="X43" s="153"/>
-      <c r="Y43" s="155"/>
-    </row>
-    <row r="44" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O44" s="152"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="204" t="s">
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="154"/>
+    </row>
+    <row r="44" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O44" s="151"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153">
+      <c r="R44" s="152"/>
+      <c r="S44" s="152">
         <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="153">
+      <c r="T44" s="152">
         <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="153">
+      <c r="U44" s="152">
         <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="153"/>
-      <c r="W44" s="153"/>
-      <c r="X44" s="153"/>
-      <c r="Y44" s="155"/>
-    </row>
-    <row r="45" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O45" s="152"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153">
+      <c r="V44" s="152"/>
+      <c r="W44" s="152"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="154"/>
+    </row>
+    <row r="45" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O45" s="151"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="153">
+      <c r="T45" s="152">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="153">
+      <c r="U45" s="152">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="155"/>
-    </row>
-    <row r="46" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O46" s="156"/>
-      <c r="P46" s="157"/>
-      <c r="Q46" s="157"/>
-      <c r="R46" s="157"/>
-      <c r="S46" s="157"/>
-      <c r="T46" s="157" t="s">
+      <c r="V45" s="152"/>
+      <c r="W45" s="152"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="154"/>
+    </row>
+    <row r="46" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="155"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="156"/>
+      <c r="T46" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="U46" s="157"/>
-      <c r="V46" s="157"/>
-      <c r="W46" s="157"/>
-      <c r="X46" s="157"/>
-      <c r="Y46" s="158"/>
-    </row>
-    <row r="47" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="156"/>
+      <c r="V46" s="156"/>
+      <c r="W46" s="156"/>
+      <c r="X46" s="156"/>
+      <c r="Y46" s="157"/>
+    </row>
+    <row r="47" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -7691,7 +9370,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:27" x14ac:dyDescent="0.3">
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -7704,9 +9383,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7723,21 +9402,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="72"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="72"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="126" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="61">
@@ -7747,8 +9426,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="196" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -7760,27 +9439,27 @@
       <c r="E2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="126" t="s">
+      <c r="Q2" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="126" t="s">
+      <c r="R2" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="126" t="s">
+      <c r="S2" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="126" t="s">
+      <c r="T2" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="126" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="61">
@@ -7789,58 +9468,58 @@
       <c r="E3" s="61">
         <v>0</v>
       </c>
-      <c r="O3" s="126">
+      <c r="O3" s="125">
         <f>G16</f>
         <v>9.5445347916737688</v>
       </c>
-      <c r="P3" s="126">
+      <c r="P3" s="125">
         <f>M24</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="Q3" s="126">
+      <c r="Q3" s="125">
         <f>G26</f>
         <v>9.5444648487902306</v>
       </c>
-      <c r="R3" s="126">
+      <c r="R3" s="125">
         <f>Q3-O3</f>
         <v>-6.9942883538232081E-5</v>
       </c>
-      <c r="S3" s="126">
+      <c r="S3" s="125">
         <f>Q3-P3</f>
         <v>-4.3870348545027582E-6</v>
       </c>
-      <c r="T3" s="126">
+      <c r="T3" s="125">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="198" t="s">
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="197" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="110" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="33" t="s">
@@ -7858,15 +9537,15 @@
       <c r="M5" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="112">
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="111">
         <v>0</v>
       </c>
       <c r="D6" s="80">
@@ -7900,15 +9579,15 @@
         <f>K6*L6</f>
         <v>2</v>
       </c>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="112">
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="111">
         <f>C6+1</f>
         <v>1</v>
       </c>
@@ -7946,15 +9625,15 @@
         <f t="shared" ref="M7:M22" si="3">K7*L7</f>
         <v>8.8453673446051813</v>
       </c>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="112">
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="111">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
       </c>
@@ -7992,15 +9671,15 @@
         <f t="shared" si="3"/>
         <v>4.9016110326406794</v>
       </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="112">
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="111">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -8038,15 +9717,15 @@
         <f t="shared" si="3"/>
         <v>10.906870460608026</v>
       </c>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="112">
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="111">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -8084,15 +9763,15 @@
         <f t="shared" si="3"/>
         <v>6.0952987905650815</v>
       </c>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="112">
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="111">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -8130,15 +9809,15 @@
         <f t="shared" si="3"/>
         <v>13.689770165601026</v>
       </c>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="112">
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="111">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -8176,15 +9855,15 @@
         <f t="shared" si="3"/>
         <v>7.7204752015620359</v>
       </c>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="112">
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="111">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -8222,15 +9901,15 @@
         <f t="shared" si="3"/>
         <v>17.482021659763813</v>
       </c>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="113">
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="112">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -8268,18 +9947,18 @@
         <f t="shared" si="3"/>
         <v>9.9261637139698689</v>
       </c>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="110">
         <f>SUM(G6:G14)</f>
         <v>143.16802187510655</v>
       </c>
@@ -8302,15 +9981,15 @@
         <f t="shared" si="3"/>
         <v>22.592824889255596</v>
       </c>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="113" t="s">
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="112" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="88">
@@ -8336,14 +10015,14 @@
         <f t="shared" si="3"/>
         <v>12.87312731383618</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-    </row>
-    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+    </row>
+    <row r="17" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I17" s="64">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -8363,19 +10042,19 @@
         <f t="shared" si="3"/>
         <v>29.357328191571458</v>
       </c>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-    </row>
-    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="114">
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+    </row>
+    <row r="18" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="113">
         <v>1.6</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116">
+      <c r="D18" s="114"/>
+      <c r="E18" s="115">
         <v>1.6</v>
       </c>
       <c r="I18" s="64">
@@ -8397,21 +10076,21 @@
         <f t="shared" si="3"/>
         <v>16.736467690946188</v>
       </c>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="117" t="s">
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="118" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="64">
@@ -8433,19 +10112,19 @@
         <f t="shared" si="3"/>
         <v>38.142373340953959</v>
       </c>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="120">
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="119">
         <v>0</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="121">
+      <c r="D20" s="117"/>
+      <c r="E20" s="120">
         <v>0</v>
       </c>
       <c r="I20" s="64">
@@ -8467,17 +10146,17 @@
         <f t="shared" si="3"/>
         <v>21.708799867378701</v>
       </c>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="122"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="121"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
       <c r="I21" s="64">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -8497,21 +10176,21 @@
         <f t="shared" si="3"/>
         <v>49.35351256270453</v>
       </c>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-    </row>
-    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="122" t="s">
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+    </row>
+    <row r="22" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="118" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="65">
@@ -8533,21 +10212,21 @@
         <f t="shared" si="3"/>
         <v>14.002064848790235</v>
       </c>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-    </row>
-    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="122">
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+    </row>
+    <row r="23" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="121">
         <v>1.6</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="119">
+      <c r="E23" s="118">
         <f>2*EXP(C23)+POWER(C23,4)/4</f>
         <v>11.544464848790231</v>
       </c>
@@ -8558,21 +10237,21 @@
         <f>SUM(M6:M22)</f>
         <v>286.33407707475254</v>
       </c>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-    </row>
-    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="122">
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+    </row>
+    <row r="24" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="121">
         <v>0</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="119">
+      <c r="E24" s="118">
         <f>2*EXP(C24)+POWER(C24,4)/4</f>
         <v>2</v>
       </c>
@@ -8583,27 +10262,27 @@
         <f>M23*(0.1/3)</f>
         <v>9.5444692358250851</v>
       </c>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-    </row>
-    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="122"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-    </row>
-    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="124">
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+    </row>
+    <row r="25" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="121"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+    </row>
+    <row r="26" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="123">
         <f>E23</f>
         <v>11.544464848790231</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="124">
         <f>E24</f>
         <v>2</v>
       </c>
@@ -8615,7 +10294,7 @@
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8624,19 +10303,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -8647,7 +10326,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -8658,7 +10337,7 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oliver\Documents\GitHub\MathsCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1664298\GitGud\MathsCoursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8712" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +87,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="V22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>Trapezium 2</t>
-  </si>
-  <si>
-    <t>= -0.457083x^2 + 1.93825x - 1.48117</t>
   </si>
   <si>
     <t>y</t>
@@ -502,11 +499,38 @@
       <t>₅ (0.2)=</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> -0.457083x^2 + 1.93825x - 1.48117</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x)=</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -1602,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2228,12 +2252,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2261,73 +2342,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3270,6 +3315,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3277,7 +3323,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3325,8 +3370,8 @@
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5534079" cy="328551"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3368,6 +3413,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3637,7 +3683,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3650,7 +3696,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3680,7 +3726,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3707,7 +3753,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3736,7 +3782,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3749,7 +3795,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3761,7 +3807,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3783,19 +3829,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>3</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>!</m:t>
+                              <m:t>3!</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -3819,7 +3853,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3832,7 +3866,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3862,7 +3896,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3932,19 +3966,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>4</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>!</m:t>
+                              <m:t>4!</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -3968,7 +3990,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3981,7 +4003,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4011,7 +4033,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4093,19 +4115,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>5</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>!</m:t>
+                              <m:t>5!</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -4119,7 +4129,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -6214,31 +6224,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="163"/>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
-      <c r="D1" s="209" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="209"/>
-      <c r="F1" s="210" t="s">
+      <c r="D1" s="229" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="229"/>
+      <c r="F1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
       <c r="I1" s="163"/>
       <c r="J1" s="163"/>
       <c r="K1" s="163"/>
@@ -6251,19 +6261,19 @@
       <c r="R1" s="163"/>
       <c r="S1" s="163"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
       <c r="B2" s="163"/>
       <c r="C2" s="163"/>
-      <c r="D2" s="209" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210" t="s">
+      <c r="D2" s="229" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="229"/>
+      <c r="F2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="163"/>
       <c r="J2" s="163"/>
       <c r="K2" s="163"/>
@@ -6276,19 +6286,19 @@
       <c r="R2" s="163"/>
       <c r="S2" s="163"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
       <c r="B3" s="163"/>
       <c r="C3" s="163"/>
-      <c r="D3" s="209" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210" t="s">
+      <c r="D3" s="229" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="229"/>
+      <c r="F3" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
       <c r="I3" s="163"/>
       <c r="J3" s="163"/>
       <c r="K3" s="163"/>
@@ -6301,19 +6311,19 @@
       <c r="R3" s="163"/>
       <c r="S3" s="163"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
       <c r="B4" s="163"/>
       <c r="C4" s="163"/>
-      <c r="D4" s="209" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210" t="s">
+      <c r="D4" s="229" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="229"/>
+      <c r="F4" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="163"/>
       <c r="J4" s="163"/>
       <c r="K4" s="163"/>
@@ -6326,19 +6336,19 @@
       <c r="R4" s="163"/>
       <c r="S4" s="163"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
       <c r="B5" s="163"/>
       <c r="C5" s="163"/>
-      <c r="D5" s="209" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="210" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
+      <c r="D5" s="229" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="229"/>
+      <c r="F5" s="228" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
       <c r="I5" s="163"/>
       <c r="J5" s="163"/>
       <c r="K5" s="163"/>
@@ -6351,7 +6361,7 @@
       <c r="R5" s="163"/>
       <c r="S5" s="163"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
       <c r="B6" s="163"/>
       <c r="C6" s="163"/>
@@ -6372,7 +6382,7 @@
       <c r="R6" s="163"/>
       <c r="S6" s="163"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
       <c r="B7" s="163"/>
       <c r="C7" s="163"/>
@@ -6393,7 +6403,7 @@
       <c r="R7" s="163"/>
       <c r="S7" s="163"/>
     </row>
-    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="163"/>
       <c r="B8" s="163"/>
       <c r="C8" s="163"/>
@@ -6424,7 +6434,7 @@
       <c r="R8" s="163"/>
       <c r="S8" s="163"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="163"/>
       <c r="B9" s="163"/>
       <c r="C9" s="163"/>
@@ -6455,7 +6465,7 @@
       <c r="R9" s="163"/>
       <c r="S9" s="163"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="163"/>
       <c r="B10" s="163"/>
       <c r="C10" s="163"/>
@@ -6486,7 +6496,7 @@
       <c r="R10" s="163"/>
       <c r="S10" s="163"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="163"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163"/>
@@ -6517,7 +6527,7 @@
       <c r="R11" s="163"/>
       <c r="S11" s="163"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="163"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163"/>
@@ -6548,7 +6558,7 @@
       <c r="R12" s="163"/>
       <c r="S12" s="163"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="163"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163"/>
@@ -6573,7 +6583,7 @@
       <c r="R13" s="163"/>
       <c r="S13" s="163"/>
     </row>
-    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="163"/>
       <c r="B14" s="163"/>
       <c r="C14" s="163"/>
@@ -6594,7 +6604,7 @@
       <c r="R14" s="163"/>
       <c r="S14" s="163"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="163"/>
       <c r="B15" s="163"/>
       <c r="C15" s="163"/>
@@ -6615,7 +6625,7 @@
       <c r="R15" s="163"/>
       <c r="S15" s="163"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="163"/>
       <c r="B16" s="163"/>
       <c r="C16" s="163"/>
@@ -6636,7 +6646,7 @@
       <c r="R16" s="163"/>
       <c r="S16" s="163"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="163"/>
       <c r="C17" s="163"/>
@@ -6657,7 +6667,7 @@
       <c r="R17" s="163"/>
       <c r="S17" s="163"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="163"/>
       <c r="B18" s="163"/>
       <c r="C18" s="163"/>
@@ -6678,7 +6688,7 @@
       <c r="R18" s="163"/>
       <c r="S18" s="163"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="163"/>
       <c r="B19" s="163"/>
       <c r="C19" s="163"/>
@@ -6699,7 +6709,7 @@
       <c r="R19" s="163"/>
       <c r="S19" s="163"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="163"/>
       <c r="B20" s="163"/>
       <c r="C20" s="163"/>
@@ -6720,7 +6730,7 @@
       <c r="R20" s="163"/>
       <c r="S20" s="163"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="163"/>
       <c r="B21" s="163"/>
       <c r="C21" s="163"/>
@@ -6741,7 +6751,7 @@
       <c r="R21" s="163"/>
       <c r="S21" s="163"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="163"/>
       <c r="B22" s="163"/>
       <c r="C22" s="163"/>
@@ -6762,7 +6772,7 @@
       <c r="R22" s="163"/>
       <c r="S22" s="163"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="163"/>
       <c r="B23" s="163"/>
       <c r="C23" s="163"/>
@@ -6783,7 +6793,7 @@
       <c r="R23" s="163"/>
       <c r="S23" s="163"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="163"/>
       <c r="B24" s="163"/>
       <c r="C24" s="163"/>
@@ -6804,7 +6814,7 @@
       <c r="R24" s="163"/>
       <c r="S24" s="163"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="163"/>
       <c r="B25" s="163"/>
       <c r="C25" s="163"/>
@@ -6827,16 +6837,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6844,193 +6854,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.109375" style="208"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="208"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="223" t="s">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="220"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="224" t="s">
+      <c r="B1" s="209"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="228" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="217" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="229" t="s">
+      <c r="E2" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="230" t="s">
+      <c r="F2" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="G2" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="H2" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="229" t="s">
+      <c r="I2" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="230" t="s">
+      <c r="J2" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="231" t="s">
+      <c r="K2" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="230" t="s">
+      <c r="M2" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="229" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="230" t="s">
+      <c r="N2" s="221" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="211"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="211"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="224"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="211"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="227"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="239" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="240">
+        <f>SUM(0.5*COS(0.4),-0.2*SIN(0.4),(0.2^2)*(2*COS(0.4)/2),-(0.2^3)*(4*SIN(0.4)/6),(0.2^4)*(8*COS(0.4)/24),-(0.2^5)*(16*SIN(0.4)/120))</f>
+        <v>0.41788698782171146</v>
+      </c>
+      <c r="F7" s="243" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="241" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="242">
+        <f>D7</f>
+        <v>0.41788698782171146</v>
+      </c>
+      <c r="F8" s="245" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="232" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="225" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="235"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="235"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="227" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="238"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="239" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="239">
-        <f>SUM(0.5*COS(0.4),-0.2*SIN(0.4),(0.2^2)*(2*COS(0.4)/2)/2,-(0.2^3)*(4*SIN(0.4)/6),(0.2^4)*(8*COS(0.4)/24),-(0.2^5)*(16*SIN(0.4)/120))</f>
-        <v>0.39946576794165373</v>
-      </c>
-      <c r="F7" s="241" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="241">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="239" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="240">
-        <f>D7</f>
-        <v>0.39946576794165373</v>
-      </c>
-      <c r="F8" s="242" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="241" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F9" s="241" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="241">
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="247" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="246">
         <f>32*COS(2*0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F10" s="241" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="241">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="247" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="246">
         <f>32*COS(2*0.2)</f>
         <v>29.473951808092323</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F11" s="241" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="241">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="247" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="246">
         <f>G10-G9</f>
         <v>-2.5260481919076767</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="241" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="241">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="247"/>
+      <c r="G12" s="246"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="249">
         <f>(G11/(1*2*3*4*5*6*7))*((0.2)^7)</f>
         <v>-6.4153604873845814E-9</v>
       </c>
     </row>
+    <row r="14" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7039,44 +7050,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="9.109375" style="72"/>
-    <col min="3" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="72"/>
+    <col min="3" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="74"/>
-      <c r="L1" s="214" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="214"/>
-      <c r="P1" s="211" t="s">
+      <c r="L1" s="233" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="233"/>
+      <c r="P1" s="230" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="212" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="213"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="232"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7203,7 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
@@ -7261,7 +7272,7 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
@@ -7399,7 +7410,7 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
@@ -7465,7 +7476,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="85">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7495,7 +7506,7 @@
         <v>1.1708015146116524E-2</v>
       </c>
       <c r="J8" s="161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="95">
         <v>5</v>
@@ -7533,7 +7544,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7574,7 +7585,7 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7609,7 +7620,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7663,7 +7674,7 @@
       <c r="T11" s="149"/>
       <c r="U11" s="150"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7720,7 +7731,7 @@
       <c r="T12" s="152"/>
       <c r="U12" s="154"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7778,7 +7789,7 @@
       <c r="T13" s="152"/>
       <c r="U13" s="154"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7836,7 +7847,7 @@
       <c r="T14" s="152"/>
       <c r="U14" s="154"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7880,7 +7891,7 @@
       <c r="T15" s="152"/>
       <c r="U15" s="154"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -7924,7 +7935,7 @@
       <c r="T16" s="152"/>
       <c r="U16" s="154"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
@@ -7968,7 +7979,7 @@
       <c r="T17" s="152"/>
       <c r="U17" s="154"/>
     </row>
-    <row r="18" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
@@ -8012,7 +8023,7 @@
       <c r="T18" s="152"/>
       <c r="U18" s="154"/>
     </row>
-    <row r="19" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="99">
         <f t="shared" si="27"/>
         <v>16</v>
@@ -8056,7 +8067,7 @@
       <c r="T19" s="152"/>
       <c r="U19" s="154"/>
     </row>
-    <row r="20" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L20" s="151"/>
       <c r="M20" s="152"/>
       <c r="N20" s="152"/>
@@ -8068,7 +8079,7 @@
       <c r="T20" s="152"/>
       <c r="U20" s="154"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L21" s="151"/>
       <c r="M21" s="152"/>
       <c r="N21" s="152"/>
@@ -8080,7 +8091,7 @@
       <c r="T21" s="152"/>
       <c r="U21" s="154"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L22" s="151"/>
       <c r="M22" s="152"/>
       <c r="N22" s="152"/>
@@ -8092,7 +8103,7 @@
       <c r="T22" s="152"/>
       <c r="U22" s="154"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L23" s="151"/>
       <c r="M23" s="152"/>
       <c r="N23" s="152"/>
@@ -8104,7 +8115,7 @@
       <c r="T23" s="152"/>
       <c r="U23" s="154"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L24" s="151"/>
       <c r="M24" s="152"/>
       <c r="N24" s="152"/>
@@ -8116,7 +8127,7 @@
       <c r="T24" s="152"/>
       <c r="U24" s="154"/>
     </row>
-    <row r="25" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="155"/>
       <c r="M25" s="156"/>
       <c r="N25" s="156"/>
@@ -8128,7 +8139,7 @@
       <c r="T25" s="156"/>
       <c r="U25" s="157"/>
     </row>
-    <row r="26" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -8165,21 +8176,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="9.109375" style="73"/>
-    <col min="14" max="14" width="9.109375" style="3"/>
-    <col min="15" max="16384" width="9.109375" style="73"/>
+    <col min="1" max="13" width="9.140625" style="73"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
@@ -8199,7 +8210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
@@ -8261,7 +8272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
@@ -8279,7 +8290,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
@@ -8301,7 +8312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8318,7 +8329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -8335,7 +8346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -8352,7 +8363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -8365,7 +8376,7 @@
       <c r="P10" s="171"/>
       <c r="Q10" s="172"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8384,7 +8395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -8401,7 +8412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8418,7 +8429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -8435,7 +8446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8448,7 +8459,7 @@
       <c r="P15" s="174"/>
       <c r="Q15" s="175"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -8461,7 +8472,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -8474,26 +8485,26 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="134"/>
-      <c r="P17" s="217" t="s">
+      <c r="P17" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="215"/>
-      <c r="R17" s="215"/>
-      <c r="S17" s="215" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17" s="215"/>
-      <c r="U17" s="215"/>
-      <c r="V17" s="215"/>
-      <c r="W17" s="215" t="s">
+      <c r="Q17" s="234"/>
+      <c r="R17" s="234"/>
+      <c r="S17" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="234"/>
+      <c r="U17" s="234"/>
+      <c r="V17" s="234"/>
+      <c r="W17" s="234" t="s">
         <v>54</v>
       </c>
-      <c r="X17" s="215"/>
-      <c r="Y17" s="215"/>
-      <c r="Z17" s="216"/>
+      <c r="X17" s="234"/>
+      <c r="Y17" s="234"/>
+      <c r="Z17" s="235"/>
       <c r="AA17" s="198"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -8543,7 +8554,7 @@
       </c>
       <c r="AA18" s="137"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -8556,7 +8567,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="O19" s="135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P19" s="136">
         <v>4</v>
@@ -8593,7 +8604,7 @@
       </c>
       <c r="AA19" s="137"/>
     </row>
-    <row r="20" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -8606,7 +8617,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="O20" s="97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="138">
         <v>1</v>
@@ -8643,7 +8654,7 @@
       </c>
       <c r="AA20" s="139"/>
     </row>
-    <row r="21" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -8668,15 +8679,15 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="O22" s="140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P22" s="114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="114"/>
       <c r="R22" s="114">
@@ -8696,15 +8707,15 @@
       <c r="Z22" s="114"/>
       <c r="AA22" s="141"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="O23" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="117" t="s">
         <v>62</v>
-      </c>
-      <c r="P23" s="117" t="s">
-        <v>63</v>
       </c>
       <c r="Q23" s="117"/>
       <c r="R23" s="117">
@@ -8724,7 +8735,7 @@
       <c r="Z23" s="117"/>
       <c r="AA23" s="118"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -8748,7 +8759,7 @@
       <c r="Z24" s="117"/>
       <c r="AA24" s="118"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -8766,7 +8777,7 @@
       <c r="Z25" s="117"/>
       <c r="AA25" s="118"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -8817,7 +8828,7 @@
       </c>
       <c r="AA26" s="118"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -8868,7 +8879,7 @@
       </c>
       <c r="AA27" s="118"/>
     </row>
-    <row r="28" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -8919,22 +8930,22 @@
       </c>
       <c r="AA28" s="142"/>
     </row>
-    <row r="29" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O30" s="143" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P30" s="66"/>
       <c r="Q30" s="66"/>
       <c r="R30" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="S30" s="144" t="s">
         <v>65</v>
-      </c>
-      <c r="S30" s="144" t="s">
-        <v>66</v>
       </c>
       <c r="T30" s="66">
         <v>0</v>
@@ -8953,15 +8964,15 @@
       <c r="Z30" s="66"/>
       <c r="AA30" s="145"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O31" s="69"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="67"/>
       <c r="R31" s="146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S31" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T31" s="67">
         <v>0</v>
@@ -8980,7 +8991,7 @@
       <c r="Z31" s="67"/>
       <c r="AA31" s="68"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O32" s="69"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="67"/>
@@ -9007,7 +9018,7 @@
       <c r="Z32" s="67"/>
       <c r="AA32" s="68"/>
     </row>
-    <row r="33" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O33" s="69"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="67"/>
@@ -9022,7 +9033,7 @@
       <c r="Z33" s="67"/>
       <c r="AA33" s="68"/>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O34" s="69"/>
       <c r="P34" s="67">
         <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
@@ -9070,7 +9081,7 @@
       </c>
       <c r="AA34" s="68"/>
     </row>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O35" s="69"/>
       <c r="P35" s="67">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
@@ -9118,7 +9129,7 @@
       </c>
       <c r="AA35" s="68"/>
     </row>
-    <row r="36" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O36" s="70"/>
       <c r="P36" s="71">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
@@ -9166,8 +9177,8 @@
       </c>
       <c r="AA36" s="147"/>
     </row>
-    <row r="37" spans="15:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O38" s="148"/>
       <c r="P38" s="149">
         <v>1</v>
@@ -9192,7 +9203,7 @@
       </c>
       <c r="Y38" s="150"/>
     </row>
-    <row r="39" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O39" s="151"/>
       <c r="P39" s="152">
         <v>0</v>
@@ -9205,7 +9216,7 @@
       </c>
       <c r="S39" s="152"/>
       <c r="T39" s="153" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U39" s="152"/>
       <c r="V39" s="152">
@@ -9219,7 +9230,7 @@
       </c>
       <c r="Y39" s="154"/>
     </row>
-    <row r="40" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O40" s="151"/>
       <c r="P40" s="152">
         <v>0</v>
@@ -9244,11 +9255,11 @@
       </c>
       <c r="Y40" s="154"/>
     </row>
-    <row r="41" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O41" s="151"/>
       <c r="P41" s="152"/>
       <c r="Q41" s="152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R41" s="152"/>
       <c r="S41" s="152"/>
@@ -9256,12 +9267,12 @@
       <c r="U41" s="152"/>
       <c r="V41" s="152"/>
       <c r="W41" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X41" s="152"/>
       <c r="Y41" s="154"/>
     </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O42" s="151"/>
       <c r="P42" s="152"/>
       <c r="Q42" s="152"/>
@@ -9274,7 +9285,7 @@
       <c r="X42" s="152"/>
       <c r="Y42" s="154"/>
     </row>
-    <row r="43" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O43" s="151"/>
       <c r="P43" s="152"/>
       <c r="Q43" s="152"/>
@@ -9296,7 +9307,7 @@
       <c r="X43" s="152"/>
       <c r="Y43" s="154"/>
     </row>
-    <row r="44" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O44" s="151"/>
       <c r="P44" s="152"/>
       <c r="Q44" s="203" t="s">
@@ -9320,7 +9331,7 @@
       <c r="X44" s="152"/>
       <c r="Y44" s="154"/>
     </row>
-    <row r="45" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O45" s="151"/>
       <c r="P45" s="152"/>
       <c r="Q45" s="152"/>
@@ -9342,14 +9353,14 @@
       <c r="X45" s="152"/>
       <c r="Y45" s="154"/>
     </row>
-    <row r="46" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O46" s="155"/>
       <c r="P46" s="156"/>
       <c r="Q46" s="156"/>
       <c r="R46" s="156"/>
       <c r="S46" s="156"/>
       <c r="T46" s="156" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U46" s="156"/>
       <c r="V46" s="156"/>
@@ -9357,7 +9368,7 @@
       <c r="X46" s="156"/>
       <c r="Y46" s="157"/>
     </row>
-    <row r="47" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -9370,7 +9381,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -9383,9 +9394,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -9402,20 +9413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="72"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="72"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
         <v>17</v>
       </c>
@@ -9426,7 +9437,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="196" t="s">
         <v>4</v>
       </c>
@@ -9440,25 +9451,25 @@
         <v>39</v>
       </c>
       <c r="O2" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="Q2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="125" t="s">
+      <c r="R2" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="125" t="s">
+      <c r="S2" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="T2" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="125" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="160" t="s">
         <v>5</v>
       </c>
@@ -9492,7 +9503,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -9503,7 +9514,7 @@
       <c r="S4" s="125"/>
       <c r="T4" s="125"/>
     </row>
-    <row r="5" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="197" t="s">
         <v>19</v>
       </c>
@@ -9544,7 +9555,7 @@
       <c r="S5" s="125"/>
       <c r="T5" s="125"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="111">
         <v>0</v>
       </c>
@@ -9586,7 +9597,7 @@
       <c r="S6" s="125"/>
       <c r="T6" s="125"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="111">
         <f>C6+1</f>
         <v>1</v>
@@ -9632,7 +9643,7 @@
       <c r="S7" s="125"/>
       <c r="T7" s="125"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="111">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
@@ -9678,7 +9689,7 @@
       <c r="S8" s="125"/>
       <c r="T8" s="125"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="111">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -9724,7 +9735,7 @@
       <c r="S9" s="125"/>
       <c r="T9" s="125"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="111">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9770,7 +9781,7 @@
       <c r="S10" s="125"/>
       <c r="T10" s="125"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="111">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -9816,7 +9827,7 @@
       <c r="S11" s="125"/>
       <c r="T11" s="125"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="111">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9862,7 +9873,7 @@
       <c r="S12" s="125"/>
       <c r="T12" s="125"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="111">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9908,7 +9919,7 @@
       <c r="S13" s="125"/>
       <c r="T13" s="125"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="112">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9954,7 +9965,7 @@
       <c r="S14" s="125"/>
       <c r="T14" s="125"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
@@ -9988,7 +9999,7 @@
       <c r="S15" s="125"/>
       <c r="T15" s="125"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="112" t="s">
         <v>49</v>
       </c>
@@ -10022,7 +10033,7 @@
       <c r="S16" s="125"/>
       <c r="T16" s="125"/>
     </row>
-    <row r="17" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="64">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -10049,7 +10060,7 @@
       <c r="S17" s="125"/>
       <c r="T17" s="125"/>
     </row>
-    <row r="18" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="113">
         <v>1.6</v>
       </c>
@@ -10083,7 +10094,7 @@
       <c r="S18" s="125"/>
       <c r="T18" s="125"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="116" t="s">
         <v>36</v>
       </c>
@@ -10119,7 +10130,7 @@
       <c r="S19" s="125"/>
       <c r="T19" s="125"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="119">
         <v>0</v>
       </c>
@@ -10153,7 +10164,7 @@
       <c r="S20" s="125"/>
       <c r="T20" s="125"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="121"/>
       <c r="D21" s="117"/>
       <c r="E21" s="118"/>
@@ -10183,7 +10194,7 @@
       <c r="S21" s="125"/>
       <c r="T21" s="125"/>
     </row>
-    <row r="22" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="121" t="s">
         <v>22</v>
       </c>
@@ -10219,7 +10230,7 @@
       <c r="S22" s="125"/>
       <c r="T22" s="125"/>
     </row>
-    <row r="23" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C23" s="121">
         <v>1.6</v>
       </c>
@@ -10244,7 +10255,7 @@
       <c r="S23" s="125"/>
       <c r="T23" s="125"/>
     </row>
-    <row r="24" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="121">
         <v>0</v>
       </c>
@@ -10269,12 +10280,12 @@
       <c r="S24" s="125"/>
       <c r="T24" s="125"/>
     </row>
-    <row r="25" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="121"/>
       <c r="D25" s="117"/>
       <c r="E25" s="118"/>
     </row>
-    <row r="26" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="123">
         <f>E23</f>
         <v>11.544464848790231</v>
@@ -10294,7 +10305,7 @@
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10303,19 +10314,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -10326,7 +10337,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -10337,16 +10348,16 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="218" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
+        <v>109</v>
+      </c>
+      <c r="B5" s="237" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1664298\GitGud\MathsCoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1664298\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,14 +570,6 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1626,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2069,9 +2061,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2234,9 +2223,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2309,12 +2295,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2342,38 +2361,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3287,6 +3303,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4616,13 +4633,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>e)  Comment on the rate of congragation between the three</a:t>
+            <a:t>e) </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> methods</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4695,8 +4707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10552045" y="7946336"/>
-          <a:ext cx="2660754" cy="940941"/>
+          <a:off x="11180118" y="7698109"/>
+          <a:ext cx="2808536" cy="912077"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -4830,8 +4842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8767971" y="7026551"/>
-          <a:ext cx="2660754" cy="944668"/>
+          <a:off x="9285207" y="6806899"/>
+          <a:ext cx="2808536" cy="916093"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -4944,13 +4956,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>212036</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1655</xdr:rowOff>
+      <xdr:rowOff>13200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>434390</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>155748</xdr:rowOff>
+      <xdr:rowOff>167293</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4965,8 +4977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12404036" y="7021580"/>
-          <a:ext cx="2660754" cy="944668"/>
+          <a:off x="13142945" y="6813473"/>
+          <a:ext cx="2808536" cy="916093"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -5100,8 +5112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9935822" y="5462791"/>
-          <a:ext cx="2660754" cy="944668"/>
+          <a:off x="10526949" y="5292784"/>
+          <a:ext cx="2808536" cy="916093"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -5235,8 +5247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12402383" y="5466103"/>
-          <a:ext cx="2660754" cy="944668"/>
+          <a:off x="13141292" y="5296096"/>
+          <a:ext cx="2808536" cy="916093"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -5370,8 +5382,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9975576" y="3899034"/>
-          <a:ext cx="2660754" cy="944668"/>
+          <a:off x="10566703" y="3778673"/>
+          <a:ext cx="2808536" cy="916093"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -5505,8 +5517,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8892206" y="3060833"/>
-          <a:ext cx="7264225" cy="945911"/>
+          <a:off x="9409442" y="2972799"/>
+          <a:ext cx="7707571" cy="913584"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -5640,8 +5652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8895519" y="6183790"/>
-          <a:ext cx="7264225" cy="942184"/>
+          <a:off x="9412755" y="5990981"/>
+          <a:ext cx="7707571" cy="915341"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -5775,8 +5787,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8890548" y="4616730"/>
-          <a:ext cx="7264225" cy="942183"/>
+          <a:off x="9407784" y="4473566"/>
+          <a:ext cx="7707571" cy="915340"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -5837,6 +5849,141 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17270893" y="7924800"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351882</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>300907</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119904</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="Group 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9403518" y="8637199"/>
+          <a:ext cx="7707571" cy="892250"/>
+          <a:chOff x="10376448" y="7921488"/>
+          <a:chExt cx="7303981" cy="940941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Rectangle 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10376448" y="7921488"/>
+            <a:ext cx="409536" cy="937629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Rectangle 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6231,622 +6378,622 @@
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="229" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="162"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="229"/>
-      <c r="F1" s="228" t="s">
+      <c r="E1" s="237"/>
+      <c r="F1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="229" t="s">
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="237" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="229"/>
-      <c r="F2" s="228" t="s">
+      <c r="E2" s="237"/>
+      <c r="F2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="229" t="s">
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="229"/>
-      <c r="F3" s="228" t="s">
+      <c r="E3" s="237"/>
+      <c r="F3" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="229" t="s">
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="229"/>
-      <c r="F4" s="228" t="s">
+      <c r="E4" s="237"/>
+      <c r="F4" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="229" t="s">
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="237" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="229"/>
-      <c r="F5" s="228" t="s">
+      <c r="E5" s="237"/>
+      <c r="F5" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="176" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="177" t="s">
+      <c r="F8" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="177" t="s">
+      <c r="G8" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="179" t="s">
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="180" t="s">
+      <c r="F9" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="180" t="s">
+      <c r="G9" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="181" t="s">
+      <c r="H9" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="182" t="s">
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="185" t="s">
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="187" t="s">
+      <c r="H11" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="188" t="s">
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="189" t="s">
+      <c r="E12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="189" t="s">
+      <c r="F12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="190" t="s">
+      <c r="H12" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="192" t="s">
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="193" t="s">
+      <c r="F13" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="163"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="163"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="162"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="162"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="162"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6858,190 +7005,190 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="208"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="206"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+    <row r="1" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="209"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="213" t="s">
+      <c r="B1" s="207"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="217" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="216" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="219" t="s">
+      <c r="E2" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="220" t="s">
+      <c r="F2" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="219" t="s">
+      <c r="G2" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="218" t="s">
+      <c r="H2" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="219" t="s">
+      <c r="I2" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="220" t="s">
+      <c r="J2" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="219" t="s">
+      <c r="K2" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="218" t="s">
+      <c r="L2" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="219" t="s">
+      <c r="M2" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="221" t="s">
+      <c r="N2" s="219" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="214" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="B3" s="209"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="222"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="216" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="222"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="227"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="239" t="s">
+      <c r="B5" s="209"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="225"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="240">
+      <c r="D7" s="227">
         <f>SUM(0.5*COS(0.4),-0.2*SIN(0.4),(0.2^2)*(2*COS(0.4)/2),-(0.2^3)*(4*SIN(0.4)/6),(0.2^4)*(8*COS(0.4)/24),-(0.2^5)*(16*SIN(0.4)/120))</f>
         <v>0.41788698782171146</v>
       </c>
-      <c r="F7" s="243" t="s">
+      <c r="F7" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="244">
+      <c r="G7" s="231">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="241" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="242">
+      <c r="D8" s="229">
         <f>D7</f>
         <v>0.41788698782171146</v>
       </c>
-      <c r="F8" s="245" t="s">
+      <c r="F8" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="233" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="247" t="s">
+    <row r="9" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="234" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="246">
+      <c r="G9" s="233">
         <f>32*COS(2*0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="247" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F10" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="246">
+      <c r="G10" s="233">
         <f>32*COS(2*0.2)</f>
         <v>29.473951808092323</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="247" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F11" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="246">
+      <c r="G11" s="233">
         <f>G10-G9</f>
         <v>-2.5260481919076767</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="247"/>
-      <c r="G12" s="246"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="248" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F12" s="234"/>
+      <c r="G12" s="233"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="249">
+      <c r="G13" s="236">
         <f>(G11/(1*2*3*4*5*6*7))*((0.2)^7)</f>
         <v>-6.4153604873845814E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7053,45 +7200,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="72"/>
-    <col min="3" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="9.1796875" style="72"/>
+    <col min="3" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="9.1796875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="126" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="74"/>
-      <c r="L1" s="233" t="s">
+      <c r="L1" s="242" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="233"/>
-      <c r="P1" s="230" t="s">
+      <c r="M1" s="242"/>
+      <c r="P1" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="231" t="s">
+      <c r="Q1" s="240"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="232"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="241"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="157"/>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
@@ -7122,30 +7269,30 @@
       <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="199" t="s">
+      <c r="P2" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="200" t="s">
+      <c r="Q2" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="201" t="s">
+      <c r="R2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="199" t="s">
+      <c r="S2" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="199" t="s">
+      <c r="T2" s="198" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="158"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="12">
         <v>0</v>
       </c>
@@ -7203,11 +7350,11 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="158"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="12">
         <f>C3+1</f>
         <v>1</v>
@@ -7272,11 +7419,11 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="12">
         <f t="shared" ref="C5:C16" si="3">C4+1</f>
         <v>2</v>
@@ -7341,11 +7488,11 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="159"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -7410,7 +7557,7 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
@@ -7439,7 +7586,7 @@
         <f t="shared" ref="I7" si="16">H7-G7</f>
         <v>3.7801796655058229E-2</v>
       </c>
-      <c r="J7" s="162"/>
+      <c r="J7" s="161"/>
       <c r="L7" s="93">
         <v>4</v>
       </c>
@@ -7476,7 +7623,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="85">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7505,7 +7652,7 @@
         <f t="shared" ref="I8:I15" si="21">H8-G8</f>
         <v>1.1708015146116524E-2</v>
       </c>
-      <c r="J8" s="161" t="s">
+      <c r="J8" s="160" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="95">
@@ -7544,7 +7691,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7585,7 +7732,7 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7620,7 +7767,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7668,13 +7815,13 @@
       <c r="P11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="150"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="149"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7725,13 +7872,13 @@
         <f t="shared" ref="P12" si="23">1.97303383-O12</f>
         <v>0.2230338300000001</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="154"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="153"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -7783,13 +7930,13 @@
         <f t="shared" ref="P13" si="25">1.97303383-O13</f>
         <v>3.736949905287501E-3</v>
       </c>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="154"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="153"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -7841,13 +7988,13 @@
         <f t="shared" ref="P14" si="26">1.97303383-O14</f>
         <v>-4.1503577943591274E-4</v>
       </c>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="154"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="153"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -7880,18 +8027,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L15" s="151"/>
-      <c r="M15" s="152"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="154"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L15" s="150"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="153"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -7924,18 +8071,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L16" s="151"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="154"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L16" s="150"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="153"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
@@ -7968,18 +8115,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L17" s="151"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="152"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="154"/>
-    </row>
-    <row r="18" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="150"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="153"/>
+    </row>
+    <row r="18" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
@@ -8012,18 +8159,18 @@
         <f t="shared" si="22"/>
         <v>More</v>
       </c>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="154"/>
-    </row>
-    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="153"/>
+    </row>
+    <row r="19" spans="3:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="99">
         <f t="shared" si="27"/>
         <v>16</v>
@@ -8056,90 +8203,90 @@
         <f>IF(ABS(I19)&lt;0.000001,"Less","More")</f>
         <v>Less</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
-      <c r="U19" s="154"/>
-    </row>
-    <row r="20" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L20" s="151"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="154"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L21" s="151"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="154"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L22" s="151"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="154"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L23" s="151"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="154"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="L24" s="151"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="154"/>
-    </row>
-    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="155"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="157"/>
-    </row>
-    <row r="26" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="153"/>
+    </row>
+    <row r="20" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="150"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="153"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L21" s="150"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="153"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L22" s="150"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="153"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L23" s="150"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="153"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="L24" s="150"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="153"/>
+    </row>
+    <row r="25" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="154"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="156"/>
+    </row>
+    <row r="26" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -8179,18 +8326,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="9.140625" style="73"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="13" width="9.1796875" style="73"/>
+    <col min="14" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="16384" width="9.1796875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="128" t="s">
         <v>16</v>
       </c>
@@ -8202,15 +8349,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165" t="s">
+      <c r="O1" s="163"/>
+      <c r="P1" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="165" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
@@ -8222,17 +8369,17 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="O2" s="167" t="s">
+      <c r="O2" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="168">
+      <c r="P2" s="167">
         <v>2</v>
       </c>
-      <c r="Q2" s="169">
+      <c r="Q2" s="168">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="130" t="s">
         <v>5</v>
       </c>
@@ -8244,15 +8391,15 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168">
+      <c r="O3" s="166"/>
+      <c r="P3" s="167">
         <v>2</v>
       </c>
-      <c r="Q3" s="169">
+      <c r="Q3" s="168">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="131" t="s">
         <v>6</v>
       </c>
@@ -8264,15 +8411,15 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168">
+      <c r="O4" s="166"/>
+      <c r="P4" s="167">
         <v>5</v>
       </c>
-      <c r="Q4" s="169">
+      <c r="Q4" s="168">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="132" t="s">
         <v>19</v>
       </c>
@@ -8284,13 +8431,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="172"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="171"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="133" t="s">
         <v>20</v>
       </c>
@@ -8302,17 +8449,17 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="167" t="s">
+      <c r="O6" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="168">
+      <c r="P6" s="167">
         <v>5</v>
       </c>
-      <c r="Q6" s="169">
+      <c r="Q6" s="168">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8321,15 +8468,15 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="168">
+      <c r="O7" s="166"/>
+      <c r="P7" s="167">
         <v>8</v>
       </c>
-      <c r="Q7" s="169">
+      <c r="Q7" s="168">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -8338,15 +8485,15 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168">
+      <c r="O8" s="166"/>
+      <c r="P8" s="167">
         <v>8</v>
       </c>
-      <c r="Q8" s="169">
+      <c r="Q8" s="168">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -8355,15 +8502,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="168">
+      <c r="O9" s="166"/>
+      <c r="P9" s="167">
         <v>2</v>
       </c>
-      <c r="Q9" s="169">
+      <c r="Q9" s="168">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -8372,11 +8519,11 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="172"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O10" s="169"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="171"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -8385,17 +8532,17 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="O11" s="167" t="s">
+      <c r="O11" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="168">
+      <c r="P11" s="167">
         <v>5</v>
       </c>
-      <c r="Q11" s="169">
+      <c r="Q11" s="168">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -8404,15 +8551,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="168">
+      <c r="O12" s="166"/>
+      <c r="P12" s="167">
         <v>8</v>
       </c>
-      <c r="Q12" s="169">
+      <c r="Q12" s="168">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8421,15 +8568,15 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="168">
+      <c r="O13" s="166"/>
+      <c r="P13" s="167">
         <v>8</v>
       </c>
-      <c r="Q13" s="169">
+      <c r="Q13" s="168">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -8438,15 +8585,15 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="168">
+      <c r="O14" s="166"/>
+      <c r="P14" s="167">
         <v>2</v>
       </c>
-      <c r="Q14" s="169">
+      <c r="Q14" s="168">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8455,11 +8602,11 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="175"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="174"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -8472,7 +8619,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -8485,26 +8632,26 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="134"/>
-      <c r="P17" s="236" t="s">
+      <c r="P17" s="245" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="234"/>
-      <c r="R17" s="234"/>
-      <c r="S17" s="234" t="s">
+      <c r="Q17" s="243"/>
+      <c r="R17" s="243"/>
+      <c r="S17" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
-      <c r="W17" s="234" t="s">
+      <c r="T17" s="243"/>
+      <c r="U17" s="243"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="X17" s="234"/>
-      <c r="Y17" s="234"/>
-      <c r="Z17" s="235"/>
-      <c r="AA17" s="198"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="X17" s="243"/>
+      <c r="Y17" s="243"/>
+      <c r="Z17" s="244"/>
+      <c r="AA17" s="197"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -8528,7 +8675,7 @@
       <c r="R18" s="136">
         <v>5</v>
       </c>
-      <c r="S18" s="204">
+      <c r="S18" s="202">
         <v>5</v>
       </c>
       <c r="T18" s="136">
@@ -8537,7 +8684,7 @@
       <c r="U18" s="136">
         <v>8</v>
       </c>
-      <c r="V18" s="205">
+      <c r="V18" s="203">
         <v>2</v>
       </c>
       <c r="W18" s="136">
@@ -8554,7 +8701,7 @@
       </c>
       <c r="AA18" s="137"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -8578,7 +8725,7 @@
       <c r="R19" s="136">
         <v>6</v>
       </c>
-      <c r="S19" s="204">
+      <c r="S19" s="202">
         <v>6</v>
       </c>
       <c r="T19" s="136">
@@ -8587,7 +8734,7 @@
       <c r="U19" s="136">
         <v>8</v>
       </c>
-      <c r="V19" s="205">
+      <c r="V19" s="203">
         <v>8</v>
       </c>
       <c r="W19" s="136">
@@ -8604,7 +8751,7 @@
       </c>
       <c r="AA19" s="137"/>
     </row>
-    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -8628,7 +8775,7 @@
       <c r="R20" s="138">
         <v>1</v>
       </c>
-      <c r="S20" s="206">
+      <c r="S20" s="204">
         <v>1</v>
       </c>
       <c r="T20" s="138">
@@ -8637,7 +8784,7 @@
       <c r="U20" s="138">
         <v>1</v>
       </c>
-      <c r="V20" s="207">
+      <c r="V20" s="205">
         <v>1</v>
       </c>
       <c r="W20" s="138">
@@ -8654,7 +8801,7 @@
       </c>
       <c r="AA20" s="139"/>
     </row>
-    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -8679,7 +8826,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -8707,7 +8854,7 @@
       <c r="Z22" s="114"/>
       <c r="AA22" s="141"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -8735,7 +8882,7 @@
       <c r="Z23" s="117"/>
       <c r="AA23" s="118"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -8759,7 +8906,7 @@
       <c r="Z24" s="117"/>
       <c r="AA24" s="118"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -8777,7 +8924,7 @@
       <c r="Z25" s="117"/>
       <c r="AA25" s="118"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -8828,7 +8975,7 @@
       </c>
       <c r="AA26" s="118"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -8879,7 +9026,7 @@
       </c>
       <c r="AA27" s="118"/>
     </row>
-    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -8930,12 +9077,12 @@
       </c>
       <c r="AA28" s="142"/>
     </row>
-    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O30" s="143" t="s">
         <v>63</v>
       </c>
@@ -8964,7 +9111,7 @@
       <c r="Z30" s="66"/>
       <c r="AA30" s="145"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.35">
       <c r="O31" s="69"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="67"/>
@@ -8991,7 +9138,7 @@
       <c r="Z31" s="67"/>
       <c r="AA31" s="68"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.35">
       <c r="O32" s="69"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="67"/>
@@ -9018,7 +9165,7 @@
       <c r="Z32" s="67"/>
       <c r="AA32" s="68"/>
     </row>
-    <row r="33" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:27" x14ac:dyDescent="0.35">
       <c r="O33" s="69"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="67"/>
@@ -9033,7 +9180,7 @@
       <c r="Z33" s="67"/>
       <c r="AA33" s="68"/>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:27" x14ac:dyDescent="0.35">
       <c r="O34" s="69"/>
       <c r="P34" s="67">
         <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
@@ -9081,7 +9228,7 @@
       </c>
       <c r="AA34" s="68"/>
     </row>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.35">
       <c r="O35" s="69"/>
       <c r="P35" s="67">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
@@ -9129,7 +9276,7 @@
       </c>
       <c r="AA35" s="68"/>
     </row>
-    <row r="36" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O36" s="70"/>
       <c r="P36" s="71">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
@@ -9177,224 +9324,391 @@
       </c>
       <c r="AA36" s="147"/>
     </row>
-    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="148"/>
-      <c r="P38" s="149">
+    <row r="37" spans="15:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="O38" s="248"/>
+      <c r="P38" s="249">
         <v>1</v>
       </c>
-      <c r="Q38" s="149">
+      <c r="Q38" s="249">
         <v>0</v>
       </c>
-      <c r="R38" s="149">
+      <c r="R38" s="249">
         <v>-12</v>
       </c>
-      <c r="S38" s="149"/>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149">
+      <c r="S38" s="249"/>
+      <c r="T38" s="249"/>
+      <c r="U38" s="249"/>
+      <c r="V38" s="249">
         <v>-1</v>
       </c>
-      <c r="W38" s="149">
+      <c r="W38" s="249">
         <v>0</v>
       </c>
-      <c r="X38" s="149">
+      <c r="X38" s="249">
         <v>0</v>
       </c>
-      <c r="Y38" s="150"/>
-    </row>
-    <row r="39" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O39" s="151"/>
-      <c r="P39" s="152">
+      <c r="Y38" s="249"/>
+      <c r="Z38" s="249"/>
+      <c r="AA38" s="250"/>
+    </row>
+    <row r="39" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O39" s="251"/>
+      <c r="P39" s="252">
         <v>0</v>
       </c>
-      <c r="Q39" s="152">
+      <c r="Q39" s="252">
         <v>1</v>
       </c>
-      <c r="R39" s="152">
+      <c r="R39" s="252">
         <v>-3</v>
       </c>
-      <c r="S39" s="152"/>
-      <c r="T39" s="153" t="s">
+      <c r="S39" s="252"/>
+      <c r="T39" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="U39" s="152"/>
-      <c r="V39" s="152">
+      <c r="U39" s="252"/>
+      <c r="V39" s="252">
         <v>0</v>
       </c>
-      <c r="W39" s="152">
+      <c r="W39" s="252">
         <v>-1</v>
       </c>
-      <c r="X39" s="152">
+      <c r="X39" s="252">
         <v>0</v>
       </c>
-      <c r="Y39" s="154"/>
-    </row>
-    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O40" s="151"/>
-      <c r="P40" s="152">
+      <c r="Y39" s="252"/>
+      <c r="Z39" s="252"/>
+      <c r="AA39" s="253"/>
+    </row>
+    <row r="40" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O40" s="251"/>
+      <c r="P40" s="252">
         <v>0</v>
       </c>
-      <c r="Q40" s="152">
+      <c r="Q40" s="252">
         <v>0</v>
       </c>
-      <c r="R40" s="152">
+      <c r="R40" s="252">
         <v>1</v>
       </c>
-      <c r="S40" s="152"/>
-      <c r="T40" s="152"/>
-      <c r="U40" s="152"/>
-      <c r="V40" s="152">
+      <c r="S40" s="252"/>
+      <c r="T40" s="252"/>
+      <c r="U40" s="252"/>
+      <c r="V40" s="252">
         <v>0</v>
       </c>
-      <c r="W40" s="152">
+      <c r="W40" s="252">
         <v>0</v>
       </c>
-      <c r="X40" s="152">
+      <c r="X40" s="252">
         <v>1</v>
       </c>
-      <c r="Y40" s="154"/>
-    </row>
-    <row r="41" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O41" s="151"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="152" t="s">
+      <c r="Y40" s="252"/>
+      <c r="Z40" s="252"/>
+      <c r="AA40" s="253"/>
+    </row>
+    <row r="41" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O41" s="251"/>
+      <c r="P41" s="252"/>
+      <c r="Q41" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="R41" s="152"/>
-      <c r="S41" s="152"/>
-      <c r="T41" s="152"/>
-      <c r="U41" s="152"/>
-      <c r="V41" s="152"/>
-      <c r="W41" s="152" t="s">
+      <c r="R41" s="252"/>
+      <c r="S41" s="252"/>
+      <c r="T41" s="252"/>
+      <c r="U41" s="252"/>
+      <c r="V41" s="252"/>
+      <c r="W41" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="X41" s="152"/>
-      <c r="Y41" s="154"/>
-    </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O42" s="151"/>
-      <c r="P42" s="152"/>
-      <c r="Q42" s="152"/>
-      <c r="R42" s="152"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="152"/>
-      <c r="U42" s="152"/>
-      <c r="V42" s="152"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="152"/>
-      <c r="Y42" s="154"/>
-    </row>
-    <row r="43" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O43" s="151"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="152"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152">
+      <c r="X41" s="252"/>
+      <c r="Y41" s="252"/>
+      <c r="Z41" s="252"/>
+      <c r="AA41" s="253"/>
+    </row>
+    <row r="42" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O42" s="251"/>
+      <c r="P42" s="252"/>
+      <c r="Q42" s="252"/>
+      <c r="R42" s="252"/>
+      <c r="S42" s="252"/>
+      <c r="T42" s="252"/>
+      <c r="U42" s="252"/>
+      <c r="V42" s="252"/>
+      <c r="W42" s="252"/>
+      <c r="X42" s="252"/>
+      <c r="Y42" s="252"/>
+      <c r="Z42" s="252"/>
+      <c r="AA42" s="253"/>
+    </row>
+    <row r="43" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O43" s="251"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="252"/>
+      <c r="R43" s="252"/>
+      <c r="S43" s="252">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="152">
+      <c r="T43" s="252">
         <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="152">
+      <c r="U43" s="252">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="152"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="154"/>
-    </row>
-    <row r="44" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O44" s="151"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="203" t="s">
+      <c r="V43" s="252"/>
+      <c r="W43" s="252"/>
+      <c r="X43" s="252"/>
+      <c r="Y43" s="252"/>
+      <c r="Z43" s="252"/>
+      <c r="AA43" s="253"/>
+    </row>
+    <row r="44" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O44" s="251"/>
+      <c r="P44" s="252"/>
+      <c r="Q44" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152">
+      <c r="R44" s="252"/>
+      <c r="S44" s="252">
         <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="152">
+      <c r="T44" s="252">
         <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="152">
+      <c r="U44" s="252">
         <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="152"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="152"/>
-      <c r="Y44" s="154"/>
-    </row>
-    <row r="45" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O45" s="151"/>
-      <c r="P45" s="152"/>
-      <c r="Q45" s="152"/>
-      <c r="R45" s="152"/>
-      <c r="S45" s="152">
+      <c r="V44" s="252"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="253"/>
+    </row>
+    <row r="45" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O45" s="251"/>
+      <c r="P45" s="252"/>
+      <c r="Q45" s="252"/>
+      <c r="R45" s="252"/>
+      <c r="S45" s="252">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="152">
+      <c r="T45" s="252">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="152">
+      <c r="U45" s="252">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="152"/>
-      <c r="W45" s="152"/>
-      <c r="X45" s="152"/>
-      <c r="Y45" s="154"/>
-    </row>
-    <row r="46" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O46" s="155"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="156"/>
-      <c r="T46" s="156" t="s">
+      <c r="V45" s="252"/>
+      <c r="W45" s="252"/>
+      <c r="X45" s="252"/>
+      <c r="Y45" s="252"/>
+      <c r="Z45" s="252"/>
+      <c r="AA45" s="253"/>
+    </row>
+    <row r="46" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O46" s="251"/>
+      <c r="P46" s="252"/>
+      <c r="Q46" s="252"/>
+      <c r="R46" s="252"/>
+      <c r="S46" s="252"/>
+      <c r="T46" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="U46" s="156"/>
-      <c r="V46" s="156"/>
-      <c r="W46" s="156"/>
-      <c r="X46" s="156"/>
-      <c r="Y46" s="157"/>
-    </row>
-    <row r="47" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-    </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="U46" s="252"/>
+      <c r="V46" s="252"/>
+      <c r="W46" s="252"/>
+      <c r="X46" s="252"/>
+      <c r="Y46" s="252"/>
+      <c r="Z46" s="252"/>
+      <c r="AA46" s="253"/>
+    </row>
+    <row r="47" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O47" s="251"/>
+      <c r="P47" s="252"/>
+      <c r="Q47" s="252"/>
+      <c r="R47" s="252"/>
+      <c r="S47" s="252"/>
+      <c r="T47" s="252"/>
+      <c r="U47" s="252"/>
+      <c r="V47" s="252"/>
+      <c r="W47" s="252"/>
+      <c r="X47" s="252"/>
+      <c r="Y47" s="252"/>
+      <c r="Z47" s="252"/>
+      <c r="AA47" s="253"/>
+    </row>
+    <row r="48" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O48" s="251"/>
+      <c r="P48" s="252">
+        <f>SUM($S43*P$18,P$19*$T43,P$20*$U43)</f>
+        <v>10</v>
+      </c>
+      <c r="Q48" s="252">
+        <f t="shared" ref="Q48:Z48" si="10">SUM($S43*Q$18,Q$19*$T43,Q$20*$U43)</f>
+        <v>10</v>
+      </c>
+      <c r="R48" s="252">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S48" s="252">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="T48" s="252">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U48" s="252">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="V48" s="252">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W48" s="252">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="X48" s="252">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Y48" s="252">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Z48" s="252">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA48" s="253"/>
+    </row>
+    <row r="49" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O49" s="251"/>
+      <c r="P49" s="252">
+        <f t="shared" ref="P49:Z50" si="11">SUM($S44*P$18,P$19*$T44,P$20*$U44)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="252">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="R49" s="252">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="S49" s="252">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="T49" s="252">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="U49" s="252">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="V49" s="252">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="W49" s="252">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="X49" s="252">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="Y49" s="252">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="Z49" s="252">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AA49" s="253"/>
+    </row>
+    <row r="50" spans="15:27" x14ac:dyDescent="0.35">
+      <c r="O50" s="251"/>
+      <c r="P50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z50" s="252">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA50" s="253"/>
+    </row>
+    <row r="51" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O51" s="255"/>
+      <c r="P51" s="256"/>
+      <c r="Q51" s="256"/>
+      <c r="R51" s="256"/>
+      <c r="S51" s="256"/>
+      <c r="T51" s="256"/>
+      <c r="U51" s="256"/>
+      <c r="V51" s="256"/>
+      <c r="W51" s="256"/>
+      <c r="X51" s="256"/>
+      <c r="Y51" s="256"/>
+      <c r="Z51" s="256"/>
+      <c r="AA51" s="257"/>
+    </row>
+    <row r="52" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.35">
       <c r="XFD1048576" s="73" t="s">
         <v>89</v>
       </c>
@@ -9416,17 +9730,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="72"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1796875" style="72"/>
+    <col min="2" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="126" t="s">
         <v>17</v>
       </c>
@@ -9437,8 +9751,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="195" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -9469,8 +9783,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="61">
@@ -9503,7 +9817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -9514,8 +9828,8 @@
       <c r="S4" s="125"/>
       <c r="T4" s="125"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="197" t="s">
+    <row r="5" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="196" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9555,7 +9869,7 @@
       <c r="S5" s="125"/>
       <c r="T5" s="125"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C6" s="111">
         <v>0</v>
       </c>
@@ -9597,7 +9911,7 @@
       <c r="S6" s="125"/>
       <c r="T6" s="125"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C7" s="111">
         <f>C6+1</f>
         <v>1</v>
@@ -9643,7 +9957,7 @@
       <c r="S7" s="125"/>
       <c r="T7" s="125"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C8" s="111">
         <f t="shared" ref="C8:C14" si="4">C7+1</f>
         <v>2</v>
@@ -9689,7 +10003,7 @@
       <c r="S8" s="125"/>
       <c r="T8" s="125"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C9" s="111">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -9735,7 +10049,7 @@
       <c r="S9" s="125"/>
       <c r="T9" s="125"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C10" s="111">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9781,7 +10095,7 @@
       <c r="S10" s="125"/>
       <c r="T10" s="125"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C11" s="111">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -9827,7 +10141,7 @@
       <c r="S11" s="125"/>
       <c r="T11" s="125"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C12" s="111">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9873,7 +10187,7 @@
       <c r="S12" s="125"/>
       <c r="T12" s="125"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C13" s="111">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9919,7 +10233,7 @@
       <c r="S13" s="125"/>
       <c r="T13" s="125"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="112">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9965,7 +10279,7 @@
       <c r="S14" s="125"/>
       <c r="T14" s="125"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
@@ -9999,7 +10313,7 @@
       <c r="S15" s="125"/>
       <c r="T15" s="125"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F16" s="112" t="s">
         <v>49</v>
       </c>
@@ -10033,7 +10347,7 @@
       <c r="S16" s="125"/>
       <c r="T16" s="125"/>
     </row>
-    <row r="17" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I17" s="64">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -10060,7 +10374,7 @@
       <c r="S17" s="125"/>
       <c r="T17" s="125"/>
     </row>
-    <row r="18" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C18" s="113">
         <v>1.6</v>
       </c>
@@ -10094,7 +10408,7 @@
       <c r="S18" s="125"/>
       <c r="T18" s="125"/>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="116" t="s">
         <v>36</v>
       </c>
@@ -10130,7 +10444,7 @@
       <c r="S19" s="125"/>
       <c r="T19" s="125"/>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C20" s="119">
         <v>0</v>
       </c>
@@ -10164,7 +10478,7 @@
       <c r="S20" s="125"/>
       <c r="T20" s="125"/>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C21" s="121"/>
       <c r="D21" s="117"/>
       <c r="E21" s="118"/>
@@ -10194,7 +10508,7 @@
       <c r="S21" s="125"/>
       <c r="T21" s="125"/>
     </row>
-    <row r="22" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="121" t="s">
         <v>22</v>
       </c>
@@ -10230,7 +10544,7 @@
       <c r="S22" s="125"/>
       <c r="T22" s="125"/>
     </row>
-    <row r="23" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C23" s="121">
         <v>1.6</v>
       </c>
@@ -10255,7 +10569,7 @@
       <c r="S23" s="125"/>
       <c r="T23" s="125"/>
     </row>
-    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="121">
         <v>0</v>
       </c>
@@ -10280,12 +10594,12 @@
       <c r="S24" s="125"/>
       <c r="T24" s="125"/>
     </row>
-    <row r="25" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="121"/>
       <c r="D25" s="117"/>
       <c r="E25" s="118"/>
     </row>
-    <row r="26" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="123">
         <f>E23</f>
         <v>11.544464848790231</v>
@@ -10305,7 +10619,7 @@
         <v>9.5444648487902306</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10317,16 +10631,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -10337,7 +10651,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -10348,16 +10662,16 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oliver\Documents\GitHub\MathsCoursework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,9 +14,9 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="M9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +82,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="V22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -402,9 +397,6 @@
     <t>to 8dp</t>
   </si>
   <si>
-    <t>f⁶(x) =</t>
-  </si>
-  <si>
     <r>
       <t>f</t>
     </r>
@@ -453,36 +445,7 @@
     </r>
   </si>
   <si>
-    <t>32cos(2x)</t>
-  </si>
-  <si>
     <t>-16sin(2x)</t>
-  </si>
-  <si>
-    <t>f⁶(0.2) =</t>
-  </si>
-  <si>
-    <t>f⁶(0) =</t>
-  </si>
-  <si>
-    <t>M=</t>
-  </si>
-  <si>
-    <t>n=</t>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₅ (0.2)=</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> -0.457083x^2 + 1.93825x - 1.48117</t>
@@ -526,15 +489,33 @@
   <si>
     <t>Equation</t>
   </si>
+  <si>
+    <t>𝜀=</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Actual Error</t>
+  </si>
+  <si>
+    <t>to 8 d.p</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2343,9 +2324,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -2388,12 +2366,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2421,23 +2420,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2457,25 +2486,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2551,8 +2568,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2641,8 +2657,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2726,8 +2741,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2804,8 +2818,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -2885,8 +2898,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -2966,8 +2978,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3041,8 +3052,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3119,8 +3129,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3197,30 +3206,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="92426240"/>
-        <c:axId val="92427776"/>
+        <c:dLbls/>
+        <c:axId val="87157760"/>
+        <c:axId val="85430272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92426240"/>
+        <c:axId val="87157760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3237,7 +3237,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3272,16 +3271,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92427776"/>
+        <c:crossAx val="85430272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92427776"/>
+        <c:axId val="85430272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3298,7 +3296,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3333,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92426240"/>
+        <c:crossAx val="87157760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3351,7 +3348,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3379,14 +3376,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3418,7 +3414,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3435,7 +3431,7 @@
     </xdr:from>
     <xdr:ext cx="5965607" cy="328551"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4433,7 +4429,7 @@
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4469,7 +4465,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4637,7 +4632,7 @@
     </xdr:from>
     <xdr:ext cx="5141023" cy="328551"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5395,7 +5390,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA6FC9A-0C7D-4F06-BC3B-5375A72016E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EA6FC9A-0C7D-4F06-BC3B-5375A72016E5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5431,7 +5426,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -5599,7 +5593,7 @@
     </xdr:from>
     <xdr:ext cx="1609864" cy="316882"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5883,7 +5877,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946CC62B-EC4B-4743-B834-356730DDE1F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{946CC62B-EC4B-4743-B834-356730DDE1F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5919,7 +5913,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -5955,7 +5948,7 @@
     </xdr:from>
     <xdr:ext cx="1430135" cy="318036"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6214,7 +6207,7 @@
             <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8E6B19-343C-4582-99F1-9B42FFC69ABB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD8E6B19-343C-4582-99F1-9B42FFC69ABB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6250,7 +6243,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6279,14 +6271,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>13250</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>23191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140825" cy="339773"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6487,7 +6479,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA64F30-5330-45F7-A7A4-50888D267AB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EA64F30-5330-45F7-A7A4-50888D267AB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6558,14 +6550,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>6623</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23189</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1492396" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6759,7 +6751,7 @@
             <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96D95CB-6854-4BAF-BE40-E9091B7BD7C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A96D95CB-6854-4BAF-BE40-E9091B7BD7C1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6824,14 +6816,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>13249</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>29814</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1712072" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -7019,7 +7011,7 @@
             <xdr:cNvPr id="8" name="TextBox 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274325F0-2BE5-43BF-AD09-71B3DA369C88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{274325F0-2BE5-43BF-AD09-71B3DA369C88}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7084,14 +7076,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>34157</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1684692" cy="376642"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -7325,7 +7317,7 @@
             <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C133F0B-7E11-4D44-AF8F-74F4E07F3CB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C133F0B-7E11-4D44-AF8F-74F4E07F3CB0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7409,164 +7401,83 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>627993</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>10509</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="659155" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F90AF2-F777-46A7-913E-43D01635AA1B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7564821" y="3026978"/>
-              <a:ext cx="659155" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜖</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>∈[0,0</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>.2]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F90AF2-F777-46A7-913E-43D01635AA1B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7564821" y="3026978"/>
-              <a:ext cx="659155" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜖∈</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>[0,0.2]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{C9F90AF2-F777-46A7-913E-43D01635AA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7564821" y="3026978"/>
+          <a:ext cx="659155" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0">
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>𝜖∈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>[0,0.2]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>23646</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>21019</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1419684" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -7755,7 +7666,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64336DE1-5578-4A27-8660-14C107991E64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64336DE1-5578-4A27-8660-14C107991E64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7827,281 +7738,237 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>49922</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>21018</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="829073" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE6E3D9-89D0-4AA0-AD81-4AF94D213B18}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6986750" y="3410604"/>
-              <a:ext cx="829073" cy="317972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝜀</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>45</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>(0.2)</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>6</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE6E3D9-89D0-4AA0-AD81-4AF94D213B18}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6986750" y="3410604"/>
-              <a:ext cx="829073" cy="317972"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜀</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>45</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖(0.2)〗^6</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{FAE6E3D9-89D0-4AA0-AD81-4AF94D213B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6986750" y="3410604"/>
+          <a:ext cx="829073" cy="317972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0">
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>𝜀</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>45</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 〖(0.2)〗^6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6833152" y="2741543"/>
+          <a:ext cx="1871870" cy="1731066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>From the values calculated in part b) and the actual error, it appears as though the actual error is equivalent to the upper bound of the error to 8 decimal places.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3122543" y="4396410"/>
+          <a:ext cx="3089414" cy="1731066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>For a cosine function, between the bounds of 0 and 0,2. The gradient will be -ve and thus the greatest error bound will occur when  = 0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8125,7 +7992,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8203,7 +8070,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8239,7 +8106,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,8 +8114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11023100" y="7548018"/>
-          <a:ext cx="2771590" cy="888986"/>
+          <a:off x="10787572" y="8015609"/>
+          <a:ext cx="2716172" cy="940941"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8258,7 +8125,7 @@
           <xdr:cNvPr id="25" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8308,7 +8175,7 @@
           <xdr:cNvPr id="26" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8374,7 +8241,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8382,8 +8249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9155898" y="6670662"/>
-          <a:ext cx="2771591" cy="902239"/>
+          <a:off x="8961935" y="7089762"/>
+          <a:ext cx="2716172" cy="950730"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8393,7 +8260,7 @@
           <xdr:cNvPr id="28" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8443,7 +8310,7 @@
           <xdr:cNvPr id="29" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8509,7 +8376,7 @@
         <xdr:cNvPr id="30" name="Group 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8517,8 +8384,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12958218" y="6677236"/>
-          <a:ext cx="2771590" cy="902239"/>
+          <a:off x="12681127" y="7096336"/>
+          <a:ext cx="2716172" cy="950730"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8528,7 +8395,7 @@
           <xdr:cNvPr id="31" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8578,7 +8445,7 @@
           <xdr:cNvPr id="32" name="Rectangle 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8644,7 +8511,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8652,8 +8519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10379167" y="5186566"/>
-          <a:ext cx="2771591" cy="902238"/>
+          <a:off x="10157495" y="5512148"/>
+          <a:ext cx="2716172" cy="950729"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8663,7 +8530,7 @@
           <xdr:cNvPr id="34" name="Rectangle 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8713,7 +8580,7 @@
           <xdr:cNvPr id="35" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8779,7 +8646,7 @@
         <xdr:cNvPr id="36" name="Group 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8787,8 +8654,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12956565" y="5189878"/>
-          <a:ext cx="2771590" cy="902238"/>
+          <a:off x="12679474" y="5515460"/>
+          <a:ext cx="2716172" cy="950729"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8798,7 +8665,7 @@
           <xdr:cNvPr id="37" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8848,7 +8715,7 @@
           <xdr:cNvPr id="38" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8914,7 +8781,7 @@
         <xdr:cNvPr id="39" name="Group 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8922,8 +8789,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10418921" y="3702473"/>
-          <a:ext cx="2771591" cy="902238"/>
+          <a:off x="10197249" y="3934536"/>
+          <a:ext cx="2716172" cy="950730"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -8933,7 +8800,7 @@
           <xdr:cNvPr id="40" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8983,7 +8850,7 @@
           <xdr:cNvPr id="41" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9049,7 +8916,7 @@
         <xdr:cNvPr id="42" name="Group 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9057,8 +8924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9280133" y="2912763"/>
-          <a:ext cx="7596734" cy="897420"/>
+          <a:off x="9086170" y="3082481"/>
+          <a:ext cx="7430479" cy="959765"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9068,7 +8935,7 @@
           <xdr:cNvPr id="43" name="Rectangle 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9118,7 +8985,7 @@
           <xdr:cNvPr id="44" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9184,7 +9051,7 @@
         <xdr:cNvPr id="45" name="Group 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9192,8 +9059,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9283446" y="5875526"/>
-          <a:ext cx="7596734" cy="894559"/>
+          <a:off x="9089483" y="6239208"/>
+          <a:ext cx="7430479" cy="949977"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9203,7 +9070,7 @@
           <xdr:cNvPr id="46" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9253,7 +9120,7 @@
           <xdr:cNvPr id="47" name="Rectangle 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9319,7 +9186,7 @@
         <xdr:cNvPr id="48" name="Group 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9327,8 +9194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9278475" y="4388130"/>
-          <a:ext cx="7596734" cy="894558"/>
+          <a:off x="9084512" y="4658294"/>
+          <a:ext cx="7430479" cy="949976"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9338,7 +9205,7 @@
           <xdr:cNvPr id="49" name="Rectangle 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9388,7 +9255,7 @@
           <xdr:cNvPr id="50" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9454,7 +9321,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9462,8 +9329,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9274209" y="8464017"/>
-          <a:ext cx="7596734" cy="869160"/>
+          <a:off x="9080246" y="8983563"/>
+          <a:ext cx="7430479" cy="921114"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9473,7 +9340,7 @@
           <xdr:cNvPr id="52" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9523,7 +9390,7 @@
           <xdr:cNvPr id="53" name="Rectangle 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9594,7 +9461,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9655,7 +9522,7 @@
     </xdr:from>
     <xdr:ext cx="985590" cy="318036"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -9842,7 +9709,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3752567-9D38-4A9B-8FE4-467AC0563F0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3752567-9D38-4A9B-8FE4-467AC0563F0F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9901,7 +9768,7 @@
     </xdr:from>
     <xdr:ext cx="1081450" cy="510140"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -10164,7 +10031,7 @@
             <xdr:cNvPr id="4" name="TextBox 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4A7C7A-DF91-4875-A2F4-5496A45A00AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4A7C7A-DF91-4875-A2F4-5496A45A00AD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10338,7 +10205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10373,7 +10240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -10550,38 +10417,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="158"/>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
-      <c r="D1" s="244" t="s">
+      <c r="D1" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="243" t="s">
+      <c r="E1" s="249"/>
+      <c r="F1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
       <c r="I1" s="158"/>
       <c r="J1" s="158"/>
       <c r="K1" s="158"/>
@@ -10594,19 +10461,19 @@
       <c r="R1" s="158"/>
       <c r="S1" s="158"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="158"/>
       <c r="B2" s="158"/>
       <c r="C2" s="158"/>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="244"/>
-      <c r="F2" s="243" t="s">
+      <c r="E2" s="249"/>
+      <c r="F2" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
       <c r="I2" s="158"/>
       <c r="J2" s="158"/>
       <c r="K2" s="158"/>
@@ -10619,19 +10486,19 @@
       <c r="R2" s="158"/>
       <c r="S2" s="158"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="158"/>
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="249" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="243" t="s">
+      <c r="E3" s="249"/>
+      <c r="F3" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="158"/>
       <c r="J3" s="158"/>
       <c r="K3" s="158"/>
@@ -10644,19 +10511,19 @@
       <c r="R3" s="158"/>
       <c r="S3" s="158"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="158"/>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="249" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="243" t="s">
+      <c r="E4" s="249"/>
+      <c r="F4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
       <c r="I4" s="158"/>
       <c r="J4" s="158"/>
       <c r="K4" s="158"/>
@@ -10669,19 +10536,19 @@
       <c r="R4" s="158"/>
       <c r="S4" s="158"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="158"/>
       <c r="B5" s="158"/>
       <c r="C5" s="158"/>
-      <c r="D5" s="244" t="s">
+      <c r="D5" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="243" t="s">
+      <c r="E5" s="249"/>
+      <c r="F5" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="158"/>
       <c r="J5" s="158"/>
       <c r="K5" s="158"/>
@@ -10694,7 +10561,7 @@
       <c r="R5" s="158"/>
       <c r="S5" s="158"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="158"/>
       <c r="B6" s="158"/>
       <c r="C6" s="158"/>
@@ -10715,7 +10582,7 @@
       <c r="R6" s="158"/>
       <c r="S6" s="158"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="158"/>
       <c r="B7" s="158"/>
       <c r="C7" s="158"/>
@@ -10736,7 +10603,7 @@
       <c r="R7" s="158"/>
       <c r="S7" s="158"/>
     </row>
-    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="158"/>
       <c r="B8" s="158"/>
       <c r="C8" s="158"/>
@@ -10767,7 +10634,7 @@
       <c r="R8" s="158"/>
       <c r="S8" s="158"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="158"/>
       <c r="B9" s="158"/>
       <c r="C9" s="158"/>
@@ -10798,7 +10665,7 @@
       <c r="R9" s="158"/>
       <c r="S9" s="158"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="158"/>
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
@@ -10829,7 +10696,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="158"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="158"/>
       <c r="B11" s="158"/>
       <c r="C11" s="158"/>
@@ -10860,7 +10727,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="158"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="158"/>
       <c r="B12" s="158"/>
       <c r="C12" s="158"/>
@@ -10891,7 +10758,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="158"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="158"/>
       <c r="B13" s="158"/>
       <c r="C13" s="158"/>
@@ -10916,7 +10783,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="158"/>
     </row>
-    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1">
       <c r="A14" s="158"/>
       <c r="B14" s="158"/>
       <c r="C14" s="158"/>
@@ -10937,7 +10804,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="158"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="158"/>
       <c r="B15" s="158"/>
       <c r="C15" s="158"/>
@@ -10958,7 +10825,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="158"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="158"/>
       <c r="B16" s="158"/>
       <c r="C16" s="158"/>
@@ -10979,7 +10846,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="158"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="158"/>
       <c r="B17" s="158"/>
       <c r="C17" s="158"/>
@@ -11000,7 +10867,7 @@
       <c r="R17" s="158"/>
       <c r="S17" s="158"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="158"/>
       <c r="B18" s="158"/>
       <c r="C18" s="158"/>
@@ -11021,7 +10888,7 @@
       <c r="R18" s="158"/>
       <c r="S18" s="158"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="158"/>
       <c r="B19" s="158"/>
       <c r="C19" s="158"/>
@@ -11042,7 +10909,7 @@
       <c r="R19" s="158"/>
       <c r="S19" s="158"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="158"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158"/>
@@ -11063,7 +10930,7 @@
       <c r="R20" s="158"/>
       <c r="S20" s="158"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="158"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158"/>
@@ -11084,7 +10951,7 @@
       <c r="R21" s="158"/>
       <c r="S21" s="158"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="158"/>
       <c r="B22" s="158"/>
       <c r="C22" s="158"/>
@@ -11105,7 +10972,7 @@
       <c r="R22" s="158"/>
       <c r="S22" s="158"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="158"/>
       <c r="B23" s="158"/>
       <c r="C23" s="158"/>
@@ -11126,7 +10993,7 @@
       <c r="R23" s="158"/>
       <c r="S23" s="158"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="158"/>
       <c r="B24" s="158"/>
       <c r="C24" s="158"/>
@@ -11147,7 +11014,7 @@
       <c r="R24" s="158"/>
       <c r="S24" s="158"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="158"/>
       <c r="B25" s="158"/>
       <c r="C25" s="158"/>
@@ -11170,16 +11037,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11187,27 +11054,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1"/>
-    <col min="2" max="2" width="9.21875" style="202"/>
-    <col min="3" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="202"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="206" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="203"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
       <c r="A2" s="207" t="s">
         <v>4</v>
       </c>
@@ -11228,28 +11093,28 @@
         <v>80</v>
       </c>
       <c r="H2" s="214" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I2" s="213" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="214" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K2" s="213" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" s="212" t="s">
         <v>82</v>
       </c>
       <c r="M2" s="213" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="215" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="208" t="s">
         <v>5</v>
       </c>
@@ -11267,7 +11132,7 @@
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="209" t="s">
         <v>6</v>
       </c>
@@ -11285,7 +11150,7 @@
       <c r="M4" s="217"/>
       <c r="N4" s="218"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="210" t="s">
         <v>19</v>
       </c>
@@ -11303,7 +11168,7 @@
       <c r="M5" s="217"/>
       <c r="N5" s="218"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" thickTop="1">
       <c r="C6" s="216"/>
       <c r="D6" s="217"/>
       <c r="E6" s="217"/>
@@ -11315,11 +11180,11 @@
       <c r="K6" s="217"/>
       <c r="L6" s="217"/>
       <c r="M6" s="217" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N6" s="218"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="C7" s="216"/>
       <c r="D7" s="217"/>
       <c r="E7" s="217"/>
@@ -11329,11 +11194,11 @@
       <c r="I7" s="217"/>
       <c r="J7" s="217"/>
       <c r="K7" s="217"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="256"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="243"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="245"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="C8" s="219"/>
       <c r="D8" s="220"/>
       <c r="E8" s="220"/>
@@ -11343,12 +11208,12 @@
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
       <c r="K8" s="220"/>
-      <c r="L8" s="257"/>
+      <c r="L8" s="246"/>
       <c r="M8" s="220"/>
       <c r="N8" s="221"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="10" spans="1:14" ht="15.75" thickTop="1">
       <c r="C10" s="222" t="s">
         <v>91</v>
       </c>
@@ -11356,14 +11221,20 @@
         <f>SUM(0.5,-POWER(0.2,2),(1/3)*POWER(0.2,4))</f>
         <v>0.46053333333333329</v>
       </c>
-      <c r="F10" s="226" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="227">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="226"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="227"/>
+      <c r="L10" s="260" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="261">
+        <v>0.46053049700144255</v>
+      </c>
+      <c r="N10" s="262"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="C11" s="224" t="s">
         <v>92</v>
       </c>
@@ -11371,64 +11242,260 @@
         <f>D10</f>
         <v>0.46053333333333329</v>
       </c>
-      <c r="F11" s="228" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="229" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="230" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="229">
-        <f>32*COS(2*0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="230" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="229">
-        <f>32*COS(2*0.2)</f>
-        <v>29.473951808092323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="230" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="229">
-        <f>G13-G12</f>
-        <v>-2.5260481919076767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="230"/>
-      <c r="G15" s="229"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="231" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="232">
-        <f>(G14/(1*2*3*4*5*6*7))*((0.2)^7)</f>
-        <v>-6.4153604873845814E-9</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="1" t="s">
+      <c r="F11" s="229"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="270"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="228"/>
+      <c r="L11" s="263" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="272">
+        <f>D11</f>
+        <v>0.46053333333333329</v>
+      </c>
+      <c r="N11" s="265"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickTop="1">
+      <c r="F12" s="229"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="270"/>
+      <c r="I12" s="270"/>
+      <c r="J12" s="228"/>
+      <c r="L12" s="263" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="272">
+        <f>M11-M10</f>
+        <v>2.8363318907431712E-6</v>
+      </c>
+      <c r="N12" s="265" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" s="229"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="270"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="228"/>
+      <c r="L13" s="263" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L22" s="1">
+      <c r="M13" s="272">
+        <f>I22</f>
+        <v>2.8444444444444463E-6</v>
+      </c>
+      <c r="N13" s="265"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="229"/>
+      <c r="G14" s="270"/>
+      <c r="H14" s="270"/>
+      <c r="I14" s="270"/>
+      <c r="J14" s="228"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="264">
+        <f>M12/M13</f>
+        <v>0.99714793033939542</v>
+      </c>
+      <c r="N14" s="274">
+        <f>M14</f>
+        <v>0.99714793033939542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="242"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="228"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="264"/>
+      <c r="N15" s="265"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="F16" s="229"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="270"/>
+      <c r="J16" s="228"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="264"/>
+      <c r="N16" s="265"/>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="F17" s="229"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="228"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="264"/>
+      <c r="N17" s="265"/>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="F18" s="229"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="228"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="264"/>
+      <c r="N18" s="265"/>
+    </row>
+    <row r="19" spans="6:14">
+      <c r="F19" s="229"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="228"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="264"/>
+      <c r="N19" s="265"/>
+    </row>
+    <row r="20" spans="6:14">
+      <c r="F20" s="229"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="275"/>
+      <c r="J20" s="228"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="264"/>
+      <c r="N20" s="265"/>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21" s="229"/>
+      <c r="G21" s="275"/>
+      <c r="H21" s="275"/>
+      <c r="I21" s="275"/>
+      <c r="J21" s="228"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="264"/>
+      <c r="N21" s="265"/>
+    </row>
+    <row r="22" spans="6:14">
+      <c r="F22" s="229"/>
+      <c r="G22" s="270" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="270" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="270">
         <f>(2/45)*POWER(0.2,6)</f>
         <v>2.8444444444444463E-6</v>
       </c>
-    </row>
+      <c r="J22" s="228"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="264"/>
+      <c r="N22" s="265"/>
+    </row>
+    <row r="23" spans="6:14" ht="15.75" thickBot="1">
+      <c r="F23" s="229"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="273"/>
+      <c r="J23" s="228"/>
+      <c r="L23" s="266"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="268"/>
+    </row>
+    <row r="24" spans="6:14" ht="15.75" thickTop="1">
+      <c r="F24" s="229"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="228"/>
+    </row>
+    <row r="25" spans="6:14">
+      <c r="F25" s="229"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="228"/>
+    </row>
+    <row r="26" spans="6:14">
+      <c r="F26" s="229"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="228"/>
+    </row>
+    <row r="27" spans="6:14">
+      <c r="F27" s="229"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="228"/>
+    </row>
+    <row r="28" spans="6:14">
+      <c r="F28" s="229"/>
+      <c r="G28" s="270"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="228"/>
+    </row>
+    <row r="29" spans="6:14">
+      <c r="F29" s="229"/>
+      <c r="G29" s="270"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="228"/>
+    </row>
+    <row r="30" spans="6:14">
+      <c r="F30" s="229"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="228"/>
+    </row>
+    <row r="31" spans="6:14">
+      <c r="F31" s="229"/>
+      <c r="G31" s="270"/>
+      <c r="H31" s="270"/>
+      <c r="I31" s="270"/>
+      <c r="J31" s="228"/>
+    </row>
+    <row r="32" spans="6:14">
+      <c r="F32" s="229"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="228"/>
+    </row>
+    <row r="33" spans="6:10">
+      <c r="F33" s="229"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="228"/>
+    </row>
+    <row r="34" spans="6:10">
+      <c r="F34" s="229"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="270"/>
+      <c r="I34" s="270"/>
+      <c r="J34" s="228"/>
+    </row>
+    <row r="35" spans="6:10">
+      <c r="F35" s="229"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="270"/>
+      <c r="I35" s="270"/>
+      <c r="J35" s="228"/>
+    </row>
+    <row r="36" spans="6:10" ht="15.75" thickBot="1">
+      <c r="F36" s="230"/>
+      <c r="G36" s="271"/>
+      <c r="H36" s="271"/>
+      <c r="I36" s="271"/>
+      <c r="J36" s="231"/>
+    </row>
+    <row r="37" spans="6:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11437,44 +11504,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="2"/>
-    <col min="2" max="2" width="9.21875" style="70"/>
-    <col min="3" max="8" width="9.21875" style="2"/>
-    <col min="9" max="9" width="9.21875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="70"/>
+    <col min="3" max="8" width="9.28515625" style="2"/>
+    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="72"/>
-      <c r="L1" s="248" t="s">
+      <c r="L1" s="254" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="248"/>
-      <c r="P1" s="245" t="s">
+      <c r="M1" s="254"/>
+      <c r="P1" s="251" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="246"/>
+      <c r="Q1" s="252"/>
       <c r="R1" s="197"/>
-      <c r="S1" s="246" t="s">
+      <c r="S1" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="247"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="253"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
@@ -11528,7 +11595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="126" t="s">
         <v>5</v>
       </c>
@@ -11590,7 +11657,7 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -11659,7 +11726,7 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="128" t="s">
         <v>19</v>
       </c>
@@ -11728,7 +11795,7 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="A6" s="129" t="s">
         <v>20</v>
       </c>
@@ -11797,7 +11864,7 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
@@ -11863,7 +11930,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="C8" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -11931,7 +11998,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -11972,7 +12039,7 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -12007,7 +12074,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -12061,7 +12128,7 @@
       <c r="T11" s="144"/>
       <c r="U11" s="145"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -12118,7 +12185,7 @@
       <c r="T12" s="147"/>
       <c r="U12" s="149"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -12176,7 +12243,7 @@
       <c r="T13" s="147"/>
       <c r="U13" s="149"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -12234,7 +12301,7 @@
       <c r="T14" s="147"/>
       <c r="U14" s="149"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" thickTop="1">
       <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -12278,7 +12345,7 @@
       <c r="T15" s="147"/>
       <c r="U15" s="149"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -12322,7 +12389,7 @@
       <c r="T16" s="147"/>
       <c r="U16" s="149"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:21">
       <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
@@ -12366,7 +12433,7 @@
       <c r="T17" s="147"/>
       <c r="U17" s="149"/>
     </row>
-    <row r="18" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:21" ht="15.75" thickBot="1">
       <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
@@ -12410,7 +12477,7 @@
       <c r="T18" s="147"/>
       <c r="U18" s="149"/>
     </row>
-    <row r="19" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1">
       <c r="C19" s="97">
         <f t="shared" si="27"/>
         <v>16</v>
@@ -12454,7 +12521,7 @@
       <c r="T19" s="147"/>
       <c r="U19" s="149"/>
     </row>
-    <row r="20" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:21" ht="15.75" thickTop="1">
       <c r="L20" s="146"/>
       <c r="M20" s="147"/>
       <c r="N20" s="147"/>
@@ -12466,7 +12533,7 @@
       <c r="T20" s="147"/>
       <c r="U20" s="149"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:21">
       <c r="L21" s="146"/>
       <c r="M21" s="147"/>
       <c r="N21" s="147"/>
@@ -12478,7 +12545,7 @@
       <c r="T21" s="147"/>
       <c r="U21" s="149"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:21">
       <c r="L22" s="146"/>
       <c r="M22" s="147"/>
       <c r="N22" s="147"/>
@@ -12490,7 +12557,7 @@
       <c r="T22" s="147"/>
       <c r="U22" s="149"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:21">
       <c r="L23" s="146"/>
       <c r="M23" s="147"/>
       <c r="N23" s="147"/>
@@ -12502,7 +12569,7 @@
       <c r="T23" s="147"/>
       <c r="U23" s="149"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:21">
       <c r="L24" s="146"/>
       <c r="M24" s="147"/>
       <c r="N24" s="147"/>
@@ -12514,7 +12581,7 @@
       <c r="T24" s="147"/>
       <c r="U24" s="149"/>
     </row>
-    <row r="25" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:21" ht="15.75" thickBot="1">
       <c r="L25" s="150"/>
       <c r="M25" s="151"/>
       <c r="N25" s="151"/>
@@ -12526,7 +12593,7 @@
       <c r="T25" s="151"/>
       <c r="U25" s="152"/>
     </row>
-    <row r="26" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:21" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -12536,9 +12603,9 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12548,8 +12615,8 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -12563,21 +12630,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="9.21875" style="71"/>
-    <col min="14" max="14" width="9.21875" style="3"/>
-    <col min="15" max="16384" width="9.21875" style="71"/>
+    <col min="1" max="13" width="9.28515625" style="71"/>
+    <col min="14" max="14" width="9.28515625" style="3"/>
+    <col min="15" max="16384" width="9.28515625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="124" t="s">
         <v>16</v>
       </c>
@@ -12597,7 +12664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
@@ -12619,7 +12686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" s="126" t="s">
         <v>5</v>
       </c>
@@ -12639,7 +12706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -12659,7 +12726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" s="128" t="s">
         <v>19</v>
       </c>
@@ -12677,7 +12744,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="129" t="s">
         <v>20</v>
       </c>
@@ -12699,7 +12766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15.75" thickTop="1">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -12716,7 +12783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -12733,7 +12800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -12750,7 +12817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -12763,7 +12830,7 @@
       <c r="P10" s="166"/>
       <c r="Q10" s="167"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -12782,7 +12849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -12799,7 +12866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -12816,7 +12883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -12833,7 +12900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -12846,7 +12913,7 @@
       <c r="P15" s="169"/>
       <c r="Q15" s="170"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -12859,7 +12926,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" ht="15.75" thickTop="1">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -12872,26 +12939,26 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="130"/>
-      <c r="P17" s="251" t="s">
+      <c r="P17" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="249"/>
-      <c r="R17" s="249"/>
-      <c r="S17" s="249" t="s">
+      <c r="Q17" s="255"/>
+      <c r="R17" s="255"/>
+      <c r="S17" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="249"/>
-      <c r="U17" s="249"/>
-      <c r="V17" s="249"/>
-      <c r="W17" s="249" t="s">
+      <c r="T17" s="255"/>
+      <c r="U17" s="255"/>
+      <c r="V17" s="255"/>
+      <c r="W17" s="255" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="249"/>
-      <c r="Y17" s="249"/>
-      <c r="Z17" s="250"/>
+      <c r="X17" s="255"/>
+      <c r="Y17" s="255"/>
+      <c r="Z17" s="256"/>
       <c r="AA17" s="193"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -12941,7 +13008,7 @@
       </c>
       <c r="AA18" s="133"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -12991,7 +13058,7 @@
       </c>
       <c r="AA19" s="133"/>
     </row>
-    <row r="20" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:27" ht="15.75" thickBot="1">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13041,7 +13108,7 @@
       </c>
       <c r="AA20" s="135"/>
     </row>
-    <row r="21" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -13066,7 +13133,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" ht="15.75" thickTop="1">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13094,7 +13161,7 @@
       <c r="Z22" s="112"/>
       <c r="AA22" s="137"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -13122,7 +13189,7 @@
       <c r="Z23" s="114"/>
       <c r="AA23" s="115"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -13146,7 +13213,7 @@
       <c r="Z24" s="114"/>
       <c r="AA24" s="115"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -13164,7 +13231,7 @@
       <c r="Z25" s="114"/>
       <c r="AA25" s="115"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -13215,7 +13282,7 @@
       </c>
       <c r="AA26" s="115"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -13266,7 +13333,7 @@
       </c>
       <c r="AA27" s="115"/>
     </row>
-    <row r="28" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:27" ht="15.75" thickBot="1">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -13317,12 +13384,12 @@
       </c>
       <c r="AA28" s="138"/>
     </row>
-    <row r="29" spans="3:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" ht="15.75" thickTop="1">
       <c r="O30" s="139" t="s">
         <v>60</v>
       </c>
@@ -13351,7 +13418,7 @@
       <c r="Z30" s="64"/>
       <c r="AA30" s="141"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27">
       <c r="O31" s="67"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
@@ -13378,7 +13445,7 @@
       <c r="Z31" s="65"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27">
       <c r="O32" s="67"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
@@ -13405,7 +13472,7 @@
       <c r="Z32" s="65"/>
       <c r="AA32" s="66"/>
     </row>
-    <row r="33" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:27">
       <c r="O33" s="67"/>
       <c r="P33" s="65"/>
       <c r="Q33" s="65"/>
@@ -13420,7 +13487,7 @@
       <c r="Z33" s="65"/>
       <c r="AA33" s="66"/>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:27">
       <c r="O34" s="67"/>
       <c r="P34" s="65">
         <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
@@ -13468,7 +13535,7 @@
       </c>
       <c r="AA34" s="66"/>
     </row>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:27">
       <c r="O35" s="67"/>
       <c r="P35" s="65">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
@@ -13516,7 +13583,7 @@
       </c>
       <c r="AA35" s="66"/>
     </row>
-    <row r="36" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="15:27" ht="15.75" thickBot="1">
       <c r="O36" s="68"/>
       <c r="P36" s="69">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
@@ -13564,391 +13631,391 @@
       </c>
       <c r="AA36" s="143"/>
     </row>
-    <row r="37" spans="15:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="O38" s="233"/>
-      <c r="P38" s="234">
+    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="38" spans="15:27" ht="15.75" thickTop="1">
+      <c r="O38" s="232"/>
+      <c r="P38" s="233">
         <v>1</v>
       </c>
-      <c r="Q38" s="234">
+      <c r="Q38" s="233">
         <v>0</v>
       </c>
-      <c r="R38" s="234">
+      <c r="R38" s="233">
         <v>-12</v>
       </c>
-      <c r="S38" s="234"/>
-      <c r="T38" s="234"/>
-      <c r="U38" s="234"/>
-      <c r="V38" s="234">
+      <c r="S38" s="233"/>
+      <c r="T38" s="233"/>
+      <c r="U38" s="233"/>
+      <c r="V38" s="233">
         <v>-1</v>
       </c>
-      <c r="W38" s="234">
+      <c r="W38" s="233">
         <v>0</v>
       </c>
-      <c r="X38" s="234">
+      <c r="X38" s="233">
         <v>0</v>
       </c>
-      <c r="Y38" s="234"/>
-      <c r="Z38" s="234"/>
-      <c r="AA38" s="235"/>
-    </row>
-    <row r="39" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O39" s="236"/>
-      <c r="P39" s="237">
+      <c r="Y38" s="233"/>
+      <c r="Z38" s="233"/>
+      <c r="AA38" s="234"/>
+    </row>
+    <row r="39" spans="15:27">
+      <c r="O39" s="235"/>
+      <c r="P39" s="236">
         <v>0</v>
       </c>
-      <c r="Q39" s="237">
+      <c r="Q39" s="236">
         <v>1</v>
       </c>
-      <c r="R39" s="237">
+      <c r="R39" s="236">
         <v>-3</v>
       </c>
-      <c r="S39" s="237"/>
+      <c r="S39" s="236"/>
       <c r="T39" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="U39" s="237"/>
-      <c r="V39" s="237">
+      <c r="U39" s="236"/>
+      <c r="V39" s="236">
         <v>0</v>
       </c>
-      <c r="W39" s="237">
+      <c r="W39" s="236">
         <v>-1</v>
       </c>
-      <c r="X39" s="237">
+      <c r="X39" s="236">
         <v>0</v>
       </c>
-      <c r="Y39" s="237"/>
-      <c r="Z39" s="237"/>
-      <c r="AA39" s="238"/>
-    </row>
-    <row r="40" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O40" s="236"/>
-      <c r="P40" s="237">
+      <c r="Y39" s="236"/>
+      <c r="Z39" s="236"/>
+      <c r="AA39" s="237"/>
+    </row>
+    <row r="40" spans="15:27">
+      <c r="O40" s="235"/>
+      <c r="P40" s="236">
         <v>0</v>
       </c>
-      <c r="Q40" s="237">
+      <c r="Q40" s="236">
         <v>0</v>
       </c>
-      <c r="R40" s="237">
+      <c r="R40" s="236">
         <v>1</v>
       </c>
-      <c r="S40" s="237"/>
-      <c r="T40" s="237"/>
-      <c r="U40" s="237"/>
-      <c r="V40" s="237">
+      <c r="S40" s="236"/>
+      <c r="T40" s="236"/>
+      <c r="U40" s="236"/>
+      <c r="V40" s="236">
         <v>0</v>
       </c>
-      <c r="W40" s="237">
+      <c r="W40" s="236">
         <v>0</v>
       </c>
-      <c r="X40" s="237">
+      <c r="X40" s="236">
         <v>1</v>
       </c>
-      <c r="Y40" s="237"/>
-      <c r="Z40" s="237"/>
-      <c r="AA40" s="238"/>
-    </row>
-    <row r="41" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O41" s="236"/>
-      <c r="P41" s="237"/>
-      <c r="Q41" s="237" t="s">
+      <c r="Y40" s="236"/>
+      <c r="Z40" s="236"/>
+      <c r="AA40" s="237"/>
+    </row>
+    <row r="41" spans="15:27">
+      <c r="O41" s="235"/>
+      <c r="P41" s="236"/>
+      <c r="Q41" s="236" t="s">
         <v>55</v>
       </c>
-      <c r="R41" s="237"/>
-      <c r="S41" s="237"/>
-      <c r="T41" s="237"/>
-      <c r="U41" s="237"/>
-      <c r="V41" s="237"/>
-      <c r="W41" s="237" t="s">
+      <c r="R41" s="236"/>
+      <c r="S41" s="236"/>
+      <c r="T41" s="236"/>
+      <c r="U41" s="236"/>
+      <c r="V41" s="236"/>
+      <c r="W41" s="236" t="s">
         <v>64</v>
       </c>
-      <c r="X41" s="237"/>
-      <c r="Y41" s="237"/>
-      <c r="Z41" s="237"/>
-      <c r="AA41" s="238"/>
-    </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O42" s="236"/>
-      <c r="P42" s="237"/>
-      <c r="Q42" s="237"/>
-      <c r="R42" s="237"/>
-      <c r="S42" s="237"/>
-      <c r="T42" s="237"/>
-      <c r="U42" s="237"/>
-      <c r="V42" s="237"/>
-      <c r="W42" s="237"/>
-      <c r="X42" s="237"/>
-      <c r="Y42" s="237"/>
-      <c r="Z42" s="237"/>
-      <c r="AA42" s="238"/>
-    </row>
-    <row r="43" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O43" s="236"/>
-      <c r="P43" s="237"/>
-      <c r="Q43" s="237"/>
-      <c r="R43" s="237"/>
-      <c r="S43" s="237">
+      <c r="X41" s="236"/>
+      <c r="Y41" s="236"/>
+      <c r="Z41" s="236"/>
+      <c r="AA41" s="237"/>
+    </row>
+    <row r="42" spans="15:27">
+      <c r="O42" s="235"/>
+      <c r="P42" s="236"/>
+      <c r="Q42" s="236"/>
+      <c r="R42" s="236"/>
+      <c r="S42" s="236"/>
+      <c r="T42" s="236"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="236"/>
+      <c r="W42" s="236"/>
+      <c r="X42" s="236"/>
+      <c r="Y42" s="236"/>
+      <c r="Z42" s="236"/>
+      <c r="AA42" s="237"/>
+    </row>
+    <row r="43" spans="15:27">
+      <c r="O43" s="235"/>
+      <c r="P43" s="236"/>
+      <c r="Q43" s="236"/>
+      <c r="R43" s="236"/>
+      <c r="S43" s="236">
         <f>SUM(P$38*$V38,P$39*$W38,P$40*$X38)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="237">
+      <c r="T43" s="236">
         <f t="shared" ref="T43:U43" si="6">SUM(Q$38*$V38,Q$39*$W38,Q$40*$X38)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="237">
+      <c r="U43" s="236">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="V43" s="237"/>
-      <c r="W43" s="237"/>
-      <c r="X43" s="237"/>
-      <c r="Y43" s="237"/>
-      <c r="Z43" s="237"/>
-      <c r="AA43" s="238"/>
-    </row>
-    <row r="44" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O44" s="236"/>
-      <c r="P44" s="237"/>
-      <c r="Q44" s="239" t="s">
+      <c r="V43" s="236"/>
+      <c r="W43" s="236"/>
+      <c r="X43" s="236"/>
+      <c r="Y43" s="236"/>
+      <c r="Z43" s="236"/>
+      <c r="AA43" s="237"/>
+    </row>
+    <row r="44" spans="15:27">
+      <c r="O44" s="235"/>
+      <c r="P44" s="236"/>
+      <c r="Q44" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="R44" s="237"/>
-      <c r="S44" s="237">
+      <c r="R44" s="236"/>
+      <c r="S44" s="236">
         <f t="shared" ref="S44:S45" si="7">SUM(P$38*$V39,P$39*$W39,P$40*$X39)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="237">
+      <c r="T44" s="236">
         <f t="shared" ref="T44:T45" si="8">SUM(Q$38*$V39,Q$39*$W39,Q$40*$X39)</f>
         <v>-1</v>
       </c>
-      <c r="U44" s="237">
+      <c r="U44" s="236">
         <f t="shared" ref="U44:U45" si="9">SUM(R$38*$V39,R$39*$W39,R$40*$X39)</f>
         <v>3</v>
       </c>
-      <c r="V44" s="237"/>
-      <c r="W44" s="237"/>
-      <c r="X44" s="237"/>
-      <c r="Y44" s="237"/>
-      <c r="Z44" s="237"/>
-      <c r="AA44" s="238"/>
-    </row>
-    <row r="45" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O45" s="236"/>
-      <c r="P45" s="237"/>
-      <c r="Q45" s="237"/>
-      <c r="R45" s="237"/>
-      <c r="S45" s="237">
+      <c r="V44" s="236"/>
+      <c r="W44" s="236"/>
+      <c r="X44" s="236"/>
+      <c r="Y44" s="236"/>
+      <c r="Z44" s="236"/>
+      <c r="AA44" s="237"/>
+    </row>
+    <row r="45" spans="15:27">
+      <c r="O45" s="235"/>
+      <c r="P45" s="236"/>
+      <c r="Q45" s="236"/>
+      <c r="R45" s="236"/>
+      <c r="S45" s="236">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T45" s="237">
+      <c r="T45" s="236">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U45" s="237">
+      <c r="U45" s="236">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V45" s="237"/>
-      <c r="W45" s="237"/>
-      <c r="X45" s="237"/>
-      <c r="Y45" s="237"/>
-      <c r="Z45" s="237"/>
-      <c r="AA45" s="238"/>
-    </row>
-    <row r="46" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O46" s="236"/>
-      <c r="P46" s="237"/>
-      <c r="Q46" s="237"/>
-      <c r="R46" s="237"/>
-      <c r="S46" s="237"/>
-      <c r="T46" s="237" t="s">
+      <c r="V45" s="236"/>
+      <c r="W45" s="236"/>
+      <c r="X45" s="236"/>
+      <c r="Y45" s="236"/>
+      <c r="Z45" s="236"/>
+      <c r="AA45" s="237"/>
+    </row>
+    <row r="46" spans="15:27">
+      <c r="O46" s="235"/>
+      <c r="P46" s="236"/>
+      <c r="Q46" s="236"/>
+      <c r="R46" s="236"/>
+      <c r="S46" s="236"/>
+      <c r="T46" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="U46" s="237"/>
-      <c r="V46" s="237"/>
-      <c r="W46" s="237"/>
-      <c r="X46" s="237"/>
-      <c r="Y46" s="237"/>
-      <c r="Z46" s="237"/>
-      <c r="AA46" s="238"/>
-    </row>
-    <row r="47" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O47" s="236"/>
-      <c r="P47" s="237"/>
-      <c r="Q47" s="237"/>
-      <c r="R47" s="237"/>
-      <c r="S47" s="237"/>
-      <c r="T47" s="237"/>
-      <c r="U47" s="237"/>
-      <c r="V47" s="237"/>
-      <c r="W47" s="237"/>
-      <c r="X47" s="237"/>
-      <c r="Y47" s="237"/>
-      <c r="Z47" s="237"/>
-      <c r="AA47" s="238"/>
-    </row>
-    <row r="48" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O48" s="236"/>
-      <c r="P48" s="237">
+      <c r="U46" s="236"/>
+      <c r="V46" s="236"/>
+      <c r="W46" s="236"/>
+      <c r="X46" s="236"/>
+      <c r="Y46" s="236"/>
+      <c r="Z46" s="236"/>
+      <c r="AA46" s="237"/>
+    </row>
+    <row r="47" spans="15:27">
+      <c r="O47" s="235"/>
+      <c r="P47" s="236"/>
+      <c r="Q47" s="236"/>
+      <c r="R47" s="236"/>
+      <c r="S47" s="236"/>
+      <c r="T47" s="236"/>
+      <c r="U47" s="236"/>
+      <c r="V47" s="236"/>
+      <c r="W47" s="236"/>
+      <c r="X47" s="236"/>
+      <c r="Y47" s="236"/>
+      <c r="Z47" s="236"/>
+      <c r="AA47" s="237"/>
+    </row>
+    <row r="48" spans="15:27">
+      <c r="O48" s="235"/>
+      <c r="P48" s="236">
         <f>SUM($S43*P$18,P$19*$T43,P$20*$U43)</f>
         <v>10</v>
       </c>
-      <c r="Q48" s="237">
+      <c r="Q48" s="236">
         <f t="shared" ref="Q48:Z48" si="10">SUM($S43*Q$18,Q$19*$T43,Q$20*$U43)</f>
         <v>10</v>
       </c>
-      <c r="R48" s="237">
+      <c r="R48" s="236">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="S48" s="237">
+      <c r="S48" s="236">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="T48" s="237">
+      <c r="T48" s="236">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="U48" s="237">
+      <c r="U48" s="236">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="V48" s="237">
+      <c r="V48" s="236">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="W48" s="237">
+      <c r="W48" s="236">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="X48" s="237">
+      <c r="X48" s="236">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="Y48" s="237">
+      <c r="Y48" s="236">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="Z48" s="237">
+      <c r="Z48" s="236">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AA48" s="238"/>
-    </row>
-    <row r="49" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O49" s="236"/>
-      <c r="P49" s="237">
+      <c r="AA48" s="237"/>
+    </row>
+    <row r="49" spans="15:27">
+      <c r="O49" s="235"/>
+      <c r="P49" s="236">
         <f t="shared" ref="P49:Z50" si="11">SUM($S44*P$18,P$19*$T44,P$20*$U44)</f>
         <v>-1</v>
       </c>
-      <c r="Q49" s="237">
+      <c r="Q49" s="236">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="R49" s="237">
+      <c r="R49" s="236">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="S49" s="237">
+      <c r="S49" s="236">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="T49" s="237">
+      <c r="T49" s="236">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="U49" s="237">
+      <c r="U49" s="236">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="V49" s="237">
+      <c r="V49" s="236">
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="W49" s="237">
+      <c r="W49" s="236">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="X49" s="237">
+      <c r="X49" s="236">
         <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="Y49" s="237">
+      <c r="Y49" s="236">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="Z49" s="237">
+      <c r="Z49" s="236">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="AA49" s="238"/>
-    </row>
-    <row r="50" spans="15:27" x14ac:dyDescent="0.3">
-      <c r="O50" s="236"/>
-      <c r="P50" s="237">
+      <c r="AA49" s="237"/>
+    </row>
+    <row r="50" spans="15:27">
+      <c r="O50" s="235"/>
+      <c r="P50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="237">
+      <c r="Q50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="R50" s="237">
+      <c r="R50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="S50" s="237">
+      <c r="S50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="T50" s="237">
+      <c r="T50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U50" s="237">
+      <c r="U50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="V50" s="237">
+      <c r="V50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="W50" s="237">
+      <c r="W50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="X50" s="237">
+      <c r="X50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y50" s="237">
+      <c r="Y50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Z50" s="237">
+      <c r="Z50" s="236">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AA50" s="238"/>
-    </row>
-    <row r="51" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O51" s="240"/>
-      <c r="P51" s="241"/>
-      <c r="Q51" s="241"/>
-      <c r="R51" s="241"/>
-      <c r="S51" s="241"/>
-      <c r="T51" s="241"/>
-      <c r="U51" s="241"/>
-      <c r="V51" s="241"/>
-      <c r="W51" s="241"/>
-      <c r="X51" s="241"/>
-      <c r="Y51" s="241"/>
-      <c r="Z51" s="241"/>
-      <c r="AA51" s="242"/>
-    </row>
-    <row r="52" spans="15:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+      <c r="AA50" s="237"/>
+    </row>
+    <row r="51" spans="15:27" ht="15.75" thickBot="1">
+      <c r="O51" s="239"/>
+      <c r="P51" s="240"/>
+      <c r="Q51" s="240"/>
+      <c r="R51" s="240"/>
+      <c r="S51" s="240"/>
+      <c r="T51" s="240"/>
+      <c r="U51" s="240"/>
+      <c r="V51" s="240"/>
+      <c r="W51" s="240"/>
+      <c r="X51" s="240"/>
+      <c r="Y51" s="240"/>
+      <c r="Z51" s="240"/>
+      <c r="AA51" s="241"/>
+    </row>
+    <row r="52" spans="15:27" ht="15.75" thickTop="1"/>
+    <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" s="71" t="s">
         <v>84</v>
       </c>
@@ -13967,25 +14034,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="70"/>
-    <col min="2" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="70"/>
+    <col min="2" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1">
       <c r="A2" s="191" t="s">
         <v>4</v>
       </c>
@@ -14038,7 +14103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="155" t="s">
         <v>5</v>
       </c>
@@ -14100,7 +14165,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="123" t="s">
         <v>6</v>
       </c>
@@ -14149,7 +14214,7 @@
       <c r="S4" s="121"/>
       <c r="T4" s="121"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="A5" s="192" t="s">
         <v>19</v>
       </c>
@@ -14198,7 +14263,7 @@
       <c r="S5" s="121"/>
       <c r="T5" s="121"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" thickTop="1">
       <c r="C6" s="109">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -14244,7 +14309,7 @@
       <c r="S6" s="121"/>
       <c r="T6" s="121"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="C7" s="109">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -14290,7 +14355,7 @@
       <c r="S7" s="121"/>
       <c r="T7" s="121"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="C8" s="109">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -14336,7 +14401,7 @@
       <c r="S8" s="121"/>
       <c r="T8" s="121"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="C9" s="109">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -14382,7 +14447,7 @@
       <c r="S9" s="121"/>
       <c r="T9" s="121"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="C10" s="109">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -14428,7 +14493,7 @@
       <c r="S10" s="121"/>
       <c r="T10" s="121"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="C11" s="110">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -14474,7 +14539,7 @@
       <c r="S11" s="121"/>
       <c r="T11" s="121"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickTop="1">
       <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
@@ -14508,7 +14573,7 @@
       <c r="S12" s="121"/>
       <c r="T12" s="121"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="F13" s="110" t="s">
         <v>46</v>
       </c>
@@ -14542,7 +14607,7 @@
       <c r="S13" s="121"/>
       <c r="T13" s="121"/>
     </row>
-    <row r="14" spans="1:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="I14" s="62">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -14569,10 +14634,10 @@
       <c r="S14" s="121"/>
       <c r="T14" s="121"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" thickTop="1">
       <c r="C15" s="111"/>
       <c r="D15" s="112"/>
-      <c r="E15" s="258"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="112"/>
       <c r="G15" s="137"/>
       <c r="I15" s="62">
@@ -14601,7 +14666,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="121"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="C16" s="113"/>
       <c r="D16" s="114"/>
       <c r="E16" s="114" t="s">
@@ -14635,10 +14700,10 @@
       <c r="S16" s="121"/>
       <c r="T16" s="121"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20">
       <c r="C17" s="116"/>
       <c r="D17" s="114"/>
-      <c r="E17" s="259"/>
+      <c r="E17" s="248"/>
       <c r="F17" s="114"/>
       <c r="G17" s="115"/>
       <c r="I17" s="62">
@@ -14667,7 +14732,7 @@
       <c r="S17" s="121"/>
       <c r="T17" s="121"/>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20">
       <c r="C18" s="117"/>
       <c r="D18" s="114"/>
       <c r="E18" s="114"/>
@@ -14699,12 +14764,12 @@
       <c r="S18" s="121"/>
       <c r="T18" s="121"/>
     </row>
-    <row r="19" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:20" ht="15.75" thickBot="1">
       <c r="C19" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="118" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E19" s="114" t="s">
         <v>43</v>
@@ -14737,7 +14802,7 @@
       <c r="S19" s="121"/>
       <c r="T19" s="121"/>
     </row>
-    <row r="20" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" ht="15.75" thickTop="1">
       <c r="C20" s="117">
         <v>1.6</v>
       </c>
@@ -14764,7 +14829,7 @@
       <c r="S20" s="121"/>
       <c r="T20" s="121"/>
     </row>
-    <row r="21" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:20" ht="15.75" thickBot="1">
       <c r="C21" s="117">
         <v>0</v>
       </c>
@@ -14791,7 +14856,7 @@
       <c r="S21" s="121"/>
       <c r="T21" s="121"/>
     </row>
-    <row r="22" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" ht="15.75" thickTop="1">
       <c r="C22" s="117"/>
       <c r="D22" s="114"/>
       <c r="E22" s="114"/>
@@ -14804,7 +14869,7 @@
       <c r="S22" s="121"/>
       <c r="T22" s="121"/>
     </row>
-    <row r="23" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:20" ht="15.75" thickBot="1">
       <c r="C23" s="119">
         <f>E20</f>
         <v>11.544464848790231</v>
@@ -14830,7 +14895,7 @@
       <c r="S23" s="121"/>
       <c r="T23" s="121"/>
     </row>
-    <row r="24" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" ht="15.75" thickTop="1">
       <c r="O24" s="121"/>
       <c r="P24" s="121"/>
       <c r="Q24" s="121"/>
@@ -14846,19 +14911,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -14869,7 +14934,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -14880,16 +14945,16 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="252" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
+        <v>97</v>
+      </c>
+      <c r="B5" s="258" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1664298\MathsCoursework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630" activeTab="1"/>
   </bookViews>
@@ -14,9 +19,9 @@
     <sheet name="Question 4" sheetId="5" r:id="rId5"/>
     <sheet name="Question 5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
     <author>O.L.Sheard U1664298</author>
   </authors>
   <commentList>
-    <comment ref="V22" authorId="0">
+    <comment ref="V22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -507,15 +512,18 @@
   <si>
     <t>Upper Bound</t>
   </si>
+  <si>
+    <t>Actual / Upper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2387,12 +2395,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2420,53 +2479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2486,13 +2500,375 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Question 1'!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 1'!$Q$2:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4435555851847899E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8421691922801149E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2341697493900612E-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8146221284513464E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.9097511477640727E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.0586879873065783E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.1776854105964706E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1502031509920904E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.3237994486178308E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.355851457072183E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.6838304943714486E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2890665117780271E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0731465973197631E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.2161340092252108E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.8363909761983803E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.078012286230852E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.0113691461894394E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.414752551458775E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9417709304107076E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.619906827385987E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003D-4C14-4AE2-B69A-1B1BE608B2DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409962096"/>
+        <c:axId val="412460912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="409962096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412460912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412460912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409962096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2568,7 +2944,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2657,7 +3034,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2741,7 +3119,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B3AB-406C-96B7-D615DFCD1EDD}"/>
             </c:ext>
@@ -2818,7 +3197,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -2898,7 +3278,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -2978,7 +3359,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3052,7 +3434,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3129,7 +3512,8 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
@@ -3206,13 +3590,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3AB1-481F-B58D-9C6C7387A54E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="87157760"/>
         <c:axId val="85430272"/>
       </c:scatterChart>
@@ -3221,6 +3613,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3237,6 +3630,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3280,6 +3674,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3296,6 +3691,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3348,7 +3744,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3376,7 +3772,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3420,6 +3817,562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3430,8 +4383,8 @@
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5965607" cy="328551"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3639,7 +4592,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3652,7 +4605,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3664,7 +4617,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3678,7 +4631,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3773,7 +4726,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3786,7 +4739,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3798,7 +4751,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3812,7 +4765,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3962,7 +4915,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3975,7 +4928,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -3987,7 +4940,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -4001,7 +4954,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -4146,7 +5099,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4159,7 +5112,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4171,7 +5124,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4185,7 +5138,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4338,7 +5291,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4351,7 +5304,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4363,7 +5316,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4377,7 +5330,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4423,7 +5376,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4631,8 +5584,8 @@
       <xdr:rowOff>64272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5141023" cy="328551"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4813,7 +5766,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4904,7 +5857,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5050,7 +6003,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -5183,31 +6136,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>⁡(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>0</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
+                              <m:t>⁡(0)</m:t>
                             </m:r>
                           </m:num>
                           <m:den>
@@ -5332,31 +6261,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>⁡(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>0</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
+                              <m:t>⁡(0)</m:t>
                             </m:r>
                           </m:num>
                           <m:den>
@@ -5384,7 +6289,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5592,8 +6497,8 @@
       <xdr:rowOff>46850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1609864" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5871,7 +6776,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5947,8 +6852,8 @@
       <xdr:rowOff>36443</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1430135" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6201,7 +7106,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6277,8 +7182,8 @@
       <xdr:rowOff>23191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140825" cy="339773"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6320,6 +7225,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6473,7 +7379,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -6555,9 +7461,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23189</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1492396" cy="322461"/>
+    <xdr:ext cx="1484894" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6571,8 +7477,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5051589" y="2109492"/>
-              <a:ext cx="1492396" cy="322461"/>
+              <a:off x="3112601" y="2201515"/>
+              <a:ext cx="1484894" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6599,6 +7505,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6651,7 +7558,7 @@
                       <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>= </m:t>
+                      <m:t>=−</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -6662,12 +7569,6 @@
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
                         <m:r>
                           <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6751,7 +7652,7 @@
             <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A96D95CB-6854-4BAF-BE40-E9091B7BD7C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96D95CB-6854-4BAF-BE40-E9091B7BD7C1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6759,8 +7660,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5051589" y="2109492"/>
-              <a:ext cx="1492396" cy="322461"/>
+              <a:off x="3112601" y="2201515"/>
+              <a:ext cx="1484894" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6787,11 +7688,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑅_5 (𝑥)=  (−32cos⁡(2</a:t>
+                <a:t>𝑅_5 (𝑥)=−(32cos⁡(2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -6821,9 +7723,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>29814</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1712072" cy="322461"/>
+    <xdr:ext cx="1809983" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6837,8 +7739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5058215" y="2489235"/>
-              <a:ext cx="1712072" cy="322461"/>
+              <a:off x="3119227" y="2597423"/>
+              <a:ext cx="1809983" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6865,6 +7767,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6917,7 +7820,7 @@
                       <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>= </m:t>
+                      <m:t>=−</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -7011,7 +7914,7 @@
             <xdr:cNvPr id="8" name="TextBox 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{274325F0-2BE5-43BF-AD09-71B3DA369C88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274325F0-2BE5-43BF-AD09-71B3DA369C88}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7019,8 +7922,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5058215" y="2489235"/>
-              <a:ext cx="1712072" cy="322461"/>
+              <a:off x="3119227" y="2597423"/>
+              <a:ext cx="1809983" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7047,11 +7950,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑅_5 (0.2)=  (32cos⁡(2</a:t>
+                <a:t>𝑅_5 (0.2)=−(32cos⁡(2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -7081,9 +7985,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73572</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1684692" cy="376642"/>
+    <xdr:ext cx="1816203" cy="376642"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -7097,8 +8001,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5079123" y="2900855"/>
-              <a:ext cx="1684692" cy="376642"/>
+              <a:off x="3140135" y="3022181"/>
+              <a:ext cx="1816203" cy="376642"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7125,6 +8029,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7164,6 +8069,13 @@
                         </m:ctrlPr>
                       </m:dPr>
                       <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
                         <m:f>
                           <m:fPr>
                             <m:ctrlPr>
@@ -7172,7 +8084,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7185,7 +8097,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7200,7 +8112,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7212,7 +8124,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7224,7 +8136,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7236,7 +8148,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7250,7 +8162,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7266,7 +8178,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7279,7 +8191,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7293,7 +8205,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7317,7 +8229,7 @@
             <xdr:cNvPr id="9" name="TextBox 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C133F0B-7E11-4D44-AF8F-74F4E07F3CB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C133F0B-7E11-4D44-AF8F-74F4E07F3CB0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7325,8 +8237,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5079123" y="2900855"/>
-              <a:ext cx="1684692" cy="376642"/>
+              <a:off x="3140135" y="3022181"/>
+              <a:ext cx="1816203" cy="376642"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7353,6 +8265,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -7365,19 +8278,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=𝑚𝑎𝑥|</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(32cos(2𝜖))/720 〖(0.2)〗^6</a:t>
+                <a:t>=𝑚𝑎𝑥|−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -7386,10 +8287,10 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> |</a:t>
+                <a:t>(32cos(2𝜖))/720 〖(0.2)〗^6 |</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -7412,7 +8313,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{C9F90AF2-F777-46A7-913E-43D01635AA1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F90AF2-F777-46A7-913E-43D01635AA1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,9 +8376,9 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>21019</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1419684" cy="322461"/>
+    <xdr:ext cx="1548629" cy="322461"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -7491,8 +8392,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5068612" y="3410605"/>
-              <a:ext cx="1419684" cy="322461"/>
+              <a:off x="3129624" y="3541128"/>
+              <a:ext cx="1548629" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7519,6 +8420,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7537,7 +8439,7 @@
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
+                      <m:t>=−</m:t>
                     </m:r>
                     <m:f>
                       <m:fPr>
@@ -7547,7 +8449,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7560,7 +8462,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7575,7 +8477,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7587,7 +8489,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7601,7 +8503,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7617,7 +8519,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7630,7 +8532,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7644,7 +8546,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7666,7 +8568,7 @@
             <xdr:cNvPr id="11" name="TextBox 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64336DE1-5578-4A27-8660-14C107991E64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64336DE1-5578-4A27-8660-14C107991E64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7674,8 +8576,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5068612" y="3410605"/>
-              <a:ext cx="1419684" cy="322461"/>
+              <a:off x="3129624" y="3541128"/>
+              <a:ext cx="1548629" cy="322461"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7702,6 +8604,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -7714,7 +8617,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=</a:t>
+                <a:t>=−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
@@ -7722,7 +8625,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7734,123 +8637,6 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>49922</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>21018</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="829073" cy="317972"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{FAE6E3D9-89D0-4AA0-AD81-4AF94D213B18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6986750" y="3410604"/>
-          <a:ext cx="829073" cy="317972"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" i="0">
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>𝜀</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>45</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 〖(0.2)〗^6</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
@@ -7902,10 +8688,7 @@
         <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>From the values calculated in part b) and the actual error, it appears as though the actual error is equivalent to the upper bound of the error to 8 decimal places.</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7962,11 +8745,48 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>For a cosine function, between the bounds of 0 and 0,2. The gradient will be -ve and thus the greatest error bound will occur when  = 0</a:t>
+            <a:t>For the function as calculated, the functiuon</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> is at a maxima in the range of 0 - 0.2 at 0.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>604628</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>193811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7992,7 +8812,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8070,7 +8890,7 @@
         <xdr:cNvPr id="5" name="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8106,7 +8926,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8125,7 +8945,7 @@
           <xdr:cNvPr id="25" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8175,7 +8995,7 @@
           <xdr:cNvPr id="26" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8241,7 +9061,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8260,7 +9080,7 @@
           <xdr:cNvPr id="28" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8310,7 +9130,7 @@
           <xdr:cNvPr id="29" name="Rectangle 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8376,7 +9196,7 @@
         <xdr:cNvPr id="30" name="Group 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8395,7 +9215,7 @@
           <xdr:cNvPr id="31" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8445,7 +9265,7 @@
           <xdr:cNvPr id="32" name="Rectangle 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8511,7 +9331,7 @@
         <xdr:cNvPr id="33" name="Group 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8530,7 +9350,7 @@
           <xdr:cNvPr id="34" name="Rectangle 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8580,7 +9400,7 @@
           <xdr:cNvPr id="35" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8646,7 +9466,7 @@
         <xdr:cNvPr id="36" name="Group 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8665,7 +9485,7 @@
           <xdr:cNvPr id="37" name="Rectangle 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8715,7 +9535,7 @@
           <xdr:cNvPr id="38" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8781,7 +9601,7 @@
         <xdr:cNvPr id="39" name="Group 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8800,7 +9620,7 @@
           <xdr:cNvPr id="40" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8850,7 +9670,7 @@
           <xdr:cNvPr id="41" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8916,7 +9736,7 @@
         <xdr:cNvPr id="42" name="Group 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8935,7 +9755,7 @@
           <xdr:cNvPr id="43" name="Rectangle 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8985,7 +9805,7 @@
           <xdr:cNvPr id="44" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9051,7 +9871,7 @@
         <xdr:cNvPr id="45" name="Group 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9070,7 +9890,7 @@
           <xdr:cNvPr id="46" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9120,7 +9940,7 @@
           <xdr:cNvPr id="47" name="Rectangle 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9186,7 +10006,7 @@
         <xdr:cNvPr id="48" name="Group 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9205,7 +10025,7 @@
           <xdr:cNvPr id="49" name="Rectangle 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9255,7 +10075,7 @@
           <xdr:cNvPr id="50" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9321,7 +10141,7 @@
         <xdr:cNvPr id="51" name="Group 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9340,7 +10160,7 @@
           <xdr:cNvPr id="52" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9390,7 +10210,7 @@
           <xdr:cNvPr id="53" name="Rectangle 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9461,7 +10281,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9521,8 +10341,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="985590" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -9564,6 +10384,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9703,7 +10524,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -9767,8 +10588,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1081450" cy="510140"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -9810,6 +10631,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9853,7 +10675,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9870,7 +10692,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>(</m:t>
+                              <m:t>(2</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-GB" sz="1100" b="0" i="1">
@@ -9878,19 +10700,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9904,7 +10714,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9918,7 +10728,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9932,7 +10742,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9945,7 +10755,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10025,7 +10835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -10417,38 +11227,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
-      <c r="D1" s="249" t="s">
+      <c r="D1" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="249"/>
-      <c r="F1" s="250" t="s">
+      <c r="E1" s="267"/>
+      <c r="F1" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
       <c r="I1" s="158"/>
       <c r="J1" s="158"/>
       <c r="K1" s="158"/>
@@ -10461,19 +11271,19 @@
       <c r="R1" s="158"/>
       <c r="S1" s="158"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="158"/>
       <c r="B2" s="158"/>
       <c r="C2" s="158"/>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250" t="s">
+      <c r="E2" s="267"/>
+      <c r="F2" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
       <c r="I2" s="158"/>
       <c r="J2" s="158"/>
       <c r="K2" s="158"/>
@@ -10486,19 +11296,19 @@
       <c r="R2" s="158"/>
       <c r="S2" s="158"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="250" t="s">
+      <c r="E3" s="267"/>
+      <c r="F3" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
       <c r="I3" s="158"/>
       <c r="J3" s="158"/>
       <c r="K3" s="158"/>
@@ -10511,19 +11321,19 @@
       <c r="R3" s="158"/>
       <c r="S3" s="158"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="158"/>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
-      <c r="D4" s="249" t="s">
+      <c r="D4" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="249"/>
-      <c r="F4" s="250" t="s">
+      <c r="E4" s="267"/>
+      <c r="F4" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
       <c r="I4" s="158"/>
       <c r="J4" s="158"/>
       <c r="K4" s="158"/>
@@ -10536,19 +11346,19 @@
       <c r="R4" s="158"/>
       <c r="S4" s="158"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="158"/>
       <c r="B5" s="158"/>
       <c r="C5" s="158"/>
-      <c r="D5" s="249" t="s">
+      <c r="D5" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="249"/>
-      <c r="F5" s="250" t="s">
+      <c r="E5" s="267"/>
+      <c r="F5" s="266" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
       <c r="I5" s="158"/>
       <c r="J5" s="158"/>
       <c r="K5" s="158"/>
@@ -10561,7 +11371,7 @@
       <c r="R5" s="158"/>
       <c r="S5" s="158"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="158"/>
       <c r="B6" s="158"/>
       <c r="C6" s="158"/>
@@ -10582,7 +11392,7 @@
       <c r="R6" s="158"/>
       <c r="S6" s="158"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="158"/>
       <c r="B7" s="158"/>
       <c r="C7" s="158"/>
@@ -10603,7 +11413,7 @@
       <c r="R7" s="158"/>
       <c r="S7" s="158"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="158"/>
       <c r="B8" s="158"/>
       <c r="C8" s="158"/>
@@ -10634,7 +11444,7 @@
       <c r="R8" s="158"/>
       <c r="S8" s="158"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="158"/>
       <c r="B9" s="158"/>
       <c r="C9" s="158"/>
@@ -10665,7 +11475,7 @@
       <c r="R9" s="158"/>
       <c r="S9" s="158"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="158"/>
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
@@ -10696,7 +11506,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="158"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="158"/>
       <c r="B11" s="158"/>
       <c r="C11" s="158"/>
@@ -10727,7 +11537,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="158"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="158"/>
       <c r="B12" s="158"/>
       <c r="C12" s="158"/>
@@ -10758,7 +11568,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="158"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="158"/>
       <c r="B13" s="158"/>
       <c r="C13" s="158"/>
@@ -10783,7 +11593,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="158"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="158"/>
       <c r="B14" s="158"/>
       <c r="C14" s="158"/>
@@ -10804,7 +11614,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="158"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="158"/>
       <c r="B15" s="158"/>
       <c r="C15" s="158"/>
@@ -10825,7 +11635,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="158"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="158"/>
       <c r="B16" s="158"/>
       <c r="C16" s="158"/>
@@ -10846,7 +11656,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="158"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="158"/>
       <c r="B17" s="158"/>
       <c r="C17" s="158"/>
@@ -10867,7 +11677,7 @@
       <c r="R17" s="158"/>
       <c r="S17" s="158"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="158"/>
       <c r="B18" s="158"/>
       <c r="C18" s="158"/>
@@ -10888,7 +11698,7 @@
       <c r="R18" s="158"/>
       <c r="S18" s="158"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="158"/>
       <c r="B19" s="158"/>
       <c r="C19" s="158"/>
@@ -10909,7 +11719,7 @@
       <c r="R19" s="158"/>
       <c r="S19" s="158"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="158"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158"/>
@@ -10930,7 +11740,7 @@
       <c r="R20" s="158"/>
       <c r="S20" s="158"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="158"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158"/>
@@ -10951,7 +11761,7 @@
       <c r="R21" s="158"/>
       <c r="S21" s="158"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="158"/>
       <c r="B22" s="158"/>
       <c r="C22" s="158"/>
@@ -10972,7 +11782,7 @@
       <c r="R22" s="158"/>
       <c r="S22" s="158"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="158"/>
       <c r="B23" s="158"/>
       <c r="C23" s="158"/>
@@ -10993,7 +11803,7 @@
       <c r="R23" s="158"/>
       <c r="S23" s="158"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="158"/>
       <c r="B24" s="158"/>
       <c r="C24" s="158"/>
@@ -11014,7 +11824,7 @@
       <c r="R24" s="158"/>
       <c r="S24" s="158"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="158"/>
       <c r="B25" s="158"/>
       <c r="C25" s="158"/>
@@ -11037,16 +11847,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11054,25 +11864,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1"/>
     <col min="2" max="2" width="9.28515625" style="202"/>
     <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="206" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="203"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="207" t="s">
         <v>4</v>
       </c>
@@ -11113,8 +11925,15 @@
       <c r="N2" s="215" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>((32*COS(P2*2))/720)*POWER(P2,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="208" t="s">
         <v>5</v>
       </c>
@@ -11131,8 +11950,16 @@
       <c r="L3" s="217"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="1">
+        <f>P2+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q3" s="249">
+        <f>(-(32*COS(P3*2))/720)*POWER(P3,6)</f>
+        <v>-4.4435555851847899E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="209" t="s">
         <v>6</v>
       </c>
@@ -11149,8 +11976,16 @@
       <c r="L4" s="217"/>
       <c r="M4" s="217"/>
       <c r="N4" s="218"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="P4" s="249">
+        <f t="shared" ref="P4:P22" si="0">P3+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q4" s="249">
+        <f t="shared" ref="Q4:Q22" si="1">(-(32*COS(P4*2))/720)*POWER(P4,6)</f>
+        <v>-2.8421691922801149E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="210" t="s">
         <v>19</v>
       </c>
@@ -11167,8 +12002,16 @@
       <c r="L5" s="217"/>
       <c r="M5" s="217"/>
       <c r="N5" s="218"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickTop="1">
+      <c r="P5" s="249">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q5" s="249">
+        <f t="shared" si="1"/>
+        <v>-3.2341697493900612E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="216"/>
       <c r="D6" s="217"/>
       <c r="E6" s="217"/>
@@ -11183,8 +12026,16 @@
         <v>98</v>
       </c>
       <c r="N6" s="218"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="249">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q6" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.8146221284513464E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="216"/>
       <c r="D7" s="217"/>
       <c r="E7" s="217"/>
@@ -11197,8 +12048,16 @@
       <c r="L7" s="243"/>
       <c r="M7" s="244"/>
       <c r="N7" s="245"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="P7" s="249">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="249">
+        <f t="shared" si="1"/>
+        <v>-6.9097511477640727E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="219"/>
       <c r="D8" s="220"/>
       <c r="E8" s="220"/>
@@ -11211,9 +12070,26 @@
       <c r="L8" s="246"/>
       <c r="M8" s="220"/>
       <c r="N8" s="221"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="10" spans="1:14" ht="15.75" thickTop="1">
+      <c r="P8" s="249">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="Q8" s="249">
+        <f t="shared" si="1"/>
+        <v>-2.0586879873065783E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="249">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q9" s="249">
+        <f t="shared" si="1"/>
+        <v>-5.1776854105964706E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="222" t="s">
         <v>91</v>
       </c>
@@ -11222,280 +12098,387 @@
         <v>0.46053333333333329</v>
       </c>
       <c r="F10" s="226"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
       <c r="J10" s="227"/>
-      <c r="L10" s="260" t="s">
+      <c r="L10" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="261">
-        <v>0.46053049700144255</v>
-      </c>
-      <c r="N10" s="262"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="M10" s="251">
+        <f>TRUNC(0.5*COS(0.4),8)</f>
+        <v>0.46053049000000001</v>
+      </c>
+      <c r="N10" s="252"/>
+      <c r="P10" s="249">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q10" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.1502031509920904E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="224" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="225">
-        <f>D10</f>
-        <v>0.46053333333333329</v>
+        <f>TRUNC(D10,8)</f>
+        <v>0.46053333000000002</v>
       </c>
       <c r="F11" s="229"/>
-      <c r="G11" s="270"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
       <c r="J11" s="228"/>
-      <c r="L11" s="263" t="s">
+      <c r="L11" s="253" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="272">
+      <c r="M11" s="262">
         <f>D11</f>
-        <v>0.46053333333333329</v>
-      </c>
-      <c r="N11" s="265"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickTop="1">
+        <v>0.46053333000000002</v>
+      </c>
+      <c r="N11" s="255"/>
+      <c r="P11" s="249">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q11" s="249">
+        <f t="shared" si="1"/>
+        <v>-2.3237994486178308E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F12" s="229"/>
-      <c r="G12" s="270"/>
-      <c r="H12" s="270"/>
-      <c r="I12" s="270"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="260"/>
       <c r="J12" s="228"/>
-      <c r="L12" s="263" t="s">
+      <c r="L12" s="253" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="272">
-        <f>M11-M10</f>
-        <v>2.8363318907431712E-6</v>
-      </c>
-      <c r="N12" s="265" t="s">
+      <c r="M12" s="262">
+        <f>TRUNC(M11-M10,8)</f>
+        <v>2.8399999999999999E-6</v>
+      </c>
+      <c r="N12" s="255" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" s="249">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Q12" s="249">
+        <f t="shared" si="1"/>
+        <v>-4.355851457072183E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F13" s="229"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
       <c r="J13" s="228"/>
-      <c r="L13" s="263" t="s">
+      <c r="L13" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="272">
-        <f>I22</f>
-        <v>2.8444444444444463E-6</v>
-      </c>
-      <c r="N13" s="265"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="262">
+        <f>TRUNC(I22,8)</f>
+        <v>2.8399999999999999E-6</v>
+      </c>
+      <c r="N13" s="255"/>
+      <c r="P13" s="249">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="Q13" s="249">
+        <f t="shared" si="1"/>
+        <v>-7.6838304943714486E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F14" s="229"/>
-      <c r="G14" s="270"/>
-      <c r="H14" s="270"/>
-      <c r="I14" s="270"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
       <c r="J14" s="228"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="264">
+      <c r="L14" s="253" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="254">
         <f>M12/M13</f>
-        <v>0.99714793033939542</v>
-      </c>
-      <c r="N14" s="274">
+        <v>1</v>
+      </c>
+      <c r="N14" s="264">
         <f>M14</f>
-        <v>0.99714793033939542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="249">
+        <f>P13+0.01</f>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="Q14" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.2890665117780271E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="242"/>
       <c r="F15" s="229"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="270"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
       <c r="J15" s="228"/>
-      <c r="L15" s="263"/>
-      <c r="M15" s="264"/>
-      <c r="N15" s="265"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="L15" s="253"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="255"/>
+      <c r="P15" s="249">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="Q15" s="249">
+        <f t="shared" si="1"/>
+        <v>-2.0731465973197631E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F16" s="229"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="270"/>
-      <c r="I16" s="270"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
       <c r="J16" s="228"/>
-      <c r="L16" s="263"/>
-      <c r="M16" s="264"/>
-      <c r="N16" s="265"/>
-    </row>
-    <row r="17" spans="6:14">
+      <c r="L16" s="253"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="255"/>
+      <c r="P16" s="249">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="Q16" s="249">
+        <f t="shared" si="1"/>
+        <v>-3.2161340092252108E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17" s="229"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="270" t="s">
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260" t="s">
         <v>101</v>
       </c>
       <c r="J17" s="228"/>
-      <c r="L17" s="263"/>
-      <c r="M17" s="264"/>
-      <c r="N17" s="265"/>
-    </row>
-    <row r="18" spans="6:14">
+      <c r="L17" s="253"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="255"/>
+      <c r="P17" s="249">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q17" s="249">
+        <f t="shared" si="1"/>
+        <v>-4.8363909761983803E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18" s="229"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="270"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
       <c r="J18" s="228"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="264"/>
-      <c r="N18" s="265"/>
-    </row>
-    <row r="19" spans="6:14">
+      <c r="L18" s="253"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="255"/>
+      <c r="P18" s="249">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="Q18" s="249">
+        <f t="shared" si="1"/>
+        <v>-7.078012286230852E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F19" s="229"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="270"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
       <c r="J19" s="228"/>
-      <c r="L19" s="263"/>
-      <c r="M19" s="264"/>
-      <c r="N19" s="265"/>
-    </row>
-    <row r="20" spans="6:14">
+      <c r="L19" s="253"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="255"/>
+      <c r="P19" s="249">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="Q19" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.0113691461894394E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F20" s="229"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="275"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="265"/>
+      <c r="I20" s="265"/>
       <c r="J20" s="228"/>
-      <c r="L20" s="263"/>
-      <c r="M20" s="264"/>
-      <c r="N20" s="265"/>
-    </row>
-    <row r="21" spans="6:14">
+      <c r="L20" s="253"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="255"/>
+      <c r="P20" s="249">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="Q20" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.414752551458775E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F21" s="229"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
-      <c r="I21" s="275"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
       <c r="J21" s="228"/>
-      <c r="L21" s="263"/>
-      <c r="M21" s="264"/>
-      <c r="N21" s="265"/>
-    </row>
-    <row r="22" spans="6:14">
+      <c r="L21" s="253"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="255"/>
+      <c r="P21" s="249">
+        <f>P20+0.01</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="Q21" s="249">
+        <f t="shared" si="1"/>
+        <v>-1.9417709304107076E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F22" s="229"/>
-      <c r="G22" s="270" t="s">
+      <c r="G22" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="270" t="s">
+      <c r="H22" s="277" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="270">
-        <f>(2/45)*POWER(0.2,6)</f>
+      <c r="I22" s="260">
+        <f>((32*COS(0)/720)*POWER(0.2,6))</f>
         <v>2.8444444444444463E-6</v>
       </c>
       <c r="J22" s="228"/>
-      <c r="L22" s="263"/>
-      <c r="M22" s="264"/>
-      <c r="N22" s="265"/>
-    </row>
-    <row r="23" spans="6:14" ht="15.75" thickBot="1">
+      <c r="L22" s="253"/>
+      <c r="M22" s="254"/>
+      <c r="N22" s="255"/>
+      <c r="P22" s="249">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="Q22" s="249">
+        <f t="shared" si="1"/>
+        <v>-2.619906827385987E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="229"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="273"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="263"/>
       <c r="J23" s="228"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="268"/>
-    </row>
-    <row r="24" spans="6:14" ht="15.75" thickTop="1">
+      <c r="L23" s="256"/>
+      <c r="M23" s="257"/>
+      <c r="N23" s="258"/>
+    </row>
+    <row r="24" spans="6:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F24" s="229"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="270"/>
-      <c r="I24" s="270"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
       <c r="J24" s="228"/>
     </row>
-    <row r="25" spans="6:14">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F25" s="229"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="260"/>
       <c r="J25" s="228"/>
     </row>
-    <row r="26" spans="6:14">
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F26" s="229"/>
-      <c r="G26" s="270"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="270"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
       <c r="J26" s="228"/>
     </row>
-    <row r="27" spans="6:14">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F27" s="229"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
       <c r="J27" s="228"/>
     </row>
-    <row r="28" spans="6:14">
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F28" s="229"/>
-      <c r="G28" s="270"/>
-      <c r="H28" s="270"/>
-      <c r="I28" s="270"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="228"/>
     </row>
-    <row r="29" spans="6:14">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F29" s="229"/>
-      <c r="G29" s="270"/>
-      <c r="H29" s="270"/>
-      <c r="I29" s="270"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
       <c r="J29" s="228"/>
     </row>
-    <row r="30" spans="6:14">
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F30" s="229"/>
-      <c r="G30" s="270"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="270"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
       <c r="J30" s="228"/>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F31" s="229"/>
-      <c r="G31" s="270"/>
-      <c r="H31" s="270"/>
-      <c r="I31" s="270"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
       <c r="J31" s="228"/>
     </row>
-    <row r="32" spans="6:14">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F32" s="229"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="270"/>
-      <c r="I32" s="270"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="260"/>
       <c r="J32" s="228"/>
     </row>
-    <row r="33" spans="6:10">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="229"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="270"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
       <c r="J33" s="228"/>
     </row>
-    <row r="34" spans="6:10">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34" s="229"/>
-      <c r="G34" s="270"/>
-      <c r="H34" s="270"/>
-      <c r="I34" s="270"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
       <c r="J34" s="228"/>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="229"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="270"/>
-      <c r="I35" s="270"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
       <c r="J35" s="228"/>
     </row>
-    <row r="36" spans="6:10" ht="15.75" thickBot="1">
+    <row r="36" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="230"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="271"/>
-      <c r="I36" s="271"/>
+      <c r="G36" s="261"/>
+      <c r="H36" s="261"/>
+      <c r="I36" s="261"/>
       <c r="J36" s="231"/>
     </row>
-    <row r="37" spans="6:10" ht="15.75" thickTop="1"/>
+    <row r="37" spans="6:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11504,14 +12487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2"/>
     <col min="2" max="2" width="9.28515625" style="70"/>
@@ -11522,26 +12505,26 @@
     <col min="13" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="72"/>
-      <c r="L1" s="254" t="s">
+      <c r="L1" s="271" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="254"/>
-      <c r="P1" s="251" t="s">
+      <c r="M1" s="271"/>
+      <c r="P1" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="252"/>
+      <c r="Q1" s="269"/>
       <c r="R1" s="197"/>
-      <c r="S1" s="252" t="s">
+      <c r="S1" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="253"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="T1" s="270"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
@@ -11595,7 +12578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="126" t="s">
         <v>5</v>
       </c>
@@ -11657,7 +12640,7 @@
         <v>-3.4161468365471426</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -11726,7 +12709,7 @@
         <v>-3.3127354390562704</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
         <v>19</v>
       </c>
@@ -11795,7 +12778,7 @@
         <v>-3.3111255225490543</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129" t="s">
         <v>20</v>
       </c>
@@ -11864,7 +12847,7 @@
         <v>-3.3111251311823273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="32">
         <f>C6+1</f>
         <v>4</v>
@@ -11930,7 +12913,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -11998,7 +12981,7 @@
         <v>-3.3111251311823051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -12039,7 +13022,7 @@
         <v>0.30613656285969382</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -12074,7 +13057,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -12128,7 +13111,7 @@
       <c r="T11" s="144"/>
       <c r="U11" s="145"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -12185,7 +13168,7 @@
       <c r="T12" s="147"/>
       <c r="U12" s="149"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -12243,7 +13226,7 @@
       <c r="T13" s="147"/>
       <c r="U13" s="149"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -12301,7 +13284,7 @@
       <c r="T14" s="147"/>
       <c r="U14" s="149"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1">
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -12345,7 +13328,7 @@
       <c r="T15" s="147"/>
       <c r="U15" s="149"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -12389,7 +13372,7 @@
       <c r="T16" s="147"/>
       <c r="U16" s="149"/>
     </row>
-    <row r="17" spans="3:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="28">
         <f t="shared" ref="C17:C19" si="27">C16+1</f>
         <v>14</v>
@@ -12433,7 +13416,7 @@
       <c r="T17" s="147"/>
       <c r="U17" s="149"/>
     </row>
-    <row r="18" spans="3:21" ht="15.75" thickBot="1">
+    <row r="18" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="29">
         <f t="shared" si="27"/>
         <v>15</v>
@@ -12477,7 +13460,7 @@
       <c r="T18" s="147"/>
       <c r="U18" s="149"/>
     </row>
-    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="3:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="97">
         <f t="shared" si="27"/>
         <v>16</v>
@@ -12521,7 +13504,7 @@
       <c r="T19" s="147"/>
       <c r="U19" s="149"/>
     </row>
-    <row r="20" spans="3:21" ht="15.75" thickTop="1">
+    <row r="20" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L20" s="146"/>
       <c r="M20" s="147"/>
       <c r="N20" s="147"/>
@@ -12533,7 +13516,7 @@
       <c r="T20" s="147"/>
       <c r="U20" s="149"/>
     </row>
-    <row r="21" spans="3:21">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L21" s="146"/>
       <c r="M21" s="147"/>
       <c r="N21" s="147"/>
@@ -12545,7 +13528,7 @@
       <c r="T21" s="147"/>
       <c r="U21" s="149"/>
     </row>
-    <row r="22" spans="3:21">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L22" s="146"/>
       <c r="M22" s="147"/>
       <c r="N22" s="147"/>
@@ -12557,7 +13540,7 @@
       <c r="T22" s="147"/>
       <c r="U22" s="149"/>
     </row>
-    <row r="23" spans="3:21">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L23" s="146"/>
       <c r="M23" s="147"/>
       <c r="N23" s="147"/>
@@ -12569,7 +13552,7 @@
       <c r="T23" s="147"/>
       <c r="U23" s="149"/>
     </row>
-    <row r="24" spans="3:21">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L24" s="146"/>
       <c r="M24" s="147"/>
       <c r="N24" s="147"/>
@@ -12581,7 +13564,7 @@
       <c r="T24" s="147"/>
       <c r="U24" s="149"/>
     </row>
-    <row r="25" spans="3:21" ht="15.75" thickBot="1">
+    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L25" s="150"/>
       <c r="M25" s="151"/>
       <c r="N25" s="151"/>
@@ -12593,7 +13576,7 @@
       <c r="T25" s="151"/>
       <c r="U25" s="152"/>
     </row>
-    <row r="26" spans="3:21" ht="15.75" thickTop="1"/>
+    <row r="26" spans="3:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="P1:Q1"/>
@@ -12603,9 +13586,9 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -12615,8 +13598,8 @@
   <conditionalFormatting sqref="M3:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
@@ -12630,21 +13613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="9.28515625" style="71"/>
     <col min="14" max="14" width="9.28515625" style="3"/>
     <col min="15" max="16384" width="9.28515625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="124" t="s">
         <v>16</v>
       </c>
@@ -12664,7 +13647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
@@ -12686,7 +13669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="126" t="s">
         <v>5</v>
       </c>
@@ -12706,7 +13689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="127" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +13709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
         <v>19</v>
       </c>
@@ -12744,7 +13727,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129" t="s">
         <v>20</v>
       </c>
@@ -12766,7 +13749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1">
+    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -12783,7 +13766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -12800,7 +13783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -12817,7 +13800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -12830,7 +13813,7 @@
       <c r="P10" s="166"/>
       <c r="Q10" s="167"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -12849,7 +13832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -12866,7 +13849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -12883,7 +13866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -12900,7 +13883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -12913,7 +13896,7 @@
       <c r="P15" s="169"/>
       <c r="Q15" s="170"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -12926,7 +13909,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="3:27" ht="15.75" thickTop="1">
+    <row r="17" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -12939,26 +13922,26 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="O17" s="130"/>
-      <c r="P17" s="257" t="s">
+      <c r="P17" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="255"/>
-      <c r="R17" s="255"/>
-      <c r="S17" s="255" t="s">
+      <c r="Q17" s="272"/>
+      <c r="R17" s="272"/>
+      <c r="S17" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="255"/>
-      <c r="U17" s="255"/>
-      <c r="V17" s="255"/>
-      <c r="W17" s="255" t="s">
+      <c r="T17" s="272"/>
+      <c r="U17" s="272"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="255"/>
-      <c r="Y17" s="255"/>
-      <c r="Z17" s="256"/>
+      <c r="X17" s="272"/>
+      <c r="Y17" s="272"/>
+      <c r="Z17" s="273"/>
       <c r="AA17" s="193"/>
     </row>
-    <row r="18" spans="3:27">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -13008,7 +13991,7 @@
       </c>
       <c r="AA18" s="133"/>
     </row>
-    <row r="19" spans="3:27">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -13058,7 +14041,7 @@
       </c>
       <c r="AA19" s="133"/>
     </row>
-    <row r="20" spans="3:27" ht="15.75" thickBot="1">
+    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13108,7 +14091,7 @@
       </c>
       <c r="AA20" s="135"/>
     </row>
-    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -13133,7 +14116,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="3:27" ht="15.75" thickTop="1">
+    <row r="22" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13161,7 +14144,7 @@
       <c r="Z22" s="112"/>
       <c r="AA22" s="137"/>
     </row>
-    <row r="23" spans="3:27">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -13189,7 +14172,7 @@
       <c r="Z23" s="114"/>
       <c r="AA23" s="115"/>
     </row>
-    <row r="24" spans="3:27">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -13213,7 +14196,7 @@
       <c r="Z24" s="114"/>
       <c r="AA24" s="115"/>
     </row>
-    <row r="25" spans="3:27">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -13231,7 +14214,7 @@
       <c r="Z25" s="114"/>
       <c r="AA25" s="115"/>
     </row>
-    <row r="26" spans="3:27">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -13282,7 +14265,7 @@
       </c>
       <c r="AA26" s="115"/>
     </row>
-    <row r="27" spans="3:27">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -13333,7 +14316,7 @@
       </c>
       <c r="AA27" s="115"/>
     </row>
-    <row r="28" spans="3:27" ht="15.75" thickBot="1">
+    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -13384,12 +14367,12 @@
       </c>
       <c r="AA28" s="138"/>
     </row>
-    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="3:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:27" ht="15.75" thickTop="1">
+    <row r="30" spans="3:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O30" s="139" t="s">
         <v>60</v>
       </c>
@@ -13418,7 +14401,7 @@
       <c r="Z30" s="64"/>
       <c r="AA30" s="141"/>
     </row>
-    <row r="31" spans="3:27">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O31" s="67"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
@@ -13445,7 +14428,7 @@
       <c r="Z31" s="65"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="3:27">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="O32" s="67"/>
       <c r="P32" s="65"/>
       <c r="Q32" s="65"/>
@@ -13472,7 +14455,7 @@
       <c r="Z32" s="65"/>
       <c r="AA32" s="66"/>
     </row>
-    <row r="33" spans="15:27">
+    <row r="33" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O33" s="67"/>
       <c r="P33" s="65"/>
       <c r="Q33" s="65"/>
@@ -13487,7 +14470,7 @@
       <c r="Z33" s="65"/>
       <c r="AA33" s="66"/>
     </row>
-    <row r="34" spans="15:27">
+    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O34" s="67"/>
       <c r="P34" s="65">
         <f>SUM($V30*P$26,$W30*P$27,$X30*P$28)</f>
@@ -13535,7 +14518,7 @@
       </c>
       <c r="AA34" s="66"/>
     </row>
-    <row r="35" spans="15:27">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O35" s="67"/>
       <c r="P35" s="65">
         <f t="shared" ref="P35:Z35" si="4">SUM($V31*P$26,$W31*P$27,$X31*P$28)</f>
@@ -13583,7 +14566,7 @@
       </c>
       <c r="AA35" s="66"/>
     </row>
-    <row r="36" spans="15:27" ht="15.75" thickBot="1">
+    <row r="36" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O36" s="68"/>
       <c r="P36" s="69">
         <f t="shared" ref="P36:Z36" si="5">SUM($V32*P$26,$W32*P$27,$X32*P$28)</f>
@@ -13631,8 +14614,8 @@
       </c>
       <c r="AA36" s="143"/>
     </row>
-    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="38" spans="15:27" ht="15.75" thickTop="1">
+    <row r="37" spans="15:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O38" s="232"/>
       <c r="P38" s="233">
         <v>1</v>
@@ -13659,7 +14642,7 @@
       <c r="Z38" s="233"/>
       <c r="AA38" s="234"/>
     </row>
-    <row r="39" spans="15:27">
+    <row r="39" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O39" s="235"/>
       <c r="P39" s="236">
         <v>0</v>
@@ -13688,7 +14671,7 @@
       <c r="Z39" s="236"/>
       <c r="AA39" s="237"/>
     </row>
-    <row r="40" spans="15:27">
+    <row r="40" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O40" s="235"/>
       <c r="P40" s="236">
         <v>0</v>
@@ -13715,7 +14698,7 @@
       <c r="Z40" s="236"/>
       <c r="AA40" s="237"/>
     </row>
-    <row r="41" spans="15:27">
+    <row r="41" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O41" s="235"/>
       <c r="P41" s="236"/>
       <c r="Q41" s="236" t="s">
@@ -13734,7 +14717,7 @@
       <c r="Z41" s="236"/>
       <c r="AA41" s="237"/>
     </row>
-    <row r="42" spans="15:27">
+    <row r="42" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O42" s="235"/>
       <c r="P42" s="236"/>
       <c r="Q42" s="236"/>
@@ -13749,7 +14732,7 @@
       <c r="Z42" s="236"/>
       <c r="AA42" s="237"/>
     </row>
-    <row r="43" spans="15:27">
+    <row r="43" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O43" s="235"/>
       <c r="P43" s="236"/>
       <c r="Q43" s="236"/>
@@ -13773,7 +14756,7 @@
       <c r="Z43" s="236"/>
       <c r="AA43" s="237"/>
     </row>
-    <row r="44" spans="15:27">
+    <row r="44" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O44" s="235"/>
       <c r="P44" s="236"/>
       <c r="Q44" s="238" t="s">
@@ -13799,7 +14782,7 @@
       <c r="Z44" s="236"/>
       <c r="AA44" s="237"/>
     </row>
-    <row r="45" spans="15:27">
+    <row r="45" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O45" s="235"/>
       <c r="P45" s="236"/>
       <c r="Q45" s="236"/>
@@ -13823,7 +14806,7 @@
       <c r="Z45" s="236"/>
       <c r="AA45" s="237"/>
     </row>
-    <row r="46" spans="15:27">
+    <row r="46" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O46" s="235"/>
       <c r="P46" s="236"/>
       <c r="Q46" s="236"/>
@@ -13840,7 +14823,7 @@
       <c r="Z46" s="236"/>
       <c r="AA46" s="237"/>
     </row>
-    <row r="47" spans="15:27">
+    <row r="47" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O47" s="235"/>
       <c r="P47" s="236"/>
       <c r="Q47" s="236"/>
@@ -13855,7 +14838,7 @@
       <c r="Z47" s="236"/>
       <c r="AA47" s="237"/>
     </row>
-    <row r="48" spans="15:27">
+    <row r="48" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O48" s="235"/>
       <c r="P48" s="236">
         <f>SUM($S43*P$18,P$19*$T43,P$20*$U43)</f>
@@ -13903,7 +14886,7 @@
       </c>
       <c r="AA48" s="237"/>
     </row>
-    <row r="49" spans="15:27">
+    <row r="49" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O49" s="235"/>
       <c r="P49" s="236">
         <f t="shared" ref="P49:Z50" si="11">SUM($S44*P$18,P$19*$T44,P$20*$U44)</f>
@@ -13951,7 +14934,7 @@
       </c>
       <c r="AA49" s="237"/>
     </row>
-    <row r="50" spans="15:27">
+    <row r="50" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O50" s="235"/>
       <c r="P50" s="236">
         <f t="shared" si="11"/>
@@ -13999,7 +14982,7 @@
       </c>
       <c r="AA50" s="237"/>
     </row>
-    <row r="51" spans="15:27" ht="15.75" thickBot="1">
+    <row r="51" spans="15:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O51" s="239"/>
       <c r="P51" s="240"/>
       <c r="Q51" s="240"/>
@@ -14014,8 +14997,8 @@
       <c r="Z51" s="240"/>
       <c r="AA51" s="241"/>
     </row>
-    <row r="52" spans="15:27" ht="15.75" thickTop="1"/>
-    <row r="1048576" spans="16384:16384">
+    <row r="52" spans="15:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048576" s="71" t="s">
         <v>84</v>
       </c>
@@ -14034,23 +15017,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="70"/>
     <col min="2" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="122" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="191" t="s">
         <v>4</v>
       </c>
@@ -14103,7 +15086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>5</v>
       </c>
@@ -14165,7 +15148,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="123" t="s">
         <v>6</v>
       </c>
@@ -14214,7 +15197,7 @@
       <c r="S4" s="121"/>
       <c r="T4" s="121"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="192" t="s">
         <v>19</v>
       </c>
@@ -14263,7 +15246,7 @@
       <c r="S5" s="121"/>
       <c r="T5" s="121"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1">
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="109">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -14309,7 +15292,7 @@
       <c r="S6" s="121"/>
       <c r="T6" s="121"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="109">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -14355,7 +15338,7 @@
       <c r="S7" s="121"/>
       <c r="T7" s="121"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="109">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -14401,7 +15384,7 @@
       <c r="S8" s="121"/>
       <c r="T8" s="121"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="109">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -14447,7 +15430,7 @@
       <c r="S9" s="121"/>
       <c r="T9" s="121"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="109">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -14493,7 +15476,7 @@
       <c r="S10" s="121"/>
       <c r="T10" s="121"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="110">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -14539,7 +15522,7 @@
       <c r="S11" s="121"/>
       <c r="T11" s="121"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickTop="1">
+    <row r="12" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
@@ -14573,7 +15556,7 @@
       <c r="S12" s="121"/>
       <c r="T12" s="121"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="110" t="s">
         <v>46</v>
       </c>
@@ -14607,7 +15590,7 @@
       <c r="S13" s="121"/>
       <c r="T13" s="121"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="62">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -14634,7 +15617,7 @@
       <c r="S14" s="121"/>
       <c r="T14" s="121"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickTop="1">
+    <row r="15" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C15" s="111"/>
       <c r="D15" s="112"/>
       <c r="E15" s="247"/>
@@ -14666,7 +15649,7 @@
       <c r="S15" s="121"/>
       <c r="T15" s="121"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="113"/>
       <c r="D16" s="114"/>
       <c r="E16" s="114" t="s">
@@ -14700,7 +15683,7 @@
       <c r="S16" s="121"/>
       <c r="T16" s="121"/>
     </row>
-    <row r="17" spans="3:20">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="116"/>
       <c r="D17" s="114"/>
       <c r="E17" s="248"/>
@@ -14732,7 +15715,7 @@
       <c r="S17" s="121"/>
       <c r="T17" s="121"/>
     </row>
-    <row r="18" spans="3:20">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="117"/>
       <c r="D18" s="114"/>
       <c r="E18" s="114"/>
@@ -14764,7 +15747,7 @@
       <c r="S18" s="121"/>
       <c r="T18" s="121"/>
     </row>
-    <row r="19" spans="3:20" ht="15.75" thickBot="1">
+    <row r="19" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="117" t="s">
         <v>22</v>
       </c>
@@ -14802,7 +15785,7 @@
       <c r="S19" s="121"/>
       <c r="T19" s="121"/>
     </row>
-    <row r="20" spans="3:20" ht="15.75" thickTop="1">
+    <row r="20" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C20" s="117">
         <v>1.6</v>
       </c>
@@ -14829,7 +15812,7 @@
       <c r="S20" s="121"/>
       <c r="T20" s="121"/>
     </row>
-    <row r="21" spans="3:20" ht="15.75" thickBot="1">
+    <row r="21" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="117">
         <v>0</v>
       </c>
@@ -14856,7 +15839,7 @@
       <c r="S21" s="121"/>
       <c r="T21" s="121"/>
     </row>
-    <row r="22" spans="3:20" ht="15.75" thickTop="1">
+    <row r="22" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C22" s="117"/>
       <c r="D22" s="114"/>
       <c r="E22" s="114"/>
@@ -14869,7 +15852,7 @@
       <c r="S22" s="121"/>
       <c r="T22" s="121"/>
     </row>
-    <row r="23" spans="3:20" ht="15.75" thickBot="1">
+    <row r="23" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="119">
         <f>E20</f>
         <v>11.544464848790231</v>
@@ -14895,7 +15878,7 @@
       <c r="S23" s="121"/>
       <c r="T23" s="121"/>
     </row>
-    <row r="24" spans="3:20" ht="15.75" thickTop="1">
+    <row r="24" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O24" s="121"/>
       <c r="P24" s="121"/>
       <c r="Q24" s="121"/>
@@ -14911,19 +15894,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.8</v>
       </c>
@@ -14934,7 +15917,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-0.22309999999999999</v>
       </c>
@@ -14945,16 +15928,16 @@
         <v>0.33650000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
+      <c r="C5" s="276"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Assignment (1).xlsx
+++ b/Assignment (1).xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>Oliver Sheard</t>
   </si>
@@ -489,7 +489,13 @@
     <t>Actual / Upper</t>
   </si>
   <si>
-    <t>Samesies</t>
+    <t>≤</t>
+  </si>
+  <si>
+    <t>0.5cos(0.4)</t>
+  </si>
+  <si>
+    <t>Equal Matrices</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2380,12 +2386,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2407,29 +2437,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8327,8 +8354,8 @@
       <xdr:rowOff>21019</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1548629" cy="322461"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -8512,7 +8539,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -8638,7 +8665,10 @@
         <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>It's about as wrong as you can get</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8646,16 +8676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298171</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:colOff>74541</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8664,8 +8694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3122543" y="4396410"/>
-          <a:ext cx="3089414" cy="1731066"/>
+          <a:off x="4646541" y="3394217"/>
+          <a:ext cx="1639957" cy="1152937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8695,11 +8725,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>For the function as calculated, the functiuon</a:t>
+            <a:t>Within the range provided, the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> is at a maxima in the range of 0 - 0.2 at 0.</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>functiuon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> is at a maxima at 0 as between the points 0 and 0.2 the gradient is -ve</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8884,8 +8922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10829631" y="7959943"/>
-          <a:ext cx="2726068" cy="940941"/>
+          <a:off x="10713970" y="7946336"/>
+          <a:ext cx="2698854" cy="940941"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9019,8 +9057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8996571" y="7041519"/>
-          <a:ext cx="2726068" cy="943307"/>
+          <a:off x="8901321" y="7026551"/>
+          <a:ext cx="2698854" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9154,8 +9192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12730607" y="7048093"/>
-          <a:ext cx="2726069" cy="943307"/>
+          <a:off x="12594536" y="7033125"/>
+          <a:ext cx="2698854" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9289,8 +9327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10197079" y="5475037"/>
-          <a:ext cx="2726068" cy="943308"/>
+          <a:off x="10088222" y="5462791"/>
+          <a:ext cx="2698854" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9424,8 +9462,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12728954" y="5478349"/>
-          <a:ext cx="2726069" cy="943308"/>
+          <a:off x="12592883" y="5466103"/>
+          <a:ext cx="2698854" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9559,8 +9597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10236833" y="3908559"/>
-          <a:ext cx="2726068" cy="943307"/>
+          <a:off x="10127976" y="3899034"/>
+          <a:ext cx="2698854" cy="944668"/>
           <a:chOff x="10583518" y="7921488"/>
           <a:chExt cx="2674006" cy="940941"/>
         </a:xfrm>
@@ -9694,8 +9732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9120806" y="3067637"/>
-          <a:ext cx="7460168" cy="948632"/>
+          <a:off x="9025556" y="3060833"/>
+          <a:ext cx="7378525" cy="945911"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9829,8 +9867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9124119" y="6194676"/>
-          <a:ext cx="7460168" cy="946266"/>
+          <a:off x="9028869" y="6183790"/>
+          <a:ext cx="7378525" cy="942184"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -9964,8 +10002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9119148" y="4624894"/>
-          <a:ext cx="7460168" cy="946265"/>
+          <a:off x="9023898" y="4616730"/>
+          <a:ext cx="7378525" cy="942183"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -10099,8 +10137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9114882" y="8927897"/>
-          <a:ext cx="7460168" cy="921114"/>
+          <a:off x="9019632" y="8914290"/>
+          <a:ext cx="7378525" cy="921114"/>
           <a:chOff x="10376448" y="7921488"/>
           <a:chExt cx="7303981" cy="940941"/>
         </a:xfrm>
@@ -11092,8 +11130,8 @@
       <xdr:rowOff>48038</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1408399" cy="495072"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -11129,6 +11167,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11241,7 +11280,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11254,7 +11293,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11266,7 +11305,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11278,7 +11317,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11292,7 +11331,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11305,7 +11344,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11319,7 +11358,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11333,7 +11372,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11347,7 +11386,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11361,7 +11400,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11374,7 +11413,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11388,7 +11427,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11402,7 +11441,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11416,7 +11455,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11429,7 +11468,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11443,7 +11482,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11457,7 +11496,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11487,7 +11526,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -11582,8 +11621,8 @@
       <xdr:rowOff>16563</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1754326" cy="352469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -11619,6 +11658,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11656,7 +11696,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -11668,7 +11708,7 @@